--- a/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07650E04-6BDE-4AAD-AADE-463D13C1A7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -32,8 +46,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>项目</t>
@@ -43,7 +57,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -51,8 +65,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>时间</t>
@@ -258,7 +272,7 @@
     <t>CK67_L1R_CC_P5201BVFr_1m_avg</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_TI35203r_1m_avg</t>
+    <t>CK67_L1R_CC_TI35204r_1m_avg</t>
   </si>
   <si>
     <t>CK67_L1R_CC_TI35206r_1m_avg</t>
@@ -274,6 +288,90 @@
   </si>
   <si>
     <t>CK67_L1R_CC_LIA35206br_1m_avg</t>
+  </si>
+  <si>
+    <t>上限</t>
+  </si>
+  <si>
+    <t>下限</t>
+  </si>
+  <si>
+    <t>管控范围</t>
+  </si>
+  <si>
+    <t>350～650</t>
+  </si>
+  <si>
+    <t>340～480</t>
+  </si>
+  <si>
+    <t>350～460</t>
+  </si>
+  <si>
+    <t>≤92</t>
+  </si>
+  <si>
+    <t>160～190</t>
+  </si>
+  <si>
+    <t>0.4～0.5</t>
+  </si>
+  <si>
+    <t>1.0～1.9</t>
+  </si>
+  <si>
+    <t>360～400</t>
+  </si>
+  <si>
+    <t>≤2.6</t>
+  </si>
+  <si>
+    <t>≤50</t>
+  </si>
+  <si>
+    <t>≤190</t>
+  </si>
+  <si>
+    <t>≤200</t>
+  </si>
+  <si>
+    <t>≤1500</t>
+  </si>
+  <si>
+    <t>≤40</t>
+  </si>
+  <si>
+    <t>≤110</t>
+  </si>
+  <si>
+    <t>≤3500</t>
+  </si>
+  <si>
+    <t>≤4.0</t>
+  </si>
+  <si>
+    <t>≤30</t>
+  </si>
+  <si>
+    <t>≤100</t>
+  </si>
+  <si>
+    <t>≤48</t>
+  </si>
+  <si>
+    <t>115～160</t>
+  </si>
+  <si>
+    <t>20～28</t>
+  </si>
+  <si>
+    <t>≤1200</t>
+  </si>
+  <si>
+    <t>≤2200</t>
+  </si>
+  <si>
+    <t>450～2100</t>
   </si>
   <si>
     <t>粗苯</t>
@@ -313,8 +411,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -323,9 +421,9 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t>夜班记事：</t>
@@ -334,8 +432,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
@@ -346,8 +444,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  白</t>
@@ -356,9 +454,9 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
@@ -367,8 +465,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
@@ -379,8 +477,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  中</t>
@@ -389,9 +487,9 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
@@ -400,8 +498,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
@@ -412,8 +510,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">              </t>
@@ -422,9 +520,9 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t>交班：</t>
@@ -433,8 +531,8 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">           </t>
@@ -443,9 +541,9 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="major"/>
       </rPr>
       <t>接班：</t>
@@ -476,37 +574,61 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,221 +636,69 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
+      <color indexed="64"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,197 +708,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -937,444 +721,296 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1383,7 +1019,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1391,17 +1027,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
@@ -1411,539 +1047,702 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvPr id="4" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7058660" y="770255"/>
+          <a:off x="6334124" y="895349"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1956,151 +1755,6 @@
           </a:solidFill>
           <a:round/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058660" y="1430655"/>
-          <a:ext cx="0" cy="463550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058660" y="770255"/>
-          <a:ext cx="0" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058660" y="770255"/>
-          <a:ext cx="0" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -2152,73 +1806,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2226,7 +1820,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2252,7 +1846,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2304,16 +1898,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2329,7 +1935,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2360,4267 +1966,4568 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:AK37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6333333333333" customWidth="1"/>
-    <col min="12" max="13" width="8.63333333333333"/>
-    <col min="33" max="33" width="8.63333333333333"/>
-    <col min="34" max="34" width="25.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5"/>
+    <col min="12" max="13" width="8.6640625"/>
+    <col min="15" max="15" width="9.33203125"/>
+    <col min="20" max="20" width="9.33203125"/>
+    <col min="29" max="32" width="9.33203125"/>
+    <col min="33" max="33" width="8.6640625"/>
+    <col min="34" max="34" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:33">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="2:33">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="str">
+      <c r="E2" s="1"/>
+      <c r="F2" s="34" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="42"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" ht="14.15" customHeight="1" spans="2:37">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="43" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="45"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
     </row>
-    <row r="4" ht="38.5" customHeight="1" spans="2:37">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="2:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="11" t="s">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="2:37">
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:37" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11" t="s">
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="11" t="s">
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="30" t="s">
+      <c r="AF5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="48"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="45"/>
     </row>
-    <row r="6" ht="45.5" customHeight="1" spans="2:37">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+    <row r="6" spans="2:37" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="39"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="49" t="s">
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="51" t="s">
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="52" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="53" t="s">
+      <c r="AK6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="24" hidden="1" customHeight="1" spans="2:37">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:37" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="15" t="s">
+      <c r="AB7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AC7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="33" t="s">
+      <c r="AF7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="55"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="10"/>
     </row>
-    <row r="8" ht="22" customHeight="1" spans="2:37">
-      <c r="B8" s="16">
+    <row r="8" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="13">
+        <v>650</v>
+      </c>
+      <c r="D8" s="13">
+        <v>480</v>
+      </c>
+      <c r="E8" s="13">
+        <v>460</v>
+      </c>
+      <c r="F8" s="13">
+        <v>92</v>
+      </c>
+      <c r="G8" s="13">
+        <v>190</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="J8" s="13">
+        <v>400</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="L8" s="13">
+        <v>50</v>
+      </c>
+      <c r="M8" s="13">
+        <v>190</v>
+      </c>
+      <c r="N8" s="13">
+        <v>200</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="P8" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>110</v>
+      </c>
+      <c r="R8" s="13">
+        <v>50</v>
+      </c>
+      <c r="S8" s="13">
+        <v>190</v>
+      </c>
+      <c r="T8" s="13">
+        <v>3500</v>
+      </c>
+      <c r="U8" s="13">
+        <v>4</v>
+      </c>
+      <c r="V8" s="13">
+        <v>30</v>
+      </c>
+      <c r="W8" s="13">
+        <v>100</v>
+      </c>
+      <c r="X8" s="13">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>160</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>2200</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>2100</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>2100</v>
+      </c>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="16"/>
+    </row>
+    <row r="9" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13">
+        <v>350</v>
+      </c>
+      <c r="D9" s="13">
+        <v>340</v>
+      </c>
+      <c r="E9" s="13">
+        <v>350</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>160</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>360</v>
+      </c>
+      <c r="K9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="L9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="M9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="N9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="O9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="P9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="R9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="S9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="T9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="U9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="V9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="W9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="X9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>115</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>-99999</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>450</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>450</v>
+      </c>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="16"/>
+    </row>
+    <row r="10" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="10"/>
+    </row>
+    <row r="11" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D11" s="21" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E11" s="21" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F11" s="21" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G11" s="21" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="17" t="str">
+      <c r="H11" s="22" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I11" s="23" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J11" s="21" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K11" s="22" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L11" s="21" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M11" s="21" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N11" s="21" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O11" s="21" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P11" s="21" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q11" s="23" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R11" s="21" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S11" s="21" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T11" s="21" t="str">
         <f>IF(_cuben_day_hour!R2="","",_cuben_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U11" s="23" t="str">
         <f>IF(_cuben_day_hour!S2="","",_cuben_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V11" s="23" t="str">
         <f>IF(_cuben_day_hour!T2="","",_cuben_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W11" s="21" t="str">
         <f>IF(_cuben_day_hour!U2="","",_cuben_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X11" s="21" t="str">
         <f>IF(_cuben_day_hour!V2="","",_cuben_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y11" s="22" t="str">
         <f>IF(_cuben_day_hour!W2="","",_cuben_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z11" s="22" t="str">
         <f>IF(_cuben_day_hour!X2="","",_cuben_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA11" s="21" t="str">
         <f>IF(_cuben_day_hour!Y2="","",_cuben_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB11" s="21" t="str">
         <f>IF(_cuben_day_hour!Z2="","",_cuben_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC11" s="21" t="str">
         <f>IF(_cuben_day_hour!AA2="","",_cuben_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD11" s="21" t="str">
         <f>IF(_cuben_day_hour!AB2="","",_cuben_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE11" s="21" t="str">
         <f>IF(_cuben_day_hour!AC2="","",_cuben_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF11" s="21" t="str">
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH8" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI8" s="58" t="str">
+      <c r="AG11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI11" s="25" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="58" t="str">
+      <c r="AJ11" s="25" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="AK8" s="59" t="str">
+      <c r="AK11" s="26" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1" spans="2:37">
-      <c r="B9" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C9" s="17" t="str">
+    <row r="12" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C12" s="21" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D12" s="21" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E12" s="21" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F12" s="21" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G12" s="21" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H12" s="22" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I12" s="23" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J12" s="21" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K12" s="22" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L12" s="21" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M12" s="21" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N12" s="21" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O12" s="21" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P12" s="21" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q12" s="23" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R12" s="21" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="S12" s="21" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="T12" s="21" t="str">
         <f>IF(_cuben_day_hour!R3="","",_cuben_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U12" s="23" t="str">
         <f>IF(_cuben_day_hour!S3="","",_cuben_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V12" s="23" t="str">
         <f>IF(_cuben_day_hour!T3="","",_cuben_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W12" s="21" t="str">
         <f>IF(_cuben_day_hour!U3="","",_cuben_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X12" s="21" t="str">
         <f>IF(_cuben_day_hour!V3="","",_cuben_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="17" t="str">
+      <c r="Y12" s="22" t="str">
         <f>IF(_cuben_day_hour!W3="","",_cuben_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z12" s="22" t="str">
         <f>IF(_cuben_day_hour!X3="","",_cuben_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="17" t="str">
+      <c r="AA12" s="21" t="str">
         <f>IF(_cuben_day_hour!Y3="","",_cuben_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="17" t="str">
+      <c r="AB12" s="21" t="str">
         <f>IF(_cuben_day_hour!Z3="","",_cuben_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="17" t="str">
+      <c r="AC12" s="21" t="str">
         <f>IF(_cuben_day_hour!AA3="","",_cuben_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD12" s="21" t="str">
         <f>IF(_cuben_day_hour!AB3="","",_cuben_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE12" s="21" t="str">
         <f>IF(_cuben_day_hour!AC3="","",_cuben_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF12" s="21" t="str">
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI9" s="58" t="str">
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI12" s="25" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="AJ9" s="58" t="str">
+      <c r="AJ12" s="25" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="AK9" s="59" t="str">
+      <c r="AK12" s="26" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1" spans="2:37">
-      <c r="B10" s="16">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C10" s="17" t="str">
+    <row r="13" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C13" s="21" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D13" s="21" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E13" s="21" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F13" s="21" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G13" s="21" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="17" t="str">
+      <c r="H13" s="22" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I13" s="23" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J13" s="21" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K13" s="22" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L13" s="21" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M13" s="21" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N13" s="21" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O13" s="21" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P13" s="21" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q13" s="23" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R13" s="21" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S13" s="21" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="T13" s="21" t="str">
         <f>IF(_cuben_day_hour!R4="","",_cuben_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U13" s="23" t="str">
         <f>IF(_cuben_day_hour!S4="","",_cuben_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V13" s="23" t="str">
         <f>IF(_cuben_day_hour!T4="","",_cuben_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W13" s="21" t="str">
         <f>IF(_cuben_day_hour!U4="","",_cuben_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X13" s="21" t="str">
         <f>IF(_cuben_day_hour!V4="","",_cuben_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="17" t="str">
+      <c r="Y13" s="22" t="str">
         <f>IF(_cuben_day_hour!W4="","",_cuben_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z13" s="22" t="str">
         <f>IF(_cuben_day_hour!X4="","",_cuben_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="17" t="str">
+      <c r="AA13" s="21" t="str">
         <f>IF(_cuben_day_hour!Y4="","",_cuben_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="17" t="str">
+      <c r="AB13" s="21" t="str">
         <f>IF(_cuben_day_hour!Z4="","",_cuben_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="17" t="str">
+      <c r="AC13" s="21" t="str">
         <f>IF(_cuben_day_hour!AA4="","",_cuben_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD13" s="21" t="str">
         <f>IF(_cuben_day_hour!AB4="","",_cuben_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE13" s="21" t="str">
         <f>IF(_cuben_day_hour!AC4="","",_cuben_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF13" s="21" t="str">
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI10" s="58" t="str">
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI13" s="25" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AJ10" s="58" t="str">
+      <c r="AJ13" s="25" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AK10" s="59" t="str">
+      <c r="AK13" s="26" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1" spans="2:37">
-      <c r="B11" s="16">
+    <row r="14" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20">
         <v>0.125</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D14" s="21" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E14" s="21" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F14" s="21" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G14" s="21" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="17" t="str">
+      <c r="H14" s="22" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I14" s="23" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K14" s="22" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L14" s="21" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M14" s="21" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N14" s="21" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O14" s="21" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P14" s="21" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q14" s="23" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R14" s="21" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S14" s="21" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="T14" s="21" t="str">
         <f>IF(_cuben_day_hour!R5="","",_cuben_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U14" s="23" t="str">
         <f>IF(_cuben_day_hour!S5="","",_cuben_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V14" s="23" t="str">
         <f>IF(_cuben_day_hour!T5="","",_cuben_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF(_cuben_day_hour!U5="","",_cuben_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X14" s="21" t="str">
         <f>IF(_cuben_day_hour!V5="","",_cuben_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="17" t="str">
+      <c r="Y14" s="22" t="str">
         <f>IF(_cuben_day_hour!W5="","",_cuben_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z14" s="22" t="str">
         <f>IF(_cuben_day_hour!X5="","",_cuben_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="17" t="str">
+      <c r="AA14" s="21" t="str">
         <f>IF(_cuben_day_hour!Y5="","",_cuben_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="17" t="str">
+      <c r="AB14" s="21" t="str">
         <f>IF(_cuben_day_hour!Z5="","",_cuben_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="17" t="str">
+      <c r="AC14" s="21" t="str">
         <f>IF(_cuben_day_hour!AA5="","",_cuben_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD14" s="21" t="str">
         <f>IF(_cuben_day_hour!AB5="","",_cuben_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE14" s="21" t="str">
         <f>IF(_cuben_day_hour!AC5="","",_cuben_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF14" s="21" t="str">
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI11" s="58" t="str">
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI14" s="25" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="58" t="str">
+      <c r="AJ14" s="25" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="AK11" s="59" t="str">
+      <c r="AK14" s="26" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1" spans="2:37">
-      <c r="B12" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C12" s="17" t="str">
+    <row r="15" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C15" s="21" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="17" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="17" t="str">
+      <c r="H15" s="22" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I15" s="23" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J15" s="21" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K15" s="22" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L15" s="21" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M15" s="21" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N15" s="21" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O15" s="21" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P15" s="21" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q15" s="23" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R15" s="21" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="S15" s="21" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="T15" s="21" t="str">
         <f>IF(_cuben_day_hour!R6="","",_cuben_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U15" s="23" t="str">
         <f>IF(_cuben_day_hour!S6="","",_cuben_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V15" s="23" t="str">
         <f>IF(_cuben_day_hour!T6="","",_cuben_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W15" s="21" t="str">
         <f>IF(_cuben_day_hour!U6="","",_cuben_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X15" s="21" t="str">
         <f>IF(_cuben_day_hour!V6="","",_cuben_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="17" t="str">
+      <c r="Y15" s="22" t="str">
         <f>IF(_cuben_day_hour!W6="","",_cuben_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z15" s="22" t="str">
         <f>IF(_cuben_day_hour!X6="","",_cuben_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="17" t="str">
+      <c r="AA15" s="21" t="str">
         <f>IF(_cuben_day_hour!Y6="","",_cuben_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="17" t="str">
+      <c r="AB15" s="21" t="str">
         <f>IF(_cuben_day_hour!Z6="","",_cuben_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="17" t="str">
+      <c r="AC15" s="21" t="str">
         <f>IF(_cuben_day_hour!AA6="","",_cuben_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD15" s="21" t="str">
         <f>IF(_cuben_day_hour!AB6="","",_cuben_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE15" s="21" t="str">
         <f>IF(_cuben_day_hour!AC6="","",_cuben_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF15" s="21" t="str">
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI12" s="58" t="str">
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI15" s="25" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="AJ12" s="58" t="str">
+      <c r="AJ15" s="25" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="AK12" s="59" t="str">
+      <c r="AK15" s="26" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="22" customHeight="1" spans="2:37">
-      <c r="B13" s="16">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C13" s="17" t="str">
+    <row r="16" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C16" s="21" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D16" s="21" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E16" s="21" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F16" s="21" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="17" t="str">
+      <c r="G16" s="21" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="17" t="str">
+      <c r="H16" s="22" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I16" s="23" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J16" s="21" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K16" s="22" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L16" s="21" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M16" s="21" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N16" s="21" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O16" s="21" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P16" s="21" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q16" s="23" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R16" s="21" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S16" s="21" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T16" s="21" t="str">
         <f>IF(_cuben_day_hour!R7="","",_cuben_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U16" s="23" t="str">
         <f>IF(_cuben_day_hour!S7="","",_cuben_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V16" s="23" t="str">
         <f>IF(_cuben_day_hour!T7="","",_cuben_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W16" s="21" t="str">
         <f>IF(_cuben_day_hour!U7="","",_cuben_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X16" s="21" t="str">
         <f>IF(_cuben_day_hour!V7="","",_cuben_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="17" t="str">
+      <c r="Y16" s="22" t="str">
         <f>IF(_cuben_day_hour!W7="","",_cuben_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z16" s="22" t="str">
         <f>IF(_cuben_day_hour!X7="","",_cuben_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="17" t="str">
+      <c r="AA16" s="21" t="str">
         <f>IF(_cuben_day_hour!Y7="","",_cuben_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="17" t="str">
+      <c r="AB16" s="21" t="str">
         <f>IF(_cuben_day_hour!Z7="","",_cuben_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="17" t="str">
+      <c r="AC16" s="21" t="str">
         <f>IF(_cuben_day_hour!AA7="","",_cuben_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD16" s="21" t="str">
         <f>IF(_cuben_day_hour!AB7="","",_cuben_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE16" s="21" t="str">
         <f>IF(_cuben_day_hour!AC7="","",_cuben_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF16" s="21" t="str">
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI13" s="58" t="str">
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" s="25" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AJ13" s="58" t="str">
+      <c r="AJ16" s="25" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AK13" s="59" t="str">
+      <c r="AK16" s="26" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="22" customHeight="1" spans="2:37">
-      <c r="B14" s="16">
+    <row r="17" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
         <v>0.25</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C17" s="21" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D17" s="21" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E17" s="21" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F17" s="21" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="G17" s="21" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="H17" s="22" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I17" s="23" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J17" s="21" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K17" s="22" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L17" s="21" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M17" s="21" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N17" s="21" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O17" s="21" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P17" s="21" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q17" s="23" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R17" s="21" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S17" s="21" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T17" s="21" t="str">
         <f>IF(_cuben_day_hour!R8="","",_cuben_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U17" s="23" t="str">
         <f>IF(_cuben_day_hour!S8="","",_cuben_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V17" s="23" t="str">
         <f>IF(_cuben_day_hour!T8="","",_cuben_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W17" s="21" t="str">
         <f>IF(_cuben_day_hour!U8="","",_cuben_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X17" s="21" t="str">
         <f>IF(_cuben_day_hour!V8="","",_cuben_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y17" s="22" t="str">
         <f>IF(_cuben_day_hour!W8="","",_cuben_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z17" s="22" t="str">
         <f>IF(_cuben_day_hour!X8="","",_cuben_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA17" s="21" t="str">
         <f>IF(_cuben_day_hour!Y8="","",_cuben_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB17" s="21" t="str">
         <f>IF(_cuben_day_hour!Z8="","",_cuben_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC17" s="21" t="str">
         <f>IF(_cuben_day_hour!AA8="","",_cuben_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD17" s="21" t="str">
         <f>IF(_cuben_day_hour!AB8="","",_cuben_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE17" s="21" t="str">
         <f>IF(_cuben_day_hour!AC8="","",_cuben_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF17" s="21" t="str">
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="63"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="57"/>
     </row>
-    <row r="15" ht="22" customHeight="1" spans="2:37">
-      <c r="B15" s="16">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C15" s="17" t="str">
+    <row r="18" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C18" s="21" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D18" s="21" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E18" s="21" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F18" s="21" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="17" t="str">
+      <c r="G18" s="21" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="17" t="str">
+      <c r="H18" s="22" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
+      <c r="I18" s="23" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="J18" s="21" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K18" s="22" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L18" s="21" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M18" s="21" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N18" s="21" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O18" s="21" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P18" s="21" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q18" s="23" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R18" s="21" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="S18" s="21" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="T18" s="21" t="str">
         <f>IF(_cuben_day_hour!R9="","",_cuben_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U18" s="23" t="str">
         <f>IF(_cuben_day_hour!S9="","",_cuben_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V18" s="23" t="str">
         <f>IF(_cuben_day_hour!T9="","",_cuben_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W18" s="21" t="str">
         <f>IF(_cuben_day_hour!U9="","",_cuben_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X18" s="21" t="str">
         <f>IF(_cuben_day_hour!V9="","",_cuben_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="17" t="str">
+      <c r="Y18" s="22" t="str">
         <f>IF(_cuben_day_hour!W9="","",_cuben_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z18" s="22" t="str">
         <f>IF(_cuben_day_hour!X9="","",_cuben_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="17" t="str">
+      <c r="AA18" s="21" t="str">
         <f>IF(_cuben_day_hour!Y9="","",_cuben_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="17" t="str">
+      <c r="AB18" s="21" t="str">
         <f>IF(_cuben_day_hour!Z9="","",_cuben_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="17" t="str">
+      <c r="AC18" s="21" t="str">
         <f>IF(_cuben_day_hour!AA9="","",_cuben_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD18" s="21" t="str">
         <f>IF(_cuben_day_hour!AB9="","",_cuben_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE18" s="21" t="str">
         <f>IF(_cuben_day_hour!AC9="","",_cuben_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF18" s="21" t="str">
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="66"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="60"/>
     </row>
-    <row r="16" ht="22" customHeight="1" spans="2:37">
-      <c r="B16" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C16" s="17" t="str">
+    <row r="19" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C19" s="21" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D19" s="21" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E19" s="21" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F19" s="21" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="17" t="str">
+      <c r="G19" s="21" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="17" t="str">
+      <c r="H19" s="22" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
+      <c r="I19" s="23" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="17" t="str">
+      <c r="J19" s="21" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K19" s="22" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L19" s="21" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M19" s="21" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N19" s="21" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O19" s="21" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P19" s="21" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q19" s="23" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="17" t="str">
+      <c r="R19" s="21" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="S19" s="21" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="T19" s="21" t="str">
         <f>IF(_cuben_day_hour!R10="","",_cuben_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U19" s="23" t="str">
         <f>IF(_cuben_day_hour!S10="","",_cuben_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V19" s="23" t="str">
         <f>IF(_cuben_day_hour!T10="","",_cuben_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W19" s="21" t="str">
         <f>IF(_cuben_day_hour!U10="","",_cuben_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X19" s="21" t="str">
         <f>IF(_cuben_day_hour!V10="","",_cuben_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="17" t="str">
+      <c r="Y19" s="22" t="str">
         <f>IF(_cuben_day_hour!W10="","",_cuben_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z19" s="22" t="str">
         <f>IF(_cuben_day_hour!X10="","",_cuben_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="17" t="str">
+      <c r="AA19" s="21" t="str">
         <f>IF(_cuben_day_hour!Y10="","",_cuben_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="17" t="str">
+      <c r="AB19" s="21" t="str">
         <f>IF(_cuben_day_hour!Z10="","",_cuben_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="17" t="str">
+      <c r="AC19" s="21" t="str">
         <f>IF(_cuben_day_hour!AA10="","",_cuben_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD19" s="21" t="str">
         <f>IF(_cuben_day_hour!AB10="","",_cuben_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE19" s="21" t="str">
         <f>IF(_cuben_day_hour!AC10="","",_cuben_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF19" s="21" t="str">
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="66"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="60"/>
     </row>
-    <row r="17" ht="22" customHeight="1" spans="2:37">
-      <c r="B17" s="16">
+    <row r="20" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
         <v>0.375</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C20" s="21" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D20" s="21" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E20" s="21" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F20" s="21" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="17" t="str">
+      <c r="G20" s="21" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="17" t="str">
+      <c r="H20" s="22" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I20" s="23" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J20" s="21" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K20" s="22" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L20" s="21" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M20" s="21" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N20" s="21" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O20" s="21" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P20" s="21" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q20" s="23" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R20" s="21" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="str">
+      <c r="S20" s="21" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="17" t="str">
+      <c r="T20" s="21" t="str">
         <f>IF(_cuben_day_hour!R11="","",_cuben_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="17" t="str">
+      <c r="U20" s="23" t="str">
         <f>IF(_cuben_day_hour!S11="","",_cuben_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V20" s="23" t="str">
         <f>IF(_cuben_day_hour!T11="","",_cuben_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W20" s="21" t="str">
         <f>IF(_cuben_day_hour!U11="","",_cuben_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X20" s="21" t="str">
         <f>IF(_cuben_day_hour!V11="","",_cuben_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="17" t="str">
+      <c r="Y20" s="22" t="str">
         <f>IF(_cuben_day_hour!W11="","",_cuben_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z20" s="22" t="str">
         <f>IF(_cuben_day_hour!X11="","",_cuben_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AA20" s="21" t="str">
         <f>IF(_cuben_day_hour!Y11="","",_cuben_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="17" t="str">
+      <c r="AB20" s="21" t="str">
         <f>IF(_cuben_day_hour!Z11="","",_cuben_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="17" t="str">
+      <c r="AC20" s="21" t="str">
         <f>IF(_cuben_day_hour!AA11="","",_cuben_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD20" s="21" t="str">
         <f>IF(_cuben_day_hour!AB11="","",_cuben_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE20" s="21" t="str">
         <f>IF(_cuben_day_hour!AC11="","",_cuben_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF20" s="21" t="str">
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="66"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="60"/>
     </row>
-    <row r="18" ht="22" customHeight="1" spans="2:37">
-      <c r="B18" s="16">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C18" s="17" t="str">
+    <row r="21" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C21" s="21" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D21" s="21" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E21" s="21" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F21" s="21" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="17" t="str">
+      <c r="G21" s="21" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="17" t="str">
+      <c r="H21" s="22" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I21" s="23" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J21" s="21" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K21" s="22" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L21" s="21" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M21" s="21" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N21" s="21" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O21" s="21" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P21" s="21" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q21" s="23" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R21" s="21" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S21" s="21" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T21" s="21" t="str">
         <f>IF(_cuben_day_hour!R12="","",_cuben_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U21" s="23" t="str">
         <f>IF(_cuben_day_hour!S12="","",_cuben_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V21" s="23" t="str">
         <f>IF(_cuben_day_hour!T12="","",_cuben_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W21" s="21" t="str">
         <f>IF(_cuben_day_hour!U12="","",_cuben_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X21" s="21" t="str">
         <f>IF(_cuben_day_hour!V12="","",_cuben_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y21" s="22" t="str">
         <f>IF(_cuben_day_hour!W12="","",_cuben_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z21" s="22" t="str">
         <f>IF(_cuben_day_hour!X12="","",_cuben_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA21" s="21" t="str">
         <f>IF(_cuben_day_hour!Y12="","",_cuben_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="17" t="str">
+      <c r="AB21" s="21" t="str">
         <f>IF(_cuben_day_hour!Z12="","",_cuben_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="17" t="str">
+      <c r="AC21" s="21" t="str">
         <f>IF(_cuben_day_hour!AA12="","",_cuben_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD21" s="21" t="str">
         <f>IF(_cuben_day_hour!AB12="","",_cuben_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE21" s="21" t="str">
         <f>IF(_cuben_day_hour!AC12="","",_cuben_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF21" s="21" t="str">
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="66"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="60"/>
     </row>
-    <row r="19" ht="22" customHeight="1" spans="2:37">
-      <c r="B19" s="16">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C19" s="17" t="str">
+    <row r="22" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C22" s="21" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D22" s="21" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E22" s="21" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F22" s="21" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="17" t="str">
+      <c r="G22" s="21" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="17" t="str">
+      <c r="H22" s="22" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
+      <c r="I22" s="23" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J22" s="21" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K22" s="22" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L22" s="21" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="17" t="str">
+      <c r="M22" s="21" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N22" s="21" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O22" s="21" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P22" s="21" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="17" t="str">
+      <c r="Q22" s="23" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R22" s="21" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S22" s="21" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="T22" s="21" t="str">
         <f>IF(_cuben_day_hour!R13="","",_cuben_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="U22" s="23" t="str">
         <f>IF(_cuben_day_hour!S13="","",_cuben_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V22" s="23" t="str">
         <f>IF(_cuben_day_hour!T13="","",_cuben_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W22" s="21" t="str">
         <f>IF(_cuben_day_hour!U13="","",_cuben_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X22" s="21" t="str">
         <f>IF(_cuben_day_hour!V13="","",_cuben_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="17" t="str">
+      <c r="Y22" s="22" t="str">
         <f>IF(_cuben_day_hour!W13="","",_cuben_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z22" s="22" t="str">
         <f>IF(_cuben_day_hour!X13="","",_cuben_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA22" s="21" t="str">
         <f>IF(_cuben_day_hour!Y13="","",_cuben_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="17" t="str">
+      <c r="AB22" s="21" t="str">
         <f>IF(_cuben_day_hour!Z13="","",_cuben_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="17" t="str">
+      <c r="AC22" s="21" t="str">
         <f>IF(_cuben_day_hour!AA13="","",_cuben_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD22" s="21" t="str">
         <f>IF(_cuben_day_hour!AB13="","",_cuben_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE22" s="21" t="str">
         <f>IF(_cuben_day_hour!AC13="","",_cuben_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF22" s="21" t="str">
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="66"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="60"/>
     </row>
-    <row r="20" ht="22" customHeight="1" spans="2:37">
-      <c r="B20" s="16">
+    <row r="23" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
         <v>0.5</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C23" s="21" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D23" s="21" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E23" s="21" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F23" s="21" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="17" t="str">
+      <c r="G23" s="21" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="17" t="str">
+      <c r="H23" s="22" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="17" t="str">
+      <c r="I23" s="23" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J23" s="21" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K23" s="22" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L23" s="21" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="17" t="str">
+      <c r="M23" s="21" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N23" s="21" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O23" s="21" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="str">
+      <c r="P23" s="21" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="17" t="str">
+      <c r="Q23" s="23" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="17" t="str">
+      <c r="R23" s="21" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S23" s="21" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="17" t="str">
+      <c r="T23" s="21" t="str">
         <f>IF(_cuben_day_hour!R14="","",_cuben_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="17" t="str">
+      <c r="U23" s="23" t="str">
         <f>IF(_cuben_day_hour!S14="","",_cuben_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="V23" s="23" t="str">
         <f>IF(_cuben_day_hour!T14="","",_cuben_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="17" t="str">
+      <c r="W23" s="21" t="str">
         <f>IF(_cuben_day_hour!U14="","",_cuben_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="X23" s="21" t="str">
         <f>IF(_cuben_day_hour!V14="","",_cuben_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="17" t="str">
+      <c r="Y23" s="22" t="str">
         <f>IF(_cuben_day_hour!W14="","",_cuben_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="17" t="str">
+      <c r="Z23" s="22" t="str">
         <f>IF(_cuben_day_hour!X14="","",_cuben_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="17" t="str">
+      <c r="AA23" s="21" t="str">
         <f>IF(_cuben_day_hour!Y14="","",_cuben_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="17" t="str">
+      <c r="AB23" s="21" t="str">
         <f>IF(_cuben_day_hour!Z14="","",_cuben_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="17" t="str">
+      <c r="AC23" s="21" t="str">
         <f>IF(_cuben_day_hour!AA14="","",_cuben_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD23" s="21" t="str">
         <f>IF(_cuben_day_hour!AB14="","",_cuben_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE23" s="21" t="str">
         <f>IF(_cuben_day_hour!AC14="","",_cuben_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF23" s="21" t="str">
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="66"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="60"/>
     </row>
-    <row r="21" ht="22" customHeight="1" spans="2:37">
-      <c r="B21" s="16">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C21" s="17" t="str">
+    <row r="24" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C24" s="21" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D24" s="21" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E24" s="21" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F24" s="21" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="17" t="str">
+      <c r="G24" s="21" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="17" t="str">
+      <c r="H24" s="22" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="17" t="str">
+      <c r="I24" s="23" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="17" t="str">
+      <c r="J24" s="21" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K24" s="22" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L24" s="21" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="17" t="str">
+      <c r="M24" s="21" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N24" s="21" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O24" s="21" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="str">
+      <c r="P24" s="21" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="17" t="str">
+      <c r="Q24" s="23" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="17" t="str">
+      <c r="R24" s="21" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S24" s="21" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="17" t="str">
+      <c r="T24" s="21" t="str">
         <f>IF(_cuben_day_hour!R15="","",_cuben_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="17" t="str">
+      <c r="U24" s="23" t="str">
         <f>IF(_cuben_day_hour!S15="","",_cuben_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="V24" s="23" t="str">
         <f>IF(_cuben_day_hour!T15="","",_cuben_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="17" t="str">
+      <c r="W24" s="21" t="str">
         <f>IF(_cuben_day_hour!U15="","",_cuben_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="X24" s="21" t="str">
         <f>IF(_cuben_day_hour!V15="","",_cuben_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="17" t="str">
+      <c r="Y24" s="22" t="str">
         <f>IF(_cuben_day_hour!W15="","",_cuben_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="17" t="str">
+      <c r="Z24" s="22" t="str">
         <f>IF(_cuben_day_hour!X15="","",_cuben_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="17" t="str">
+      <c r="AA24" s="21" t="str">
         <f>IF(_cuben_day_hour!Y15="","",_cuben_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="17" t="str">
+      <c r="AB24" s="21" t="str">
         <f>IF(_cuben_day_hour!Z15="","",_cuben_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="17" t="str">
+      <c r="AC24" s="21" t="str">
         <f>IF(_cuben_day_hour!AA15="","",_cuben_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD24" s="21" t="str">
         <f>IF(_cuben_day_hour!AB15="","",_cuben_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE24" s="21" t="str">
         <f>IF(_cuben_day_hour!AC15="","",_cuben_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF24" s="21" t="str">
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="66"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="60"/>
     </row>
-    <row r="22" ht="22" customHeight="1" spans="2:37">
-      <c r="B22" s="16">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C22" s="17" t="str">
+    <row r="25" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C25" s="21" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D25" s="21" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E25" s="21" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F25" s="21" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G25" s="21" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="17" t="str">
+      <c r="H25" s="22" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="17" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="17" t="str">
+      <c r="J25" s="21" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K25" s="22" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L25" s="21" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="17" t="str">
+      <c r="M25" s="21" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N25" s="21" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O25" s="21" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P25" s="21" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="17" t="str">
+      <c r="Q25" s="23" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="17" t="str">
+      <c r="R25" s="21" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S25" s="21" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="17" t="str">
+      <c r="T25" s="21" t="str">
         <f>IF(_cuben_day_hour!R16="","",_cuben_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="17" t="str">
+      <c r="U25" s="23" t="str">
         <f>IF(_cuben_day_hour!S16="","",_cuben_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="17" t="str">
+      <c r="V25" s="23" t="str">
         <f>IF(_cuben_day_hour!T16="","",_cuben_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="17" t="str">
+      <c r="W25" s="21" t="str">
         <f>IF(_cuben_day_hour!U16="","",_cuben_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="17" t="str">
+      <c r="X25" s="21" t="str">
         <f>IF(_cuben_day_hour!V16="","",_cuben_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="17" t="str">
+      <c r="Y25" s="22" t="str">
         <f>IF(_cuben_day_hour!W16="","",_cuben_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="17" t="str">
+      <c r="Z25" s="22" t="str">
         <f>IF(_cuben_day_hour!X16="","",_cuben_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="17" t="str">
+      <c r="AA25" s="21" t="str">
         <f>IF(_cuben_day_hour!Y16="","",_cuben_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="17" t="str">
+      <c r="AB25" s="21" t="str">
         <f>IF(_cuben_day_hour!Z16="","",_cuben_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="17" t="str">
+      <c r="AC25" s="21" t="str">
         <f>IF(_cuben_day_hour!AA16="","",_cuben_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD25" s="21" t="str">
         <f>IF(_cuben_day_hour!AB16="","",_cuben_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE25" s="21" t="str">
         <f>IF(_cuben_day_hour!AC16="","",_cuben_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF25" s="21" t="str">
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="66"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="60"/>
     </row>
-    <row r="23" ht="22" customHeight="1" spans="2:37">
-      <c r="B23" s="16">
+    <row r="26" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
         <v>0.625</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C26" s="21" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D26" s="21" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E26" s="21" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F26" s="21" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="17" t="str">
+      <c r="G26" s="21" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="17" t="str">
+      <c r="H26" s="22" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="17" t="str">
+      <c r="I26" s="23" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="17" t="str">
+      <c r="J26" s="21" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K26" s="22" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L26" s="21" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="17" t="str">
+      <c r="M26" s="21" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N26" s="21" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O26" s="21" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P26" s="21" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="17" t="str">
+      <c r="Q26" s="23" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="17" t="str">
+      <c r="R26" s="21" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S26" s="21" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="17" t="str">
+      <c r="T26" s="21" t="str">
         <f>IF(_cuben_day_hour!R17="","",_cuben_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="17" t="str">
+      <c r="U26" s="23" t="str">
         <f>IF(_cuben_day_hour!S17="","",_cuben_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="17" t="str">
+      <c r="V26" s="23" t="str">
         <f>IF(_cuben_day_hour!T17="","",_cuben_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="17" t="str">
+      <c r="W26" s="21" t="str">
         <f>IF(_cuben_day_hour!U17="","",_cuben_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="17" t="str">
+      <c r="X26" s="21" t="str">
         <f>IF(_cuben_day_hour!V17="","",_cuben_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="17" t="str">
+      <c r="Y26" s="22" t="str">
         <f>IF(_cuben_day_hour!W17="","",_cuben_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="17" t="str">
+      <c r="Z26" s="22" t="str">
         <f>IF(_cuben_day_hour!X17="","",_cuben_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AA26" s="21" t="str">
         <f>IF(_cuben_day_hour!Y17="","",_cuben_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="17" t="str">
+      <c r="AB26" s="21" t="str">
         <f>IF(_cuben_day_hour!Z17="","",_cuben_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="17" t="str">
+      <c r="AC26" s="21" t="str">
         <f>IF(_cuben_day_hour!AA17="","",_cuben_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD26" s="21" t="str">
         <f>IF(_cuben_day_hour!AB17="","",_cuben_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE26" s="21" t="str">
         <f>IF(_cuben_day_hour!AC17="","",_cuben_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF26" s="21" t="str">
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="66"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="60"/>
     </row>
-    <row r="24" ht="22" customHeight="1" spans="2:37">
-      <c r="B24" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C24" s="17" t="str">
+    <row r="27" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C27" s="21" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D27" s="21" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E27" s="21" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F27" s="21" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="17" t="str">
+      <c r="G27" s="21" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="17" t="str">
+      <c r="H27" s="22" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="17" t="str">
+      <c r="I27" s="23" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="17" t="str">
+      <c r="J27" s="21" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K27" s="22" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L27" s="21" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="17" t="str">
+      <c r="M27" s="21" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N27" s="21" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O27" s="21" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="17" t="str">
+      <c r="P27" s="21" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="17" t="str">
+      <c r="Q27" s="23" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="17" t="str">
+      <c r="R27" s="21" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S27" s="21" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="17" t="str">
+      <c r="T27" s="21" t="str">
         <f>IF(_cuben_day_hour!R18="","",_cuben_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="17" t="str">
+      <c r="U27" s="23" t="str">
         <f>IF(_cuben_day_hour!S18="","",_cuben_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="17" t="str">
+      <c r="V27" s="23" t="str">
         <f>IF(_cuben_day_hour!T18="","",_cuben_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="17" t="str">
+      <c r="W27" s="21" t="str">
         <f>IF(_cuben_day_hour!U18="","",_cuben_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="17" t="str">
+      <c r="X27" s="21" t="str">
         <f>IF(_cuben_day_hour!V18="","",_cuben_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="17" t="str">
+      <c r="Y27" s="22" t="str">
         <f>IF(_cuben_day_hour!W18="","",_cuben_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="17" t="str">
+      <c r="Z27" s="22" t="str">
         <f>IF(_cuben_day_hour!X18="","",_cuben_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="17" t="str">
+      <c r="AA27" s="21" t="str">
         <f>IF(_cuben_day_hour!Y18="","",_cuben_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="17" t="str">
+      <c r="AB27" s="21" t="str">
         <f>IF(_cuben_day_hour!Z18="","",_cuben_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="17" t="str">
+      <c r="AC27" s="21" t="str">
         <f>IF(_cuben_day_hour!AA18="","",_cuben_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD27" s="21" t="str">
         <f>IF(_cuben_day_hour!AB18="","",_cuben_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE27" s="21" t="str">
         <f>IF(_cuben_day_hour!AC18="","",_cuben_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF27" s="21" t="str">
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="66"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="60"/>
     </row>
-    <row r="25" ht="22" customHeight="1" spans="2:37">
-      <c r="B25" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C25" s="17" t="str">
+    <row r="28" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C28" s="21" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D28" s="21" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E28" s="21" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F28" s="21" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="17" t="str">
+      <c r="G28" s="21" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="17" t="str">
+      <c r="H28" s="22" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="17" t="str">
+      <c r="I28" s="23" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J28" s="21" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K28" s="22" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L28" s="21" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="17" t="str">
+      <c r="M28" s="21" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N28" s="21" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O28" s="21" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="17" t="str">
+      <c r="P28" s="21" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="17" t="str">
+      <c r="Q28" s="23" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R28" s="21" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S28" s="21" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="17" t="str">
+      <c r="T28" s="21" t="str">
         <f>IF(_cuben_day_hour!R19="","",_cuben_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="17" t="str">
+      <c r="U28" s="23" t="str">
         <f>IF(_cuben_day_hour!S19="","",_cuben_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="17" t="str">
+      <c r="V28" s="23" t="str">
         <f>IF(_cuben_day_hour!T19="","",_cuben_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="17" t="str">
+      <c r="W28" s="21" t="str">
         <f>IF(_cuben_day_hour!U19="","",_cuben_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="17" t="str">
+      <c r="X28" s="21" t="str">
         <f>IF(_cuben_day_hour!V19="","",_cuben_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="17" t="str">
+      <c r="Y28" s="22" t="str">
         <f>IF(_cuben_day_hour!W19="","",_cuben_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="17" t="str">
+      <c r="Z28" s="22" t="str">
         <f>IF(_cuben_day_hour!X19="","",_cuben_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA28" s="21" t="str">
         <f>IF(_cuben_day_hour!Y19="","",_cuben_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="17" t="str">
+      <c r="AB28" s="21" t="str">
         <f>IF(_cuben_day_hour!Z19="","",_cuben_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="17" t="str">
+      <c r="AC28" s="21" t="str">
         <f>IF(_cuben_day_hour!AA19="","",_cuben_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD28" s="21" t="str">
         <f>IF(_cuben_day_hour!AB19="","",_cuben_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE28" s="21" t="str">
         <f>IF(_cuben_day_hour!AC19="","",_cuben_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF28" s="21" t="str">
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="66"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="60"/>
     </row>
-    <row r="26" ht="22" customHeight="1" spans="2:37">
-      <c r="B26" s="16">
+    <row r="29" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
         <v>0.75</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C29" s="21" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D29" s="21" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E29" s="21" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F29" s="21" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="17" t="str">
+      <c r="G29" s="21" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="17" t="str">
+      <c r="H29" s="22" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="17" t="str">
+      <c r="I29" s="23" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="17" t="str">
+      <c r="J29" s="21" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K29" s="22" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L29" s="21" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="17" t="str">
+      <c r="M29" s="21" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N29" s="21" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O29" s="21" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="17" t="str">
+      <c r="P29" s="21" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q29" s="23" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R29" s="21" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S29" s="21" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="17" t="str">
+      <c r="T29" s="21" t="str">
         <f>IF(_cuben_day_hour!R20="","",_cuben_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="17" t="str">
+      <c r="U29" s="23" t="str">
         <f>IF(_cuben_day_hour!S20="","",_cuben_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="17" t="str">
+      <c r="V29" s="23" t="str">
         <f>IF(_cuben_day_hour!T20="","",_cuben_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="17" t="str">
+      <c r="W29" s="21" t="str">
         <f>IF(_cuben_day_hour!U20="","",_cuben_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="17" t="str">
+      <c r="X29" s="21" t="str">
         <f>IF(_cuben_day_hour!V20="","",_cuben_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="17" t="str">
+      <c r="Y29" s="22" t="str">
         <f>IF(_cuben_day_hour!W20="","",_cuben_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="17" t="str">
+      <c r="Z29" s="22" t="str">
         <f>IF(_cuben_day_hour!X20="","",_cuben_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="17" t="str">
+      <c r="AA29" s="21" t="str">
         <f>IF(_cuben_day_hour!Y20="","",_cuben_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="17" t="str">
+      <c r="AB29" s="21" t="str">
         <f>IF(_cuben_day_hour!Z20="","",_cuben_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="17" t="str">
+      <c r="AC29" s="21" t="str">
         <f>IF(_cuben_day_hour!AA20="","",_cuben_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD29" s="21" t="str">
         <f>IF(_cuben_day_hour!AB20="","",_cuben_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE29" s="21" t="str">
         <f>IF(_cuben_day_hour!AC20="","",_cuben_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF29" s="21" t="str">
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="66"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="60"/>
     </row>
-    <row r="27" ht="22" customHeight="1" spans="2:37">
-      <c r="B27" s="16">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C27" s="17" t="str">
+    <row r="30" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C30" s="21" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D30" s="21" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E30" s="21" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F30" s="21" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="17" t="str">
+      <c r="G30" s="21" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H30" s="22" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
+      <c r="I30" s="23" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J30" s="21" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K30" s="22" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L30" s="21" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="17" t="str">
+      <c r="M30" s="21" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N30" s="21" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O30" s="21" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="17" t="str">
+      <c r="P30" s="21" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="17" t="str">
+      <c r="Q30" s="23" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R30" s="21" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S30" s="21" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="17" t="str">
+      <c r="T30" s="21" t="str">
         <f>IF(_cuben_day_hour!R21="","",_cuben_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="17" t="str">
+      <c r="U30" s="23" t="str">
         <f>IF(_cuben_day_hour!S21="","",_cuben_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="17" t="str">
+      <c r="V30" s="23" t="str">
         <f>IF(_cuben_day_hour!T21="","",_cuben_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="17" t="str">
+      <c r="W30" s="21" t="str">
         <f>IF(_cuben_day_hour!U21="","",_cuben_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="17" t="str">
+      <c r="X30" s="21" t="str">
         <f>IF(_cuben_day_hour!V21="","",_cuben_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="17" t="str">
+      <c r="Y30" s="22" t="str">
         <f>IF(_cuben_day_hour!W21="","",_cuben_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="17" t="str">
+      <c r="Z30" s="22" t="str">
         <f>IF(_cuben_day_hour!X21="","",_cuben_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="17" t="str">
+      <c r="AA30" s="21" t="str">
         <f>IF(_cuben_day_hour!Y21="","",_cuben_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="17" t="str">
+      <c r="AB30" s="21" t="str">
         <f>IF(_cuben_day_hour!Z21="","",_cuben_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="17" t="str">
+      <c r="AC30" s="21" t="str">
         <f>IF(_cuben_day_hour!AA21="","",_cuben_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD30" s="21" t="str">
         <f>IF(_cuben_day_hour!AB21="","",_cuben_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE30" s="21" t="str">
         <f>IF(_cuben_day_hour!AC21="","",_cuben_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF30" s="21" t="str">
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="66"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="60"/>
     </row>
-    <row r="28" ht="22" customHeight="1" spans="2:37">
-      <c r="B28" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C28" s="17" t="str">
+    <row r="31" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C31" s="21" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D31" s="21" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E31" s="21" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F31" s="21" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="17" t="str">
+      <c r="G31" s="21" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="17" t="str">
+      <c r="H31" s="22" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="17" t="str">
+      <c r="I31" s="23" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="17" t="str">
+      <c r="J31" s="21" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K31" s="22" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L31" s="21" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="17" t="str">
+      <c r="M31" s="21" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N31" s="21" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O31" s="21" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="17" t="str">
+      <c r="P31" s="21" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="17" t="str">
+      <c r="Q31" s="23" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R31" s="21" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S31" s="21" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="17" t="str">
+      <c r="T31" s="21" t="str">
         <f>IF(_cuben_day_hour!R22="","",_cuben_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="17" t="str">
+      <c r="U31" s="23" t="str">
         <f>IF(_cuben_day_hour!S22="","",_cuben_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="17" t="str">
+      <c r="V31" s="23" t="str">
         <f>IF(_cuben_day_hour!T22="","",_cuben_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="17" t="str">
+      <c r="W31" s="21" t="str">
         <f>IF(_cuben_day_hour!U22="","",_cuben_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="17" t="str">
+      <c r="X31" s="21" t="str">
         <f>IF(_cuben_day_hour!V22="","",_cuben_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="17" t="str">
+      <c r="Y31" s="22" t="str">
         <f>IF(_cuben_day_hour!W22="","",_cuben_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="17" t="str">
+      <c r="Z31" s="22" t="str">
         <f>IF(_cuben_day_hour!X22="","",_cuben_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="17" t="str">
+      <c r="AA31" s="21" t="str">
         <f>IF(_cuben_day_hour!Y22="","",_cuben_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="17" t="str">
+      <c r="AB31" s="21" t="str">
         <f>IF(_cuben_day_hour!Z22="","",_cuben_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="17" t="str">
+      <c r="AC31" s="21" t="str">
         <f>IF(_cuben_day_hour!AA22="","",_cuben_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD31" s="21" t="str">
         <f>IF(_cuben_day_hour!AB22="","",_cuben_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE31" s="21" t="str">
         <f>IF(_cuben_day_hour!AC22="","",_cuben_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF31" s="21" t="str">
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="66"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="60"/>
     </row>
-    <row r="29" ht="22" customHeight="1" spans="2:37">
-      <c r="B29" s="16">
+    <row r="32" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
         <v>0.875</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C32" s="21" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D32" s="21" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E32" s="21" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="17" t="str">
+      <c r="F32" s="21" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="17" t="str">
+      <c r="G32" s="21" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="17" t="str">
+      <c r="H32" s="22" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="17" t="str">
+      <c r="I32" s="23" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="17" t="str">
+      <c r="J32" s="21" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K32" s="22" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L32" s="21" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="17" t="str">
+      <c r="M32" s="21" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="17" t="str">
+      <c r="N32" s="21" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O32" s="21" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="17" t="str">
+      <c r="P32" s="21" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="17" t="str">
+      <c r="Q32" s="23" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="17" t="str">
+      <c r="R32" s="21" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S32" s="21" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="17" t="str">
+      <c r="T32" s="21" t="str">
         <f>IF(_cuben_day_hour!R23="","",_cuben_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="17" t="str">
+      <c r="U32" s="23" t="str">
         <f>IF(_cuben_day_hour!S23="","",_cuben_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="17" t="str">
+      <c r="V32" s="23" t="str">
         <f>IF(_cuben_day_hour!T23="","",_cuben_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="17" t="str">
+      <c r="W32" s="21" t="str">
         <f>IF(_cuben_day_hour!U23="","",_cuben_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="17" t="str">
+      <c r="X32" s="21" t="str">
         <f>IF(_cuben_day_hour!V23="","",_cuben_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="17" t="str">
+      <c r="Y32" s="22" t="str">
         <f>IF(_cuben_day_hour!W23="","",_cuben_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="17" t="str">
+      <c r="Z32" s="22" t="str">
         <f>IF(_cuben_day_hour!X23="","",_cuben_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="17" t="str">
+      <c r="AA32" s="21" t="str">
         <f>IF(_cuben_day_hour!Y23="","",_cuben_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="17" t="str">
+      <c r="AB32" s="21" t="str">
         <f>IF(_cuben_day_hour!Z23="","",_cuben_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="17" t="str">
+      <c r="AC32" s="21" t="str">
         <f>IF(_cuben_day_hour!AA23="","",_cuben_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD32" s="21" t="str">
         <f>IF(_cuben_day_hour!AB23="","",_cuben_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE32" s="21" t="str">
         <f>IF(_cuben_day_hour!AC23="","",_cuben_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF32" s="21" t="str">
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="66"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="60"/>
     </row>
-    <row r="30" ht="22" customHeight="1" spans="2:37">
-      <c r="B30" s="16">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C30" s="17" t="str">
+    <row r="33" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C33" s="21" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D33" s="21" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E33" s="21" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="17" t="str">
+      <c r="F33" s="21" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="17" t="str">
+      <c r="G33" s="21" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="17" t="str">
+      <c r="H33" s="22" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="17" t="str">
+      <c r="I33" s="23" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="17" t="str">
+      <c r="J33" s="21" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K33" s="22" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L33" s="21" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="17" t="str">
+      <c r="M33" s="21" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N33" s="21" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O33" s="21" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="17" t="str">
+      <c r="P33" s="21" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q33" s="23" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="R33" s="21" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="17" t="str">
+      <c r="S33" s="21" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="17" t="str">
+      <c r="T33" s="21" t="str">
         <f>IF(_cuben_day_hour!R24="","",_cuben_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="17" t="str">
+      <c r="U33" s="23" t="str">
         <f>IF(_cuben_day_hour!S24="","",_cuben_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="17" t="str">
+      <c r="V33" s="23" t="str">
         <f>IF(_cuben_day_hour!T24="","",_cuben_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="17" t="str">
+      <c r="W33" s="21" t="str">
         <f>IF(_cuben_day_hour!U24="","",_cuben_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="17" t="str">
+      <c r="X33" s="21" t="str">
         <f>IF(_cuben_day_hour!V24="","",_cuben_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="17" t="str">
+      <c r="Y33" s="22" t="str">
         <f>IF(_cuben_day_hour!W24="","",_cuben_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="17" t="str">
+      <c r="Z33" s="22" t="str">
         <f>IF(_cuben_day_hour!X24="","",_cuben_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="17" t="str">
+      <c r="AA33" s="21" t="str">
         <f>IF(_cuben_day_hour!Y24="","",_cuben_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="17" t="str">
+      <c r="AB33" s="21" t="str">
         <f>IF(_cuben_day_hour!Z24="","",_cuben_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="17" t="str">
+      <c r="AC33" s="21" t="str">
         <f>IF(_cuben_day_hour!AA24="","",_cuben_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD33" s="21" t="str">
         <f>IF(_cuben_day_hour!AB24="","",_cuben_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE33" s="21" t="str">
         <f>IF(_cuben_day_hour!AC24="","",_cuben_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF33" s="21" t="str">
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="66"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="60"/>
     </row>
-    <row r="31" ht="22" customHeight="1" spans="2:37">
-      <c r="B31" s="16">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C31" s="17" t="str">
+    <row r="34" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C34" s="21" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D34" s="21" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E34" s="21" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="17" t="str">
+      <c r="F34" s="21" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="17" t="str">
+      <c r="G34" s="21" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="17" t="str">
+      <c r="H34" s="22" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
+      <c r="I34" s="23" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="17" t="str">
+      <c r="J34" s="21" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K34" s="22" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L34" s="21" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="17" t="str">
+      <c r="M34" s="21" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="17" t="str">
+      <c r="N34" s="21" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="17" t="str">
+      <c r="O34" s="21" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="17" t="str">
+      <c r="P34" s="21" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="17" t="str">
+      <c r="Q34" s="23" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="R34" s="21" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="17" t="str">
+      <c r="S34" s="21" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="17" t="str">
+      <c r="T34" s="21" t="str">
         <f>IF(_cuben_day_hour!R25="","",_cuben_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="17" t="str">
+      <c r="U34" s="23" t="str">
         <f>IF(_cuben_day_hour!S25="","",_cuben_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="17" t="str">
+      <c r="V34" s="23" t="str">
         <f>IF(_cuben_day_hour!T25="","",_cuben_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="17" t="str">
+      <c r="W34" s="21" t="str">
         <f>IF(_cuben_day_hour!U25="","",_cuben_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="17" t="str">
+      <c r="X34" s="21" t="str">
         <f>IF(_cuben_day_hour!V25="","",_cuben_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="17" t="str">
+      <c r="Y34" s="22" t="str">
         <f>IF(_cuben_day_hour!W25="","",_cuben_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="17" t="str">
+      <c r="Z34" s="22" t="str">
         <f>IF(_cuben_day_hour!X25="","",_cuben_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="17" t="str">
+      <c r="AA34" s="21" t="str">
         <f>IF(_cuben_day_hour!Y25="","",_cuben_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="17" t="str">
+      <c r="AB34" s="21" t="str">
         <f>IF(_cuben_day_hour!Z25="","",_cuben_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="17" t="str">
+      <c r="AC34" s="21" t="str">
         <f>IF(_cuben_day_hour!AA25="","",_cuben_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD34" s="21" t="str">
         <f>IF(_cuben_day_hour!AB25="","",_cuben_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE34" s="21" t="str">
         <f>IF(_cuben_day_hour!AC25="","",_cuben_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF34" s="21" t="str">
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="66"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="60"/>
     </row>
-    <row r="32" ht="22" customHeight="1" spans="2:37">
-      <c r="B32" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <f t="shared" ref="C32:AF32" si="0">IF(C8="","",AVERAGE(C8:C15))</f>
-        <v/>
-      </c>
-      <c r="D32" s="17" t="str">
+    <row r="35" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f t="shared" ref="C35:AF35" si="0">IF(C11="","",AVERAGE(C11:C18))</f>
+        <v/>
+      </c>
+      <c r="D35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="17" t="str">
+      <c r="E35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="17" t="str">
+      <c r="F35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G32" s="17" t="str">
+      <c r="G35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="17" t="str">
+      <c r="H35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="17" t="str">
+      <c r="I35" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="17" t="str">
+      <c r="J35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K32" s="17" t="str">
+      <c r="K35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="17" t="str">
+      <c r="M35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N32" s="17" t="str">
+      <c r="N35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O32" s="17" t="str">
+      <c r="O35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P32" s="17" t="str">
+      <c r="P35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q32" s="17" t="str">
+      <c r="Q35" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R32" s="17" t="str">
+      <c r="R35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S32" s="17" t="str">
+      <c r="S35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T32" s="17" t="str">
+      <c r="T35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U32" s="17" t="str">
+      <c r="U35" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V32" s="17" t="str">
+      <c r="V35" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W32" s="17" t="str">
+      <c r="W35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X32" s="17" t="str">
+      <c r="X35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y32" s="17" t="str">
+      <c r="Y35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z32" s="17" t="str">
+      <c r="Z35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA32" s="17" t="str">
+      <c r="AA35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB32" s="17" t="str">
+      <c r="AB35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC32" s="17" t="str">
+      <c r="AC35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD32" s="17" t="str">
+      <c r="AD35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE32" s="17" t="str">
+      <c r="AE35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF32" s="34" t="str">
+      <c r="AF35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="66"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="60"/>
     </row>
-    <row r="33" ht="22" customHeight="1" spans="2:37">
-      <c r="B33" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="17" t="str">
-        <f t="shared" ref="C33:AF33" si="1">IF(C14="","",AVERAGE(C14:C23))</f>
-        <v/>
-      </c>
-      <c r="D33" s="17" t="str">
+    <row r="36" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f t="shared" ref="C36:AF36" si="1">IF(C17="","",AVERAGE(C17:C26))</f>
+        <v/>
+      </c>
+      <c r="D36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E33" s="17" t="str">
+      <c r="E36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F33" s="17" t="str">
+      <c r="F36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="17" t="str">
+      <c r="G36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H33" s="17" t="str">
+      <c r="H36" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I33" s="17" t="str">
+      <c r="I36" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J33" s="17" t="str">
+      <c r="J36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="17" t="str">
+      <c r="K36" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L33" s="17" t="str">
+      <c r="L36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M33" s="17" t="str">
+      <c r="M36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N33" s="17" t="str">
+      <c r="N36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O33" s="17" t="str">
+      <c r="O36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P33" s="17" t="str">
+      <c r="P36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q33" s="17" t="str">
+      <c r="Q36" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R33" s="17" t="str">
+      <c r="R36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S33" s="17" t="str">
+      <c r="S36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T33" s="17" t="str">
+      <c r="T36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U33" s="17" t="str">
+      <c r="U36" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V33" s="17" t="str">
+      <c r="V36" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W33" s="17" t="str">
+      <c r="W36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X33" s="17" t="str">
+      <c r="X36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y33" s="17" t="str">
+      <c r="Y36" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z33" s="17" t="str">
+      <c r="Z36" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA33" s="17" t="str">
+      <c r="AA36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB33" s="17" t="str">
+      <c r="AB36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC33" s="17" t="str">
+      <c r="AC36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD33" s="17" t="str">
+      <c r="AD36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE33" s="17" t="str">
+      <c r="AE36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF33" s="34" t="str">
+      <c r="AF36" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="66"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="60"/>
     </row>
-    <row r="34" ht="22" customHeight="1" spans="2:37">
-      <c r="B34" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="17" t="str">
-        <f t="shared" ref="C34:AF34" si="2">IF(C22="","",AVERAGE(C22:C31))</f>
-        <v/>
-      </c>
-      <c r="D34" s="17" t="str">
+    <row r="37" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="21" t="str">
+        <f t="shared" ref="C37:AF37" si="2">IF(C25="","",AVERAGE(C25:C34))</f>
+        <v/>
+      </c>
+      <c r="D37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E34" s="17" t="str">
+      <c r="E37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F34" s="17" t="str">
+      <c r="F37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="17" t="str">
+      <c r="G37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H34" s="17" t="str">
+      <c r="H37" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="17" t="str">
+      <c r="I37" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J34" s="17" t="str">
+      <c r="J37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K34" s="17" t="str">
+      <c r="K37" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L34" s="17" t="str">
+      <c r="L37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M34" s="17" t="str">
+      <c r="M37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N34" s="17" t="str">
+      <c r="N37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O34" s="17" t="str">
+      <c r="O37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P34" s="17" t="str">
+      <c r="P37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q34" s="17" t="str">
+      <c r="Q37" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R34" s="17" t="str">
+      <c r="R37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S34" s="17" t="str">
+      <c r="S37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T34" s="17" t="str">
+      <c r="T37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U34" s="17" t="str">
+      <c r="U37" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V34" s="17" t="str">
+      <c r="V37" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W34" s="17" t="str">
+      <c r="W37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X34" s="17" t="str">
+      <c r="X37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y34" s="17" t="str">
+      <c r="Y37" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z34" s="17" t="str">
+      <c r="Z37" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA34" s="17" t="str">
+      <c r="AA37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB34" s="17" t="str">
+      <c r="AB37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC34" s="17" t="str">
+      <c r="AC37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD34" s="17" t="str">
+      <c r="AD37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE34" s="17" t="str">
+      <c r="AE37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF34" s="34" t="str">
+      <c r="AF37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="66"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="60"/>
     </row>
-    <row r="35" ht="22" customHeight="1" spans="2:37">
-      <c r="B35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f t="shared" ref="C35:AF35" si="3">IF(C8="","",AVERAGE(C8:C31))</f>
-        <v/>
-      </c>
-      <c r="D35" s="17" t="str">
+    <row r="38" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="21" t="str">
+        <f t="shared" ref="C38:AF38" si="3">IF(C11="","",AVERAGE(C11:C34))</f>
+        <v/>
+      </c>
+      <c r="D38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E35" s="17" t="str">
+      <c r="E38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="17" t="str">
+      <c r="F38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G35" s="17" t="str">
+      <c r="G38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H35" s="17" t="str">
+      <c r="H38" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I35" s="17" t="str">
+      <c r="I38" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J35" s="17" t="str">
+      <c r="J38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K35" s="17" t="str">
+      <c r="K38" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L35" s="17" t="str">
+      <c r="L38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M35" s="17" t="str">
+      <c r="M38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N35" s="17" t="str">
+      <c r="N38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O35" s="17" t="str">
+      <c r="O38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P35" s="17" t="str">
+      <c r="P38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q35" s="17" t="str">
+      <c r="Q38" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R35" s="17" t="str">
+      <c r="R38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S35" s="17" t="str">
+      <c r="S38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T35" s="17" t="str">
+      <c r="T38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U35" s="17" t="str">
+      <c r="U38" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V35" s="17" t="str">
+      <c r="V38" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W35" s="17" t="str">
+      <c r="W38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X35" s="17" t="str">
+      <c r="X38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y35" s="17" t="str">
+      <c r="Y38" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z35" s="17" t="str">
+      <c r="Z38" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA35" s="17" t="str">
+      <c r="AA38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB35" s="17" t="str">
+      <c r="AB38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC35" s="17" t="str">
+      <c r="AC38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD35" s="35" t="str">
+      <c r="AD38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE35" s="35" t="str">
+      <c r="AE38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF35" s="36" t="str">
+      <c r="AF38" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="66"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="60"/>
     </row>
-    <row r="36" ht="75.65" customHeight="1" spans="2:37">
-      <c r="B36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="66"/>
+    <row r="39" spans="2:37" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="69"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="60"/>
     </row>
-    <row r="37" ht="19.5" spans="2:37">
-      <c r="B37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="68"/>
+    <row r="40" spans="2:37" ht="18" x14ac:dyDescent="0.4">
+      <c r="B40" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="76"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AG16"/>
+    <mergeCell ref="AG17:AK40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="AD39:AF40"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -6633,184 +6540,492 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="AG3:AK5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AA4:AA6"/>
     <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG8:AG13"/>
-    <mergeCell ref="AG3:AK5"/>
-    <mergeCell ref="AG14:AK37"/>
-    <mergeCell ref="AD36:AF37"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="C11:C38">
+    <cfRule type="cellIs" dxfId="59" priority="118" operator="greaterThan">
+      <formula>C$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C38">
+    <cfRule type="cellIs" dxfId="58" priority="117" operator="lessThan">
+      <formula>C$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D38">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
+      <formula>D$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D38">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThan">
+      <formula>D$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E38">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
+      <formula>E$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E38">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThan">
+      <formula>E$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F38">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
+      <formula>F$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F38">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThan">
+      <formula>F$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G38">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+      <formula>G$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G38">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
+      <formula>G$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H38">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
+      <formula>H$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H38">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
+      <formula>H$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I38">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+      <formula>I$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I38">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
+      <formula>I$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J38">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+      <formula>J$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J38">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+      <formula>J$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K38">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+      <formula>K$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K38">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
+      <formula>K$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L38">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+      <formula>L$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L38">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+      <formula>L$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M38">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+      <formula>M$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M38">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+      <formula>M$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N38">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+      <formula>N$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N38">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
+      <formula>N$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:O38">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+      <formula>O$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:O38">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+      <formula>O$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P38">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+      <formula>P$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P38">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+      <formula>P$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:Q38">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+      <formula>Q$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:Q38">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+      <formula>Q$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R38">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+      <formula>R$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R38">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+      <formula>R$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11:S38">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+      <formula>S$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11:S38">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+      <formula>S$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:T38">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+      <formula>T$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:T38">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+      <formula>T$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11:U38">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+      <formula>U$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11:U38">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>U$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:V38">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+      <formula>V$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:V38">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+      <formula>V$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:W38">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>W$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:W38">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>W$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X38">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>X$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X38">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+      <formula>X$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y38">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>Y$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y38">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>Y$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z38">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+      <formula>Z$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z38">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>Z$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA38">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>AA$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA38">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>AA$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AB38">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>AB$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AB38">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>AB$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AC38">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>AC$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AC38">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>AC$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD11:AD38">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>AD$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD11:AD38">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>AD$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11:AE38">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>AE$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11:AE38">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>AE$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AF38">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>AF$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AF38">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>AF$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="29" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="31" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07650E04-6BDE-4AAD-AADE-463D13C1A7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
-    <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="5.粗苯蒸馏（日）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_cuben_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -44,36 +29,34 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>项目</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">      </t>
+      <t xml:space="preserve">     
+ </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>时间</t>
     </r>
   </si>
   <si>
-    <t>粗                  苯             蒸             馏</t>
+    <t xml:space="preserve">粗                  苯             蒸             馏</t>
   </si>
   <si>
     <t>化验分析</t>
@@ -91,29 +74,29 @@
     <t>贫油泵</t>
   </si>
   <si>
-    <t>油油换热器后富油温度 ℃</t>
-  </si>
-  <si>
-    <t>冷凝冷却器后粗苯温度 ℃</t>
-  </si>
-  <si>
-    <t>残渣槽液位 mm</t>
-  </si>
-  <si>
-    <t>新洗油槽液位
+    <t xml:space="preserve">油油换热器后富油温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷凝冷却器后粗苯温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残渣槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新洗油槽液位
  mm</t>
   </si>
   <si>
-    <t>粗苯中间槽液位 mm</t>
-  </si>
-  <si>
-    <t>煤气流量 m3/h</t>
-  </si>
-  <si>
-    <t>辐射段温度 ℃</t>
-  </si>
-  <si>
-    <t>对流段温度 ℃</t>
+    <t xml:space="preserve">粗苯中间槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤气流量 m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辐射段温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对流段温度 ℃</t>
   </si>
   <si>
     <t>富油</t>
@@ -122,37 +105,37 @@
     <t>进管式炉蒸汽</t>
   </si>
   <si>
-    <t>富油流量  m3/h</t>
-  </si>
-  <si>
-    <t>顶部压力 kPa</t>
-  </si>
-  <si>
-    <t>顶部温度 ℃</t>
-  </si>
-  <si>
-    <t>底部温度 ℃</t>
-  </si>
-  <si>
-    <t>液位 mm</t>
-  </si>
-  <si>
-    <t>塔顶压力 kPa</t>
-  </si>
-  <si>
-    <t>塔顶温度  ℃</t>
-  </si>
-  <si>
-    <t>塔底压力 kPa</t>
-  </si>
-  <si>
-    <t>塔底温度 ℃</t>
-  </si>
-  <si>
-    <t>贫油槽液位 mm</t>
-  </si>
-  <si>
-    <t>回流量 m3/h</t>
+    <t xml:space="preserve">富油流量  m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">底部温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔顶压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔顶温度  ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔底压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔底温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贫油槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回流量 m3/h</t>
   </si>
   <si>
     <t>回流阀阀位%</t>
@@ -170,19 +153,19 @@
     <t>2#</t>
   </si>
   <si>
-    <t>流量 m3/h</t>
-  </si>
-  <si>
-    <t>出口温度 ℃</t>
-  </si>
-  <si>
-    <t>压力 Mpa</t>
+    <t xml:space="preserve">流量 m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出口温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">压力 Mpa</t>
   </si>
   <si>
     <t>流量t/h</t>
   </si>
   <si>
-    <t>过热蒸汽温度  ℃</t>
+    <t xml:space="preserve">过热蒸汽温度  ℃</t>
   </si>
   <si>
     <t>化验项目</t>
@@ -410,31 +393,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>夜班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -443,31 +423,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  白</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -476,31 +453,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  中</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -509,42 +483,38 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -574,128 +544,96 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="160" formatCode="0.00_ "/>
+    <numFmt numFmtId="161" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color indexed="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color indexed="64"/>
       <sz val="14"/>
-      <color indexed="64"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
+      <color indexed="64"/>
       <sz val="14"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -703,7 +641,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1190,215 +1128,219 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="76">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="8" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="60">
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1694,55 +1636,36 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>600073</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>600073</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Line 2" hidden="0"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6334124" y="895349"/>
+          <a:off x="6343648" y="647698"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1762,8 +1685,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1966,4559 +2172,4563 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AK40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="B1" activeCellId="0" sqref="B1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="11.6640625"/>
     <col min="6" max="6" width="11.5"/>
     <col min="12" max="13" width="8.6640625"/>
     <col min="15" max="15" width="9.33203125"/>
     <col min="20" max="20" width="9.33203125"/>
     <col min="29" max="32" width="9.33203125"/>
     <col min="33" max="33" width="8.6640625"/>
-    <col min="34" max="34" width="25.25" customWidth="1"/>
+    <col customWidth="1" min="34" max="34" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+    <row ht="13.5" customHeight="1" r="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+    <row ht="24" customHeight="1" r="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="34" t="str">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="2"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
     </row>
-    <row r="3" spans="2:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+    <row ht="23.5" customHeight="1" r="3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="40" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="11"/>
     </row>
-    <row r="4" spans="2:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="46" t="s">
+    <row ht="23.5" customHeight="1" r="4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="47" t="s">
+      <c r="AB4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="47" t="s">
+      <c r="AC4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="47" t="s">
+      <c r="AD4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="47" t="s">
+      <c r="AE4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="18"/>
     </row>
-    <row r="5" spans="2:37" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="47" t="s">
+    <row ht="38" customHeight="1" r="5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="47" t="s">
+      <c r="W5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47" t="s">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="48" t="s">
+      <c r="AF5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="45"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="18"/>
     </row>
-    <row r="6" spans="2:37" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="3" t="s">
+    <row ht="45.5" customHeight="1" r="6">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="3" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="52" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="4" t="s">
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AJ6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:37" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row ht="24" customHeight="1" hidden="1" r="7">
+      <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AA7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="10"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="31"/>
     </row>
-    <row r="8" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="8" s="32">
+      <c r="B8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="34">
         <v>650</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="34">
         <v>480</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="34">
         <v>460</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="34">
         <v>92</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="34">
         <v>190</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="34">
         <v>0.5</v>
       </c>
-      <c r="I8" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I8" s="34">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="J8" s="34">
         <v>400</v>
       </c>
-      <c r="K8" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="34">
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="L8" s="34">
         <v>50</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="34">
         <v>190</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="34">
         <v>200</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="34">
         <v>1500</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="34">
         <v>40</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="34">
         <v>110</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="34">
         <v>50</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="34">
         <v>190</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="34">
         <v>3500</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="34">
         <v>4</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="34">
         <v>30</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="34">
         <v>100</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="34">
         <v>100</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="34">
         <v>48</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="34">
         <v>48</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="34">
         <v>160</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="34">
         <v>28</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="34">
         <v>1200</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="34">
         <v>2200</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8" s="34">
         <v>2100</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="35">
         <v>2100</v>
       </c>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="16"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="37"/>
     </row>
-    <row r="9" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="9" s="32">
+      <c r="B9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="34">
         <v>350</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="34">
         <v>340</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="34">
         <v>350</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="34">
         <v>-99999</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="34">
         <v>160</v>
       </c>
-      <c r="H9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="34">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="I9" s="34">
         <v>1</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="34">
         <v>360</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="34">
         <v>-99999</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="34">
         <v>-99999</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="34">
         <v>-99999</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="34">
         <v>-99999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="34">
         <v>-99999</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="34">
         <v>-99999</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="34">
         <v>-99999</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="34">
         <v>-99999</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="34">
         <v>-99999</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="34">
         <v>-99999</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="34">
         <v>-99999</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="34">
         <v>-99999</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="34">
         <v>115</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="34">
         <v>20</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="34">
         <v>450</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="35">
         <v>450</v>
       </c>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="16"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="37"/>
     </row>
-    <row r="10" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+    <row ht="27" customHeight="1" r="10">
+      <c r="B10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="Z10" s="18" t="s">
+      <c r="Z10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AA10" s="18" t="s">
+      <c r="AA10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="18" t="s">
+      <c r="AC10" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AD10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="AE10" s="18" t="s">
+      <c r="AE10" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AF10" s="19" t="s">
+      <c r="AF10" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="10"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="31"/>
     </row>
-    <row r="11" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+    <row ht="22" customHeight="1" r="11">
+      <c r="B11" s="41">
         <v>0</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="42" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="42" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="42" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="42" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="42" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="43" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I11" s="23" t="str">
+      <c r="I11" s="44" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="42" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K11" s="22" t="str">
+      <c r="K11" s="43" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="42" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M11" s="21" t="str">
+      <c r="M11" s="42" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N11" s="21" t="str">
+      <c r="N11" s="42" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O11" s="21" t="str">
+      <c r="O11" s="42" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P11" s="21" t="str">
+      <c r="P11" s="42" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q11" s="23" t="str">
+      <c r="Q11" s="44" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R11" s="21" t="str">
+      <c r="R11" s="42" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S11" s="21" t="str">
+      <c r="S11" s="42" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T11" s="21" t="str">
+      <c r="T11" s="42" t="str">
         <f>IF(_cuben_day_hour!R2="","",_cuben_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U11" s="23" t="str">
+      <c r="U11" s="44" t="str">
         <f>IF(_cuben_day_hour!S2="","",_cuben_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V11" s="23" t="str">
+      <c r="V11" s="44" t="str">
         <f>IF(_cuben_day_hour!T2="","",_cuben_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W11" s="21" t="str">
+      <c r="W11" s="42" t="str">
         <f>IF(_cuben_day_hour!U2="","",_cuben_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X11" s="21" t="str">
+      <c r="X11" s="42" t="str">
         <f>IF(_cuben_day_hour!V2="","",_cuben_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y11" s="22" t="str">
+      <c r="Y11" s="43" t="str">
         <f>IF(_cuben_day_hour!W2="","",_cuben_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z11" s="22" t="str">
+      <c r="Z11" s="43" t="str">
         <f>IF(_cuben_day_hour!X2="","",_cuben_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA11" s="21" t="str">
+      <c r="AA11" s="42" t="str">
         <f>IF(_cuben_day_hour!Y2="","",_cuben_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB11" s="21" t="str">
+      <c r="AB11" s="42" t="str">
         <f>IF(_cuben_day_hour!Z2="","",_cuben_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC11" s="21" t="str">
+      <c r="AC11" s="42" t="str">
         <f>IF(_cuben_day_hour!AA2="","",_cuben_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD11" s="21" t="str">
+      <c r="AD11" s="42" t="str">
         <f>IF(_cuben_day_hour!AB2="","",_cuben_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE11" s="21" t="str">
+      <c r="AE11" s="42" t="str">
         <f>IF(_cuben_day_hour!AC2="","",_cuben_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF11" s="21" t="str">
+      <c r="AF11" s="42" t="str">
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG11" s="54" t="s">
+      <c r="AG11" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="24" t="s">
+      <c r="AH11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="25" t="str">
+      <c r="AI11" s="47" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="25" t="str">
+      <c r="AJ11" s="47" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="AK11" s="26" t="str">
+      <c r="AK11" s="48" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C12" s="21" t="str">
+    <row ht="22" customHeight="1" r="12">
+      <c r="B12" s="41">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="C12" s="42" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="42" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="42" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="42" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="42" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H12" s="22" t="str">
+      <c r="H12" s="43" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="I12" s="44" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="42" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="43" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="42" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M12" s="21" t="str">
+      <c r="M12" s="42" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N12" s="21" t="str">
+      <c r="N12" s="42" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O12" s="21" t="str">
+      <c r="O12" s="42" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P12" s="21" t="str">
+      <c r="P12" s="42" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q12" s="23" t="str">
+      <c r="Q12" s="44" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R12" s="21" t="str">
+      <c r="R12" s="42" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S12" s="21" t="str">
+      <c r="S12" s="42" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T12" s="21" t="str">
+      <c r="T12" s="42" t="str">
         <f>IF(_cuben_day_hour!R3="","",_cuben_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U12" s="23" t="str">
+      <c r="U12" s="44" t="str">
         <f>IF(_cuben_day_hour!S3="","",_cuben_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V12" s="23" t="str">
+      <c r="V12" s="44" t="str">
         <f>IF(_cuben_day_hour!T3="","",_cuben_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W12" s="21" t="str">
+      <c r="W12" s="42" t="str">
         <f>IF(_cuben_day_hour!U3="","",_cuben_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X12" s="21" t="str">
+      <c r="X12" s="42" t="str">
         <f>IF(_cuben_day_hour!V3="","",_cuben_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y12" s="22" t="str">
+      <c r="Y12" s="43" t="str">
         <f>IF(_cuben_day_hour!W3="","",_cuben_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z12" s="22" t="str">
+      <c r="Z12" s="43" t="str">
         <f>IF(_cuben_day_hour!X3="","",_cuben_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA12" s="21" t="str">
+      <c r="AA12" s="42" t="str">
         <f>IF(_cuben_day_hour!Y3="","",_cuben_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB12" s="21" t="str">
+      <c r="AB12" s="42" t="str">
         <f>IF(_cuben_day_hour!Z3="","",_cuben_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC12" s="21" t="str">
+      <c r="AC12" s="42" t="str">
         <f>IF(_cuben_day_hour!AA3="","",_cuben_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD12" s="21" t="str">
+      <c r="AD12" s="42" t="str">
         <f>IF(_cuben_day_hour!AB3="","",_cuben_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE12" s="21" t="str">
+      <c r="AE12" s="42" t="str">
         <f>IF(_cuben_day_hour!AC3="","",_cuben_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF12" s="21" t="str">
+      <c r="AF12" s="42" t="str">
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="27" t="s">
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="AI12" s="25" t="str">
+      <c r="AI12" s="47" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="AJ12" s="25" t="str">
+      <c r="AJ12" s="47" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="AK12" s="26" t="str">
+      <c r="AK12" s="48" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C13" s="21" t="str">
+    <row ht="22" customHeight="1" r="13">
+      <c r="B13" s="41">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="C13" s="42" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="42" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="42" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F13" s="42" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="42" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H13" s="22" t="str">
+      <c r="H13" s="43" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I13" s="23" t="str">
+      <c r="I13" s="44" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="42" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="43" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="42" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="42" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N13" s="21" t="str">
+      <c r="N13" s="42" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O13" s="21" t="str">
+      <c r="O13" s="42" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P13" s="21" t="str">
+      <c r="P13" s="42" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q13" s="23" t="str">
+      <c r="Q13" s="44" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="R13" s="42" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S13" s="21" t="str">
+      <c r="S13" s="42" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T13" s="21" t="str">
+      <c r="T13" s="42" t="str">
         <f>IF(_cuben_day_hour!R4="","",_cuben_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U13" s="23" t="str">
+      <c r="U13" s="44" t="str">
         <f>IF(_cuben_day_hour!S4="","",_cuben_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V13" s="23" t="str">
+      <c r="V13" s="44" t="str">
         <f>IF(_cuben_day_hour!T4="","",_cuben_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W13" s="21" t="str">
+      <c r="W13" s="42" t="str">
         <f>IF(_cuben_day_hour!U4="","",_cuben_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X13" s="21" t="str">
+      <c r="X13" s="42" t="str">
         <f>IF(_cuben_day_hour!V4="","",_cuben_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y13" s="22" t="str">
+      <c r="Y13" s="43" t="str">
         <f>IF(_cuben_day_hour!W4="","",_cuben_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z13" s="22" t="str">
+      <c r="Z13" s="43" t="str">
         <f>IF(_cuben_day_hour!X4="","",_cuben_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA13" s="21" t="str">
+      <c r="AA13" s="42" t="str">
         <f>IF(_cuben_day_hour!Y4="","",_cuben_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB13" s="21" t="str">
+      <c r="AB13" s="42" t="str">
         <f>IF(_cuben_day_hour!Z4="","",_cuben_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC13" s="21" t="str">
+      <c r="AC13" s="42" t="str">
         <f>IF(_cuben_day_hour!AA4="","",_cuben_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD13" s="21" t="str">
+      <c r="AD13" s="42" t="str">
         <f>IF(_cuben_day_hour!AB4="","",_cuben_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE13" s="21" t="str">
+      <c r="AE13" s="42" t="str">
         <f>IF(_cuben_day_hour!AC4="","",_cuben_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF13" s="21" t="str">
+      <c r="AF13" s="42" t="str">
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="27" t="s">
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="25" t="str">
+      <c r="AI13" s="47" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AJ13" s="25" t="str">
+      <c r="AJ13" s="47" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AK13" s="26" t="str">
+      <c r="AK13" s="48" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20">
+    <row ht="22" customHeight="1" r="14">
+      <c r="B14" s="41">
         <v>0.125</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="42" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="42" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="42" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="42" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="42" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H14" s="22" t="str">
+      <c r="H14" s="43" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I14" s="23" t="str">
+      <c r="I14" s="44" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="42" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="43" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="42" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="42" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N14" s="21" t="str">
+      <c r="N14" s="42" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O14" s="21" t="str">
+      <c r="O14" s="42" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P14" s="21" t="str">
+      <c r="P14" s="42" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q14" s="23" t="str">
+      <c r="Q14" s="44" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="42" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S14" s="21" t="str">
+      <c r="S14" s="42" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T14" s="21" t="str">
+      <c r="T14" s="42" t="str">
         <f>IF(_cuben_day_hour!R5="","",_cuben_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U14" s="23" t="str">
+      <c r="U14" s="44" t="str">
         <f>IF(_cuben_day_hour!S5="","",_cuben_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V14" s="23" t="str">
+      <c r="V14" s="44" t="str">
         <f>IF(_cuben_day_hour!T5="","",_cuben_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W14" s="21" t="str">
+      <c r="W14" s="42" t="str">
         <f>IF(_cuben_day_hour!U5="","",_cuben_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X14" s="21" t="str">
+      <c r="X14" s="42" t="str">
         <f>IF(_cuben_day_hour!V5="","",_cuben_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y14" s="22" t="str">
+      <c r="Y14" s="43" t="str">
         <f>IF(_cuben_day_hour!W5="","",_cuben_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z14" s="22" t="str">
+      <c r="Z14" s="43" t="str">
         <f>IF(_cuben_day_hour!X5="","",_cuben_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA14" s="21" t="str">
+      <c r="AA14" s="42" t="str">
         <f>IF(_cuben_day_hour!Y5="","",_cuben_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB14" s="21" t="str">
+      <c r="AB14" s="42" t="str">
         <f>IF(_cuben_day_hour!Z5="","",_cuben_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC14" s="21" t="str">
+      <c r="AC14" s="42" t="str">
         <f>IF(_cuben_day_hour!AA5="","",_cuben_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD14" s="21" t="str">
+      <c r="AD14" s="42" t="str">
         <f>IF(_cuben_day_hour!AB5="","",_cuben_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE14" s="21" t="str">
+      <c r="AE14" s="42" t="str">
         <f>IF(_cuben_day_hour!AC5="","",_cuben_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF14" s="21" t="str">
+      <c r="AF14" s="42" t="str">
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="27" t="s">
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="AI14" s="25" t="str">
+      <c r="AI14" s="47" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="AJ14" s="25" t="str">
+      <c r="AJ14" s="47" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="AK14" s="26" t="str">
+      <c r="AK14" s="48" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+    <row ht="22" customHeight="1" r="15">
+      <c r="B15" s="41">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="42" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="42" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="42" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="42" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="42" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H15" s="22" t="str">
+      <c r="H15" s="43" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I15" s="23" t="str">
+      <c r="I15" s="44" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="42" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="43" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="42" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="42" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N15" s="21" t="str">
+      <c r="N15" s="42" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O15" s="21" t="str">
+      <c r="O15" s="42" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P15" s="21" t="str">
+      <c r="P15" s="42" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q15" s="23" t="str">
+      <c r="Q15" s="44" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="R15" s="42" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S15" s="21" t="str">
+      <c r="S15" s="42" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T15" s="21" t="str">
+      <c r="T15" s="42" t="str">
         <f>IF(_cuben_day_hour!R6="","",_cuben_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U15" s="23" t="str">
+      <c r="U15" s="44" t="str">
         <f>IF(_cuben_day_hour!S6="","",_cuben_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V15" s="23" t="str">
+      <c r="V15" s="44" t="str">
         <f>IF(_cuben_day_hour!T6="","",_cuben_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W15" s="21" t="str">
+      <c r="W15" s="42" t="str">
         <f>IF(_cuben_day_hour!U6="","",_cuben_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X15" s="21" t="str">
+      <c r="X15" s="42" t="str">
         <f>IF(_cuben_day_hour!V6="","",_cuben_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y15" s="22" t="str">
+      <c r="Y15" s="43" t="str">
         <f>IF(_cuben_day_hour!W6="","",_cuben_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z15" s="22" t="str">
+      <c r="Z15" s="43" t="str">
         <f>IF(_cuben_day_hour!X6="","",_cuben_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA15" s="21" t="str">
+      <c r="AA15" s="42" t="str">
         <f>IF(_cuben_day_hour!Y6="","",_cuben_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB15" s="21" t="str">
+      <c r="AB15" s="42" t="str">
         <f>IF(_cuben_day_hour!Z6="","",_cuben_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC15" s="21" t="str">
+      <c r="AC15" s="42" t="str">
         <f>IF(_cuben_day_hour!AA6="","",_cuben_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD15" s="21" t="str">
+      <c r="AD15" s="42" t="str">
         <f>IF(_cuben_day_hour!AB6="","",_cuben_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE15" s="21" t="str">
+      <c r="AE15" s="42" t="str">
         <f>IF(_cuben_day_hour!AC6="","",_cuben_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF15" s="21" t="str">
+      <c r="AF15" s="42" t="str">
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="27" t="s">
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="AI15" s="25" t="str">
+      <c r="AI15" s="47" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="AJ15" s="25" t="str">
+      <c r="AJ15" s="47" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="AK15" s="26" t="str">
+      <c r="AK15" s="48" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+    <row ht="22" customHeight="1" r="16">
+      <c r="B16" s="41">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="42" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="42" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="42" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="42" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="42" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H16" s="22" t="str">
+      <c r="H16" s="43" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I16" s="23" t="str">
+      <c r="I16" s="44" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="42" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="43" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L16" s="21" t="str">
+      <c r="L16" s="42" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M16" s="21" t="str">
+      <c r="M16" s="42" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N16" s="21" t="str">
+      <c r="N16" s="42" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O16" s="21" t="str">
+      <c r="O16" s="42" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P16" s="21" t="str">
+      <c r="P16" s="42" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q16" s="23" t="str">
+      <c r="Q16" s="44" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="R16" s="42" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S16" s="21" t="str">
+      <c r="S16" s="42" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T16" s="21" t="str">
+      <c r="T16" s="42" t="str">
         <f>IF(_cuben_day_hour!R7="","",_cuben_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U16" s="23" t="str">
+      <c r="U16" s="44" t="str">
         <f>IF(_cuben_day_hour!S7="","",_cuben_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V16" s="23" t="str">
+      <c r="V16" s="44" t="str">
         <f>IF(_cuben_day_hour!T7="","",_cuben_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W16" s="21" t="str">
+      <c r="W16" s="42" t="str">
         <f>IF(_cuben_day_hour!U7="","",_cuben_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X16" s="21" t="str">
+      <c r="X16" s="42" t="str">
         <f>IF(_cuben_day_hour!V7="","",_cuben_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y16" s="22" t="str">
+      <c r="Y16" s="43" t="str">
         <f>IF(_cuben_day_hour!W7="","",_cuben_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z16" s="22" t="str">
+      <c r="Z16" s="43" t="str">
         <f>IF(_cuben_day_hour!X7="","",_cuben_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA16" s="21" t="str">
+      <c r="AA16" s="42" t="str">
         <f>IF(_cuben_day_hour!Y7="","",_cuben_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB16" s="21" t="str">
+      <c r="AB16" s="42" t="str">
         <f>IF(_cuben_day_hour!Z7="","",_cuben_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC16" s="21" t="str">
+      <c r="AC16" s="42" t="str">
         <f>IF(_cuben_day_hour!AA7="","",_cuben_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD16" s="21" t="str">
+      <c r="AD16" s="42" t="str">
         <f>IF(_cuben_day_hour!AB7="","",_cuben_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE16" s="21" t="str">
+      <c r="AE16" s="42" t="str">
         <f>IF(_cuben_day_hour!AC7="","",_cuben_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF16" s="21" t="str">
+      <c r="AF16" s="42" t="str">
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="27" t="s">
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="25" t="str">
+      <c r="AI16" s="47" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AJ16" s="25" t="str">
+      <c r="AJ16" s="47" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AK16" s="26" t="str">
+      <c r="AK16" s="48" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+    <row ht="22" customHeight="1" r="17">
+      <c r="B17" s="41">
         <v>0.25</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="42" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="42" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="42" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="42" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="42" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H17" s="22" t="str">
+      <c r="H17" s="43" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I17" s="23" t="str">
+      <c r="I17" s="44" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="42" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K17" s="22" t="str">
+      <c r="K17" s="43" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="42" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M17" s="21" t="str">
+      <c r="M17" s="42" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N17" s="21" t="str">
+      <c r="N17" s="42" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O17" s="21" t="str">
+      <c r="O17" s="42" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P17" s="21" t="str">
+      <c r="P17" s="42" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q17" s="23" t="str">
+      <c r="Q17" s="44" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R17" s="21" t="str">
+      <c r="R17" s="42" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S17" s="21" t="str">
+      <c r="S17" s="42" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T17" s="21" t="str">
+      <c r="T17" s="42" t="str">
         <f>IF(_cuben_day_hour!R8="","",_cuben_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U17" s="23" t="str">
+      <c r="U17" s="44" t="str">
         <f>IF(_cuben_day_hour!S8="","",_cuben_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V17" s="23" t="str">
+      <c r="V17" s="44" t="str">
         <f>IF(_cuben_day_hour!T8="","",_cuben_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W17" s="21" t="str">
+      <c r="W17" s="42" t="str">
         <f>IF(_cuben_day_hour!U8="","",_cuben_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X17" s="21" t="str">
+      <c r="X17" s="42" t="str">
         <f>IF(_cuben_day_hour!V8="","",_cuben_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y17" s="22" t="str">
+      <c r="Y17" s="43" t="str">
         <f>IF(_cuben_day_hour!W8="","",_cuben_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z17" s="22" t="str">
+      <c r="Z17" s="43" t="str">
         <f>IF(_cuben_day_hour!X8="","",_cuben_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA17" s="21" t="str">
+      <c r="AA17" s="42" t="str">
         <f>IF(_cuben_day_hour!Y8="","",_cuben_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB17" s="21" t="str">
+      <c r="AB17" s="42" t="str">
         <f>IF(_cuben_day_hour!Z8="","",_cuben_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC17" s="21" t="str">
+      <c r="AC17" s="42" t="str">
         <f>IF(_cuben_day_hour!AA8="","",_cuben_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD17" s="21" t="str">
+      <c r="AD17" s="42" t="str">
         <f>IF(_cuben_day_hour!AB8="","",_cuben_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE17" s="21" t="str">
+      <c r="AE17" s="42" t="str">
         <f>IF(_cuben_day_hour!AC8="","",_cuben_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF17" s="21" t="str">
+      <c r="AF17" s="42" t="str">
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="57"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="52"/>
     </row>
-    <row r="18" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+    <row ht="22" customHeight="1" r="18">
+      <c r="B18" s="41">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="42" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="D18" s="42" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="42" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="42" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="42" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="43" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I18" s="23" t="str">
+      <c r="I18" s="44" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="42" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="43" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L18" s="21" t="str">
+      <c r="L18" s="42" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="M18" s="42" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N18" s="21" t="str">
+      <c r="N18" s="42" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O18" s="21" t="str">
+      <c r="O18" s="42" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P18" s="21" t="str">
+      <c r="P18" s="42" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q18" s="23" t="str">
+      <c r="Q18" s="44" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="R18" s="42" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S18" s="21" t="str">
+      <c r="S18" s="42" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T18" s="21" t="str">
+      <c r="T18" s="42" t="str">
         <f>IF(_cuben_day_hour!R9="","",_cuben_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U18" s="23" t="str">
+      <c r="U18" s="44" t="str">
         <f>IF(_cuben_day_hour!S9="","",_cuben_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V18" s="23" t="str">
+      <c r="V18" s="44" t="str">
         <f>IF(_cuben_day_hour!T9="","",_cuben_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W18" s="21" t="str">
+      <c r="W18" s="42" t="str">
         <f>IF(_cuben_day_hour!U9="","",_cuben_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X18" s="21" t="str">
+      <c r="X18" s="42" t="str">
         <f>IF(_cuben_day_hour!V9="","",_cuben_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y18" s="22" t="str">
+      <c r="Y18" s="43" t="str">
         <f>IF(_cuben_day_hour!W9="","",_cuben_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z18" s="22" t="str">
+      <c r="Z18" s="43" t="str">
         <f>IF(_cuben_day_hour!X9="","",_cuben_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA18" s="21" t="str">
+      <c r="AA18" s="42" t="str">
         <f>IF(_cuben_day_hour!Y9="","",_cuben_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB18" s="21" t="str">
+      <c r="AB18" s="42" t="str">
         <f>IF(_cuben_day_hour!Z9="","",_cuben_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC18" s="21" t="str">
+      <c r="AC18" s="42" t="str">
         <f>IF(_cuben_day_hour!AA9="","",_cuben_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD18" s="21" t="str">
+      <c r="AD18" s="42" t="str">
         <f>IF(_cuben_day_hour!AB9="","",_cuben_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE18" s="21" t="str">
+      <c r="AE18" s="42" t="str">
         <f>IF(_cuben_day_hour!AC9="","",_cuben_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF18" s="21" t="str">
+      <c r="AF18" s="42" t="str">
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="60"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="55"/>
     </row>
-    <row r="19" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+    <row ht="22" customHeight="1" r="19">
+      <c r="B19" s="41">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="42" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="42" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="42" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="42" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="42" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="43" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I19" s="23" t="str">
+      <c r="I19" s="44" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="42" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="43" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L19" s="21" t="str">
+      <c r="L19" s="42" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="M19" s="42" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N19" s="21" t="str">
+      <c r="N19" s="42" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O19" s="21" t="str">
+      <c r="O19" s="42" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P19" s="21" t="str">
+      <c r="P19" s="42" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q19" s="23" t="str">
+      <c r="Q19" s="44" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R19" s="21" t="str">
+      <c r="R19" s="42" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S19" s="21" t="str">
+      <c r="S19" s="42" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T19" s="21" t="str">
+      <c r="T19" s="42" t="str">
         <f>IF(_cuben_day_hour!R10="","",_cuben_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U19" s="23" t="str">
+      <c r="U19" s="44" t="str">
         <f>IF(_cuben_day_hour!S10="","",_cuben_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V19" s="23" t="str">
+      <c r="V19" s="44" t="str">
         <f>IF(_cuben_day_hour!T10="","",_cuben_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W19" s="21" t="str">
+      <c r="W19" s="42" t="str">
         <f>IF(_cuben_day_hour!U10="","",_cuben_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X19" s="21" t="str">
+      <c r="X19" s="42" t="str">
         <f>IF(_cuben_day_hour!V10="","",_cuben_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y19" s="22" t="str">
+      <c r="Y19" s="43" t="str">
         <f>IF(_cuben_day_hour!W10="","",_cuben_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z19" s="22" t="str">
+      <c r="Z19" s="43" t="str">
         <f>IF(_cuben_day_hour!X10="","",_cuben_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA19" s="21" t="str">
+      <c r="AA19" s="42" t="str">
         <f>IF(_cuben_day_hour!Y10="","",_cuben_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB19" s="21" t="str">
+      <c r="AB19" s="42" t="str">
         <f>IF(_cuben_day_hour!Z10="","",_cuben_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC19" s="21" t="str">
+      <c r="AC19" s="42" t="str">
         <f>IF(_cuben_day_hour!AA10="","",_cuben_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD19" s="21" t="str">
+      <c r="AD19" s="42" t="str">
         <f>IF(_cuben_day_hour!AB10="","",_cuben_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE19" s="21" t="str">
+      <c r="AE19" s="42" t="str">
         <f>IF(_cuben_day_hour!AC10="","",_cuben_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF19" s="21" t="str">
+      <c r="AF19" s="42" t="str">
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="60"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="55"/>
     </row>
-    <row r="20" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+    <row ht="22" customHeight="1" r="20">
+      <c r="B20" s="41">
         <v>0.375</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="42" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D20" s="21" t="str">
+      <c r="D20" s="42" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="42" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="F20" s="42" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="42" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H20" s="22" t="str">
+      <c r="H20" s="43" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I20" s="23" t="str">
+      <c r="I20" s="44" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="42" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K20" s="22" t="str">
+      <c r="K20" s="43" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L20" s="21" t="str">
+      <c r="L20" s="42" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M20" s="21" t="str">
+      <c r="M20" s="42" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N20" s="21" t="str">
+      <c r="N20" s="42" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O20" s="21" t="str">
+      <c r="O20" s="42" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P20" s="21" t="str">
+      <c r="P20" s="42" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q20" s="23" t="str">
+      <c r="Q20" s="44" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="R20" s="42" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S20" s="21" t="str">
+      <c r="S20" s="42" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T20" s="21" t="str">
+      <c r="T20" s="42" t="str">
         <f>IF(_cuben_day_hour!R11="","",_cuben_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U20" s="23" t="str">
+      <c r="U20" s="44" t="str">
         <f>IF(_cuben_day_hour!S11="","",_cuben_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V20" s="23" t="str">
+      <c r="V20" s="44" t="str">
         <f>IF(_cuben_day_hour!T11="","",_cuben_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W20" s="21" t="str">
+      <c r="W20" s="42" t="str">
         <f>IF(_cuben_day_hour!U11="","",_cuben_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X20" s="21" t="str">
+      <c r="X20" s="42" t="str">
         <f>IF(_cuben_day_hour!V11="","",_cuben_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y20" s="22" t="str">
+      <c r="Y20" s="43" t="str">
         <f>IF(_cuben_day_hour!W11="","",_cuben_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z20" s="22" t="str">
+      <c r="Z20" s="43" t="str">
         <f>IF(_cuben_day_hour!X11="","",_cuben_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA20" s="21" t="str">
+      <c r="AA20" s="42" t="str">
         <f>IF(_cuben_day_hour!Y11="","",_cuben_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB20" s="21" t="str">
+      <c r="AB20" s="42" t="str">
         <f>IF(_cuben_day_hour!Z11="","",_cuben_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC20" s="21" t="str">
+      <c r="AC20" s="42" t="str">
         <f>IF(_cuben_day_hour!AA11="","",_cuben_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD20" s="21" t="str">
+      <c r="AD20" s="42" t="str">
         <f>IF(_cuben_day_hour!AB11="","",_cuben_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE20" s="21" t="str">
+      <c r="AE20" s="42" t="str">
         <f>IF(_cuben_day_hour!AC11="","",_cuben_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF20" s="21" t="str">
+      <c r="AF20" s="42" t="str">
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="60"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="55"/>
     </row>
-    <row r="21" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+    <row ht="22" customHeight="1" r="21">
+      <c r="B21" s="41">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="42" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="42" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="42" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="F21" s="42" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="42" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H21" s="22" t="str">
+      <c r="H21" s="43" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="44" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="42" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="43" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L21" s="21" t="str">
+      <c r="L21" s="42" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M21" s="21" t="str">
+      <c r="M21" s="42" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N21" s="21" t="str">
+      <c r="N21" s="42" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O21" s="21" t="str">
+      <c r="O21" s="42" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P21" s="21" t="str">
+      <c r="P21" s="42" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q21" s="23" t="str">
+      <c r="Q21" s="44" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="R21" s="42" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S21" s="21" t="str">
+      <c r="S21" s="42" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T21" s="21" t="str">
+      <c r="T21" s="42" t="str">
         <f>IF(_cuben_day_hour!R12="","",_cuben_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U21" s="23" t="str">
+      <c r="U21" s="44" t="str">
         <f>IF(_cuben_day_hour!S12="","",_cuben_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V21" s="23" t="str">
+      <c r="V21" s="44" t="str">
         <f>IF(_cuben_day_hour!T12="","",_cuben_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W21" s="21" t="str">
+      <c r="W21" s="42" t="str">
         <f>IF(_cuben_day_hour!U12="","",_cuben_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X21" s="21" t="str">
+      <c r="X21" s="42" t="str">
         <f>IF(_cuben_day_hour!V12="","",_cuben_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y21" s="22" t="str">
+      <c r="Y21" s="43" t="str">
         <f>IF(_cuben_day_hour!W12="","",_cuben_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z21" s="22" t="str">
+      <c r="Z21" s="43" t="str">
         <f>IF(_cuben_day_hour!X12="","",_cuben_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA21" s="21" t="str">
+      <c r="AA21" s="42" t="str">
         <f>IF(_cuben_day_hour!Y12="","",_cuben_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB21" s="21" t="str">
+      <c r="AB21" s="42" t="str">
         <f>IF(_cuben_day_hour!Z12="","",_cuben_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC21" s="21" t="str">
+      <c r="AC21" s="42" t="str">
         <f>IF(_cuben_day_hour!AA12="","",_cuben_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD21" s="21" t="str">
+      <c r="AD21" s="42" t="str">
         <f>IF(_cuben_day_hour!AB12="","",_cuben_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE21" s="21" t="str">
+      <c r="AE21" s="42" t="str">
         <f>IF(_cuben_day_hour!AC12="","",_cuben_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF21" s="21" t="str">
+      <c r="AF21" s="42" t="str">
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="60"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="55"/>
     </row>
-    <row r="22" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+    <row ht="22" customHeight="1" r="22">
+      <c r="B22" s="41">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="42" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D22" s="21" t="str">
+      <c r="D22" s="42" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="42" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F22" s="42" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="42" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H22" s="22" t="str">
+      <c r="H22" s="43" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I22" s="23" t="str">
+      <c r="I22" s="44" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="42" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K22" s="22" t="str">
+      <c r="K22" s="43" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L22" s="21" t="str">
+      <c r="L22" s="42" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="M22" s="42" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N22" s="21" t="str">
+      <c r="N22" s="42" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O22" s="21" t="str">
+      <c r="O22" s="42" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P22" s="21" t="str">
+      <c r="P22" s="42" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q22" s="23" t="str">
+      <c r="Q22" s="44" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="R22" s="42" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S22" s="21" t="str">
+      <c r="S22" s="42" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T22" s="21" t="str">
+      <c r="T22" s="42" t="str">
         <f>IF(_cuben_day_hour!R13="","",_cuben_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U22" s="23" t="str">
+      <c r="U22" s="44" t="str">
         <f>IF(_cuben_day_hour!S13="","",_cuben_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V22" s="23" t="str">
+      <c r="V22" s="44" t="str">
         <f>IF(_cuben_day_hour!T13="","",_cuben_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W22" s="21" t="str">
+      <c r="W22" s="42" t="str">
         <f>IF(_cuben_day_hour!U13="","",_cuben_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X22" s="21" t="str">
+      <c r="X22" s="42" t="str">
         <f>IF(_cuben_day_hour!V13="","",_cuben_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y22" s="22" t="str">
+      <c r="Y22" s="43" t="str">
         <f>IF(_cuben_day_hour!W13="","",_cuben_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z22" s="22" t="str">
+      <c r="Z22" s="43" t="str">
         <f>IF(_cuben_day_hour!X13="","",_cuben_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA22" s="21" t="str">
+      <c r="AA22" s="42" t="str">
         <f>IF(_cuben_day_hour!Y13="","",_cuben_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB22" s="21" t="str">
+      <c r="AB22" s="42" t="str">
         <f>IF(_cuben_day_hour!Z13="","",_cuben_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC22" s="21" t="str">
+      <c r="AC22" s="42" t="str">
         <f>IF(_cuben_day_hour!AA13="","",_cuben_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD22" s="21" t="str">
+      <c r="AD22" s="42" t="str">
         <f>IF(_cuben_day_hour!AB13="","",_cuben_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE22" s="21" t="str">
+      <c r="AE22" s="42" t="str">
         <f>IF(_cuben_day_hour!AC13="","",_cuben_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF22" s="21" t="str">
+      <c r="AF22" s="42" t="str">
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="60"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="55"/>
     </row>
-    <row r="23" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+    <row ht="22" customHeight="1" r="23">
+      <c r="B23" s="41">
         <v>0.5</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="42" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D23" s="21" t="str">
+      <c r="D23" s="42" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="42" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="F23" s="42" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="42" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H23" s="22" t="str">
+      <c r="H23" s="43" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I23" s="23" t="str">
+      <c r="I23" s="44" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="42" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K23" s="22" t="str">
+      <c r="K23" s="43" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L23" s="21" t="str">
+      <c r="L23" s="42" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M23" s="21" t="str">
+      <c r="M23" s="42" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N23" s="21" t="str">
+      <c r="N23" s="42" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O23" s="21" t="str">
+      <c r="O23" s="42" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P23" s="21" t="str">
+      <c r="P23" s="42" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q23" s="23" t="str">
+      <c r="Q23" s="44" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R23" s="21" t="str">
+      <c r="R23" s="42" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S23" s="21" t="str">
+      <c r="S23" s="42" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T23" s="21" t="str">
+      <c r="T23" s="42" t="str">
         <f>IF(_cuben_day_hour!R14="","",_cuben_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U23" s="23" t="str">
+      <c r="U23" s="44" t="str">
         <f>IF(_cuben_day_hour!S14="","",_cuben_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V23" s="23" t="str">
+      <c r="V23" s="44" t="str">
         <f>IF(_cuben_day_hour!T14="","",_cuben_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W23" s="21" t="str">
+      <c r="W23" s="42" t="str">
         <f>IF(_cuben_day_hour!U14="","",_cuben_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X23" s="21" t="str">
+      <c r="X23" s="42" t="str">
         <f>IF(_cuben_day_hour!V14="","",_cuben_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y23" s="22" t="str">
+      <c r="Y23" s="43" t="str">
         <f>IF(_cuben_day_hour!W14="","",_cuben_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z23" s="22" t="str">
+      <c r="Z23" s="43" t="str">
         <f>IF(_cuben_day_hour!X14="","",_cuben_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA23" s="21" t="str">
+      <c r="AA23" s="42" t="str">
         <f>IF(_cuben_day_hour!Y14="","",_cuben_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB23" s="21" t="str">
+      <c r="AB23" s="42" t="str">
         <f>IF(_cuben_day_hour!Z14="","",_cuben_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC23" s="21" t="str">
+      <c r="AC23" s="42" t="str">
         <f>IF(_cuben_day_hour!AA14="","",_cuben_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD23" s="21" t="str">
+      <c r="AD23" s="42" t="str">
         <f>IF(_cuben_day_hour!AB14="","",_cuben_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE23" s="21" t="str">
+      <c r="AE23" s="42" t="str">
         <f>IF(_cuben_day_hour!AC14="","",_cuben_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF23" s="21" t="str">
+      <c r="AF23" s="42" t="str">
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="60"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="55"/>
     </row>
-    <row r="24" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+    <row ht="22" customHeight="1" r="24">
+      <c r="B24" s="41">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="42" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D24" s="21" t="str">
+      <c r="D24" s="42" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="42" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="42" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="42" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="43" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I24" s="23" t="str">
+      <c r="I24" s="44" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="42" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="43" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L24" s="21" t="str">
+      <c r="L24" s="42" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M24" s="21" t="str">
+      <c r="M24" s="42" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N24" s="21" t="str">
+      <c r="N24" s="42" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O24" s="21" t="str">
+      <c r="O24" s="42" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P24" s="21" t="str">
+      <c r="P24" s="42" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q24" s="23" t="str">
+      <c r="Q24" s="44" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="R24" s="42" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S24" s="21" t="str">
+      <c r="S24" s="42" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T24" s="21" t="str">
+      <c r="T24" s="42" t="str">
         <f>IF(_cuben_day_hour!R15="","",_cuben_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U24" s="23" t="str">
+      <c r="U24" s="44" t="str">
         <f>IF(_cuben_day_hour!S15="","",_cuben_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V24" s="23" t="str">
+      <c r="V24" s="44" t="str">
         <f>IF(_cuben_day_hour!T15="","",_cuben_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W24" s="21" t="str">
+      <c r="W24" s="42" t="str">
         <f>IF(_cuben_day_hour!U15="","",_cuben_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X24" s="21" t="str">
+      <c r="X24" s="42" t="str">
         <f>IF(_cuben_day_hour!V15="","",_cuben_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y24" s="22" t="str">
+      <c r="Y24" s="43" t="str">
         <f>IF(_cuben_day_hour!W15="","",_cuben_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z24" s="22" t="str">
+      <c r="Z24" s="43" t="str">
         <f>IF(_cuben_day_hour!X15="","",_cuben_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA24" s="21" t="str">
+      <c r="AA24" s="42" t="str">
         <f>IF(_cuben_day_hour!Y15="","",_cuben_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB24" s="21" t="str">
+      <c r="AB24" s="42" t="str">
         <f>IF(_cuben_day_hour!Z15="","",_cuben_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC24" s="21" t="str">
+      <c r="AC24" s="42" t="str">
         <f>IF(_cuben_day_hour!AA15="","",_cuben_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD24" s="21" t="str">
+      <c r="AD24" s="42" t="str">
         <f>IF(_cuben_day_hour!AB15="","",_cuben_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE24" s="21" t="str">
+      <c r="AE24" s="42" t="str">
         <f>IF(_cuben_day_hour!AC15="","",_cuben_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF24" s="21" t="str">
+      <c r="AF24" s="42" t="str">
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="60"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="55"/>
     </row>
-    <row r="25" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20">
+    <row ht="22" customHeight="1" r="25">
+      <c r="B25" s="41">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="42" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D25" s="21" t="str">
+      <c r="D25" s="42" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" s="42" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F25" s="21" t="str">
+      <c r="F25" s="42" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="42" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H25" s="22" t="str">
+      <c r="H25" s="43" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I25" s="23" t="str">
+      <c r="I25" s="44" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="42" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K25" s="22" t="str">
+      <c r="K25" s="43" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L25" s="21" t="str">
+      <c r="L25" s="42" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M25" s="21" t="str">
+      <c r="M25" s="42" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N25" s="21" t="str">
+      <c r="N25" s="42" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O25" s="21" t="str">
+      <c r="O25" s="42" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P25" s="21" t="str">
+      <c r="P25" s="42" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q25" s="23" t="str">
+      <c r="Q25" s="44" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R25" s="21" t="str">
+      <c r="R25" s="42" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S25" s="21" t="str">
+      <c r="S25" s="42" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T25" s="21" t="str">
+      <c r="T25" s="42" t="str">
         <f>IF(_cuben_day_hour!R16="","",_cuben_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U25" s="23" t="str">
+      <c r="U25" s="44" t="str">
         <f>IF(_cuben_day_hour!S16="","",_cuben_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V25" s="23" t="str">
+      <c r="V25" s="44" t="str">
         <f>IF(_cuben_day_hour!T16="","",_cuben_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W25" s="21" t="str">
+      <c r="W25" s="42" t="str">
         <f>IF(_cuben_day_hour!U16="","",_cuben_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X25" s="21" t="str">
+      <c r="X25" s="42" t="str">
         <f>IF(_cuben_day_hour!V16="","",_cuben_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y25" s="22" t="str">
+      <c r="Y25" s="43" t="str">
         <f>IF(_cuben_day_hour!W16="","",_cuben_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z25" s="22" t="str">
+      <c r="Z25" s="43" t="str">
         <f>IF(_cuben_day_hour!X16="","",_cuben_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA25" s="21" t="str">
+      <c r="AA25" s="42" t="str">
         <f>IF(_cuben_day_hour!Y16="","",_cuben_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB25" s="21" t="str">
+      <c r="AB25" s="42" t="str">
         <f>IF(_cuben_day_hour!Z16="","",_cuben_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC25" s="21" t="str">
+      <c r="AC25" s="42" t="str">
         <f>IF(_cuben_day_hour!AA16="","",_cuben_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD25" s="21" t="str">
+      <c r="AD25" s="42" t="str">
         <f>IF(_cuben_day_hour!AB16="","",_cuben_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE25" s="21" t="str">
+      <c r="AE25" s="42" t="str">
         <f>IF(_cuben_day_hour!AC16="","",_cuben_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF25" s="21" t="str">
+      <c r="AF25" s="42" t="str">
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="60"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="55"/>
     </row>
-    <row r="26" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
+    <row ht="22" customHeight="1" r="26">
+      <c r="B26" s="41">
         <v>0.625</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="42" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="42" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="42" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F26" s="21" t="str">
+      <c r="F26" s="42" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="42" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H26" s="22" t="str">
+      <c r="H26" s="43" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I26" s="23" t="str">
+      <c r="I26" s="44" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="42" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="43" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L26" s="21" t="str">
+      <c r="L26" s="42" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M26" s="21" t="str">
+      <c r="M26" s="42" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N26" s="21" t="str">
+      <c r="N26" s="42" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O26" s="21" t="str">
+      <c r="O26" s="42" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P26" s="21" t="str">
+      <c r="P26" s="42" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q26" s="23" t="str">
+      <c r="Q26" s="44" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R26" s="21" t="str">
+      <c r="R26" s="42" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S26" s="21" t="str">
+      <c r="S26" s="42" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T26" s="21" t="str">
+      <c r="T26" s="42" t="str">
         <f>IF(_cuben_day_hour!R17="","",_cuben_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U26" s="23" t="str">
+      <c r="U26" s="44" t="str">
         <f>IF(_cuben_day_hour!S17="","",_cuben_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V26" s="23" t="str">
+      <c r="V26" s="44" t="str">
         <f>IF(_cuben_day_hour!T17="","",_cuben_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W26" s="21" t="str">
+      <c r="W26" s="42" t="str">
         <f>IF(_cuben_day_hour!U17="","",_cuben_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X26" s="21" t="str">
+      <c r="X26" s="42" t="str">
         <f>IF(_cuben_day_hour!V17="","",_cuben_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y26" s="22" t="str">
+      <c r="Y26" s="43" t="str">
         <f>IF(_cuben_day_hour!W17="","",_cuben_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z26" s="22" t="str">
+      <c r="Z26" s="43" t="str">
         <f>IF(_cuben_day_hour!X17="","",_cuben_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA26" s="21" t="str">
+      <c r="AA26" s="42" t="str">
         <f>IF(_cuben_day_hour!Y17="","",_cuben_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB26" s="21" t="str">
+      <c r="AB26" s="42" t="str">
         <f>IF(_cuben_day_hour!Z17="","",_cuben_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC26" s="21" t="str">
+      <c r="AC26" s="42" t="str">
         <f>IF(_cuben_day_hour!AA17="","",_cuben_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD26" s="21" t="str">
+      <c r="AD26" s="42" t="str">
         <f>IF(_cuben_day_hour!AB17="","",_cuben_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE26" s="21" t="str">
+      <c r="AE26" s="42" t="str">
         <f>IF(_cuben_day_hour!AC17="","",_cuben_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF26" s="21" t="str">
+      <c r="AF26" s="42" t="str">
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="60"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="55"/>
     </row>
-    <row r="27" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+    <row ht="22" customHeight="1" r="27">
+      <c r="B27" s="41">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="42" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="42" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" s="42" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F27" s="21" t="str">
+      <c r="F27" s="42" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="42" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H27" s="22" t="str">
+      <c r="H27" s="43" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I27" s="23" t="str">
+      <c r="I27" s="44" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="42" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K27" s="22" t="str">
+      <c r="K27" s="43" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L27" s="21" t="str">
+      <c r="L27" s="42" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M27" s="21" t="str">
+      <c r="M27" s="42" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N27" s="21" t="str">
+      <c r="N27" s="42" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O27" s="21" t="str">
+      <c r="O27" s="42" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P27" s="21" t="str">
+      <c r="P27" s="42" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q27" s="23" t="str">
+      <c r="Q27" s="44" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R27" s="21" t="str">
+      <c r="R27" s="42" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S27" s="21" t="str">
+      <c r="S27" s="42" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T27" s="21" t="str">
+      <c r="T27" s="42" t="str">
         <f>IF(_cuben_day_hour!R18="","",_cuben_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U27" s="23" t="str">
+      <c r="U27" s="44" t="str">
         <f>IF(_cuben_day_hour!S18="","",_cuben_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V27" s="23" t="str">
+      <c r="V27" s="44" t="str">
         <f>IF(_cuben_day_hour!T18="","",_cuben_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W27" s="21" t="str">
+      <c r="W27" s="42" t="str">
         <f>IF(_cuben_day_hour!U18="","",_cuben_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X27" s="21" t="str">
+      <c r="X27" s="42" t="str">
         <f>IF(_cuben_day_hour!V18="","",_cuben_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y27" s="22" t="str">
+      <c r="Y27" s="43" t="str">
         <f>IF(_cuben_day_hour!W18="","",_cuben_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z27" s="22" t="str">
+      <c r="Z27" s="43" t="str">
         <f>IF(_cuben_day_hour!X18="","",_cuben_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA27" s="21" t="str">
+      <c r="AA27" s="42" t="str">
         <f>IF(_cuben_day_hour!Y18="","",_cuben_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB27" s="21" t="str">
+      <c r="AB27" s="42" t="str">
         <f>IF(_cuben_day_hour!Z18="","",_cuben_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC27" s="21" t="str">
+      <c r="AC27" s="42" t="str">
         <f>IF(_cuben_day_hour!AA18="","",_cuben_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD27" s="21" t="str">
+      <c r="AD27" s="42" t="str">
         <f>IF(_cuben_day_hour!AB18="","",_cuben_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE27" s="21" t="str">
+      <c r="AE27" s="42" t="str">
         <f>IF(_cuben_day_hour!AC18="","",_cuben_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF27" s="21" t="str">
+      <c r="AF27" s="42" t="str">
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="60"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="55"/>
     </row>
-    <row r="28" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
+    <row ht="22" customHeight="1" r="28">
+      <c r="B28" s="41">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="42" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="D28" s="42" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="42" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F28" s="21" t="str">
+      <c r="F28" s="42" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="42" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H28" s="22" t="str">
+      <c r="H28" s="43" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I28" s="23" t="str">
+      <c r="I28" s="44" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="42" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="43" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L28" s="21" t="str">
+      <c r="L28" s="42" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="M28" s="42" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N28" s="21" t="str">
+      <c r="N28" s="42" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O28" s="21" t="str">
+      <c r="O28" s="42" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P28" s="21" t="str">
+      <c r="P28" s="42" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q28" s="23" t="str">
+      <c r="Q28" s="44" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R28" s="21" t="str">
+      <c r="R28" s="42" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S28" s="21" t="str">
+      <c r="S28" s="42" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T28" s="21" t="str">
+      <c r="T28" s="42" t="str">
         <f>IF(_cuben_day_hour!R19="","",_cuben_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U28" s="23" t="str">
+      <c r="U28" s="44" t="str">
         <f>IF(_cuben_day_hour!S19="","",_cuben_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V28" s="23" t="str">
+      <c r="V28" s="44" t="str">
         <f>IF(_cuben_day_hour!T19="","",_cuben_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W28" s="21" t="str">
+      <c r="W28" s="42" t="str">
         <f>IF(_cuben_day_hour!U19="","",_cuben_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X28" s="21" t="str">
+      <c r="X28" s="42" t="str">
         <f>IF(_cuben_day_hour!V19="","",_cuben_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y28" s="22" t="str">
+      <c r="Y28" s="43" t="str">
         <f>IF(_cuben_day_hour!W19="","",_cuben_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z28" s="22" t="str">
+      <c r="Z28" s="43" t="str">
         <f>IF(_cuben_day_hour!X19="","",_cuben_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA28" s="21" t="str">
+      <c r="AA28" s="42" t="str">
         <f>IF(_cuben_day_hour!Y19="","",_cuben_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB28" s="21" t="str">
+      <c r="AB28" s="42" t="str">
         <f>IF(_cuben_day_hour!Z19="","",_cuben_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC28" s="21" t="str">
+      <c r="AC28" s="42" t="str">
         <f>IF(_cuben_day_hour!AA19="","",_cuben_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD28" s="21" t="str">
+      <c r="AD28" s="42" t="str">
         <f>IF(_cuben_day_hour!AB19="","",_cuben_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE28" s="21" t="str">
+      <c r="AE28" s="42" t="str">
         <f>IF(_cuben_day_hour!AC19="","",_cuben_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF28" s="21" t="str">
+      <c r="AF28" s="42" t="str">
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="60"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="55"/>
     </row>
-    <row r="29" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20">
+    <row ht="22" customHeight="1" r="29">
+      <c r="B29" s="41">
         <v>0.75</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="42" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="D29" s="42" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" s="42" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F29" s="21" t="str">
+      <c r="F29" s="42" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="42" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H29" s="22" t="str">
+      <c r="H29" s="43" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I29" s="23" t="str">
+      <c r="I29" s="44" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="42" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="43" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L29" s="21" t="str">
+      <c r="L29" s="42" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M29" s="21" t="str">
+      <c r="M29" s="42" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N29" s="21" t="str">
+      <c r="N29" s="42" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O29" s="21" t="str">
+      <c r="O29" s="42" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P29" s="21" t="str">
+      <c r="P29" s="42" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q29" s="23" t="str">
+      <c r="Q29" s="44" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R29" s="21" t="str">
+      <c r="R29" s="42" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S29" s="21" t="str">
+      <c r="S29" s="42" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T29" s="21" t="str">
+      <c r="T29" s="42" t="str">
         <f>IF(_cuben_day_hour!R20="","",_cuben_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U29" s="23" t="str">
+      <c r="U29" s="44" t="str">
         <f>IF(_cuben_day_hour!S20="","",_cuben_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V29" s="23" t="str">
+      <c r="V29" s="44" t="str">
         <f>IF(_cuben_day_hour!T20="","",_cuben_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W29" s="21" t="str">
+      <c r="W29" s="42" t="str">
         <f>IF(_cuben_day_hour!U20="","",_cuben_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X29" s="21" t="str">
+      <c r="X29" s="42" t="str">
         <f>IF(_cuben_day_hour!V20="","",_cuben_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y29" s="22" t="str">
+      <c r="Y29" s="43" t="str">
         <f>IF(_cuben_day_hour!W20="","",_cuben_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z29" s="22" t="str">
+      <c r="Z29" s="43" t="str">
         <f>IF(_cuben_day_hour!X20="","",_cuben_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA29" s="21" t="str">
+      <c r="AA29" s="42" t="str">
         <f>IF(_cuben_day_hour!Y20="","",_cuben_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB29" s="21" t="str">
+      <c r="AB29" s="42" t="str">
         <f>IF(_cuben_day_hour!Z20="","",_cuben_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC29" s="21" t="str">
+      <c r="AC29" s="42" t="str">
         <f>IF(_cuben_day_hour!AA20="","",_cuben_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD29" s="21" t="str">
+      <c r="AD29" s="42" t="str">
         <f>IF(_cuben_day_hour!AB20="","",_cuben_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE29" s="21" t="str">
+      <c r="AE29" s="42" t="str">
         <f>IF(_cuben_day_hour!AC20="","",_cuben_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF29" s="21" t="str">
+      <c r="AF29" s="42" t="str">
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="60"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="55"/>
     </row>
-    <row r="30" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20">
+    <row ht="22" customHeight="1" r="30">
+      <c r="B30" s="41">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" s="42" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D30" s="42" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="42" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F30" s="21" t="str">
+      <c r="F30" s="42" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="42" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H30" s="22" t="str">
+      <c r="H30" s="43" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I30" s="23" t="str">
+      <c r="I30" s="44" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="42" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K30" s="22" t="str">
+      <c r="K30" s="43" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L30" s="21" t="str">
+      <c r="L30" s="42" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M30" s="21" t="str">
+      <c r="M30" s="42" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N30" s="21" t="str">
+      <c r="N30" s="42" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O30" s="21" t="str">
+      <c r="O30" s="42" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P30" s="21" t="str">
+      <c r="P30" s="42" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q30" s="23" t="str">
+      <c r="Q30" s="44" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R30" s="21" t="str">
+      <c r="R30" s="42" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S30" s="21" t="str">
+      <c r="S30" s="42" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T30" s="21" t="str">
+      <c r="T30" s="42" t="str">
         <f>IF(_cuben_day_hour!R21="","",_cuben_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U30" s="23" t="str">
+      <c r="U30" s="44" t="str">
         <f>IF(_cuben_day_hour!S21="","",_cuben_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V30" s="23" t="str">
+      <c r="V30" s="44" t="str">
         <f>IF(_cuben_day_hour!T21="","",_cuben_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W30" s="21" t="str">
+      <c r="W30" s="42" t="str">
         <f>IF(_cuben_day_hour!U21="","",_cuben_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X30" s="21" t="str">
+      <c r="X30" s="42" t="str">
         <f>IF(_cuben_day_hour!V21="","",_cuben_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y30" s="22" t="str">
+      <c r="Y30" s="43" t="str">
         <f>IF(_cuben_day_hour!W21="","",_cuben_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z30" s="22" t="str">
+      <c r="Z30" s="43" t="str">
         <f>IF(_cuben_day_hour!X21="","",_cuben_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA30" s="21" t="str">
+      <c r="AA30" s="42" t="str">
         <f>IF(_cuben_day_hour!Y21="","",_cuben_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB30" s="21" t="str">
+      <c r="AB30" s="42" t="str">
         <f>IF(_cuben_day_hour!Z21="","",_cuben_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC30" s="21" t="str">
+      <c r="AC30" s="42" t="str">
         <f>IF(_cuben_day_hour!AA21="","",_cuben_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD30" s="21" t="str">
+      <c r="AD30" s="42" t="str">
         <f>IF(_cuben_day_hour!AB21="","",_cuben_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE30" s="21" t="str">
+      <c r="AE30" s="42" t="str">
         <f>IF(_cuben_day_hour!AC21="","",_cuben_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF30" s="21" t="str">
+      <c r="AF30" s="42" t="str">
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="60"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="55"/>
     </row>
-    <row r="31" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20">
+    <row ht="22" customHeight="1" r="31">
+      <c r="B31" s="41">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="C31" s="42" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="D31" s="42" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="E31" s="42" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F31" s="21" t="str">
+      <c r="F31" s="42" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="42" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H31" s="22" t="str">
+      <c r="H31" s="43" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I31" s="23" t="str">
+      <c r="I31" s="44" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="42" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K31" s="22" t="str">
+      <c r="K31" s="43" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L31" s="21" t="str">
+      <c r="L31" s="42" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M31" s="21" t="str">
+      <c r="M31" s="42" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N31" s="21" t="str">
+      <c r="N31" s="42" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O31" s="21" t="str">
+      <c r="O31" s="42" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P31" s="21" t="str">
+      <c r="P31" s="42" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q31" s="23" t="str">
+      <c r="Q31" s="44" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R31" s="21" t="str">
+      <c r="R31" s="42" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S31" s="21" t="str">
+      <c r="S31" s="42" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T31" s="21" t="str">
+      <c r="T31" s="42" t="str">
         <f>IF(_cuben_day_hour!R22="","",_cuben_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U31" s="23" t="str">
+      <c r="U31" s="44" t="str">
         <f>IF(_cuben_day_hour!S22="","",_cuben_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V31" s="23" t="str">
+      <c r="V31" s="44" t="str">
         <f>IF(_cuben_day_hour!T22="","",_cuben_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W31" s="21" t="str">
+      <c r="W31" s="42" t="str">
         <f>IF(_cuben_day_hour!U22="","",_cuben_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X31" s="21" t="str">
+      <c r="X31" s="42" t="str">
         <f>IF(_cuben_day_hour!V22="","",_cuben_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y31" s="22" t="str">
+      <c r="Y31" s="43" t="str">
         <f>IF(_cuben_day_hour!W22="","",_cuben_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z31" s="22" t="str">
+      <c r="Z31" s="43" t="str">
         <f>IF(_cuben_day_hour!X22="","",_cuben_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AA31" s="42" t="str">
         <f>IF(_cuben_day_hour!Y22="","",_cuben_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB31" s="21" t="str">
+      <c r="AB31" s="42" t="str">
         <f>IF(_cuben_day_hour!Z22="","",_cuben_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC31" s="21" t="str">
+      <c r="AC31" s="42" t="str">
         <f>IF(_cuben_day_hour!AA22="","",_cuben_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD31" s="21" t="str">
+      <c r="AD31" s="42" t="str">
         <f>IF(_cuben_day_hour!AB22="","",_cuben_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE31" s="21" t="str">
+      <c r="AE31" s="42" t="str">
         <f>IF(_cuben_day_hour!AC22="","",_cuben_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF31" s="21" t="str">
+      <c r="AF31" s="42" t="str">
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="60"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="55"/>
     </row>
-    <row r="32" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20">
+    <row ht="22" customHeight="1" r="32">
+      <c r="B32" s="41">
         <v>0.875</v>
       </c>
-      <c r="C32" s="21" t="str">
+      <c r="C32" s="42" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="D32" s="42" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E32" s="21" t="str">
+      <c r="E32" s="42" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F32" s="21" t="str">
+      <c r="F32" s="42" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="42" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H32" s="22" t="str">
+      <c r="H32" s="43" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I32" s="23" t="str">
+      <c r="I32" s="44" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" s="42" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K32" s="22" t="str">
+      <c r="K32" s="43" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L32" s="21" t="str">
+      <c r="L32" s="42" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M32" s="21" t="str">
+      <c r="M32" s="42" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N32" s="21" t="str">
+      <c r="N32" s="42" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O32" s="21" t="str">
+      <c r="O32" s="42" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P32" s="21" t="str">
+      <c r="P32" s="42" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q32" s="23" t="str">
+      <c r="Q32" s="44" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R32" s="21" t="str">
+      <c r="R32" s="42" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S32" s="21" t="str">
+      <c r="S32" s="42" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T32" s="21" t="str">
+      <c r="T32" s="42" t="str">
         <f>IF(_cuben_day_hour!R23="","",_cuben_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U32" s="23" t="str">
+      <c r="U32" s="44" t="str">
         <f>IF(_cuben_day_hour!S23="","",_cuben_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V32" s="23" t="str">
+      <c r="V32" s="44" t="str">
         <f>IF(_cuben_day_hour!T23="","",_cuben_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W32" s="21" t="str">
+      <c r="W32" s="42" t="str">
         <f>IF(_cuben_day_hour!U23="","",_cuben_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X32" s="21" t="str">
+      <c r="X32" s="42" t="str">
         <f>IF(_cuben_day_hour!V23="","",_cuben_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y32" s="22" t="str">
+      <c r="Y32" s="43" t="str">
         <f>IF(_cuben_day_hour!W23="","",_cuben_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z32" s="22" t="str">
+      <c r="Z32" s="43" t="str">
         <f>IF(_cuben_day_hour!X23="","",_cuben_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA32" s="21" t="str">
+      <c r="AA32" s="42" t="str">
         <f>IF(_cuben_day_hour!Y23="","",_cuben_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB32" s="21" t="str">
+      <c r="AB32" s="42" t="str">
         <f>IF(_cuben_day_hour!Z23="","",_cuben_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC32" s="21" t="str">
+      <c r="AC32" s="42" t="str">
         <f>IF(_cuben_day_hour!AA23="","",_cuben_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD32" s="21" t="str">
+      <c r="AD32" s="42" t="str">
         <f>IF(_cuben_day_hour!AB23="","",_cuben_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE32" s="21" t="str">
+      <c r="AE32" s="42" t="str">
         <f>IF(_cuben_day_hour!AC23="","",_cuben_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF32" s="21" t="str">
+      <c r="AF32" s="42" t="str">
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="60"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="54"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="55"/>
     </row>
-    <row r="33" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20">
+    <row ht="22" customHeight="1" r="33">
+      <c r="B33" s="41">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="42" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D33" s="21" t="str">
+      <c r="D33" s="42" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E33" s="21" t="str">
+      <c r="E33" s="42" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F33" s="21" t="str">
+      <c r="F33" s="42" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="42" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H33" s="22" t="str">
+      <c r="H33" s="43" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I33" s="23" t="str">
+      <c r="I33" s="44" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" s="42" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K33" s="22" t="str">
+      <c r="K33" s="43" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L33" s="21" t="str">
+      <c r="L33" s="42" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M33" s="21" t="str">
+      <c r="M33" s="42" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N33" s="21" t="str">
+      <c r="N33" s="42" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O33" s="21" t="str">
+      <c r="O33" s="42" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P33" s="21" t="str">
+      <c r="P33" s="42" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q33" s="23" t="str">
+      <c r="Q33" s="44" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R33" s="21" t="str">
+      <c r="R33" s="42" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S33" s="21" t="str">
+      <c r="S33" s="42" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T33" s="21" t="str">
+      <c r="T33" s="42" t="str">
         <f>IF(_cuben_day_hour!R24="","",_cuben_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U33" s="23" t="str">
+      <c r="U33" s="44" t="str">
         <f>IF(_cuben_day_hour!S24="","",_cuben_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V33" s="23" t="str">
+      <c r="V33" s="44" t="str">
         <f>IF(_cuben_day_hour!T24="","",_cuben_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W33" s="21" t="str">
+      <c r="W33" s="42" t="str">
         <f>IF(_cuben_day_hour!U24="","",_cuben_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X33" s="21" t="str">
+      <c r="X33" s="42" t="str">
         <f>IF(_cuben_day_hour!V24="","",_cuben_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y33" s="22" t="str">
+      <c r="Y33" s="43" t="str">
         <f>IF(_cuben_day_hour!W24="","",_cuben_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z33" s="22" t="str">
+      <c r="Z33" s="43" t="str">
         <f>IF(_cuben_day_hour!X24="","",_cuben_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA33" s="21" t="str">
+      <c r="AA33" s="42" t="str">
         <f>IF(_cuben_day_hour!Y24="","",_cuben_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB33" s="21" t="str">
+      <c r="AB33" s="42" t="str">
         <f>IF(_cuben_day_hour!Z24="","",_cuben_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC33" s="21" t="str">
+      <c r="AC33" s="42" t="str">
         <f>IF(_cuben_day_hour!AA24="","",_cuben_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD33" s="21" t="str">
+      <c r="AD33" s="42" t="str">
         <f>IF(_cuben_day_hour!AB24="","",_cuben_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE33" s="21" t="str">
+      <c r="AE33" s="42" t="str">
         <f>IF(_cuben_day_hour!AC24="","",_cuben_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF33" s="21" t="str">
+      <c r="AF33" s="42" t="str">
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="60"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="55"/>
     </row>
-    <row r="34" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20">
+    <row ht="22" customHeight="1" r="34">
+      <c r="B34" s="41">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" s="42" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D34" s="42" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E34" s="42" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F34" s="21" t="str">
+      <c r="F34" s="42" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="42" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H34" s="22" t="str">
+      <c r="H34" s="43" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I34" s="23" t="str">
+      <c r="I34" s="44" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" s="42" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K34" s="22" t="str">
+      <c r="K34" s="43" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L34" s="21" t="str">
+      <c r="L34" s="42" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M34" s="21" t="str">
+      <c r="M34" s="42" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N34" s="21" t="str">
+      <c r="N34" s="42" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O34" s="21" t="str">
+      <c r="O34" s="42" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P34" s="21" t="str">
+      <c r="P34" s="42" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q34" s="23" t="str">
+      <c r="Q34" s="44" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R34" s="21" t="str">
+      <c r="R34" s="42" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S34" s="21" t="str">
+      <c r="S34" s="42" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T34" s="21" t="str">
+      <c r="T34" s="42" t="str">
         <f>IF(_cuben_day_hour!R25="","",_cuben_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U34" s="23" t="str">
+      <c r="U34" s="44" t="str">
         <f>IF(_cuben_day_hour!S25="","",_cuben_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V34" s="23" t="str">
+      <c r="V34" s="44" t="str">
         <f>IF(_cuben_day_hour!T25="","",_cuben_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W34" s="21" t="str">
+      <c r="W34" s="42" t="str">
         <f>IF(_cuben_day_hour!U25="","",_cuben_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X34" s="21" t="str">
+      <c r="X34" s="42" t="str">
         <f>IF(_cuben_day_hour!V25="","",_cuben_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y34" s="22" t="str">
+      <c r="Y34" s="43" t="str">
         <f>IF(_cuben_day_hour!W25="","",_cuben_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z34" s="22" t="str">
+      <c r="Z34" s="43" t="str">
         <f>IF(_cuben_day_hour!X25="","",_cuben_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA34" s="21" t="str">
+      <c r="AA34" s="42" t="str">
         <f>IF(_cuben_day_hour!Y25="","",_cuben_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB34" s="21" t="str">
+      <c r="AB34" s="42" t="str">
         <f>IF(_cuben_day_hour!Z25="","",_cuben_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC34" s="21" t="str">
+      <c r="AC34" s="42" t="str">
         <f>IF(_cuben_day_hour!AA25="","",_cuben_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD34" s="21" t="str">
+      <c r="AD34" s="42" t="str">
         <f>IF(_cuben_day_hour!AB25="","",_cuben_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE34" s="21" t="str">
+      <c r="AE34" s="42" t="str">
         <f>IF(_cuben_day_hour!AC25="","",_cuben_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF34" s="21" t="str">
+      <c r="AF34" s="42" t="str">
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="60"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="55"/>
     </row>
-    <row r="35" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
+    <row ht="22" customHeight="1" r="35">
+      <c r="B35" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="21" t="str">
-        <f t="shared" ref="C35:AF35" si="0">IF(C11="","",AVERAGE(C11:C18))</f>
-        <v/>
-      </c>
-      <c r="D35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="60"/>
+      <c r="C35" s="42" t="str">
+        <f>IF(C11="","",AVERAGE(C11:C18))</f>
+        <v/>
+      </c>
+      <c r="D35" s="42" t="str">
+        <f>IF(D11="","",AVERAGE(D11:D18))</f>
+        <v/>
+      </c>
+      <c r="E35" s="42" t="str">
+        <f>IF(E11="","",AVERAGE(E11:E18))</f>
+        <v/>
+      </c>
+      <c r="F35" s="42" t="str">
+        <f>IF(F11="","",AVERAGE(F11:F18))</f>
+        <v/>
+      </c>
+      <c r="G35" s="42" t="str">
+        <f>IF(G11="","",AVERAGE(G11:G18))</f>
+        <v/>
+      </c>
+      <c r="H35" s="43" t="str">
+        <f>IF(H11="","",AVERAGE(H11:H18))</f>
+        <v/>
+      </c>
+      <c r="I35" s="44" t="str">
+        <f>IF(I11="","",AVERAGE(I11:I18))</f>
+        <v/>
+      </c>
+      <c r="J35" s="42" t="str">
+        <f>IF(J11="","",AVERAGE(J11:J18))</f>
+        <v/>
+      </c>
+      <c r="K35" s="43" t="str">
+        <f>IF(K11="","",AVERAGE(K11:K18))</f>
+        <v/>
+      </c>
+      <c r="L35" s="42" t="str">
+        <f>IF(L11="","",AVERAGE(L11:L18))</f>
+        <v/>
+      </c>
+      <c r="M35" s="42" t="str">
+        <f>IF(M11="","",AVERAGE(M11:M18))</f>
+        <v/>
+      </c>
+      <c r="N35" s="42" t="str">
+        <f>IF(N11="","",AVERAGE(N11:N18))</f>
+        <v/>
+      </c>
+      <c r="O35" s="42" t="str">
+        <f>IF(O11="","",AVERAGE(O11:O18))</f>
+        <v/>
+      </c>
+      <c r="P35" s="42" t="str">
+        <f>IF(P11="","",AVERAGE(P11:P18))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="44" t="str">
+        <f>IF(Q11="","",AVERAGE(Q11:Q18))</f>
+        <v/>
+      </c>
+      <c r="R35" s="42" t="str">
+        <f>IF(R11="","",AVERAGE(R11:R18))</f>
+        <v/>
+      </c>
+      <c r="S35" s="42" t="str">
+        <f>IF(S11="","",AVERAGE(S11:S18))</f>
+        <v/>
+      </c>
+      <c r="T35" s="42" t="str">
+        <f>IF(T11="","",AVERAGE(T11:T18))</f>
+        <v/>
+      </c>
+      <c r="U35" s="44" t="str">
+        <f>IF(U11="","",AVERAGE(U11:U18))</f>
+        <v/>
+      </c>
+      <c r="V35" s="44" t="str">
+        <f>IF(V11="","",AVERAGE(V11:V18))</f>
+        <v/>
+      </c>
+      <c r="W35" s="42" t="str">
+        <f>IF(W11="","",AVERAGE(W11:W18))</f>
+        <v/>
+      </c>
+      <c r="X35" s="42" t="str">
+        <f>IF(X11="","",AVERAGE(X11:X18))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="43" t="str">
+        <f>IF(Y11="","",AVERAGE(Y11:Y18))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="43" t="str">
+        <f>IF(Z11="","",AVERAGE(Z11:Z18))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="42" t="str">
+        <f>IF(AA11="","",AVERAGE(AA11:AA18))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="42" t="str">
+        <f>IF(AB11="","",AVERAGE(AB11:AB18))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="42" t="str">
+        <f>IF(AC11="","",AVERAGE(AC11:AC18))</f>
+        <v/>
+      </c>
+      <c r="AD35" s="42" t="str">
+        <f>IF(AD11="","",AVERAGE(AD11:AD18))</f>
+        <v/>
+      </c>
+      <c r="AE35" s="42" t="str">
+        <f>IF(AE11="","",AVERAGE(AE11:AE18))</f>
+        <v/>
+      </c>
+      <c r="AF35" s="42" t="str">
+        <f>IF(AF11="","",AVERAGE(AF11:AF18))</f>
+        <v/>
+      </c>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="55"/>
     </row>
-    <row r="36" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
+    <row ht="22" customHeight="1" r="36">
+      <c r="B36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="21" t="str">
-        <f t="shared" ref="C36:AF36" si="1">IF(C17="","",AVERAGE(C17:C26))</f>
-        <v/>
-      </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y36" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z36" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="60"/>
+      <c r="C36" s="42" t="str">
+        <f>IF(C17="","",AVERAGE(C17:C26))</f>
+        <v/>
+      </c>
+      <c r="D36" s="42" t="str">
+        <f>IF(D17="","",AVERAGE(D17:D26))</f>
+        <v/>
+      </c>
+      <c r="E36" s="42" t="str">
+        <f>IF(E17="","",AVERAGE(E17:E26))</f>
+        <v/>
+      </c>
+      <c r="F36" s="42" t="str">
+        <f>IF(F17="","",AVERAGE(F17:F26))</f>
+        <v/>
+      </c>
+      <c r="G36" s="42" t="str">
+        <f>IF(G17="","",AVERAGE(G17:G26))</f>
+        <v/>
+      </c>
+      <c r="H36" s="43" t="str">
+        <f>IF(H17="","",AVERAGE(H17:H26))</f>
+        <v/>
+      </c>
+      <c r="I36" s="44" t="str">
+        <f>IF(I17="","",AVERAGE(I17:I26))</f>
+        <v/>
+      </c>
+      <c r="J36" s="42" t="str">
+        <f>IF(J17="","",AVERAGE(J17:J26))</f>
+        <v/>
+      </c>
+      <c r="K36" s="43" t="str">
+        <f>IF(K17="","",AVERAGE(K17:K26))</f>
+        <v/>
+      </c>
+      <c r="L36" s="42" t="str">
+        <f>IF(L17="","",AVERAGE(L17:L26))</f>
+        <v/>
+      </c>
+      <c r="M36" s="42" t="str">
+        <f>IF(M17="","",AVERAGE(M17:M26))</f>
+        <v/>
+      </c>
+      <c r="N36" s="42" t="str">
+        <f>IF(N17="","",AVERAGE(N17:N26))</f>
+        <v/>
+      </c>
+      <c r="O36" s="42" t="str">
+        <f>IF(O17="","",AVERAGE(O17:O26))</f>
+        <v/>
+      </c>
+      <c r="P36" s="42" t="str">
+        <f>IF(P17="","",AVERAGE(P17:P26))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="44" t="str">
+        <f>IF(Q17="","",AVERAGE(Q17:Q26))</f>
+        <v/>
+      </c>
+      <c r="R36" s="42" t="str">
+        <f>IF(R17="","",AVERAGE(R17:R26))</f>
+        <v/>
+      </c>
+      <c r="S36" s="42" t="str">
+        <f>IF(S17="","",AVERAGE(S17:S26))</f>
+        <v/>
+      </c>
+      <c r="T36" s="42" t="str">
+        <f>IF(T17="","",AVERAGE(T17:T26))</f>
+        <v/>
+      </c>
+      <c r="U36" s="44" t="str">
+        <f>IF(U17="","",AVERAGE(U17:U26))</f>
+        <v/>
+      </c>
+      <c r="V36" s="44" t="str">
+        <f>IF(V17="","",AVERAGE(V17:V26))</f>
+        <v/>
+      </c>
+      <c r="W36" s="42" t="str">
+        <f>IF(W17="","",AVERAGE(W17:W26))</f>
+        <v/>
+      </c>
+      <c r="X36" s="42" t="str">
+        <f>IF(X17="","",AVERAGE(X17:X26))</f>
+        <v/>
+      </c>
+      <c r="Y36" s="43" t="str">
+        <f>IF(Y17="","",AVERAGE(Y17:Y26))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="43" t="str">
+        <f>IF(Z17="","",AVERAGE(Z17:Z26))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="42" t="str">
+        <f>IF(AA17="","",AVERAGE(AA17:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="42" t="str">
+        <f>IF(AB17="","",AVERAGE(AB17:AB26))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="42" t="str">
+        <f>IF(AC17="","",AVERAGE(AC17:AC26))</f>
+        <v/>
+      </c>
+      <c r="AD36" s="42" t="str">
+        <f>IF(AD17="","",AVERAGE(AD17:AD26))</f>
+        <v/>
+      </c>
+      <c r="AE36" s="42" t="str">
+        <f>IF(AE17="","",AVERAGE(AE17:AE26))</f>
+        <v/>
+      </c>
+      <c r="AF36" s="42" t="str">
+        <f>IF(AF17="","",AVERAGE(AF17:AF26))</f>
+        <v/>
+      </c>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="55"/>
     </row>
-    <row r="37" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="28" t="s">
+    <row ht="22" customHeight="1" r="37">
+      <c r="B37" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="21" t="str">
-        <f t="shared" ref="C37:AF37" si="2">IF(C25="","",AVERAGE(C25:C34))</f>
-        <v/>
-      </c>
-      <c r="D37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF37" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="60"/>
+      <c r="C37" s="42" t="str">
+        <f>IF(C25="","",AVERAGE(C25:C34))</f>
+        <v/>
+      </c>
+      <c r="D37" s="42" t="str">
+        <f>IF(D25="","",AVERAGE(D25:D34))</f>
+        <v/>
+      </c>
+      <c r="E37" s="42" t="str">
+        <f>IF(E25="","",AVERAGE(E25:E34))</f>
+        <v/>
+      </c>
+      <c r="F37" s="42" t="str">
+        <f>IF(F25="","",AVERAGE(F25:F34))</f>
+        <v/>
+      </c>
+      <c r="G37" s="42" t="str">
+        <f>IF(G25="","",AVERAGE(G25:G34))</f>
+        <v/>
+      </c>
+      <c r="H37" s="43" t="str">
+        <f>IF(H25="","",AVERAGE(H25:H34))</f>
+        <v/>
+      </c>
+      <c r="I37" s="44" t="str">
+        <f>IF(I25="","",AVERAGE(I25:I34))</f>
+        <v/>
+      </c>
+      <c r="J37" s="42" t="str">
+        <f>IF(J25="","",AVERAGE(J25:J34))</f>
+        <v/>
+      </c>
+      <c r="K37" s="43" t="str">
+        <f>IF(K25="","",AVERAGE(K25:K34))</f>
+        <v/>
+      </c>
+      <c r="L37" s="42" t="str">
+        <f>IF(L25="","",AVERAGE(L25:L34))</f>
+        <v/>
+      </c>
+      <c r="M37" s="42" t="str">
+        <f>IF(M25="","",AVERAGE(M25:M34))</f>
+        <v/>
+      </c>
+      <c r="N37" s="42" t="str">
+        <f>IF(N25="","",AVERAGE(N25:N34))</f>
+        <v/>
+      </c>
+      <c r="O37" s="42" t="str">
+        <f>IF(O25="","",AVERAGE(O25:O34))</f>
+        <v/>
+      </c>
+      <c r="P37" s="42" t="str">
+        <f>IF(P25="","",AVERAGE(P25:P34))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="44" t="str">
+        <f>IF(Q25="","",AVERAGE(Q25:Q34))</f>
+        <v/>
+      </c>
+      <c r="R37" s="42" t="str">
+        <f>IF(R25="","",AVERAGE(R25:R34))</f>
+        <v/>
+      </c>
+      <c r="S37" s="42" t="str">
+        <f>IF(S25="","",AVERAGE(S25:S34))</f>
+        <v/>
+      </c>
+      <c r="T37" s="42" t="str">
+        <f>IF(T25="","",AVERAGE(T25:T34))</f>
+        <v/>
+      </c>
+      <c r="U37" s="44" t="str">
+        <f>IF(U25="","",AVERAGE(U25:U34))</f>
+        <v/>
+      </c>
+      <c r="V37" s="44" t="str">
+        <f>IF(V25="","",AVERAGE(V25:V34))</f>
+        <v/>
+      </c>
+      <c r="W37" s="42" t="str">
+        <f>IF(W25="","",AVERAGE(W25:W34))</f>
+        <v/>
+      </c>
+      <c r="X37" s="42" t="str">
+        <f>IF(X25="","",AVERAGE(X25:X34))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="43" t="str">
+        <f>IF(Y25="","",AVERAGE(Y25:Y34))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="43" t="str">
+        <f>IF(Z25="","",AVERAGE(Z25:Z34))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="42" t="str">
+        <f>IF(AA25="","",AVERAGE(AA25:AA34))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="42" t="str">
+        <f>IF(AB25="","",AVERAGE(AB25:AB34))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="42" t="str">
+        <f>IF(AC25="","",AVERAGE(AC25:AC34))</f>
+        <v/>
+      </c>
+      <c r="AD37" s="42" t="str">
+        <f>IF(AD25="","",AVERAGE(AD25:AD34))</f>
+        <v/>
+      </c>
+      <c r="AE37" s="42" t="str">
+        <f>IF(AE25="","",AVERAGE(AE25:AE34))</f>
+        <v/>
+      </c>
+      <c r="AF37" s="42" t="str">
+        <f>IF(AF25="","",AVERAGE(AF25:AF34))</f>
+        <v/>
+      </c>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="55"/>
     </row>
-    <row r="38" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
+    <row ht="22" customHeight="1" r="38">
+      <c r="B38" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="21" t="str">
-        <f t="shared" ref="C38:AF38" si="3">IF(C11="","",AVERAGE(C11:C34))</f>
-        <v/>
-      </c>
-      <c r="D38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K38" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y38" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z38" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AD38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="60"/>
+      <c r="C38" s="42" t="str">
+        <f>IF(C11="","",AVERAGE(C11:C34))</f>
+        <v/>
+      </c>
+      <c r="D38" s="42" t="str">
+        <f>IF(D11="","",AVERAGE(D11:D34))</f>
+        <v/>
+      </c>
+      <c r="E38" s="42" t="str">
+        <f>IF(E11="","",AVERAGE(E11:E34))</f>
+        <v/>
+      </c>
+      <c r="F38" s="42" t="str">
+        <f>IF(F11="","",AVERAGE(F11:F34))</f>
+        <v/>
+      </c>
+      <c r="G38" s="42" t="str">
+        <f>IF(G11="","",AVERAGE(G11:G34))</f>
+        <v/>
+      </c>
+      <c r="H38" s="43" t="str">
+        <f>IF(H11="","",AVERAGE(H11:H34))</f>
+        <v/>
+      </c>
+      <c r="I38" s="44" t="str">
+        <f>IF(I11="","",AVERAGE(I11:I34))</f>
+        <v/>
+      </c>
+      <c r="J38" s="42" t="str">
+        <f>IF(J11="","",AVERAGE(J11:J34))</f>
+        <v/>
+      </c>
+      <c r="K38" s="43" t="str">
+        <f>IF(K11="","",AVERAGE(K11:K34))</f>
+        <v/>
+      </c>
+      <c r="L38" s="42" t="str">
+        <f>IF(L11="","",AVERAGE(L11:L34))</f>
+        <v/>
+      </c>
+      <c r="M38" s="42" t="str">
+        <f>IF(M11="","",AVERAGE(M11:M34))</f>
+        <v/>
+      </c>
+      <c r="N38" s="42" t="str">
+        <f>IF(N11="","",AVERAGE(N11:N34))</f>
+        <v/>
+      </c>
+      <c r="O38" s="42" t="str">
+        <f>IF(O11="","",AVERAGE(O11:O34))</f>
+        <v/>
+      </c>
+      <c r="P38" s="42" t="str">
+        <f>IF(P11="","",AVERAGE(P11:P34))</f>
+        <v/>
+      </c>
+      <c r="Q38" s="44" t="str">
+        <f>IF(Q11="","",AVERAGE(Q11:Q34))</f>
+        <v/>
+      </c>
+      <c r="R38" s="42" t="str">
+        <f>IF(R11="","",AVERAGE(R11:R34))</f>
+        <v/>
+      </c>
+      <c r="S38" s="42" t="str">
+        <f>IF(S11="","",AVERAGE(S11:S34))</f>
+        <v/>
+      </c>
+      <c r="T38" s="42" t="str">
+        <f>IF(T11="","",AVERAGE(T11:T34))</f>
+        <v/>
+      </c>
+      <c r="U38" s="44" t="str">
+        <f>IF(U11="","",AVERAGE(U11:U34))</f>
+        <v/>
+      </c>
+      <c r="V38" s="44" t="str">
+        <f>IF(V11="","",AVERAGE(V11:V34))</f>
+        <v/>
+      </c>
+      <c r="W38" s="42" t="str">
+        <f>IF(W11="","",AVERAGE(W11:W34))</f>
+        <v/>
+      </c>
+      <c r="X38" s="42" t="str">
+        <f>IF(X11="","",AVERAGE(X11:X34))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="43" t="str">
+        <f>IF(Y11="","",AVERAGE(Y11:Y34))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="43" t="str">
+        <f>IF(Z11="","",AVERAGE(Z11:Z34))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="42" t="str">
+        <f>IF(AA11="","",AVERAGE(AA11:AA34))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="42" t="str">
+        <f>IF(AB11="","",AVERAGE(AB11:AB34))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="42" t="str">
+        <f>IF(AC11="","",AVERAGE(AC11:AC34))</f>
+        <v/>
+      </c>
+      <c r="AD38" s="42" t="str">
+        <f>IF(AD11="","",AVERAGE(AD11:AD34))</f>
+        <v/>
+      </c>
+      <c r="AE38" s="42" t="str">
+        <f>IF(AE11="","",AVERAGE(AE11:AE34))</f>
+        <v/>
+      </c>
+      <c r="AF38" s="42" t="str">
+        <f>IF(AF11="","",AVERAGE(AF11:AF34))</f>
+        <v/>
+      </c>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="55"/>
     </row>
-    <row r="39" spans="2:37" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="63" t="s">
+    <row ht="149.25" customHeight="1" r="39">
+      <c r="B39" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="65" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="65" t="s">
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="55"/>
     </row>
-    <row r="40" spans="2:37" ht="18" x14ac:dyDescent="0.4">
-      <c r="B40" s="72" t="s">
+    <row ht="18" r="40">
+      <c r="B40" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="72" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="74" t="s">
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="76"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="62"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="69"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="71"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="71"/>
+      <c r="AK40" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AG16"/>
-    <mergeCell ref="AG17:AK40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:S39"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="AD39:AF40"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="AG3:AK5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
@@ -6540,325 +6750,318 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="AG3:AK5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AG16"/>
+    <mergeCell ref="AG17:AK40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="AD39:AF40"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="T40:AC40"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="59" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" priority="118" dxfId="0" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="58" priority="117" operator="lessThan">
+    <cfRule type="cellIs" priority="117" dxfId="1" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" priority="58" dxfId="2" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThan">
+    <cfRule type="cellIs" priority="57" dxfId="3" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" priority="56" dxfId="4" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThan">
+    <cfRule type="cellIs" priority="55" dxfId="5" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" priority="54" dxfId="6" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThan">
+    <cfRule type="cellIs" priority="53" dxfId="7" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" priority="52" dxfId="8" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
+    <cfRule type="cellIs" priority="51" dxfId="9" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" priority="50" dxfId="10" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
+    <cfRule type="cellIs" priority="49" dxfId="11" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" priority="48" dxfId="12" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
+    <cfRule type="cellIs" priority="47" dxfId="13" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" priority="46" dxfId="14" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+    <cfRule type="cellIs" priority="45" dxfId="15" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" priority="44" dxfId="16" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
+    <cfRule type="cellIs" priority="43" dxfId="17" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" priority="42" dxfId="18" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+    <cfRule type="cellIs" priority="41" dxfId="19" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="20" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+    <cfRule type="cellIs" priority="39" dxfId="21" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" priority="38" dxfId="22" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
+    <cfRule type="cellIs" priority="37" dxfId="23" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" priority="36" dxfId="24" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+    <cfRule type="cellIs" priority="35" dxfId="25" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" priority="34" dxfId="26" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" priority="33" dxfId="27" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" priority="32" dxfId="28" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" priority="31" dxfId="29" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" priority="30" dxfId="30" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" priority="29" dxfId="31" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" priority="28" dxfId="32" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" priority="27" dxfId="33" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" priority="26" dxfId="34" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" priority="25" dxfId="35" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="24" dxfId="36" operator="greaterThan">
       <formula>U$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" priority="23" dxfId="37" operator="lessThan">
       <formula>U$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" priority="22" dxfId="38" operator="greaterThan">
       <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+    <cfRule type="cellIs" priority="21" dxfId="39" operator="lessThan">
       <formula>V$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" priority="20" dxfId="40" operator="greaterThan">
       <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" priority="19" dxfId="41" operator="lessThan">
       <formula>W$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" priority="18" dxfId="42" operator="greaterThan">
       <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" priority="17" dxfId="43" operator="lessThan">
       <formula>X$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" priority="16" dxfId="44" operator="greaterThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" priority="15" dxfId="45" operator="lessThan">
       <formula>Y$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" priority="14" dxfId="46" operator="greaterThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" priority="13" dxfId="47" operator="lessThan">
       <formula>Z$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" priority="12" dxfId="48" operator="greaterThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" priority="11" dxfId="49" operator="lessThan">
       <formula>AA$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" priority="10" dxfId="50" operator="greaterThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" priority="9" dxfId="51" operator="lessThan">
       <formula>AB$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" priority="8" dxfId="52" operator="greaterThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" priority="7" dxfId="53" operator="lessThan">
       <formula>AC$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" priority="6" dxfId="54" operator="greaterThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" priority="5" dxfId="55" operator="lessThan">
       <formula>AD$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" priority="4" dxfId="56" operator="greaterThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" priority="3" dxfId="57" operator="lessThan">
       <formula>AE$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" dxfId="58" operator="greaterThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" priority="1" dxfId="59" operator="lessThan">
       <formula>AF$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -6866,165 +7069,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:30" s="29" customFormat="1" ht="70" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row customFormat="1" ht="70" r="1" s="73">
+      <c r="A1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="75" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
@@ -545,11 +545,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="160" formatCode="0.00_ "/>
     <numFmt numFmtId="161" formatCode="0.0"/>
+    <numFmt numFmtId="162" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -611,6 +612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <color indexed="64"/>
       <sz val="14"/>
@@ -1131,7 +1137,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1231,7 +1237,9 @@
     <xf fontId="10" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="12" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1247,8 +1255,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="8" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="7" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1270,49 +1278,49 @@
     <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="15" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="15" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="15" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="15" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1646,15 +1654,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600073</xdr:colOff>
+      <xdr:colOff>600072</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:rowOff>171447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600073</xdr:colOff>
+      <xdr:colOff>600072</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1665,7 +1673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6343648" y="647698"/>
+          <a:off x="6343647" y="866772"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2194,7 +2202,7 @@
     <col customWidth="1" min="34" max="34" width="25.25"/>
   </cols>
   <sheetData>
-    <row ht="13.5" customHeight="1" r="1">
+    <row ht="30.75" customHeight="1" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,3805 +2919,3805 @@
       </c>
       <c r="AG10" s="30"/>
       <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="31"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
     </row>
     <row ht="22" customHeight="1" r="11">
-      <c r="B11" s="41">
+      <c r="B11" s="43">
         <v>0</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="44" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="44" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="44" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="44" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="44" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H11" s="43" t="str">
+      <c r="H11" s="45" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I11" s="44" t="str">
+      <c r="I11" s="46" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="44" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K11" s="43" t="str">
+      <c r="K11" s="45" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="44" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="44" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N11" s="42" t="str">
+      <c r="N11" s="44" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O11" s="42" t="str">
+      <c r="O11" s="44" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P11" s="42" t="str">
+      <c r="P11" s="44" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q11" s="44" t="str">
+      <c r="Q11" s="46" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R11" s="42" t="str">
+      <c r="R11" s="44" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S11" s="42" t="str">
+      <c r="S11" s="44" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T11" s="42" t="str">
+      <c r="T11" s="44" t="str">
         <f>IF(_cuben_day_hour!R2="","",_cuben_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U11" s="44" t="str">
+      <c r="U11" s="46" t="str">
         <f>IF(_cuben_day_hour!S2="","",_cuben_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V11" s="44" t="str">
+      <c r="V11" s="46" t="str">
         <f>IF(_cuben_day_hour!T2="","",_cuben_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W11" s="42" t="str">
+      <c r="W11" s="44" t="str">
         <f>IF(_cuben_day_hour!U2="","",_cuben_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X11" s="42" t="str">
+      <c r="X11" s="44" t="str">
         <f>IF(_cuben_day_hour!V2="","",_cuben_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y11" s="43" t="str">
+      <c r="Y11" s="45" t="str">
         <f>IF(_cuben_day_hour!W2="","",_cuben_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z11" s="43" t="str">
+      <c r="Z11" s="45" t="str">
         <f>IF(_cuben_day_hour!X2="","",_cuben_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA11" s="42" t="str">
+      <c r="AA11" s="44" t="str">
         <f>IF(_cuben_day_hour!Y2="","",_cuben_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB11" s="42" t="str">
+      <c r="AB11" s="44" t="str">
         <f>IF(_cuben_day_hour!Z2="","",_cuben_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC11" s="42" t="str">
+      <c r="AC11" s="44" t="str">
         <f>IF(_cuben_day_hour!AA2="","",_cuben_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD11" s="42" t="str">
+      <c r="AD11" s="44" t="str">
         <f>IF(_cuben_day_hour!AB2="","",_cuben_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE11" s="42" t="str">
+      <c r="AE11" s="44" t="str">
         <f>IF(_cuben_day_hour!AC2="","",_cuben_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF11" s="42" t="str">
+      <c r="AF11" s="44" t="str">
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG11" s="45" t="s">
+      <c r="AG11" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="46" t="s">
+      <c r="AH11" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="47" t="str">
+      <c r="AI11" s="49" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="47" t="str">
+      <c r="AJ11" s="49" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="AK11" s="48" t="str">
+      <c r="AK11" s="50" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="12">
-      <c r="B12" s="41">
+      <c r="B12" s="43">
         <v>0.041666666666666699</v>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="44" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D12" s="42" t="str">
+      <c r="D12" s="44" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="44" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="44" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="44" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H12" s="43" t="str">
+      <c r="H12" s="45" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I12" s="44" t="str">
+      <c r="I12" s="46" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="44" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K12" s="43" t="str">
+      <c r="K12" s="45" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L12" s="42" t="str">
+      <c r="L12" s="44" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="44" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N12" s="42" t="str">
+      <c r="N12" s="44" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O12" s="42" t="str">
+      <c r="O12" s="44" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P12" s="42" t="str">
+      <c r="P12" s="44" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q12" s="44" t="str">
+      <c r="Q12" s="46" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R12" s="42" t="str">
+      <c r="R12" s="44" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S12" s="42" t="str">
+      <c r="S12" s="44" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T12" s="42" t="str">
+      <c r="T12" s="44" t="str">
         <f>IF(_cuben_day_hour!R3="","",_cuben_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U12" s="44" t="str">
+      <c r="U12" s="46" t="str">
         <f>IF(_cuben_day_hour!S3="","",_cuben_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V12" s="44" t="str">
+      <c r="V12" s="46" t="str">
         <f>IF(_cuben_day_hour!T3="","",_cuben_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W12" s="42" t="str">
+      <c r="W12" s="44" t="str">
         <f>IF(_cuben_day_hour!U3="","",_cuben_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X12" s="42" t="str">
+      <c r="X12" s="44" t="str">
         <f>IF(_cuben_day_hour!V3="","",_cuben_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y12" s="43" t="str">
+      <c r="Y12" s="45" t="str">
         <f>IF(_cuben_day_hour!W3="","",_cuben_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z12" s="43" t="str">
+      <c r="Z12" s="45" t="str">
         <f>IF(_cuben_day_hour!X3="","",_cuben_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA12" s="42" t="str">
+      <c r="AA12" s="44" t="str">
         <f>IF(_cuben_day_hour!Y3="","",_cuben_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB12" s="42" t="str">
+      <c r="AB12" s="44" t="str">
         <f>IF(_cuben_day_hour!Z3="","",_cuben_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC12" s="42" t="str">
+      <c r="AC12" s="44" t="str">
         <f>IF(_cuben_day_hour!AA3="","",_cuben_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD12" s="42" t="str">
+      <c r="AD12" s="44" t="str">
         <f>IF(_cuben_day_hour!AB3="","",_cuben_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE12" s="42" t="str">
+      <c r="AE12" s="44" t="str">
         <f>IF(_cuben_day_hour!AC3="","",_cuben_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF12" s="42" t="str">
+      <c r="AF12" s="44" t="str">
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="49" t="s">
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="AI12" s="47" t="str">
+      <c r="AI12" s="49" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="AJ12" s="47" t="str">
+      <c r="AJ12" s="49" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="AK12" s="48" t="str">
+      <c r="AK12" s="50" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="13">
-      <c r="B13" s="41">
+      <c r="B13" s="43">
         <v>0.083333333333333301</v>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="44" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D13" s="42" t="str">
+      <c r="D13" s="44" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="44" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="44" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="44" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H13" s="43" t="str">
+      <c r="H13" s="45" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I13" s="44" t="str">
+      <c r="I13" s="46" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J13" s="42" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K13" s="43" t="str">
+      <c r="K13" s="45" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L13" s="42" t="str">
+      <c r="L13" s="44" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="44" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N13" s="42" t="str">
+      <c r="N13" s="44" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O13" s="42" t="str">
+      <c r="O13" s="44" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P13" s="42" t="str">
+      <c r="P13" s="44" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q13" s="44" t="str">
+      <c r="Q13" s="46" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R13" s="42" t="str">
+      <c r="R13" s="44" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S13" s="42" t="str">
+      <c r="S13" s="44" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T13" s="42" t="str">
+      <c r="T13" s="44" t="str">
         <f>IF(_cuben_day_hour!R4="","",_cuben_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U13" s="44" t="str">
+      <c r="U13" s="46" t="str">
         <f>IF(_cuben_day_hour!S4="","",_cuben_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V13" s="44" t="str">
+      <c r="V13" s="46" t="str">
         <f>IF(_cuben_day_hour!T4="","",_cuben_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W13" s="42" t="str">
+      <c r="W13" s="44" t="str">
         <f>IF(_cuben_day_hour!U4="","",_cuben_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X13" s="42" t="str">
+      <c r="X13" s="44" t="str">
         <f>IF(_cuben_day_hour!V4="","",_cuben_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y13" s="43" t="str">
+      <c r="Y13" s="45" t="str">
         <f>IF(_cuben_day_hour!W4="","",_cuben_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z13" s="43" t="str">
+      <c r="Z13" s="45" t="str">
         <f>IF(_cuben_day_hour!X4="","",_cuben_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA13" s="42" t="str">
+      <c r="AA13" s="44" t="str">
         <f>IF(_cuben_day_hour!Y4="","",_cuben_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB13" s="42" t="str">
+      <c r="AB13" s="44" t="str">
         <f>IF(_cuben_day_hour!Z4="","",_cuben_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC13" s="42" t="str">
+      <c r="AC13" s="44" t="str">
         <f>IF(_cuben_day_hour!AA4="","",_cuben_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD13" s="42" t="str">
+      <c r="AD13" s="44" t="str">
         <f>IF(_cuben_day_hour!AB4="","",_cuben_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE13" s="42" t="str">
+      <c r="AE13" s="44" t="str">
         <f>IF(_cuben_day_hour!AC4="","",_cuben_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF13" s="42" t="str">
+      <c r="AF13" s="44" t="str">
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="49" t="s">
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="47" t="str">
+      <c r="AI13" s="49" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AJ13" s="47" t="str">
+      <c r="AJ13" s="49" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AK13" s="48" t="str">
+      <c r="AK13" s="50" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="14">
-      <c r="B14" s="41">
+      <c r="B14" s="43">
         <v>0.125</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="44" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D14" s="42" t="str">
+      <c r="D14" s="44" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E14" s="42" t="str">
+      <c r="E14" s="44" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="44" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G14" s="42" t="str">
+      <c r="G14" s="44" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H14" s="43" t="str">
+      <c r="H14" s="45" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="46" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K14" s="43" t="str">
+      <c r="K14" s="45" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L14" s="42" t="str">
+      <c r="L14" s="44" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="44" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N14" s="42" t="str">
+      <c r="N14" s="44" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O14" s="42" t="str">
+      <c r="O14" s="44" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P14" s="42" t="str">
+      <c r="P14" s="44" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q14" s="44" t="str">
+      <c r="Q14" s="46" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R14" s="42" t="str">
+      <c r="R14" s="44" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S14" s="42" t="str">
+      <c r="S14" s="44" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T14" s="42" t="str">
+      <c r="T14" s="44" t="str">
         <f>IF(_cuben_day_hour!R5="","",_cuben_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U14" s="44" t="str">
+      <c r="U14" s="46" t="str">
         <f>IF(_cuben_day_hour!S5="","",_cuben_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V14" s="44" t="str">
+      <c r="V14" s="46" t="str">
         <f>IF(_cuben_day_hour!T5="","",_cuben_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W14" s="42" t="str">
+      <c r="W14" s="44" t="str">
         <f>IF(_cuben_day_hour!U5="","",_cuben_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="44" t="str">
         <f>IF(_cuben_day_hour!V5="","",_cuben_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y14" s="43" t="str">
+      <c r="Y14" s="45" t="str">
         <f>IF(_cuben_day_hour!W5="","",_cuben_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z14" s="43" t="str">
+      <c r="Z14" s="45" t="str">
         <f>IF(_cuben_day_hour!X5="","",_cuben_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="44" t="str">
         <f>IF(_cuben_day_hour!Y5="","",_cuben_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB14" s="42" t="str">
+      <c r="AB14" s="44" t="str">
         <f>IF(_cuben_day_hour!Z5="","",_cuben_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="44" t="str">
         <f>IF(_cuben_day_hour!AA5="","",_cuben_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="44" t="str">
         <f>IF(_cuben_day_hour!AB5="","",_cuben_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE14" s="42" t="str">
+      <c r="AE14" s="44" t="str">
         <f>IF(_cuben_day_hour!AC5="","",_cuben_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="44" t="str">
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="49" t="s">
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="AI14" s="47" t="str">
+      <c r="AI14" s="49" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="AJ14" s="47" t="str">
+      <c r="AJ14" s="49" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="AK14" s="48" t="str">
+      <c r="AK14" s="50" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="15">
-      <c r="B15" s="41">
+      <c r="B15" s="43">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C15" s="42" t="str">
+      <c r="C15" s="44" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D15" s="42" t="str">
+      <c r="D15" s="44" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E15" s="42" t="str">
+      <c r="E15" s="44" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="44" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G15" s="42" t="str">
+      <c r="G15" s="44" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H15" s="43" t="str">
+      <c r="H15" s="45" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I15" s="44" t="str">
+      <c r="I15" s="46" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J15" s="42" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="45" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L15" s="42" t="str">
+      <c r="L15" s="44" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="44" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N15" s="42" t="str">
+      <c r="N15" s="44" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O15" s="42" t="str">
+      <c r="O15" s="44" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P15" s="42" t="str">
+      <c r="P15" s="44" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q15" s="44" t="str">
+      <c r="Q15" s="46" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R15" s="42" t="str">
+      <c r="R15" s="44" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S15" s="42" t="str">
+      <c r="S15" s="44" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T15" s="42" t="str">
+      <c r="T15" s="44" t="str">
         <f>IF(_cuben_day_hour!R6="","",_cuben_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U15" s="44" t="str">
+      <c r="U15" s="46" t="str">
         <f>IF(_cuben_day_hour!S6="","",_cuben_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V15" s="44" t="str">
+      <c r="V15" s="46" t="str">
         <f>IF(_cuben_day_hour!T6="","",_cuben_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W15" s="42" t="str">
+      <c r="W15" s="44" t="str">
         <f>IF(_cuben_day_hour!U6="","",_cuben_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X15" s="42" t="str">
+      <c r="X15" s="44" t="str">
         <f>IF(_cuben_day_hour!V6="","",_cuben_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y15" s="43" t="str">
+      <c r="Y15" s="45" t="str">
         <f>IF(_cuben_day_hour!W6="","",_cuben_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z15" s="43" t="str">
+      <c r="Z15" s="45" t="str">
         <f>IF(_cuben_day_hour!X6="","",_cuben_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA15" s="42" t="str">
+      <c r="AA15" s="44" t="str">
         <f>IF(_cuben_day_hour!Y6="","",_cuben_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB15" s="42" t="str">
+      <c r="AB15" s="44" t="str">
         <f>IF(_cuben_day_hour!Z6="","",_cuben_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC15" s="42" t="str">
+      <c r="AC15" s="44" t="str">
         <f>IF(_cuben_day_hour!AA6="","",_cuben_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD15" s="42" t="str">
+      <c r="AD15" s="44" t="str">
         <f>IF(_cuben_day_hour!AB6="","",_cuben_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE15" s="42" t="str">
+      <c r="AE15" s="44" t="str">
         <f>IF(_cuben_day_hour!AC6="","",_cuben_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF15" s="42" t="str">
+      <c r="AF15" s="44" t="str">
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="49" t="s">
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="AI15" s="47" t="str">
+      <c r="AI15" s="49" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="AJ15" s="47" t="str">
+      <c r="AJ15" s="49" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="AK15" s="48" t="str">
+      <c r="AK15" s="50" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="16">
-      <c r="B16" s="41">
+      <c r="B16" s="43">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C16" s="42" t="str">
+      <c r="C16" s="44" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D16" s="42" t="str">
+      <c r="D16" s="44" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E16" s="42" t="str">
+      <c r="E16" s="44" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="44" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G16" s="42" t="str">
+      <c r="G16" s="44" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H16" s="43" t="str">
+      <c r="H16" s="45" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I16" s="44" t="str">
+      <c r="I16" s="46" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J16" s="42" t="str">
+      <c r="J16" s="44" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K16" s="43" t="str">
+      <c r="K16" s="45" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L16" s="42" t="str">
+      <c r="L16" s="44" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="44" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N16" s="42" t="str">
+      <c r="N16" s="44" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O16" s="42" t="str">
+      <c r="O16" s="44" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P16" s="42" t="str">
+      <c r="P16" s="44" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q16" s="44" t="str">
+      <c r="Q16" s="46" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R16" s="42" t="str">
+      <c r="R16" s="44" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S16" s="42" t="str">
+      <c r="S16" s="44" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T16" s="42" t="str">
+      <c r="T16" s="44" t="str">
         <f>IF(_cuben_day_hour!R7="","",_cuben_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U16" s="44" t="str">
+      <c r="U16" s="46" t="str">
         <f>IF(_cuben_day_hour!S7="","",_cuben_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V16" s="44" t="str">
+      <c r="V16" s="46" t="str">
         <f>IF(_cuben_day_hour!T7="","",_cuben_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W16" s="42" t="str">
+      <c r="W16" s="44" t="str">
         <f>IF(_cuben_day_hour!U7="","",_cuben_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X16" s="42" t="str">
+      <c r="X16" s="44" t="str">
         <f>IF(_cuben_day_hour!V7="","",_cuben_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y16" s="43" t="str">
+      <c r="Y16" s="45" t="str">
         <f>IF(_cuben_day_hour!W7="","",_cuben_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z16" s="43" t="str">
+      <c r="Z16" s="45" t="str">
         <f>IF(_cuben_day_hour!X7="","",_cuben_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA16" s="42" t="str">
+      <c r="AA16" s="44" t="str">
         <f>IF(_cuben_day_hour!Y7="","",_cuben_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB16" s="42" t="str">
+      <c r="AB16" s="44" t="str">
         <f>IF(_cuben_day_hour!Z7="","",_cuben_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC16" s="42" t="str">
+      <c r="AC16" s="44" t="str">
         <f>IF(_cuben_day_hour!AA7="","",_cuben_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD16" s="42" t="str">
+      <c r="AD16" s="44" t="str">
         <f>IF(_cuben_day_hour!AB7="","",_cuben_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE16" s="42" t="str">
+      <c r="AE16" s="44" t="str">
         <f>IF(_cuben_day_hour!AC7="","",_cuben_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF16" s="42" t="str">
+      <c r="AF16" s="44" t="str">
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="49" t="s">
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="47" t="str">
+      <c r="AI16" s="49" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AJ16" s="47" t="str">
+      <c r="AJ16" s="49" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AK16" s="48" t="str">
+      <c r="AK16" s="50" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
     <row ht="22" customHeight="1" r="17">
-      <c r="B17" s="41">
+      <c r="B17" s="43">
         <v>0.25</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="44" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D17" s="42" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E17" s="42" t="str">
+      <c r="E17" s="44" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F17" s="42" t="str">
+      <c r="F17" s="44" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G17" s="42" t="str">
+      <c r="G17" s="44" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H17" s="43" t="str">
+      <c r="H17" s="45" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I17" s="44" t="str">
+      <c r="I17" s="46" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J17" s="42" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K17" s="43" t="str">
+      <c r="K17" s="45" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L17" s="42" t="str">
+      <c r="L17" s="44" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="44" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N17" s="42" t="str">
+      <c r="N17" s="44" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O17" s="42" t="str">
+      <c r="O17" s="44" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P17" s="42" t="str">
+      <c r="P17" s="44" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q17" s="44" t="str">
+      <c r="Q17" s="46" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R17" s="42" t="str">
+      <c r="R17" s="44" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S17" s="42" t="str">
+      <c r="S17" s="44" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T17" s="42" t="str">
+      <c r="T17" s="44" t="str">
         <f>IF(_cuben_day_hour!R8="","",_cuben_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U17" s="44" t="str">
+      <c r="U17" s="46" t="str">
         <f>IF(_cuben_day_hour!S8="","",_cuben_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V17" s="44" t="str">
+      <c r="V17" s="46" t="str">
         <f>IF(_cuben_day_hour!T8="","",_cuben_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W17" s="42" t="str">
+      <c r="W17" s="44" t="str">
         <f>IF(_cuben_day_hour!U8="","",_cuben_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X17" s="42" t="str">
+      <c r="X17" s="44" t="str">
         <f>IF(_cuben_day_hour!V8="","",_cuben_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y17" s="43" t="str">
+      <c r="Y17" s="45" t="str">
         <f>IF(_cuben_day_hour!W8="","",_cuben_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z17" s="43" t="str">
+      <c r="Z17" s="45" t="str">
         <f>IF(_cuben_day_hour!X8="","",_cuben_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA17" s="42" t="str">
+      <c r="AA17" s="44" t="str">
         <f>IF(_cuben_day_hour!Y8="","",_cuben_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB17" s="42" t="str">
+      <c r="AB17" s="44" t="str">
         <f>IF(_cuben_day_hour!Z8="","",_cuben_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC17" s="42" t="str">
+      <c r="AC17" s="44" t="str">
         <f>IF(_cuben_day_hour!AA8="","",_cuben_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD17" s="42" t="str">
+      <c r="AD17" s="44" t="str">
         <f>IF(_cuben_day_hour!AB8="","",_cuben_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE17" s="42" t="str">
+      <c r="AE17" s="44" t="str">
         <f>IF(_cuben_day_hour!AC8="","",_cuben_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF17" s="42" t="str">
+      <c r="AF17" s="44" t="str">
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="54"/>
     </row>
     <row ht="22" customHeight="1" r="18">
-      <c r="B18" s="41">
+      <c r="B18" s="43">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="44" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D18" s="42" t="str">
+      <c r="D18" s="44" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E18" s="42" t="str">
+      <c r="E18" s="44" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="44" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G18" s="42" t="str">
+      <c r="G18" s="44" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H18" s="43" t="str">
+      <c r="H18" s="45" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I18" s="44" t="str">
+      <c r="I18" s="46" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J18" s="42" t="str">
+      <c r="J18" s="44" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K18" s="43" t="str">
+      <c r="K18" s="45" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L18" s="42" t="str">
+      <c r="L18" s="44" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="44" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N18" s="42" t="str">
+      <c r="N18" s="44" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O18" s="42" t="str">
+      <c r="O18" s="44" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P18" s="42" t="str">
+      <c r="P18" s="44" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q18" s="44" t="str">
+      <c r="Q18" s="46" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R18" s="42" t="str">
+      <c r="R18" s="44" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S18" s="42" t="str">
+      <c r="S18" s="44" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T18" s="42" t="str">
+      <c r="T18" s="44" t="str">
         <f>IF(_cuben_day_hour!R9="","",_cuben_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U18" s="44" t="str">
+      <c r="U18" s="46" t="str">
         <f>IF(_cuben_day_hour!S9="","",_cuben_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V18" s="44" t="str">
+      <c r="V18" s="46" t="str">
         <f>IF(_cuben_day_hour!T9="","",_cuben_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W18" s="42" t="str">
+      <c r="W18" s="44" t="str">
         <f>IF(_cuben_day_hour!U9="","",_cuben_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X18" s="42" t="str">
+      <c r="X18" s="44" t="str">
         <f>IF(_cuben_day_hour!V9="","",_cuben_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y18" s="43" t="str">
+      <c r="Y18" s="45" t="str">
         <f>IF(_cuben_day_hour!W9="","",_cuben_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z18" s="43" t="str">
+      <c r="Z18" s="45" t="str">
         <f>IF(_cuben_day_hour!X9="","",_cuben_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA18" s="42" t="str">
+      <c r="AA18" s="44" t="str">
         <f>IF(_cuben_day_hour!Y9="","",_cuben_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB18" s="42" t="str">
+      <c r="AB18" s="44" t="str">
         <f>IF(_cuben_day_hour!Z9="","",_cuben_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC18" s="42" t="str">
+      <c r="AC18" s="44" t="str">
         <f>IF(_cuben_day_hour!AA9="","",_cuben_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD18" s="42" t="str">
+      <c r="AD18" s="44" t="str">
         <f>IF(_cuben_day_hour!AB9="","",_cuben_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE18" s="42" t="str">
+      <c r="AE18" s="44" t="str">
         <f>IF(_cuben_day_hour!AC9="","",_cuben_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF18" s="42" t="str">
+      <c r="AF18" s="44" t="str">
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="19">
-      <c r="B19" s="41">
+      <c r="B19" s="43">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C19" s="42" t="str">
+      <c r="C19" s="44" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D19" s="42" t="str">
+      <c r="D19" s="44" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E19" s="42" t="str">
+      <c r="E19" s="44" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F19" s="42" t="str">
+      <c r="F19" s="44" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G19" s="42" t="str">
+      <c r="G19" s="44" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H19" s="43" t="str">
+      <c r="H19" s="45" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I19" s="44" t="str">
+      <c r="I19" s="46" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J19" s="42" t="str">
+      <c r="J19" s="44" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K19" s="43" t="str">
+      <c r="K19" s="45" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L19" s="42" t="str">
+      <c r="L19" s="44" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="44" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N19" s="42" t="str">
+      <c r="N19" s="44" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O19" s="42" t="str">
+      <c r="O19" s="44" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P19" s="42" t="str">
+      <c r="P19" s="44" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q19" s="44" t="str">
+      <c r="Q19" s="46" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R19" s="42" t="str">
+      <c r="R19" s="44" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S19" s="42" t="str">
+      <c r="S19" s="44" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T19" s="42" t="str">
+      <c r="T19" s="44" t="str">
         <f>IF(_cuben_day_hour!R10="","",_cuben_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U19" s="44" t="str">
+      <c r="U19" s="46" t="str">
         <f>IF(_cuben_day_hour!S10="","",_cuben_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V19" s="44" t="str">
+      <c r="V19" s="46" t="str">
         <f>IF(_cuben_day_hour!T10="","",_cuben_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W19" s="42" t="str">
+      <c r="W19" s="44" t="str">
         <f>IF(_cuben_day_hour!U10="","",_cuben_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X19" s="42" t="str">
+      <c r="X19" s="44" t="str">
         <f>IF(_cuben_day_hour!V10="","",_cuben_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y19" s="43" t="str">
+      <c r="Y19" s="45" t="str">
         <f>IF(_cuben_day_hour!W10="","",_cuben_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z19" s="43" t="str">
+      <c r="Z19" s="45" t="str">
         <f>IF(_cuben_day_hour!X10="","",_cuben_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA19" s="42" t="str">
+      <c r="AA19" s="44" t="str">
         <f>IF(_cuben_day_hour!Y10="","",_cuben_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB19" s="42" t="str">
+      <c r="AB19" s="44" t="str">
         <f>IF(_cuben_day_hour!Z10="","",_cuben_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC19" s="42" t="str">
+      <c r="AC19" s="44" t="str">
         <f>IF(_cuben_day_hour!AA10="","",_cuben_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD19" s="42" t="str">
+      <c r="AD19" s="44" t="str">
         <f>IF(_cuben_day_hour!AB10="","",_cuben_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE19" s="42" t="str">
+      <c r="AE19" s="44" t="str">
         <f>IF(_cuben_day_hour!AC10="","",_cuben_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF19" s="42" t="str">
+      <c r="AF19" s="44" t="str">
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="20">
-      <c r="B20" s="41">
+      <c r="B20" s="43">
         <v>0.375</v>
       </c>
-      <c r="C20" s="42" t="str">
+      <c r="C20" s="44" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D20" s="42" t="str">
+      <c r="D20" s="44" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E20" s="42" t="str">
+      <c r="E20" s="44" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="44" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="44" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H20" s="43" t="str">
+      <c r="H20" s="45" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="46" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J20" s="42" t="str">
+      <c r="J20" s="44" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K20" s="43" t="str">
+      <c r="K20" s="45" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L20" s="42" t="str">
+      <c r="L20" s="44" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="44" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N20" s="42" t="str">
+      <c r="N20" s="44" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O20" s="42" t="str">
+      <c r="O20" s="44" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P20" s="42" t="str">
+      <c r="P20" s="44" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q20" s="44" t="str">
+      <c r="Q20" s="46" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R20" s="42" t="str">
+      <c r="R20" s="44" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S20" s="42" t="str">
+      <c r="S20" s="44" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T20" s="42" t="str">
+      <c r="T20" s="44" t="str">
         <f>IF(_cuben_day_hour!R11="","",_cuben_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U20" s="44" t="str">
+      <c r="U20" s="46" t="str">
         <f>IF(_cuben_day_hour!S11="","",_cuben_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V20" s="44" t="str">
+      <c r="V20" s="46" t="str">
         <f>IF(_cuben_day_hour!T11="","",_cuben_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W20" s="42" t="str">
+      <c r="W20" s="44" t="str">
         <f>IF(_cuben_day_hour!U11="","",_cuben_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X20" s="42" t="str">
+      <c r="X20" s="44" t="str">
         <f>IF(_cuben_day_hour!V11="","",_cuben_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y20" s="43" t="str">
+      <c r="Y20" s="45" t="str">
         <f>IF(_cuben_day_hour!W11="","",_cuben_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z20" s="43" t="str">
+      <c r="Z20" s="45" t="str">
         <f>IF(_cuben_day_hour!X11="","",_cuben_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA20" s="42" t="str">
+      <c r="AA20" s="44" t="str">
         <f>IF(_cuben_day_hour!Y11="","",_cuben_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB20" s="42" t="str">
+      <c r="AB20" s="44" t="str">
         <f>IF(_cuben_day_hour!Z11="","",_cuben_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC20" s="42" t="str">
+      <c r="AC20" s="44" t="str">
         <f>IF(_cuben_day_hour!AA11="","",_cuben_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD20" s="42" t="str">
+      <c r="AD20" s="44" t="str">
         <f>IF(_cuben_day_hour!AB11="","",_cuben_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE20" s="42" t="str">
+      <c r="AE20" s="44" t="str">
         <f>IF(_cuben_day_hour!AC11="","",_cuben_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF20" s="42" t="str">
+      <c r="AF20" s="44" t="str">
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="21">
-      <c r="B21" s="41">
+      <c r="B21" s="43">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="44" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="44" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="44" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="44" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G21" s="42" t="str">
+      <c r="G21" s="44" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H21" s="43" t="str">
+      <c r="H21" s="45" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I21" s="44" t="str">
+      <c r="I21" s="46" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J21" s="42" t="str">
+      <c r="J21" s="44" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K21" s="43" t="str">
+      <c r="K21" s="45" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L21" s="42" t="str">
+      <c r="L21" s="44" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="44" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N21" s="42" t="str">
+      <c r="N21" s="44" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O21" s="42" t="str">
+      <c r="O21" s="44" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P21" s="42" t="str">
+      <c r="P21" s="44" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q21" s="44" t="str">
+      <c r="Q21" s="46" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R21" s="42" t="str">
+      <c r="R21" s="44" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S21" s="42" t="str">
+      <c r="S21" s="44" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T21" s="42" t="str">
+      <c r="T21" s="44" t="str">
         <f>IF(_cuben_day_hour!R12="","",_cuben_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U21" s="44" t="str">
+      <c r="U21" s="46" t="str">
         <f>IF(_cuben_day_hour!S12="","",_cuben_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V21" s="44" t="str">
+      <c r="V21" s="46" t="str">
         <f>IF(_cuben_day_hour!T12="","",_cuben_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W21" s="42" t="str">
+      <c r="W21" s="44" t="str">
         <f>IF(_cuben_day_hour!U12="","",_cuben_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X21" s="42" t="str">
+      <c r="X21" s="44" t="str">
         <f>IF(_cuben_day_hour!V12="","",_cuben_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y21" s="43" t="str">
+      <c r="Y21" s="45" t="str">
         <f>IF(_cuben_day_hour!W12="","",_cuben_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z21" s="43" t="str">
+      <c r="Z21" s="45" t="str">
         <f>IF(_cuben_day_hour!X12="","",_cuben_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA21" s="42" t="str">
+      <c r="AA21" s="44" t="str">
         <f>IF(_cuben_day_hour!Y12="","",_cuben_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB21" s="42" t="str">
+      <c r="AB21" s="44" t="str">
         <f>IF(_cuben_day_hour!Z12="","",_cuben_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC21" s="42" t="str">
+      <c r="AC21" s="44" t="str">
         <f>IF(_cuben_day_hour!AA12="","",_cuben_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD21" s="42" t="str">
+      <c r="AD21" s="44" t="str">
         <f>IF(_cuben_day_hour!AB12="","",_cuben_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE21" s="42" t="str">
+      <c r="AE21" s="44" t="str">
         <f>IF(_cuben_day_hour!AC12="","",_cuben_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF21" s="42" t="str">
+      <c r="AF21" s="44" t="str">
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="22">
-      <c r="B22" s="41">
+      <c r="B22" s="43">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="44" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="44" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="44" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="44" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="44" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H22" s="43" t="str">
+      <c r="H22" s="45" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I22" s="44" t="str">
+      <c r="I22" s="46" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J22" s="42" t="str">
+      <c r="J22" s="44" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K22" s="43" t="str">
+      <c r="K22" s="45" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L22" s="42" t="str">
+      <c r="L22" s="44" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="44" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N22" s="42" t="str">
+      <c r="N22" s="44" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O22" s="42" t="str">
+      <c r="O22" s="44" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P22" s="42" t="str">
+      <c r="P22" s="44" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q22" s="44" t="str">
+      <c r="Q22" s="46" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R22" s="42" t="str">
+      <c r="R22" s="44" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S22" s="42" t="str">
+      <c r="S22" s="44" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T22" s="42" t="str">
+      <c r="T22" s="44" t="str">
         <f>IF(_cuben_day_hour!R13="","",_cuben_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U22" s="44" t="str">
+      <c r="U22" s="46" t="str">
         <f>IF(_cuben_day_hour!S13="","",_cuben_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V22" s="44" t="str">
+      <c r="V22" s="46" t="str">
         <f>IF(_cuben_day_hour!T13="","",_cuben_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W22" s="42" t="str">
+      <c r="W22" s="44" t="str">
         <f>IF(_cuben_day_hour!U13="","",_cuben_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X22" s="42" t="str">
+      <c r="X22" s="44" t="str">
         <f>IF(_cuben_day_hour!V13="","",_cuben_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y22" s="43" t="str">
+      <c r="Y22" s="45" t="str">
         <f>IF(_cuben_day_hour!W13="","",_cuben_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z22" s="43" t="str">
+      <c r="Z22" s="45" t="str">
         <f>IF(_cuben_day_hour!X13="","",_cuben_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA22" s="42" t="str">
+      <c r="AA22" s="44" t="str">
         <f>IF(_cuben_day_hour!Y13="","",_cuben_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB22" s="42" t="str">
+      <c r="AB22" s="44" t="str">
         <f>IF(_cuben_day_hour!Z13="","",_cuben_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC22" s="42" t="str">
+      <c r="AC22" s="44" t="str">
         <f>IF(_cuben_day_hour!AA13="","",_cuben_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD22" s="42" t="str">
+      <c r="AD22" s="44" t="str">
         <f>IF(_cuben_day_hour!AB13="","",_cuben_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE22" s="42" t="str">
+      <c r="AE22" s="44" t="str">
         <f>IF(_cuben_day_hour!AC13="","",_cuben_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF22" s="42" t="str">
+      <c r="AF22" s="44" t="str">
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="23">
-      <c r="B23" s="41">
+      <c r="B23" s="43">
         <v>0.5</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="44" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="44" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="44" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="44" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="44" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H23" s="43" t="str">
+      <c r="H23" s="45" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I23" s="44" t="str">
+      <c r="I23" s="46" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J23" s="42" t="str">
+      <c r="J23" s="44" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K23" s="43" t="str">
+      <c r="K23" s="45" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L23" s="42" t="str">
+      <c r="L23" s="44" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="44" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N23" s="42" t="str">
+      <c r="N23" s="44" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O23" s="42" t="str">
+      <c r="O23" s="44" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P23" s="42" t="str">
+      <c r="P23" s="44" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q23" s="44" t="str">
+      <c r="Q23" s="46" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R23" s="42" t="str">
+      <c r="R23" s="44" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S23" s="42" t="str">
+      <c r="S23" s="44" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T23" s="42" t="str">
+      <c r="T23" s="44" t="str">
         <f>IF(_cuben_day_hour!R14="","",_cuben_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U23" s="44" t="str">
+      <c r="U23" s="46" t="str">
         <f>IF(_cuben_day_hour!S14="","",_cuben_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V23" s="44" t="str">
+      <c r="V23" s="46" t="str">
         <f>IF(_cuben_day_hour!T14="","",_cuben_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W23" s="42" t="str">
+      <c r="W23" s="44" t="str">
         <f>IF(_cuben_day_hour!U14="","",_cuben_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X23" s="42" t="str">
+      <c r="X23" s="44" t="str">
         <f>IF(_cuben_day_hour!V14="","",_cuben_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y23" s="43" t="str">
+      <c r="Y23" s="45" t="str">
         <f>IF(_cuben_day_hour!W14="","",_cuben_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z23" s="43" t="str">
+      <c r="Z23" s="45" t="str">
         <f>IF(_cuben_day_hour!X14="","",_cuben_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA23" s="42" t="str">
+      <c r="AA23" s="44" t="str">
         <f>IF(_cuben_day_hour!Y14="","",_cuben_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB23" s="42" t="str">
+      <c r="AB23" s="44" t="str">
         <f>IF(_cuben_day_hour!Z14="","",_cuben_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC23" s="42" t="str">
+      <c r="AC23" s="44" t="str">
         <f>IF(_cuben_day_hour!AA14="","",_cuben_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD23" s="42" t="str">
+      <c r="AD23" s="44" t="str">
         <f>IF(_cuben_day_hour!AB14="","",_cuben_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE23" s="42" t="str">
+      <c r="AE23" s="44" t="str">
         <f>IF(_cuben_day_hour!AC14="","",_cuben_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF23" s="42" t="str">
+      <c r="AF23" s="44" t="str">
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="24">
-      <c r="B24" s="41">
+      <c r="B24" s="43">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="42" t="str">
+      <c r="C24" s="44" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D24" s="42" t="str">
+      <c r="D24" s="44" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E24" s="42" t="str">
+      <c r="E24" s="44" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="44" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G24" s="42" t="str">
+      <c r="G24" s="44" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H24" s="43" t="str">
+      <c r="H24" s="45" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I24" s="44" t="str">
+      <c r="I24" s="46" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J24" s="42" t="str">
+      <c r="J24" s="44" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K24" s="43" t="str">
+      <c r="K24" s="45" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L24" s="42" t="str">
+      <c r="L24" s="44" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="44" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N24" s="42" t="str">
+      <c r="N24" s="44" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O24" s="42" t="str">
+      <c r="O24" s="44" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P24" s="42" t="str">
+      <c r="P24" s="44" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q24" s="44" t="str">
+      <c r="Q24" s="46" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R24" s="42" t="str">
+      <c r="R24" s="44" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S24" s="42" t="str">
+      <c r="S24" s="44" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T24" s="42" t="str">
+      <c r="T24" s="44" t="str">
         <f>IF(_cuben_day_hour!R15="","",_cuben_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U24" s="44" t="str">
+      <c r="U24" s="46" t="str">
         <f>IF(_cuben_day_hour!S15="","",_cuben_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V24" s="44" t="str">
+      <c r="V24" s="46" t="str">
         <f>IF(_cuben_day_hour!T15="","",_cuben_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W24" s="42" t="str">
+      <c r="W24" s="44" t="str">
         <f>IF(_cuben_day_hour!U15="","",_cuben_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X24" s="42" t="str">
+      <c r="X24" s="44" t="str">
         <f>IF(_cuben_day_hour!V15="","",_cuben_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y24" s="43" t="str">
+      <c r="Y24" s="45" t="str">
         <f>IF(_cuben_day_hour!W15="","",_cuben_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z24" s="43" t="str">
+      <c r="Z24" s="45" t="str">
         <f>IF(_cuben_day_hour!X15="","",_cuben_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA24" s="42" t="str">
+      <c r="AA24" s="44" t="str">
         <f>IF(_cuben_day_hour!Y15="","",_cuben_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB24" s="42" t="str">
+      <c r="AB24" s="44" t="str">
         <f>IF(_cuben_day_hour!Z15="","",_cuben_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC24" s="42" t="str">
+      <c r="AC24" s="44" t="str">
         <f>IF(_cuben_day_hour!AA15="","",_cuben_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD24" s="42" t="str">
+      <c r="AD24" s="44" t="str">
         <f>IF(_cuben_day_hour!AB15="","",_cuben_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE24" s="42" t="str">
+      <c r="AE24" s="44" t="str">
         <f>IF(_cuben_day_hour!AC15="","",_cuben_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF24" s="42" t="str">
+      <c r="AF24" s="44" t="str">
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="25">
-      <c r="B25" s="41">
+      <c r="B25" s="43">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="42" t="str">
+      <c r="C25" s="44" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D25" s="42" t="str">
+      <c r="D25" s="44" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E25" s="42" t="str">
+      <c r="E25" s="44" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F25" s="42" t="str">
+      <c r="F25" s="44" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G25" s="42" t="str">
+      <c r="G25" s="44" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H25" s="43" t="str">
+      <c r="H25" s="45" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I25" s="44" t="str">
+      <c r="I25" s="46" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J25" s="42" t="str">
+      <c r="J25" s="44" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K25" s="43" t="str">
+      <c r="K25" s="45" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L25" s="42" t="str">
+      <c r="L25" s="44" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="44" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N25" s="42" t="str">
+      <c r="N25" s="44" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O25" s="42" t="str">
+      <c r="O25" s="44" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P25" s="42" t="str">
+      <c r="P25" s="44" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q25" s="44" t="str">
+      <c r="Q25" s="46" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R25" s="42" t="str">
+      <c r="R25" s="44" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S25" s="42" t="str">
+      <c r="S25" s="44" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T25" s="42" t="str">
+      <c r="T25" s="44" t="str">
         <f>IF(_cuben_day_hour!R16="","",_cuben_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U25" s="44" t="str">
+      <c r="U25" s="46" t="str">
         <f>IF(_cuben_day_hour!S16="","",_cuben_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V25" s="44" t="str">
+      <c r="V25" s="46" t="str">
         <f>IF(_cuben_day_hour!T16="","",_cuben_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W25" s="42" t="str">
+      <c r="W25" s="44" t="str">
         <f>IF(_cuben_day_hour!U16="","",_cuben_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X25" s="42" t="str">
+      <c r="X25" s="44" t="str">
         <f>IF(_cuben_day_hour!V16="","",_cuben_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y25" s="43" t="str">
+      <c r="Y25" s="45" t="str">
         <f>IF(_cuben_day_hour!W16="","",_cuben_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z25" s="43" t="str">
+      <c r="Z25" s="45" t="str">
         <f>IF(_cuben_day_hour!X16="","",_cuben_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA25" s="42" t="str">
+      <c r="AA25" s="44" t="str">
         <f>IF(_cuben_day_hour!Y16="","",_cuben_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB25" s="42" t="str">
+      <c r="AB25" s="44" t="str">
         <f>IF(_cuben_day_hour!Z16="","",_cuben_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC25" s="42" t="str">
+      <c r="AC25" s="44" t="str">
         <f>IF(_cuben_day_hour!AA16="","",_cuben_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD25" s="42" t="str">
+      <c r="AD25" s="44" t="str">
         <f>IF(_cuben_day_hour!AB16="","",_cuben_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE25" s="42" t="str">
+      <c r="AE25" s="44" t="str">
         <f>IF(_cuben_day_hour!AC16="","",_cuben_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF25" s="42" t="str">
+      <c r="AF25" s="44" t="str">
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="26">
-      <c r="B26" s="41">
+      <c r="B26" s="43">
         <v>0.625</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="44" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D26" s="42" t="str">
+      <c r="D26" s="44" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E26" s="42" t="str">
+      <c r="E26" s="44" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F26" s="42" t="str">
+      <c r="F26" s="44" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G26" s="42" t="str">
+      <c r="G26" s="44" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H26" s="43" t="str">
+      <c r="H26" s="45" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I26" s="44" t="str">
+      <c r="I26" s="46" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J26" s="42" t="str">
+      <c r="J26" s="44" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K26" s="43" t="str">
+      <c r="K26" s="45" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L26" s="42" t="str">
+      <c r="L26" s="44" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="44" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N26" s="42" t="str">
+      <c r="N26" s="44" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O26" s="42" t="str">
+      <c r="O26" s="44" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P26" s="42" t="str">
+      <c r="P26" s="44" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q26" s="44" t="str">
+      <c r="Q26" s="46" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R26" s="42" t="str">
+      <c r="R26" s="44" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S26" s="42" t="str">
+      <c r="S26" s="44" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T26" s="42" t="str">
+      <c r="T26" s="44" t="str">
         <f>IF(_cuben_day_hour!R17="","",_cuben_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U26" s="44" t="str">
+      <c r="U26" s="46" t="str">
         <f>IF(_cuben_day_hour!S17="","",_cuben_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V26" s="44" t="str">
+      <c r="V26" s="46" t="str">
         <f>IF(_cuben_day_hour!T17="","",_cuben_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W26" s="42" t="str">
+      <c r="W26" s="44" t="str">
         <f>IF(_cuben_day_hour!U17="","",_cuben_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X26" s="42" t="str">
+      <c r="X26" s="44" t="str">
         <f>IF(_cuben_day_hour!V17="","",_cuben_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y26" s="43" t="str">
+      <c r="Y26" s="45" t="str">
         <f>IF(_cuben_day_hour!W17="","",_cuben_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z26" s="43" t="str">
+      <c r="Z26" s="45" t="str">
         <f>IF(_cuben_day_hour!X17="","",_cuben_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA26" s="42" t="str">
+      <c r="AA26" s="44" t="str">
         <f>IF(_cuben_day_hour!Y17="","",_cuben_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB26" s="42" t="str">
+      <c r="AB26" s="44" t="str">
         <f>IF(_cuben_day_hour!Z17="","",_cuben_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC26" s="42" t="str">
+      <c r="AC26" s="44" t="str">
         <f>IF(_cuben_day_hour!AA17="","",_cuben_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD26" s="42" t="str">
+      <c r="AD26" s="44" t="str">
         <f>IF(_cuben_day_hour!AB17="","",_cuben_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE26" s="42" t="str">
+      <c r="AE26" s="44" t="str">
         <f>IF(_cuben_day_hour!AC17="","",_cuben_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF26" s="42" t="str">
+      <c r="AF26" s="44" t="str">
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="27">
-      <c r="B27" s="41">
+      <c r="B27" s="43">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="44" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D27" s="42" t="str">
+      <c r="D27" s="44" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E27" s="42" t="str">
+      <c r="E27" s="44" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F27" s="42" t="str">
+      <c r="F27" s="44" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G27" s="42" t="str">
+      <c r="G27" s="44" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H27" s="43" t="str">
+      <c r="H27" s="45" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I27" s="44" t="str">
+      <c r="I27" s="46" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J27" s="42" t="str">
+      <c r="J27" s="44" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K27" s="43" t="str">
+      <c r="K27" s="45" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L27" s="42" t="str">
+      <c r="L27" s="44" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="44" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N27" s="42" t="str">
+      <c r="N27" s="44" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O27" s="42" t="str">
+      <c r="O27" s="44" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P27" s="42" t="str">
+      <c r="P27" s="44" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q27" s="44" t="str">
+      <c r="Q27" s="46" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R27" s="42" t="str">
+      <c r="R27" s="44" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S27" s="42" t="str">
+      <c r="S27" s="44" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T27" s="42" t="str">
+      <c r="T27" s="44" t="str">
         <f>IF(_cuben_day_hour!R18="","",_cuben_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U27" s="44" t="str">
+      <c r="U27" s="46" t="str">
         <f>IF(_cuben_day_hour!S18="","",_cuben_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V27" s="44" t="str">
+      <c r="V27" s="46" t="str">
         <f>IF(_cuben_day_hour!T18="","",_cuben_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W27" s="42" t="str">
+      <c r="W27" s="44" t="str">
         <f>IF(_cuben_day_hour!U18="","",_cuben_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X27" s="42" t="str">
+      <c r="X27" s="44" t="str">
         <f>IF(_cuben_day_hour!V18="","",_cuben_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y27" s="43" t="str">
+      <c r="Y27" s="45" t="str">
         <f>IF(_cuben_day_hour!W18="","",_cuben_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z27" s="43" t="str">
+      <c r="Z27" s="45" t="str">
         <f>IF(_cuben_day_hour!X18="","",_cuben_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA27" s="42" t="str">
+      <c r="AA27" s="44" t="str">
         <f>IF(_cuben_day_hour!Y18="","",_cuben_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB27" s="42" t="str">
+      <c r="AB27" s="44" t="str">
         <f>IF(_cuben_day_hour!Z18="","",_cuben_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC27" s="42" t="str">
+      <c r="AC27" s="44" t="str">
         <f>IF(_cuben_day_hour!AA18="","",_cuben_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD27" s="42" t="str">
+      <c r="AD27" s="44" t="str">
         <f>IF(_cuben_day_hour!AB18="","",_cuben_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE27" s="42" t="str">
+      <c r="AE27" s="44" t="str">
         <f>IF(_cuben_day_hour!AC18="","",_cuben_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF27" s="42" t="str">
+      <c r="AF27" s="44" t="str">
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="28">
-      <c r="B28" s="41">
+      <c r="B28" s="43">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="44" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D28" s="42" t="str">
+      <c r="D28" s="44" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E28" s="42" t="str">
+      <c r="E28" s="44" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F28" s="42" t="str">
+      <c r="F28" s="44" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G28" s="42" t="str">
+      <c r="G28" s="44" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H28" s="43" t="str">
+      <c r="H28" s="45" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I28" s="44" t="str">
+      <c r="I28" s="46" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J28" s="42" t="str">
+      <c r="J28" s="44" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K28" s="43" t="str">
+      <c r="K28" s="45" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L28" s="42" t="str">
+      <c r="L28" s="44" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="44" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N28" s="42" t="str">
+      <c r="N28" s="44" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O28" s="42" t="str">
+      <c r="O28" s="44" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P28" s="42" t="str">
+      <c r="P28" s="44" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q28" s="44" t="str">
+      <c r="Q28" s="46" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R28" s="42" t="str">
+      <c r="R28" s="44" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S28" s="42" t="str">
+      <c r="S28" s="44" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T28" s="42" t="str">
+      <c r="T28" s="44" t="str">
         <f>IF(_cuben_day_hour!R19="","",_cuben_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U28" s="44" t="str">
+      <c r="U28" s="46" t="str">
         <f>IF(_cuben_day_hour!S19="","",_cuben_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V28" s="44" t="str">
+      <c r="V28" s="46" t="str">
         <f>IF(_cuben_day_hour!T19="","",_cuben_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W28" s="42" t="str">
+      <c r="W28" s="44" t="str">
         <f>IF(_cuben_day_hour!U19="","",_cuben_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X28" s="42" t="str">
+      <c r="X28" s="44" t="str">
         <f>IF(_cuben_day_hour!V19="","",_cuben_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y28" s="43" t="str">
+      <c r="Y28" s="45" t="str">
         <f>IF(_cuben_day_hour!W19="","",_cuben_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z28" s="43" t="str">
+      <c r="Z28" s="45" t="str">
         <f>IF(_cuben_day_hour!X19="","",_cuben_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA28" s="42" t="str">
+      <c r="AA28" s="44" t="str">
         <f>IF(_cuben_day_hour!Y19="","",_cuben_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB28" s="42" t="str">
+      <c r="AB28" s="44" t="str">
         <f>IF(_cuben_day_hour!Z19="","",_cuben_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC28" s="42" t="str">
+      <c r="AC28" s="44" t="str">
         <f>IF(_cuben_day_hour!AA19="","",_cuben_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD28" s="42" t="str">
+      <c r="AD28" s="44" t="str">
         <f>IF(_cuben_day_hour!AB19="","",_cuben_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE28" s="42" t="str">
+      <c r="AE28" s="44" t="str">
         <f>IF(_cuben_day_hour!AC19="","",_cuben_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF28" s="42" t="str">
+      <c r="AF28" s="44" t="str">
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="29">
-      <c r="B29" s="41">
+      <c r="B29" s="43">
         <v>0.75</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="44" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D29" s="42" t="str">
+      <c r="D29" s="44" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E29" s="42" t="str">
+      <c r="E29" s="44" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F29" s="42" t="str">
+      <c r="F29" s="44" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G29" s="42" t="str">
+      <c r="G29" s="44" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H29" s="43" t="str">
+      <c r="H29" s="45" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I29" s="44" t="str">
+      <c r="I29" s="46" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J29" s="42" t="str">
+      <c r="J29" s="44" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K29" s="43" t="str">
+      <c r="K29" s="45" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L29" s="42" t="str">
+      <c r="L29" s="44" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="44" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N29" s="42" t="str">
+      <c r="N29" s="44" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O29" s="42" t="str">
+      <c r="O29" s="44" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P29" s="42" t="str">
+      <c r="P29" s="44" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q29" s="44" t="str">
+      <c r="Q29" s="46" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R29" s="42" t="str">
+      <c r="R29" s="44" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S29" s="42" t="str">
+      <c r="S29" s="44" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T29" s="42" t="str">
+      <c r="T29" s="44" t="str">
         <f>IF(_cuben_day_hour!R20="","",_cuben_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U29" s="44" t="str">
+      <c r="U29" s="46" t="str">
         <f>IF(_cuben_day_hour!S20="","",_cuben_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V29" s="44" t="str">
+      <c r="V29" s="46" t="str">
         <f>IF(_cuben_day_hour!T20="","",_cuben_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W29" s="42" t="str">
+      <c r="W29" s="44" t="str">
         <f>IF(_cuben_day_hour!U20="","",_cuben_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X29" s="42" t="str">
+      <c r="X29" s="44" t="str">
         <f>IF(_cuben_day_hour!V20="","",_cuben_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y29" s="43" t="str">
+      <c r="Y29" s="45" t="str">
         <f>IF(_cuben_day_hour!W20="","",_cuben_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z29" s="43" t="str">
+      <c r="Z29" s="45" t="str">
         <f>IF(_cuben_day_hour!X20="","",_cuben_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA29" s="42" t="str">
+      <c r="AA29" s="44" t="str">
         <f>IF(_cuben_day_hour!Y20="","",_cuben_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB29" s="42" t="str">
+      <c r="AB29" s="44" t="str">
         <f>IF(_cuben_day_hour!Z20="","",_cuben_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC29" s="42" t="str">
+      <c r="AC29" s="44" t="str">
         <f>IF(_cuben_day_hour!AA20="","",_cuben_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD29" s="42" t="str">
+      <c r="AD29" s="44" t="str">
         <f>IF(_cuben_day_hour!AB20="","",_cuben_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE29" s="42" t="str">
+      <c r="AE29" s="44" t="str">
         <f>IF(_cuben_day_hour!AC20="","",_cuben_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF29" s="42" t="str">
+      <c r="AF29" s="44" t="str">
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="30">
-      <c r="B30" s="41">
+      <c r="B30" s="43">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="44" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D30" s="42" t="str">
+      <c r="D30" s="44" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E30" s="42" t="str">
+      <c r="E30" s="44" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F30" s="42" t="str">
+      <c r="F30" s="44" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G30" s="42" t="str">
+      <c r="G30" s="44" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H30" s="43" t="str">
+      <c r="H30" s="45" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I30" s="44" t="str">
+      <c r="I30" s="46" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J30" s="42" t="str">
+      <c r="J30" s="44" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K30" s="43" t="str">
+      <c r="K30" s="45" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L30" s="42" t="str">
+      <c r="L30" s="44" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="44" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N30" s="42" t="str">
+      <c r="N30" s="44" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O30" s="42" t="str">
+      <c r="O30" s="44" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P30" s="42" t="str">
+      <c r="P30" s="44" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q30" s="44" t="str">
+      <c r="Q30" s="46" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R30" s="42" t="str">
+      <c r="R30" s="44" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S30" s="42" t="str">
+      <c r="S30" s="44" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T30" s="42" t="str">
+      <c r="T30" s="44" t="str">
         <f>IF(_cuben_day_hour!R21="","",_cuben_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U30" s="44" t="str">
+      <c r="U30" s="46" t="str">
         <f>IF(_cuben_day_hour!S21="","",_cuben_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V30" s="44" t="str">
+      <c r="V30" s="46" t="str">
         <f>IF(_cuben_day_hour!T21="","",_cuben_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W30" s="42" t="str">
+      <c r="W30" s="44" t="str">
         <f>IF(_cuben_day_hour!U21="","",_cuben_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X30" s="42" t="str">
+      <c r="X30" s="44" t="str">
         <f>IF(_cuben_day_hour!V21="","",_cuben_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y30" s="43" t="str">
+      <c r="Y30" s="45" t="str">
         <f>IF(_cuben_day_hour!W21="","",_cuben_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z30" s="43" t="str">
+      <c r="Z30" s="45" t="str">
         <f>IF(_cuben_day_hour!X21="","",_cuben_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA30" s="42" t="str">
+      <c r="AA30" s="44" t="str">
         <f>IF(_cuben_day_hour!Y21="","",_cuben_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB30" s="42" t="str">
+      <c r="AB30" s="44" t="str">
         <f>IF(_cuben_day_hour!Z21="","",_cuben_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC30" s="42" t="str">
+      <c r="AC30" s="44" t="str">
         <f>IF(_cuben_day_hour!AA21="","",_cuben_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD30" s="42" t="str">
+      <c r="AD30" s="44" t="str">
         <f>IF(_cuben_day_hour!AB21="","",_cuben_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE30" s="42" t="str">
+      <c r="AE30" s="44" t="str">
         <f>IF(_cuben_day_hour!AC21="","",_cuben_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF30" s="42" t="str">
+      <c r="AF30" s="44" t="str">
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="31">
-      <c r="B31" s="41">
+      <c r="B31" s="43">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="42" t="str">
+      <c r="C31" s="44" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D31" s="42" t="str">
+      <c r="D31" s="44" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E31" s="42" t="str">
+      <c r="E31" s="44" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F31" s="42" t="str">
+      <c r="F31" s="44" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G31" s="42" t="str">
+      <c r="G31" s="44" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H31" s="43" t="str">
+      <c r="H31" s="45" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I31" s="44" t="str">
+      <c r="I31" s="46" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J31" s="42" t="str">
+      <c r="J31" s="44" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K31" s="43" t="str">
+      <c r="K31" s="45" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L31" s="42" t="str">
+      <c r="L31" s="44" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="44" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N31" s="42" t="str">
+      <c r="N31" s="44" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O31" s="42" t="str">
+      <c r="O31" s="44" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P31" s="42" t="str">
+      <c r="P31" s="44" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q31" s="44" t="str">
+      <c r="Q31" s="46" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R31" s="42" t="str">
+      <c r="R31" s="44" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S31" s="42" t="str">
+      <c r="S31" s="44" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T31" s="42" t="str">
+      <c r="T31" s="44" t="str">
         <f>IF(_cuben_day_hour!R22="","",_cuben_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U31" s="44" t="str">
+      <c r="U31" s="46" t="str">
         <f>IF(_cuben_day_hour!S22="","",_cuben_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V31" s="44" t="str">
+      <c r="V31" s="46" t="str">
         <f>IF(_cuben_day_hour!T22="","",_cuben_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W31" s="42" t="str">
+      <c r="W31" s="44" t="str">
         <f>IF(_cuben_day_hour!U22="","",_cuben_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X31" s="42" t="str">
+      <c r="X31" s="44" t="str">
         <f>IF(_cuben_day_hour!V22="","",_cuben_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y31" s="43" t="str">
+      <c r="Y31" s="45" t="str">
         <f>IF(_cuben_day_hour!W22="","",_cuben_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z31" s="43" t="str">
+      <c r="Z31" s="45" t="str">
         <f>IF(_cuben_day_hour!X22="","",_cuben_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA31" s="42" t="str">
+      <c r="AA31" s="44" t="str">
         <f>IF(_cuben_day_hour!Y22="","",_cuben_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB31" s="42" t="str">
+      <c r="AB31" s="44" t="str">
         <f>IF(_cuben_day_hour!Z22="","",_cuben_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC31" s="42" t="str">
+      <c r="AC31" s="44" t="str">
         <f>IF(_cuben_day_hour!AA22="","",_cuben_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD31" s="42" t="str">
+      <c r="AD31" s="44" t="str">
         <f>IF(_cuben_day_hour!AB22="","",_cuben_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE31" s="42" t="str">
+      <c r="AE31" s="44" t="str">
         <f>IF(_cuben_day_hour!AC22="","",_cuben_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF31" s="42" t="str">
+      <c r="AF31" s="44" t="str">
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="32">
-      <c r="B32" s="41">
+      <c r="B32" s="43">
         <v>0.875</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="44" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D32" s="42" t="str">
+      <c r="D32" s="44" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E32" s="42" t="str">
+      <c r="E32" s="44" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F32" s="42" t="str">
+      <c r="F32" s="44" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G32" s="42" t="str">
+      <c r="G32" s="44" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H32" s="43" t="str">
+      <c r="H32" s="45" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I32" s="44" t="str">
+      <c r="I32" s="46" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J32" s="42" t="str">
+      <c r="J32" s="44" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K32" s="43" t="str">
+      <c r="K32" s="45" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L32" s="42" t="str">
+      <c r="L32" s="44" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="44" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N32" s="42" t="str">
+      <c r="N32" s="44" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O32" s="42" t="str">
+      <c r="O32" s="44" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P32" s="42" t="str">
+      <c r="P32" s="44" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q32" s="44" t="str">
+      <c r="Q32" s="46" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R32" s="42" t="str">
+      <c r="R32" s="44" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S32" s="42" t="str">
+      <c r="S32" s="44" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T32" s="42" t="str">
+      <c r="T32" s="44" t="str">
         <f>IF(_cuben_day_hour!R23="","",_cuben_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U32" s="44" t="str">
+      <c r="U32" s="46" t="str">
         <f>IF(_cuben_day_hour!S23="","",_cuben_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V32" s="44" t="str">
+      <c r="V32" s="46" t="str">
         <f>IF(_cuben_day_hour!T23="","",_cuben_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W32" s="42" t="str">
+      <c r="W32" s="44" t="str">
         <f>IF(_cuben_day_hour!U23="","",_cuben_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X32" s="42" t="str">
+      <c r="X32" s="44" t="str">
         <f>IF(_cuben_day_hour!V23="","",_cuben_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y32" s="43" t="str">
+      <c r="Y32" s="45" t="str">
         <f>IF(_cuben_day_hour!W23="","",_cuben_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z32" s="43" t="str">
+      <c r="Z32" s="45" t="str">
         <f>IF(_cuben_day_hour!X23="","",_cuben_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA32" s="42" t="str">
+      <c r="AA32" s="44" t="str">
         <f>IF(_cuben_day_hour!Y23="","",_cuben_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB32" s="42" t="str">
+      <c r="AB32" s="44" t="str">
         <f>IF(_cuben_day_hour!Z23="","",_cuben_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC32" s="42" t="str">
+      <c r="AC32" s="44" t="str">
         <f>IF(_cuben_day_hour!AA23="","",_cuben_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD32" s="42" t="str">
+      <c r="AD32" s="44" t="str">
         <f>IF(_cuben_day_hour!AB23="","",_cuben_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE32" s="42" t="str">
+      <c r="AE32" s="44" t="str">
         <f>IF(_cuben_day_hour!AC23="","",_cuben_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF32" s="42" t="str">
+      <c r="AF32" s="44" t="str">
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="33">
-      <c r="B33" s="41">
+      <c r="B33" s="43">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="42" t="str">
+      <c r="C33" s="44" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D33" s="42" t="str">
+      <c r="D33" s="44" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E33" s="42" t="str">
+      <c r="E33" s="44" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F33" s="42" t="str">
+      <c r="F33" s="44" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G33" s="42" t="str">
+      <c r="G33" s="44" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H33" s="43" t="str">
+      <c r="H33" s="45" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I33" s="44" t="str">
+      <c r="I33" s="46" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J33" s="42" t="str">
+      <c r="J33" s="44" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K33" s="43" t="str">
+      <c r="K33" s="45" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L33" s="42" t="str">
+      <c r="L33" s="44" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="44" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N33" s="42" t="str">
+      <c r="N33" s="44" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O33" s="42" t="str">
+      <c r="O33" s="44" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P33" s="42" t="str">
+      <c r="P33" s="44" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q33" s="44" t="str">
+      <c r="Q33" s="46" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R33" s="42" t="str">
+      <c r="R33" s="44" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S33" s="42" t="str">
+      <c r="S33" s="44" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T33" s="42" t="str">
+      <c r="T33" s="44" t="str">
         <f>IF(_cuben_day_hour!R24="","",_cuben_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U33" s="44" t="str">
+      <c r="U33" s="46" t="str">
         <f>IF(_cuben_day_hour!S24="","",_cuben_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V33" s="44" t="str">
+      <c r="V33" s="46" t="str">
         <f>IF(_cuben_day_hour!T24="","",_cuben_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W33" s="42" t="str">
+      <c r="W33" s="44" t="str">
         <f>IF(_cuben_day_hour!U24="","",_cuben_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X33" s="42" t="str">
+      <c r="X33" s="44" t="str">
         <f>IF(_cuben_day_hour!V24="","",_cuben_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y33" s="43" t="str">
+      <c r="Y33" s="45" t="str">
         <f>IF(_cuben_day_hour!W24="","",_cuben_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z33" s="43" t="str">
+      <c r="Z33" s="45" t="str">
         <f>IF(_cuben_day_hour!X24="","",_cuben_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA33" s="42" t="str">
+      <c r="AA33" s="44" t="str">
         <f>IF(_cuben_day_hour!Y24="","",_cuben_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB33" s="42" t="str">
+      <c r="AB33" s="44" t="str">
         <f>IF(_cuben_day_hour!Z24="","",_cuben_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC33" s="42" t="str">
+      <c r="AC33" s="44" t="str">
         <f>IF(_cuben_day_hour!AA24="","",_cuben_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD33" s="42" t="str">
+      <c r="AD33" s="44" t="str">
         <f>IF(_cuben_day_hour!AB24="","",_cuben_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE33" s="42" t="str">
+      <c r="AE33" s="44" t="str">
         <f>IF(_cuben_day_hour!AC24="","",_cuben_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF33" s="42" t="str">
+      <c r="AF33" s="44" t="str">
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="34">
-      <c r="B34" s="41">
+      <c r="B34" s="43">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C34" s="42" t="str">
+      <c r="C34" s="44" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D34" s="42" t="str">
+      <c r="D34" s="44" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E34" s="42" t="str">
+      <c r="E34" s="44" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F34" s="42" t="str">
+      <c r="F34" s="44" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G34" s="42" t="str">
+      <c r="G34" s="44" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H34" s="43" t="str">
+      <c r="H34" s="45" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I34" s="44" t="str">
+      <c r="I34" s="46" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J34" s="42" t="str">
+      <c r="J34" s="44" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K34" s="43" t="str">
+      <c r="K34" s="45" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L34" s="42" t="str">
+      <c r="L34" s="44" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="44" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N34" s="42" t="str">
+      <c r="N34" s="44" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O34" s="42" t="str">
+      <c r="O34" s="44" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P34" s="42" t="str">
+      <c r="P34" s="44" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q34" s="44" t="str">
+      <c r="Q34" s="46" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R34" s="42" t="str">
+      <c r="R34" s="44" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S34" s="42" t="str">
+      <c r="S34" s="44" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T34" s="42" t="str">
+      <c r="T34" s="44" t="str">
         <f>IF(_cuben_day_hour!R25="","",_cuben_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U34" s="44" t="str">
+      <c r="U34" s="46" t="str">
         <f>IF(_cuben_day_hour!S25="","",_cuben_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V34" s="44" t="str">
+      <c r="V34" s="46" t="str">
         <f>IF(_cuben_day_hour!T25="","",_cuben_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W34" s="42" t="str">
+      <c r="W34" s="44" t="str">
         <f>IF(_cuben_day_hour!U25="","",_cuben_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X34" s="42" t="str">
+      <c r="X34" s="44" t="str">
         <f>IF(_cuben_day_hour!V25="","",_cuben_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y34" s="43" t="str">
+      <c r="Y34" s="45" t="str">
         <f>IF(_cuben_day_hour!W25="","",_cuben_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z34" s="43" t="str">
+      <c r="Z34" s="45" t="str">
         <f>IF(_cuben_day_hour!X25="","",_cuben_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA34" s="42" t="str">
+      <c r="AA34" s="44" t="str">
         <f>IF(_cuben_day_hour!Y25="","",_cuben_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB34" s="42" t="str">
+      <c r="AB34" s="44" t="str">
         <f>IF(_cuben_day_hour!Z25="","",_cuben_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC34" s="42" t="str">
+      <c r="AC34" s="44" t="str">
         <f>IF(_cuben_day_hour!AA25="","",_cuben_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD34" s="42" t="str">
+      <c r="AD34" s="44" t="str">
         <f>IF(_cuben_day_hour!AB25="","",_cuben_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE34" s="42" t="str">
+      <c r="AE34" s="44" t="str">
         <f>IF(_cuben_day_hour!AC25="","",_cuben_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF34" s="42" t="str">
+      <c r="AF34" s="44" t="str">
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="35">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="42" t="str">
+      <c r="C35" s="44" t="str">
         <f>IF(C11="","",AVERAGE(C11:C18))</f>
         <v/>
       </c>
-      <c r="D35" s="42" t="str">
+      <c r="D35" s="44" t="str">
         <f>IF(D11="","",AVERAGE(D11:D18))</f>
         <v/>
       </c>
-      <c r="E35" s="42" t="str">
+      <c r="E35" s="44" t="str">
         <f>IF(E11="","",AVERAGE(E11:E18))</f>
         <v/>
       </c>
-      <c r="F35" s="42" t="str">
+      <c r="F35" s="44" t="str">
         <f>IF(F11="","",AVERAGE(F11:F18))</f>
         <v/>
       </c>
-      <c r="G35" s="42" t="str">
+      <c r="G35" s="44" t="str">
         <f>IF(G11="","",AVERAGE(G11:G18))</f>
         <v/>
       </c>
-      <c r="H35" s="43" t="str">
+      <c r="H35" s="45" t="str">
         <f>IF(H11="","",AVERAGE(H11:H18))</f>
         <v/>
       </c>
-      <c r="I35" s="44" t="str">
+      <c r="I35" s="46" t="str">
         <f>IF(I11="","",AVERAGE(I11:I18))</f>
         <v/>
       </c>
-      <c r="J35" s="42" t="str">
+      <c r="J35" s="44" t="str">
         <f>IF(J11="","",AVERAGE(J11:J18))</f>
         <v/>
       </c>
-      <c r="K35" s="43" t="str">
+      <c r="K35" s="45" t="str">
         <f>IF(K11="","",AVERAGE(K11:K18))</f>
         <v/>
       </c>
-      <c r="L35" s="42" t="str">
+      <c r="L35" s="44" t="str">
         <f>IF(L11="","",AVERAGE(L11:L18))</f>
         <v/>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="44" t="str">
         <f>IF(M11="","",AVERAGE(M11:M18))</f>
         <v/>
       </c>
-      <c r="N35" s="42" t="str">
+      <c r="N35" s="44" t="str">
         <f>IF(N11="","",AVERAGE(N11:N18))</f>
         <v/>
       </c>
-      <c r="O35" s="42" t="str">
+      <c r="O35" s="44" t="str">
         <f>IF(O11="","",AVERAGE(O11:O18))</f>
         <v/>
       </c>
-      <c r="P35" s="42" t="str">
+      <c r="P35" s="44" t="str">
         <f>IF(P11="","",AVERAGE(P11:P18))</f>
         <v/>
       </c>
-      <c r="Q35" s="44" t="str">
+      <c r="Q35" s="46" t="str">
         <f>IF(Q11="","",AVERAGE(Q11:Q18))</f>
         <v/>
       </c>
-      <c r="R35" s="42" t="str">
+      <c r="R35" s="44" t="str">
         <f>IF(R11="","",AVERAGE(R11:R18))</f>
         <v/>
       </c>
-      <c r="S35" s="42" t="str">
+      <c r="S35" s="44" t="str">
         <f>IF(S11="","",AVERAGE(S11:S18))</f>
         <v/>
       </c>
-      <c r="T35" s="42" t="str">
+      <c r="T35" s="44" t="str">
         <f>IF(T11="","",AVERAGE(T11:T18))</f>
         <v/>
       </c>
-      <c r="U35" s="44" t="str">
+      <c r="U35" s="46" t="str">
         <f>IF(U11="","",AVERAGE(U11:U18))</f>
         <v/>
       </c>
-      <c r="V35" s="44" t="str">
+      <c r="V35" s="46" t="str">
         <f>IF(V11="","",AVERAGE(V11:V18))</f>
         <v/>
       </c>
-      <c r="W35" s="42" t="str">
+      <c r="W35" s="44" t="str">
         <f>IF(W11="","",AVERAGE(W11:W18))</f>
         <v/>
       </c>
-      <c r="X35" s="42" t="str">
+      <c r="X35" s="44" t="str">
         <f>IF(X11="","",AVERAGE(X11:X18))</f>
         <v/>
       </c>
-      <c r="Y35" s="43" t="str">
+      <c r="Y35" s="45" t="str">
         <f>IF(Y11="","",AVERAGE(Y11:Y18))</f>
         <v/>
       </c>
-      <c r="Z35" s="43" t="str">
+      <c r="Z35" s="45" t="str">
         <f>IF(Z11="","",AVERAGE(Z11:Z18))</f>
         <v/>
       </c>
-      <c r="AA35" s="42" t="str">
+      <c r="AA35" s="44" t="str">
         <f>IF(AA11="","",AVERAGE(AA11:AA18))</f>
         <v/>
       </c>
-      <c r="AB35" s="42" t="str">
+      <c r="AB35" s="44" t="str">
         <f>IF(AB11="","",AVERAGE(AB11:AB18))</f>
         <v/>
       </c>
-      <c r="AC35" s="42" t="str">
+      <c r="AC35" s="44" t="str">
         <f>IF(AC11="","",AVERAGE(AC11:AC18))</f>
         <v/>
       </c>
-      <c r="AD35" s="42" t="str">
+      <c r="AD35" s="44" t="str">
         <f>IF(AD11="","",AVERAGE(AD11:AD18))</f>
         <v/>
       </c>
-      <c r="AE35" s="42" t="str">
+      <c r="AE35" s="44" t="str">
         <f>IF(AE11="","",AVERAGE(AE11:AE18))</f>
         <v/>
       </c>
-      <c r="AF35" s="42" t="str">
+      <c r="AF35" s="44" t="str">
         <f>IF(AF11="","",AVERAGE(AF11:AF18))</f>
         <v/>
       </c>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="36">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="42" t="str">
+      <c r="C36" s="44" t="str">
         <f>IF(C17="","",AVERAGE(C17:C26))</f>
         <v/>
       </c>
-      <c r="D36" s="42" t="str">
+      <c r="D36" s="44" t="str">
         <f>IF(D17="","",AVERAGE(D17:D26))</f>
         <v/>
       </c>
-      <c r="E36" s="42" t="str">
+      <c r="E36" s="44" t="str">
         <f>IF(E17="","",AVERAGE(E17:E26))</f>
         <v/>
       </c>
-      <c r="F36" s="42" t="str">
+      <c r="F36" s="44" t="str">
         <f>IF(F17="","",AVERAGE(F17:F26))</f>
         <v/>
       </c>
-      <c r="G36" s="42" t="str">
+      <c r="G36" s="44" t="str">
         <f>IF(G17="","",AVERAGE(G17:G26))</f>
         <v/>
       </c>
-      <c r="H36" s="43" t="str">
+      <c r="H36" s="45" t="str">
         <f>IF(H17="","",AVERAGE(H17:H26))</f>
         <v/>
       </c>
-      <c r="I36" s="44" t="str">
+      <c r="I36" s="46" t="str">
         <f>IF(I17="","",AVERAGE(I17:I26))</f>
         <v/>
       </c>
-      <c r="J36" s="42" t="str">
+      <c r="J36" s="44" t="str">
         <f>IF(J17="","",AVERAGE(J17:J26))</f>
         <v/>
       </c>
-      <c r="K36" s="43" t="str">
+      <c r="K36" s="45" t="str">
         <f>IF(K17="","",AVERAGE(K17:K26))</f>
         <v/>
       </c>
-      <c r="L36" s="42" t="str">
+      <c r="L36" s="44" t="str">
         <f>IF(L17="","",AVERAGE(L17:L26))</f>
         <v/>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="44" t="str">
         <f>IF(M17="","",AVERAGE(M17:M26))</f>
         <v/>
       </c>
-      <c r="N36" s="42" t="str">
+      <c r="N36" s="44" t="str">
         <f>IF(N17="","",AVERAGE(N17:N26))</f>
         <v/>
       </c>
-      <c r="O36" s="42" t="str">
+      <c r="O36" s="44" t="str">
         <f>IF(O17="","",AVERAGE(O17:O26))</f>
         <v/>
       </c>
-      <c r="P36" s="42" t="str">
+      <c r="P36" s="44" t="str">
         <f>IF(P17="","",AVERAGE(P17:P26))</f>
         <v/>
       </c>
-      <c r="Q36" s="44" t="str">
+      <c r="Q36" s="46" t="str">
         <f>IF(Q17="","",AVERAGE(Q17:Q26))</f>
         <v/>
       </c>
-      <c r="R36" s="42" t="str">
+      <c r="R36" s="44" t="str">
         <f>IF(R17="","",AVERAGE(R17:R26))</f>
         <v/>
       </c>
-      <c r="S36" s="42" t="str">
+      <c r="S36" s="44" t="str">
         <f>IF(S17="","",AVERAGE(S17:S26))</f>
         <v/>
       </c>
-      <c r="T36" s="42" t="str">
+      <c r="T36" s="44" t="str">
         <f>IF(T17="","",AVERAGE(T17:T26))</f>
         <v/>
       </c>
-      <c r="U36" s="44" t="str">
+      <c r="U36" s="46" t="str">
         <f>IF(U17="","",AVERAGE(U17:U26))</f>
         <v/>
       </c>
-      <c r="V36" s="44" t="str">
+      <c r="V36" s="46" t="str">
         <f>IF(V17="","",AVERAGE(V17:V26))</f>
         <v/>
       </c>
-      <c r="W36" s="42" t="str">
+      <c r="W36" s="44" t="str">
         <f>IF(W17="","",AVERAGE(W17:W26))</f>
         <v/>
       </c>
-      <c r="X36" s="42" t="str">
+      <c r="X36" s="44" t="str">
         <f>IF(X17="","",AVERAGE(X17:X26))</f>
         <v/>
       </c>
-      <c r="Y36" s="43" t="str">
+      <c r="Y36" s="45" t="str">
         <f>IF(Y17="","",AVERAGE(Y17:Y26))</f>
         <v/>
       </c>
-      <c r="Z36" s="43" t="str">
+      <c r="Z36" s="45" t="str">
         <f>IF(Z17="","",AVERAGE(Z17:Z26))</f>
         <v/>
       </c>
-      <c r="AA36" s="42" t="str">
+      <c r="AA36" s="44" t="str">
         <f>IF(AA17="","",AVERAGE(AA17:AA26))</f>
         <v/>
       </c>
-      <c r="AB36" s="42" t="str">
+      <c r="AB36" s="44" t="str">
         <f>IF(AB17="","",AVERAGE(AB17:AB26))</f>
         <v/>
       </c>
-      <c r="AC36" s="42" t="str">
+      <c r="AC36" s="44" t="str">
         <f>IF(AC17="","",AVERAGE(AC17:AC26))</f>
         <v/>
       </c>
-      <c r="AD36" s="42" t="str">
+      <c r="AD36" s="44" t="str">
         <f>IF(AD17="","",AVERAGE(AD17:AD26))</f>
         <v/>
       </c>
-      <c r="AE36" s="42" t="str">
+      <c r="AE36" s="44" t="str">
         <f>IF(AE17="","",AVERAGE(AE17:AE26))</f>
         <v/>
       </c>
-      <c r="AF36" s="42" t="str">
+      <c r="AF36" s="44" t="str">
         <f>IF(AF17="","",AVERAGE(AF17:AF26))</f>
         <v/>
       </c>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="37">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="42" t="str">
+      <c r="C37" s="44" t="str">
         <f>IF(C25="","",AVERAGE(C25:C34))</f>
         <v/>
       </c>
-      <c r="D37" s="42" t="str">
+      <c r="D37" s="44" t="str">
         <f>IF(D25="","",AVERAGE(D25:D34))</f>
         <v/>
       </c>
-      <c r="E37" s="42" t="str">
+      <c r="E37" s="44" t="str">
         <f>IF(E25="","",AVERAGE(E25:E34))</f>
         <v/>
       </c>
-      <c r="F37" s="42" t="str">
+      <c r="F37" s="44" t="str">
         <f>IF(F25="","",AVERAGE(F25:F34))</f>
         <v/>
       </c>
-      <c r="G37" s="42" t="str">
+      <c r="G37" s="44" t="str">
         <f>IF(G25="","",AVERAGE(G25:G34))</f>
         <v/>
       </c>
-      <c r="H37" s="43" t="str">
+      <c r="H37" s="45" t="str">
         <f>IF(H25="","",AVERAGE(H25:H34))</f>
         <v/>
       </c>
-      <c r="I37" s="44" t="str">
+      <c r="I37" s="46" t="str">
         <f>IF(I25="","",AVERAGE(I25:I34))</f>
         <v/>
       </c>
-      <c r="J37" s="42" t="str">
+      <c r="J37" s="44" t="str">
         <f>IF(J25="","",AVERAGE(J25:J34))</f>
         <v/>
       </c>
-      <c r="K37" s="43" t="str">
+      <c r="K37" s="45" t="str">
         <f>IF(K25="","",AVERAGE(K25:K34))</f>
         <v/>
       </c>
-      <c r="L37" s="42" t="str">
+      <c r="L37" s="44" t="str">
         <f>IF(L25="","",AVERAGE(L25:L34))</f>
         <v/>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="44" t="str">
         <f>IF(M25="","",AVERAGE(M25:M34))</f>
         <v/>
       </c>
-      <c r="N37" s="42" t="str">
+      <c r="N37" s="44" t="str">
         <f>IF(N25="","",AVERAGE(N25:N34))</f>
         <v/>
       </c>
-      <c r="O37" s="42" t="str">
+      <c r="O37" s="44" t="str">
         <f>IF(O25="","",AVERAGE(O25:O34))</f>
         <v/>
       </c>
-      <c r="P37" s="42" t="str">
+      <c r="P37" s="44" t="str">
         <f>IF(P25="","",AVERAGE(P25:P34))</f>
         <v/>
       </c>
-      <c r="Q37" s="44" t="str">
+      <c r="Q37" s="46" t="str">
         <f>IF(Q25="","",AVERAGE(Q25:Q34))</f>
         <v/>
       </c>
-      <c r="R37" s="42" t="str">
+      <c r="R37" s="44" t="str">
         <f>IF(R25="","",AVERAGE(R25:R34))</f>
         <v/>
       </c>
-      <c r="S37" s="42" t="str">
+      <c r="S37" s="44" t="str">
         <f>IF(S25="","",AVERAGE(S25:S34))</f>
         <v/>
       </c>
-      <c r="T37" s="42" t="str">
+      <c r="T37" s="44" t="str">
         <f>IF(T25="","",AVERAGE(T25:T34))</f>
         <v/>
       </c>
-      <c r="U37" s="44" t="str">
+      <c r="U37" s="46" t="str">
         <f>IF(U25="","",AVERAGE(U25:U34))</f>
         <v/>
       </c>
-      <c r="V37" s="44" t="str">
+      <c r="V37" s="46" t="str">
         <f>IF(V25="","",AVERAGE(V25:V34))</f>
         <v/>
       </c>
-      <c r="W37" s="42" t="str">
+      <c r="W37" s="44" t="str">
         <f>IF(W25="","",AVERAGE(W25:W34))</f>
         <v/>
       </c>
-      <c r="X37" s="42" t="str">
+      <c r="X37" s="44" t="str">
         <f>IF(X25="","",AVERAGE(X25:X34))</f>
         <v/>
       </c>
-      <c r="Y37" s="43" t="str">
+      <c r="Y37" s="45" t="str">
         <f>IF(Y25="","",AVERAGE(Y25:Y34))</f>
         <v/>
       </c>
-      <c r="Z37" s="43" t="str">
+      <c r="Z37" s="45" t="str">
         <f>IF(Z25="","",AVERAGE(Z25:Z34))</f>
         <v/>
       </c>
-      <c r="AA37" s="42" t="str">
+      <c r="AA37" s="44" t="str">
         <f>IF(AA25="","",AVERAGE(AA25:AA34))</f>
         <v/>
       </c>
-      <c r="AB37" s="42" t="str">
+      <c r="AB37" s="44" t="str">
         <f>IF(AB25="","",AVERAGE(AB25:AB34))</f>
         <v/>
       </c>
-      <c r="AC37" s="42" t="str">
+      <c r="AC37" s="44" t="str">
         <f>IF(AC25="","",AVERAGE(AC25:AC34))</f>
         <v/>
       </c>
-      <c r="AD37" s="42" t="str">
+      <c r="AD37" s="44" t="str">
         <f>IF(AD25="","",AVERAGE(AD25:AD34))</f>
         <v/>
       </c>
-      <c r="AE37" s="42" t="str">
+      <c r="AE37" s="44" t="str">
         <f>IF(AE25="","",AVERAGE(AE25:AE34))</f>
         <v/>
       </c>
-      <c r="AF37" s="42" t="str">
+      <c r="AF37" s="44" t="str">
         <f>IF(AF25="","",AVERAGE(AF25:AF34))</f>
         <v/>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="55"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="57"/>
     </row>
     <row ht="22" customHeight="1" r="38">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="42" t="str">
+      <c r="C38" s="44" t="str">
         <f>IF(C11="","",AVERAGE(C11:C34))</f>
         <v/>
       </c>
-      <c r="D38" s="42" t="str">
+      <c r="D38" s="44" t="str">
         <f>IF(D11="","",AVERAGE(D11:D34))</f>
         <v/>
       </c>
-      <c r="E38" s="42" t="str">
+      <c r="E38" s="44" t="str">
         <f>IF(E11="","",AVERAGE(E11:E34))</f>
         <v/>
       </c>
-      <c r="F38" s="42" t="str">
+      <c r="F38" s="44" t="str">
         <f>IF(F11="","",AVERAGE(F11:F34))</f>
         <v/>
       </c>
-      <c r="G38" s="42" t="str">
+      <c r="G38" s="44" t="str">
         <f>IF(G11="","",AVERAGE(G11:G34))</f>
         <v/>
       </c>
-      <c r="H38" s="43" t="str">
+      <c r="H38" s="45" t="str">
         <f>IF(H11="","",AVERAGE(H11:H34))</f>
         <v/>
       </c>
-      <c r="I38" s="44" t="str">
+      <c r="I38" s="46" t="str">
         <f>IF(I11="","",AVERAGE(I11:I34))</f>
         <v/>
       </c>
-      <c r="J38" s="42" t="str">
+      <c r="J38" s="44" t="str">
         <f>IF(J11="","",AVERAGE(J11:J34))</f>
         <v/>
       </c>
-      <c r="K38" s="43" t="str">
+      <c r="K38" s="45" t="str">
         <f>IF(K11="","",AVERAGE(K11:K34))</f>
         <v/>
       </c>
-      <c r="L38" s="42" t="str">
+      <c r="L38" s="44" t="str">
         <f>IF(L11="","",AVERAGE(L11:L34))</f>
         <v/>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="44" t="str">
         <f>IF(M11="","",AVERAGE(M11:M34))</f>
         <v/>
       </c>
-      <c r="N38" s="42" t="str">
+      <c r="N38" s="44" t="str">
         <f>IF(N11="","",AVERAGE(N11:N34))</f>
         <v/>
       </c>
-      <c r="O38" s="42" t="str">
+      <c r="O38" s="44" t="str">
         <f>IF(O11="","",AVERAGE(O11:O34))</f>
         <v/>
       </c>
-      <c r="P38" s="42" t="str">
+      <c r="P38" s="44" t="str">
         <f>IF(P11="","",AVERAGE(P11:P34))</f>
         <v/>
       </c>
-      <c r="Q38" s="44" t="str">
+      <c r="Q38" s="46" t="str">
         <f>IF(Q11="","",AVERAGE(Q11:Q34))</f>
         <v/>
       </c>
-      <c r="R38" s="42" t="str">
+      <c r="R38" s="44" t="str">
         <f>IF(R11="","",AVERAGE(R11:R34))</f>
         <v/>
       </c>
-      <c r="S38" s="42" t="str">
+      <c r="S38" s="44" t="str">
         <f>IF(S11="","",AVERAGE(S11:S34))</f>
         <v/>
       </c>
-      <c r="T38" s="42" t="str">
+      <c r="T38" s="44" t="str">
         <f>IF(T11="","",AVERAGE(T11:T34))</f>
         <v/>
       </c>
-      <c r="U38" s="44" t="str">
+      <c r="U38" s="46" t="str">
         <f>IF(U11="","",AVERAGE(U11:U34))</f>
         <v/>
       </c>
-      <c r="V38" s="44" t="str">
+      <c r="V38" s="46" t="str">
         <f>IF(V11="","",AVERAGE(V11:V34))</f>
         <v/>
       </c>
-      <c r="W38" s="42" t="str">
+      <c r="W38" s="44" t="str">
         <f>IF(W11="","",AVERAGE(W11:W34))</f>
         <v/>
       </c>
-      <c r="X38" s="42" t="str">
+      <c r="X38" s="44" t="str">
         <f>IF(X11="","",AVERAGE(X11:X34))</f>
         <v/>
       </c>
-      <c r="Y38" s="43" t="str">
+      <c r="Y38" s="45" t="str">
         <f>IF(Y11="","",AVERAGE(Y11:Y34))</f>
         <v/>
       </c>
-      <c r="Z38" s="43" t="str">
+      <c r="Z38" s="45" t="str">
         <f>IF(Z11="","",AVERAGE(Z11:Z34))</f>
         <v/>
       </c>
-      <c r="AA38" s="42" t="str">
+      <c r="AA38" s="44" t="str">
         <f>IF(AA11="","",AVERAGE(AA11:AA34))</f>
         <v/>
       </c>
-      <c r="AB38" s="42" t="str">
+      <c r="AB38" s="44" t="str">
         <f>IF(AB11="","",AVERAGE(AB11:AB34))</f>
         <v/>
       </c>
-      <c r="AC38" s="42" t="str">
+      <c r="AC38" s="44" t="str">
         <f>IF(AC11="","",AVERAGE(AC11:AC34))</f>
         <v/>
       </c>
-      <c r="AD38" s="42" t="str">
+      <c r="AD38" s="44" t="str">
         <f>IF(AD11="","",AVERAGE(AD11:AD34))</f>
         <v/>
       </c>
-      <c r="AE38" s="42" t="str">
+      <c r="AE38" s="44" t="str">
         <f>IF(AE11="","",AVERAGE(AE11:AE34))</f>
         <v/>
       </c>
-      <c r="AF38" s="42" t="str">
+      <c r="AF38" s="44" t="str">
         <f>IF(AF11="","",AVERAGE(AF11:AF34))</f>
         <v/>
       </c>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="55"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="57"/>
     </row>
     <row ht="149.25" customHeight="1" r="39">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="59" t="s">
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
-      <c r="AJ39" s="54"/>
-      <c r="AK39" s="55"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="57"/>
     </row>
     <row ht="18" r="40">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="64" t="s">
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="66" t="s">
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="70"/>
-      <c r="AF40" s="70"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="72"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="69"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -6734,10 +6742,6 @@
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -6750,6 +6754,10 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AG11:AG16"/>
     <mergeCell ref="AG17:AK40"/>
@@ -7077,95 +7085,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row customFormat="1" ht="70" r="1" s="73">
-      <c r="A1" s="74" t="s">
+    <row customFormat="1" ht="70" r="1" s="75">
+      <c r="A1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="V1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="74" t="s">
+      <c r="W1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="74" t="s">
+      <c r="X1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="74" t="s">
+      <c r="Y1" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="74" t="s">
+      <c r="Z1" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="74" t="s">
+      <c r="AB1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="74" t="s">
+      <c r="AC1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AD1" s="77" t="s">
         <v>75</v>
       </c>
     </row>

--- a/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="5.粗苯蒸馏（日）" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_cuben_day_hour" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
+    <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -29,34 +30,34 @@
   <si>
     <r>
       <rPr>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
-        <sz val="14"/>
       </rPr>
       <t>项目</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">     
  </t>
     </r>
     <r>
       <rPr>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
-        <sz val="14"/>
       </rPr>
       <t>时间</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">粗                  苯             蒸             馏</t>
+    <t>粗                  苯             蒸             馏</t>
   </si>
   <si>
     <t>化验分析</t>
@@ -74,29 +75,29 @@
     <t>贫油泵</t>
   </si>
   <si>
-    <t xml:space="preserve">油油换热器后富油温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冷凝冷却器后粗苯温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">残渣槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新洗油槽液位
+    <t>油油换热器后富油温度 ℃</t>
+  </si>
+  <si>
+    <t>冷凝冷却器后粗苯温度 ℃</t>
+  </si>
+  <si>
+    <t>残渣槽液位 mm</t>
+  </si>
+  <si>
+    <t>新洗油槽液位
  mm</t>
   </si>
   <si>
-    <t xml:space="preserve">粗苯中间槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煤气流量 m3/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辐射段温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对流段温度 ℃</t>
+    <t>粗苯中间槽液位 mm</t>
+  </si>
+  <si>
+    <t>煤气流量 m3/h</t>
+  </si>
+  <si>
+    <t>辐射段温度 ℃</t>
+  </si>
+  <si>
+    <t>对流段温度 ℃</t>
   </si>
   <si>
     <t>富油</t>
@@ -105,37 +106,37 @@
     <t>进管式炉蒸汽</t>
   </si>
   <si>
-    <t xml:space="preserve">富油流量  m3/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顶部压力 kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顶部温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">底部温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔顶压力 kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔顶温度  ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔底压力 kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔底温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贫油槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回流量 m3/h</t>
+    <t>富油流量  m3/h</t>
+  </si>
+  <si>
+    <t>顶部压力 kPa</t>
+  </si>
+  <si>
+    <t>顶部温度 ℃</t>
+  </si>
+  <si>
+    <t>底部温度 ℃</t>
+  </si>
+  <si>
+    <t>液位 mm</t>
+  </si>
+  <si>
+    <t>塔顶压力 kPa</t>
+  </si>
+  <si>
+    <t>塔顶温度  ℃</t>
+  </si>
+  <si>
+    <t>塔底压力 kPa</t>
+  </si>
+  <si>
+    <t>塔底温度 ℃</t>
+  </si>
+  <si>
+    <t>贫油槽液位 mm</t>
+  </si>
+  <si>
+    <t>回流量 m3/h</t>
   </si>
   <si>
     <t>回流阀阀位%</t>
@@ -153,19 +154,19 @@
     <t>2#</t>
   </si>
   <si>
-    <t xml:space="preserve">流量 m3/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出口温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">压力 Mpa</t>
+    <t>流量 m3/h</t>
+  </si>
+  <si>
+    <t>出口温度 ℃</t>
+  </si>
+  <si>
+    <t>压力 Mpa</t>
   </si>
   <si>
     <t>流量t/h</t>
   </si>
   <si>
-    <t xml:space="preserve">过热蒸汽温度  ℃</t>
+    <t>过热蒸汽温度  ℃</t>
   </si>
   <si>
     <t>化验项目</t>
@@ -393,28 +394,28 @@
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t>夜班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -423,28 +424,28 @@
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  白</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -453,28 +454,28 @@
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  中</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -483,38 +484,38 @@
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <rFont val="Calibri Light"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Arial"/>
         <scheme val="major"/>
-        <sz val="14"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -526,19 +527,85 @@
     <t>MCB/O/1/2/3</t>
   </si>
   <si>
-    <t>MCB/密度</t>
-  </si>
-  <si>
-    <t>MCB/初馏点</t>
-  </si>
-  <si>
-    <t>MCB/180℃前馏出量</t>
-  </si>
-  <si>
-    <t>MCB/H2O</t>
-  </si>
-  <si>
-    <t>MCB/Cl</t>
+    <r>
+      <t>MCB/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21CB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MCB/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初馏点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21CB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MCB/180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>℃前馏出量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21CB</t>
+    </r>
+  </si>
+  <si>
+    <t>MCB/H2O/QMIR21CB</t>
+  </si>
+  <si>
+    <t>MCB/Cl/QMIR21CB</t>
   </si>
 </sst>
 </file>
@@ -546,100 +613,125 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="160" formatCode="0.00_ "/>
-    <numFmt numFmtId="161" formatCode="0.0"/>
-    <numFmt numFmtId="162" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <sz val="12"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="宋体"/>
       <b/>
       <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="Times New Roman"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <sz val="14"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="14"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="14"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
+      <sz val="11"/>
       <color indexed="2"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color indexed="2"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="64"/>
       <name val="宋体"/>
-      <color indexed="64"/>
-      <sz val="14"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="Calibri Light"/>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
       <scheme val="major"/>
     </font>
     <font>
-      <name val="Calibri Light"/>
       <b/>
+      <sz val="14"/>
       <color indexed="64"/>
-      <sz val="14"/>
+      <name val="Arial"/>
       <scheme val="major"/>
     </font>
     <font>
-      <name val="Calibri Light"/>
       <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <scheme val="major"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -647,7 +739,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1134,209 +1226,212 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="8" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="9" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="12" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="8" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="14" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,6 +1439,11 @@
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="2"/>
@@ -1639,18 +1739,18 @@
         <color indexed="2"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1664,9 +1764,9 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 2" hidden="0"/>
+        <xdr:cNvPr id="4" name="Line 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1693,291 +1793,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2180,4547 +1997,4580 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AK40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:AG1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="11.6640625"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="11.5"/>
-    <col min="12" max="13" width="8.6640625"/>
-    <col min="15" max="15" width="9.33203125"/>
-    <col min="20" max="20" width="9.33203125"/>
-    <col min="29" max="32" width="9.33203125"/>
-    <col min="33" max="33" width="8.6640625"/>
-    <col customWidth="1" min="34" max="34" width="25.25"/>
+    <col min="12" max="13" width="8.625"/>
+    <col min="15" max="15" width="9.375"/>
+    <col min="20" max="20" width="9.375"/>
+    <col min="29" max="32" width="9.375"/>
+    <col min="33" max="33" width="8.625"/>
+    <col min="34" max="34" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="30.75" customHeight="1" r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
     </row>
-    <row ht="24" customHeight="1" r="2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="str">
+      <c r="E2" s="1"/>
+      <c r="F2" s="36" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row ht="23.5" customHeight="1" r="3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="9" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="11"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="44"/>
     </row>
-    <row ht="23.5" customHeight="1" r="4">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="2:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40"/>
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="14" t="s">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AE4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="18"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="47"/>
     </row>
-    <row ht="38" customHeight="1" r="5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="2:37" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="14" t="s">
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="18"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="47"/>
     </row>
-    <row ht="45.5" customHeight="1" r="6">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+    <row r="6" spans="2:37" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="23" t="s">
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="25" t="s">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="26" t="s">
+      <c r="AK6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row ht="24" customHeight="1" hidden="1" r="7">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:37" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="T7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="U7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="28" t="s">
+      <c r="V7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="28" t="s">
+      <c r="Y7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="28" t="s">
+      <c r="Z7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="28" t="s">
+      <c r="AD7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="28" t="s">
+      <c r="AE7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="29" t="s">
+      <c r="AF7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="31"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="10"/>
     </row>
-    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="8" s="32">
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="13">
         <v>650</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="13">
         <v>480</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="13">
         <v>460</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="13">
         <v>92</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="13">
         <v>190</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="13">
         <v>0.5</v>
       </c>
-      <c r="I8" s="34">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="J8" s="34">
+      <c r="I8" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="J8" s="13">
         <v>400</v>
       </c>
-      <c r="K8" s="34">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="L8" s="34">
+      <c r="K8" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="L8" s="13">
         <v>50</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="13">
         <v>190</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="13">
         <v>200</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="13">
         <v>1500</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="13">
         <v>40</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="13">
         <v>110</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="13">
         <v>50</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="13">
         <v>190</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="13">
         <v>3500</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="13">
         <v>4</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="13">
         <v>30</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="13">
         <v>100</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="13">
         <v>100</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="13">
         <v>48</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="13">
         <v>48</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="13">
         <v>160</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="13">
         <v>28</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC8" s="13">
         <v>1200</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="13">
         <v>2200</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="13">
         <v>2100</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8" s="14">
         <v>2100</v>
       </c>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="37"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="16"/>
     </row>
-    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="9" s="32">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="13">
         <v>350</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="13">
         <v>340</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="13">
         <v>350</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="13">
         <v>-99999</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="13">
         <v>160</v>
       </c>
-      <c r="H9" s="34">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="H9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="13">
         <v>360</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="13">
         <v>-99999</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="13">
         <v>-99999</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="13">
         <v>-99999</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="13">
         <v>-99999</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="13">
         <v>-99999</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="13">
         <v>-99999</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="13">
         <v>-99999</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="13">
         <v>-99999</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="13">
         <v>-99999</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="13">
         <v>-99999</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="13">
         <v>-99999</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="13">
         <v>-99999</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="13">
         <v>-99999</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="13">
         <v>-99999</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="13">
         <v>-99999</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="13">
         <v>-99999</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="13">
         <v>115</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="13">
         <v>20</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9" s="13">
         <v>-99999</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="13">
         <v>-99999</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="13">
         <v>450</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="14">
         <v>450</v>
       </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="37"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="16"/>
     </row>
-    <row ht="27" customHeight="1" r="10">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="Q10" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="U10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="39" t="s">
+      <c r="V10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="39" t="s">
+      <c r="W10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Y10" s="39" t="s">
+      <c r="Y10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="Z10" s="39" t="s">
+      <c r="Z10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AA10" s="39" t="s">
+      <c r="AA10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AB10" s="39" t="s">
+      <c r="AB10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="39" t="s">
+      <c r="AC10" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="39" t="s">
+      <c r="AD10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AE10" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AF10" s="40" t="s">
+      <c r="AF10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="42"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="21"/>
     </row>
-    <row ht="22" customHeight="1" r="11">
-      <c r="B11" s="43">
+    <row r="11" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>0</v>
       </c>
-      <c r="C11" s="44" t="str">
+      <c r="C11" s="23" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="23" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F11" s="44" t="str">
+      <c r="F11" s="23" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G11" s="44" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H11" s="45" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I11" s="46" t="str">
+      <c r="I11" s="25" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J11" s="44" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K11" s="45" t="str">
+      <c r="K11" s="24" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L11" s="44" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M11" s="44" t="str">
+      <c r="M11" s="23" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N11" s="44" t="str">
+      <c r="N11" s="23" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O11" s="44" t="str">
+      <c r="O11" s="23" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P11" s="44" t="str">
+      <c r="P11" s="23" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q11" s="46" t="str">
+      <c r="Q11" s="25" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R11" s="44" t="str">
+      <c r="R11" s="23" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S11" s="44" t="str">
+      <c r="S11" s="23" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T11" s="44" t="str">
+      <c r="T11" s="23" t="str">
         <f>IF(_cuben_day_hour!R2="","",_cuben_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U11" s="46" t="str">
+      <c r="U11" s="25" t="str">
         <f>IF(_cuben_day_hour!S2="","",_cuben_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V11" s="46" t="str">
+      <c r="V11" s="25" t="str">
         <f>IF(_cuben_day_hour!T2="","",_cuben_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W11" s="44" t="str">
+      <c r="W11" s="23" t="str">
         <f>IF(_cuben_day_hour!U2="","",_cuben_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X11" s="44" t="str">
+      <c r="X11" s="23" t="str">
         <f>IF(_cuben_day_hour!V2="","",_cuben_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y11" s="45" t="str">
+      <c r="Y11" s="24" t="str">
         <f>IF(_cuben_day_hour!W2="","",_cuben_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z11" s="45" t="str">
+      <c r="Z11" s="24" t="str">
         <f>IF(_cuben_day_hour!X2="","",_cuben_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA11" s="44" t="str">
+      <c r="AA11" s="23" t="str">
         <f>IF(_cuben_day_hour!Y2="","",_cuben_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB11" s="44" t="str">
+      <c r="AB11" s="23" t="str">
         <f>IF(_cuben_day_hour!Z2="","",_cuben_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC11" s="44" t="str">
+      <c r="AC11" s="23" t="str">
         <f>IF(_cuben_day_hour!AA2="","",_cuben_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD11" s="44" t="str">
+      <c r="AD11" s="23" t="str">
         <f>IF(_cuben_day_hour!AB2="","",_cuben_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE11" s="44" t="str">
+      <c r="AE11" s="23" t="str">
         <f>IF(_cuben_day_hour!AC2="","",_cuben_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF11" s="44" t="str">
+      <c r="AF11" s="23" t="str">
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG11" s="47" t="s">
+      <c r="AG11" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="48" t="s">
+      <c r="AH11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="49" t="str">
+      <c r="AI11" s="27" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="49" t="str">
+      <c r="AJ11" s="27" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="AK11" s="50" t="str">
+      <c r="AK11" s="28" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="12">
-      <c r="B12" s="43">
-        <v>0.041666666666666699</v>
-      </c>
-      <c r="C12" s="44" t="str">
+    <row r="12" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="22">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C12" s="23" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D12" s="44" t="str">
+      <c r="D12" s="23" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F12" s="44" t="str">
+      <c r="F12" s="23" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G12" s="44" t="str">
+      <c r="G12" s="23" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H12" s="45" t="str">
+      <c r="H12" s="24" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I12" s="46" t="str">
+      <c r="I12" s="25" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J12" s="44" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K12" s="45" t="str">
+      <c r="K12" s="24" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L12" s="44" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M12" s="44" t="str">
+      <c r="M12" s="23" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N12" s="44" t="str">
+      <c r="N12" s="23" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O12" s="44" t="str">
+      <c r="O12" s="23" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P12" s="44" t="str">
+      <c r="P12" s="23" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q12" s="46" t="str">
+      <c r="Q12" s="25" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R12" s="44" t="str">
+      <c r="R12" s="23" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S12" s="44" t="str">
+      <c r="S12" s="23" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T12" s="44" t="str">
+      <c r="T12" s="23" t="str">
         <f>IF(_cuben_day_hour!R3="","",_cuben_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U12" s="46" t="str">
+      <c r="U12" s="25" t="str">
         <f>IF(_cuben_day_hour!S3="","",_cuben_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V12" s="46" t="str">
+      <c r="V12" s="25" t="str">
         <f>IF(_cuben_day_hour!T3="","",_cuben_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W12" s="44" t="str">
+      <c r="W12" s="23" t="str">
         <f>IF(_cuben_day_hour!U3="","",_cuben_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X12" s="44" t="str">
+      <c r="X12" s="23" t="str">
         <f>IF(_cuben_day_hour!V3="","",_cuben_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y12" s="45" t="str">
+      <c r="Y12" s="24" t="str">
         <f>IF(_cuben_day_hour!W3="","",_cuben_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z12" s="45" t="str">
+      <c r="Z12" s="24" t="str">
         <f>IF(_cuben_day_hour!X3="","",_cuben_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA12" s="44" t="str">
+      <c r="AA12" s="23" t="str">
         <f>IF(_cuben_day_hour!Y3="","",_cuben_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB12" s="44" t="str">
+      <c r="AB12" s="23" t="str">
         <f>IF(_cuben_day_hour!Z3="","",_cuben_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC12" s="44" t="str">
+      <c r="AC12" s="23" t="str">
         <f>IF(_cuben_day_hour!AA3="","",_cuben_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD12" s="44" t="str">
+      <c r="AD12" s="23" t="str">
         <f>IF(_cuben_day_hour!AB3="","",_cuben_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE12" s="44" t="str">
+      <c r="AE12" s="23" t="str">
         <f>IF(_cuben_day_hour!AC3="","",_cuben_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF12" s="44" t="str">
+      <c r="AF12" s="23" t="str">
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="51" t="s">
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AI12" s="49" t="str">
+      <c r="AI12" s="27" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="AJ12" s="49" t="str">
+      <c r="AJ12" s="27" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="AK12" s="50" t="str">
+      <c r="AK12" s="28" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="13">
-      <c r="B13" s="43">
-        <v>0.083333333333333301</v>
-      </c>
-      <c r="C13" s="44" t="str">
+    <row r="13" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="22">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C13" s="23" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D13" s="44" t="str">
+      <c r="D13" s="23" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F13" s="44" t="str">
+      <c r="F13" s="23" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G13" s="44" t="str">
+      <c r="G13" s="23" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H13" s="45" t="str">
+      <c r="H13" s="24" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I13" s="46" t="str">
+      <c r="I13" s="25" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J13" s="44" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K13" s="45" t="str">
+      <c r="K13" s="24" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L13" s="44" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M13" s="44" t="str">
+      <c r="M13" s="23" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N13" s="44" t="str">
+      <c r="N13" s="23" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O13" s="44" t="str">
+      <c r="O13" s="23" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P13" s="44" t="str">
+      <c r="P13" s="23" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q13" s="46" t="str">
+      <c r="Q13" s="25" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R13" s="44" t="str">
+      <c r="R13" s="23" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S13" s="44" t="str">
+      <c r="S13" s="23" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T13" s="44" t="str">
+      <c r="T13" s="23" t="str">
         <f>IF(_cuben_day_hour!R4="","",_cuben_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U13" s="46" t="str">
+      <c r="U13" s="25" t="str">
         <f>IF(_cuben_day_hour!S4="","",_cuben_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V13" s="46" t="str">
+      <c r="V13" s="25" t="str">
         <f>IF(_cuben_day_hour!T4="","",_cuben_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W13" s="44" t="str">
+      <c r="W13" s="23" t="str">
         <f>IF(_cuben_day_hour!U4="","",_cuben_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X13" s="44" t="str">
+      <c r="X13" s="23" t="str">
         <f>IF(_cuben_day_hour!V4="","",_cuben_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y13" s="45" t="str">
+      <c r="Y13" s="24" t="str">
         <f>IF(_cuben_day_hour!W4="","",_cuben_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z13" s="45" t="str">
+      <c r="Z13" s="24" t="str">
         <f>IF(_cuben_day_hour!X4="","",_cuben_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA13" s="44" t="str">
+      <c r="AA13" s="23" t="str">
         <f>IF(_cuben_day_hour!Y4="","",_cuben_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB13" s="44" t="str">
+      <c r="AB13" s="23" t="str">
         <f>IF(_cuben_day_hour!Z4="","",_cuben_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC13" s="44" t="str">
+      <c r="AC13" s="23" t="str">
         <f>IF(_cuben_day_hour!AA4="","",_cuben_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD13" s="44" t="str">
+      <c r="AD13" s="23" t="str">
         <f>IF(_cuben_day_hour!AB4="","",_cuben_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE13" s="44" t="str">
+      <c r="AE13" s="23" t="str">
         <f>IF(_cuben_day_hour!AC4="","",_cuben_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF13" s="44" t="str">
+      <c r="AF13" s="23" t="str">
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="51" t="s">
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="49" t="str">
+      <c r="AI13" s="27" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AJ13" s="49" t="str">
+      <c r="AJ13" s="27" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AK13" s="50" t="str">
+      <c r="AK13" s="28" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="14">
-      <c r="B14" s="43">
+    <row r="14" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22">
         <v>0.125</v>
       </c>
-      <c r="C14" s="44" t="str">
+      <c r="C14" s="23" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D14" s="44" t="str">
+      <c r="D14" s="23" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F14" s="44" t="str">
+      <c r="F14" s="23" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G14" s="44" t="str">
+      <c r="G14" s="23" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H14" s="45" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I14" s="46" t="str">
+      <c r="I14" s="25" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J14" s="44" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K14" s="45" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L14" s="44" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M14" s="44" t="str">
+      <c r="M14" s="23" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N14" s="44" t="str">
+      <c r="N14" s="23" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O14" s="44" t="str">
+      <c r="O14" s="23" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P14" s="44" t="str">
+      <c r="P14" s="23" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q14" s="46" t="str">
+      <c r="Q14" s="25" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R14" s="44" t="str">
+      <c r="R14" s="23" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S14" s="44" t="str">
+      <c r="S14" s="23" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T14" s="44" t="str">
+      <c r="T14" s="23" t="str">
         <f>IF(_cuben_day_hour!R5="","",_cuben_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U14" s="46" t="str">
+      <c r="U14" s="25" t="str">
         <f>IF(_cuben_day_hour!S5="","",_cuben_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V14" s="46" t="str">
+      <c r="V14" s="25" t="str">
         <f>IF(_cuben_day_hour!T5="","",_cuben_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W14" s="44" t="str">
+      <c r="W14" s="23" t="str">
         <f>IF(_cuben_day_hour!U5="","",_cuben_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X14" s="44" t="str">
+      <c r="X14" s="23" t="str">
         <f>IF(_cuben_day_hour!V5="","",_cuben_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y14" s="45" t="str">
+      <c r="Y14" s="24" t="str">
         <f>IF(_cuben_day_hour!W5="","",_cuben_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z14" s="45" t="str">
+      <c r="Z14" s="24" t="str">
         <f>IF(_cuben_day_hour!X5="","",_cuben_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA14" s="44" t="str">
+      <c r="AA14" s="23" t="str">
         <f>IF(_cuben_day_hour!Y5="","",_cuben_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB14" s="44" t="str">
+      <c r="AB14" s="23" t="str">
         <f>IF(_cuben_day_hour!Z5="","",_cuben_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC14" s="44" t="str">
+      <c r="AC14" s="23" t="str">
         <f>IF(_cuben_day_hour!AA5="","",_cuben_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD14" s="44" t="str">
+      <c r="AD14" s="23" t="str">
         <f>IF(_cuben_day_hour!AB5="","",_cuben_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE14" s="44" t="str">
+      <c r="AE14" s="23" t="str">
         <f>IF(_cuben_day_hour!AC5="","",_cuben_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF14" s="44" t="str">
+      <c r="AF14" s="23" t="str">
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="51" t="s">
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="AI14" s="49" t="str">
+      <c r="AI14" s="27" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="AJ14" s="49" t="str">
+      <c r="AJ14" s="27" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="AK14" s="50" t="str">
+      <c r="AK14" s="28" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="15">
-      <c r="B15" s="43">
+    <row r="15" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="22">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C15" s="44" t="str">
+      <c r="C15" s="23" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D15" s="44" t="str">
+      <c r="D15" s="23" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E15" s="44" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F15" s="44" t="str">
+      <c r="F15" s="23" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G15" s="44" t="str">
+      <c r="G15" s="23" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H15" s="45" t="str">
+      <c r="H15" s="24" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I15" s="46" t="str">
+      <c r="I15" s="25" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J15" s="44" t="str">
+      <c r="J15" s="23" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K15" s="45" t="str">
+      <c r="K15" s="24" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L15" s="44" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M15" s="44" t="str">
+      <c r="M15" s="23" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N15" s="44" t="str">
+      <c r="N15" s="23" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O15" s="44" t="str">
+      <c r="O15" s="23" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P15" s="44" t="str">
+      <c r="P15" s="23" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q15" s="46" t="str">
+      <c r="Q15" s="25" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R15" s="44" t="str">
+      <c r="R15" s="23" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S15" s="44" t="str">
+      <c r="S15" s="23" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T15" s="44" t="str">
+      <c r="T15" s="23" t="str">
         <f>IF(_cuben_day_hour!R6="","",_cuben_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U15" s="46" t="str">
+      <c r="U15" s="25" t="str">
         <f>IF(_cuben_day_hour!S6="","",_cuben_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V15" s="46" t="str">
+      <c r="V15" s="25" t="str">
         <f>IF(_cuben_day_hour!T6="","",_cuben_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W15" s="44" t="str">
+      <c r="W15" s="23" t="str">
         <f>IF(_cuben_day_hour!U6="","",_cuben_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X15" s="44" t="str">
+      <c r="X15" s="23" t="str">
         <f>IF(_cuben_day_hour!V6="","",_cuben_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y15" s="45" t="str">
+      <c r="Y15" s="24" t="str">
         <f>IF(_cuben_day_hour!W6="","",_cuben_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z15" s="45" t="str">
+      <c r="Z15" s="24" t="str">
         <f>IF(_cuben_day_hour!X6="","",_cuben_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA15" s="44" t="str">
+      <c r="AA15" s="23" t="str">
         <f>IF(_cuben_day_hour!Y6="","",_cuben_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB15" s="44" t="str">
+      <c r="AB15" s="23" t="str">
         <f>IF(_cuben_day_hour!Z6="","",_cuben_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC15" s="44" t="str">
+      <c r="AC15" s="23" t="str">
         <f>IF(_cuben_day_hour!AA6="","",_cuben_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD15" s="44" t="str">
+      <c r="AD15" s="23" t="str">
         <f>IF(_cuben_day_hour!AB6="","",_cuben_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE15" s="44" t="str">
+      <c r="AE15" s="23" t="str">
         <f>IF(_cuben_day_hour!AC6="","",_cuben_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF15" s="44" t="str">
+      <c r="AF15" s="23" t="str">
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="51" t="s">
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AI15" s="49" t="str">
+      <c r="AI15" s="27" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="AJ15" s="49" t="str">
+      <c r="AJ15" s="27" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="AK15" s="50" t="str">
+      <c r="AK15" s="28" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="16">
-      <c r="B16" s="43">
+    <row r="16" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C16" s="44" t="str">
+      <c r="C16" s="23" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D16" s="44" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F16" s="44" t="str">
+      <c r="F16" s="23" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G16" s="44" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H16" s="45" t="str">
+      <c r="H16" s="24" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I16" s="46" t="str">
+      <c r="I16" s="25" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J16" s="44" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K16" s="45" t="str">
+      <c r="K16" s="24" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L16" s="44" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M16" s="44" t="str">
+      <c r="M16" s="23" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N16" s="44" t="str">
+      <c r="N16" s="23" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O16" s="44" t="str">
+      <c r="O16" s="23" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P16" s="44" t="str">
+      <c r="P16" s="23" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q16" s="46" t="str">
+      <c r="Q16" s="25" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R16" s="44" t="str">
+      <c r="R16" s="23" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S16" s="44" t="str">
+      <c r="S16" s="23" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T16" s="44" t="str">
+      <c r="T16" s="23" t="str">
         <f>IF(_cuben_day_hour!R7="","",_cuben_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U16" s="46" t="str">
+      <c r="U16" s="25" t="str">
         <f>IF(_cuben_day_hour!S7="","",_cuben_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V16" s="46" t="str">
+      <c r="V16" s="25" t="str">
         <f>IF(_cuben_day_hour!T7="","",_cuben_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W16" s="44" t="str">
+      <c r="W16" s="23" t="str">
         <f>IF(_cuben_day_hour!U7="","",_cuben_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X16" s="44" t="str">
+      <c r="X16" s="23" t="str">
         <f>IF(_cuben_day_hour!V7="","",_cuben_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y16" s="45" t="str">
+      <c r="Y16" s="24" t="str">
         <f>IF(_cuben_day_hour!W7="","",_cuben_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z16" s="45" t="str">
+      <c r="Z16" s="24" t="str">
         <f>IF(_cuben_day_hour!X7="","",_cuben_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA16" s="44" t="str">
+      <c r="AA16" s="23" t="str">
         <f>IF(_cuben_day_hour!Y7="","",_cuben_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB16" s="44" t="str">
+      <c r="AB16" s="23" t="str">
         <f>IF(_cuben_day_hour!Z7="","",_cuben_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC16" s="44" t="str">
+      <c r="AC16" s="23" t="str">
         <f>IF(_cuben_day_hour!AA7="","",_cuben_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD16" s="44" t="str">
+      <c r="AD16" s="23" t="str">
         <f>IF(_cuben_day_hour!AB7="","",_cuben_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE16" s="44" t="str">
+      <c r="AE16" s="23" t="str">
         <f>IF(_cuben_day_hour!AC7="","",_cuben_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF16" s="44" t="str">
+      <c r="AF16" s="23" t="str">
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="51" t="s">
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="49" t="str">
+      <c r="AI16" s="27" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AJ16" s="49" t="str">
+      <c r="AJ16" s="27" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AK16" s="50" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row ht="22" customHeight="1" r="17">
-      <c r="B17" s="43">
+    <row r="17" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22">
         <v>0.25</v>
       </c>
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="23" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D17" s="44" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F17" s="44" t="str">
+      <c r="F17" s="23" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G17" s="44" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H17" s="45" t="str">
+      <c r="H17" s="24" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I17" s="46" t="str">
+      <c r="I17" s="25" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J17" s="44" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K17" s="45" t="str">
+      <c r="K17" s="24" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L17" s="44" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M17" s="44" t="str">
+      <c r="M17" s="23" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N17" s="44" t="str">
+      <c r="N17" s="23" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O17" s="44" t="str">
+      <c r="O17" s="23" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P17" s="44" t="str">
+      <c r="P17" s="23" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q17" s="46" t="str">
+      <c r="Q17" s="25" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R17" s="44" t="str">
+      <c r="R17" s="23" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S17" s="44" t="str">
+      <c r="S17" s="23" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T17" s="44" t="str">
+      <c r="T17" s="23" t="str">
         <f>IF(_cuben_day_hour!R8="","",_cuben_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U17" s="46" t="str">
+      <c r="U17" s="25" t="str">
         <f>IF(_cuben_day_hour!S8="","",_cuben_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V17" s="46" t="str">
+      <c r="V17" s="25" t="str">
         <f>IF(_cuben_day_hour!T8="","",_cuben_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W17" s="44" t="str">
+      <c r="W17" s="23" t="str">
         <f>IF(_cuben_day_hour!U8="","",_cuben_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X17" s="44" t="str">
+      <c r="X17" s="23" t="str">
         <f>IF(_cuben_day_hour!V8="","",_cuben_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y17" s="45" t="str">
+      <c r="Y17" s="24" t="str">
         <f>IF(_cuben_day_hour!W8="","",_cuben_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z17" s="45" t="str">
+      <c r="Z17" s="24" t="str">
         <f>IF(_cuben_day_hour!X8="","",_cuben_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA17" s="44" t="str">
+      <c r="AA17" s="23" t="str">
         <f>IF(_cuben_day_hour!Y8="","",_cuben_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB17" s="44" t="str">
+      <c r="AB17" s="23" t="str">
         <f>IF(_cuben_day_hour!Z8="","",_cuben_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC17" s="44" t="str">
+      <c r="AC17" s="23" t="str">
         <f>IF(_cuben_day_hour!AA8="","",_cuben_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD17" s="44" t="str">
+      <c r="AD17" s="23" t="str">
         <f>IF(_cuben_day_hour!AB8="","",_cuben_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE17" s="44" t="str">
+      <c r="AE17" s="23" t="str">
         <f>IF(_cuben_day_hour!AC8="","",_cuben_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF17" s="44" t="str">
+      <c r="AF17" s="23" t="str">
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="54"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="59"/>
     </row>
-    <row ht="22" customHeight="1" r="18">
-      <c r="B18" s="43">
+    <row r="18" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C18" s="44" t="str">
+      <c r="C18" s="23" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D18" s="44" t="str">
+      <c r="D18" s="23" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E18" s="44" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F18" s="44" t="str">
+      <c r="F18" s="23" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G18" s="44" t="str">
+      <c r="G18" s="23" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H18" s="45" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I18" s="46" t="str">
+      <c r="I18" s="25" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J18" s="44" t="str">
+      <c r="J18" s="23" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K18" s="45" t="str">
+      <c r="K18" s="24" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L18" s="44" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M18" s="44" t="str">
+      <c r="M18" s="23" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N18" s="44" t="str">
+      <c r="N18" s="23" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O18" s="44" t="str">
+      <c r="O18" s="23" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P18" s="44" t="str">
+      <c r="P18" s="23" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q18" s="46" t="str">
+      <c r="Q18" s="25" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R18" s="44" t="str">
+      <c r="R18" s="23" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S18" s="44" t="str">
+      <c r="S18" s="23" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T18" s="44" t="str">
+      <c r="T18" s="23" t="str">
         <f>IF(_cuben_day_hour!R9="","",_cuben_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U18" s="46" t="str">
+      <c r="U18" s="25" t="str">
         <f>IF(_cuben_day_hour!S9="","",_cuben_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V18" s="46" t="str">
+      <c r="V18" s="25" t="str">
         <f>IF(_cuben_day_hour!T9="","",_cuben_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W18" s="44" t="str">
+      <c r="W18" s="23" t="str">
         <f>IF(_cuben_day_hour!U9="","",_cuben_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X18" s="44" t="str">
+      <c r="X18" s="23" t="str">
         <f>IF(_cuben_day_hour!V9="","",_cuben_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y18" s="45" t="str">
+      <c r="Y18" s="24" t="str">
         <f>IF(_cuben_day_hour!W9="","",_cuben_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z18" s="45" t="str">
+      <c r="Z18" s="24" t="str">
         <f>IF(_cuben_day_hour!X9="","",_cuben_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA18" s="44" t="str">
+      <c r="AA18" s="23" t="str">
         <f>IF(_cuben_day_hour!Y9="","",_cuben_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB18" s="44" t="str">
+      <c r="AB18" s="23" t="str">
         <f>IF(_cuben_day_hour!Z9="","",_cuben_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC18" s="44" t="str">
+      <c r="AC18" s="23" t="str">
         <f>IF(_cuben_day_hour!AA9="","",_cuben_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD18" s="44" t="str">
+      <c r="AD18" s="23" t="str">
         <f>IF(_cuben_day_hour!AB9="","",_cuben_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE18" s="44" t="str">
+      <c r="AE18" s="23" t="str">
         <f>IF(_cuben_day_hour!AC9="","",_cuben_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF18" s="44" t="str">
+      <c r="AF18" s="23" t="str">
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="57"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="19">
-      <c r="B19" s="43">
+    <row r="19" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C19" s="44" t="str">
+      <c r="C19" s="23" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D19" s="44" t="str">
+      <c r="D19" s="23" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E19" s="44" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F19" s="44" t="str">
+      <c r="F19" s="23" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G19" s="44" t="str">
+      <c r="G19" s="23" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H19" s="45" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I19" s="46" t="str">
+      <c r="I19" s="25" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J19" s="44" t="str">
+      <c r="J19" s="23" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K19" s="45" t="str">
+      <c r="K19" s="24" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L19" s="44" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M19" s="44" t="str">
+      <c r="M19" s="23" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N19" s="44" t="str">
+      <c r="N19" s="23" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O19" s="44" t="str">
+      <c r="O19" s="23" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P19" s="44" t="str">
+      <c r="P19" s="23" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q19" s="46" t="str">
+      <c r="Q19" s="25" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R19" s="44" t="str">
+      <c r="R19" s="23" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S19" s="44" t="str">
+      <c r="S19" s="23" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T19" s="44" t="str">
+      <c r="T19" s="23" t="str">
         <f>IF(_cuben_day_hour!R10="","",_cuben_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U19" s="46" t="str">
+      <c r="U19" s="25" t="str">
         <f>IF(_cuben_day_hour!S10="","",_cuben_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V19" s="46" t="str">
+      <c r="V19" s="25" t="str">
         <f>IF(_cuben_day_hour!T10="","",_cuben_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W19" s="44" t="str">
+      <c r="W19" s="23" t="str">
         <f>IF(_cuben_day_hour!U10="","",_cuben_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X19" s="44" t="str">
+      <c r="X19" s="23" t="str">
         <f>IF(_cuben_day_hour!V10="","",_cuben_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y19" s="45" t="str">
+      <c r="Y19" s="24" t="str">
         <f>IF(_cuben_day_hour!W10="","",_cuben_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z19" s="45" t="str">
+      <c r="Z19" s="24" t="str">
         <f>IF(_cuben_day_hour!X10="","",_cuben_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA19" s="44" t="str">
+      <c r="AA19" s="23" t="str">
         <f>IF(_cuben_day_hour!Y10="","",_cuben_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB19" s="44" t="str">
+      <c r="AB19" s="23" t="str">
         <f>IF(_cuben_day_hour!Z10="","",_cuben_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC19" s="44" t="str">
+      <c r="AC19" s="23" t="str">
         <f>IF(_cuben_day_hour!AA10="","",_cuben_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD19" s="44" t="str">
+      <c r="AD19" s="23" t="str">
         <f>IF(_cuben_day_hour!AB10="","",_cuben_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE19" s="44" t="str">
+      <c r="AE19" s="23" t="str">
         <f>IF(_cuben_day_hour!AC10="","",_cuben_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF19" s="44" t="str">
+      <c r="AF19" s="23" t="str">
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="57"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="20">
-      <c r="B20" s="43">
+    <row r="20" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22">
         <v>0.375</v>
       </c>
-      <c r="C20" s="44" t="str">
+      <c r="C20" s="23" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D20" s="44" t="str">
+      <c r="D20" s="23" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F20" s="44" t="str">
+      <c r="F20" s="23" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G20" s="44" t="str">
+      <c r="G20" s="23" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H20" s="45" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I20" s="46" t="str">
+      <c r="I20" s="25" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J20" s="44" t="str">
+      <c r="J20" s="23" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K20" s="45" t="str">
+      <c r="K20" s="24" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L20" s="44" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M20" s="44" t="str">
+      <c r="M20" s="23" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N20" s="44" t="str">
+      <c r="N20" s="23" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O20" s="44" t="str">
+      <c r="O20" s="23" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P20" s="44" t="str">
+      <c r="P20" s="23" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q20" s="46" t="str">
+      <c r="Q20" s="25" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R20" s="44" t="str">
+      <c r="R20" s="23" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S20" s="44" t="str">
+      <c r="S20" s="23" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T20" s="44" t="str">
+      <c r="T20" s="23" t="str">
         <f>IF(_cuben_day_hour!R11="","",_cuben_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U20" s="46" t="str">
+      <c r="U20" s="25" t="str">
         <f>IF(_cuben_day_hour!S11="","",_cuben_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V20" s="46" t="str">
+      <c r="V20" s="25" t="str">
         <f>IF(_cuben_day_hour!T11="","",_cuben_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W20" s="44" t="str">
+      <c r="W20" s="23" t="str">
         <f>IF(_cuben_day_hour!U11="","",_cuben_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X20" s="44" t="str">
+      <c r="X20" s="23" t="str">
         <f>IF(_cuben_day_hour!V11="","",_cuben_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y20" s="45" t="str">
+      <c r="Y20" s="24" t="str">
         <f>IF(_cuben_day_hour!W11="","",_cuben_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z20" s="45" t="str">
+      <c r="Z20" s="24" t="str">
         <f>IF(_cuben_day_hour!X11="","",_cuben_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA20" s="44" t="str">
+      <c r="AA20" s="23" t="str">
         <f>IF(_cuben_day_hour!Y11="","",_cuben_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB20" s="44" t="str">
+      <c r="AB20" s="23" t="str">
         <f>IF(_cuben_day_hour!Z11="","",_cuben_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC20" s="44" t="str">
+      <c r="AC20" s="23" t="str">
         <f>IF(_cuben_day_hour!AA11="","",_cuben_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD20" s="44" t="str">
+      <c r="AD20" s="23" t="str">
         <f>IF(_cuben_day_hour!AB11="","",_cuben_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE20" s="44" t="str">
+      <c r="AE20" s="23" t="str">
         <f>IF(_cuben_day_hour!AC11="","",_cuben_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF20" s="44" t="str">
+      <c r="AF20" s="23" t="str">
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="57"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="21">
-      <c r="B21" s="43">
+    <row r="21" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="22">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C21" s="44" t="str">
+      <c r="C21" s="23" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D21" s="44" t="str">
+      <c r="D21" s="23" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E21" s="44" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F21" s="44" t="str">
+      <c r="F21" s="23" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G21" s="44" t="str">
+      <c r="G21" s="23" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H21" s="45" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I21" s="46" t="str">
+      <c r="I21" s="25" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J21" s="44" t="str">
+      <c r="J21" s="23" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K21" s="45" t="str">
+      <c r="K21" s="24" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L21" s="44" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M21" s="44" t="str">
+      <c r="M21" s="23" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N21" s="44" t="str">
+      <c r="N21" s="23" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O21" s="44" t="str">
+      <c r="O21" s="23" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P21" s="44" t="str">
+      <c r="P21" s="23" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q21" s="46" t="str">
+      <c r="Q21" s="25" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R21" s="44" t="str">
+      <c r="R21" s="23" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S21" s="44" t="str">
+      <c r="S21" s="23" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T21" s="44" t="str">
+      <c r="T21" s="23" t="str">
         <f>IF(_cuben_day_hour!R12="","",_cuben_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U21" s="46" t="str">
+      <c r="U21" s="25" t="str">
         <f>IF(_cuben_day_hour!S12="","",_cuben_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V21" s="46" t="str">
+      <c r="V21" s="25" t="str">
         <f>IF(_cuben_day_hour!T12="","",_cuben_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W21" s="44" t="str">
+      <c r="W21" s="23" t="str">
         <f>IF(_cuben_day_hour!U12="","",_cuben_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X21" s="44" t="str">
+      <c r="X21" s="23" t="str">
         <f>IF(_cuben_day_hour!V12="","",_cuben_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y21" s="45" t="str">
+      <c r="Y21" s="24" t="str">
         <f>IF(_cuben_day_hour!W12="","",_cuben_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z21" s="45" t="str">
+      <c r="Z21" s="24" t="str">
         <f>IF(_cuben_day_hour!X12="","",_cuben_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA21" s="44" t="str">
+      <c r="AA21" s="23" t="str">
         <f>IF(_cuben_day_hour!Y12="","",_cuben_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB21" s="44" t="str">
+      <c r="AB21" s="23" t="str">
         <f>IF(_cuben_day_hour!Z12="","",_cuben_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC21" s="44" t="str">
+      <c r="AC21" s="23" t="str">
         <f>IF(_cuben_day_hour!AA12="","",_cuben_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD21" s="44" t="str">
+      <c r="AD21" s="23" t="str">
         <f>IF(_cuben_day_hour!AB12="","",_cuben_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE21" s="44" t="str">
+      <c r="AE21" s="23" t="str">
         <f>IF(_cuben_day_hour!AC12="","",_cuben_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF21" s="44" t="str">
+      <c r="AF21" s="23" t="str">
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="57"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="22">
-      <c r="B22" s="43">
+    <row r="22" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="22">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="44" t="str">
+      <c r="C22" s="23" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D22" s="44" t="str">
+      <c r="D22" s="23" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E22" s="44" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F22" s="44" t="str">
+      <c r="F22" s="23" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G22" s="44" t="str">
+      <c r="G22" s="23" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H22" s="45" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I22" s="46" t="str">
+      <c r="I22" s="25" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J22" s="44" t="str">
+      <c r="J22" s="23" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K22" s="45" t="str">
+      <c r="K22" s="24" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L22" s="44" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M22" s="44" t="str">
+      <c r="M22" s="23" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N22" s="44" t="str">
+      <c r="N22" s="23" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O22" s="44" t="str">
+      <c r="O22" s="23" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P22" s="44" t="str">
+      <c r="P22" s="23" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q22" s="46" t="str">
+      <c r="Q22" s="25" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R22" s="44" t="str">
+      <c r="R22" s="23" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S22" s="44" t="str">
+      <c r="S22" s="23" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T22" s="44" t="str">
+      <c r="T22" s="23" t="str">
         <f>IF(_cuben_day_hour!R13="","",_cuben_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U22" s="46" t="str">
+      <c r="U22" s="25" t="str">
         <f>IF(_cuben_day_hour!S13="","",_cuben_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V22" s="46" t="str">
+      <c r="V22" s="25" t="str">
         <f>IF(_cuben_day_hour!T13="","",_cuben_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W22" s="44" t="str">
+      <c r="W22" s="23" t="str">
         <f>IF(_cuben_day_hour!U13="","",_cuben_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X22" s="44" t="str">
+      <c r="X22" s="23" t="str">
         <f>IF(_cuben_day_hour!V13="","",_cuben_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y22" s="45" t="str">
+      <c r="Y22" s="24" t="str">
         <f>IF(_cuben_day_hour!W13="","",_cuben_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z22" s="45" t="str">
+      <c r="Z22" s="24" t="str">
         <f>IF(_cuben_day_hour!X13="","",_cuben_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA22" s="44" t="str">
+      <c r="AA22" s="23" t="str">
         <f>IF(_cuben_day_hour!Y13="","",_cuben_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB22" s="44" t="str">
+      <c r="AB22" s="23" t="str">
         <f>IF(_cuben_day_hour!Z13="","",_cuben_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC22" s="44" t="str">
+      <c r="AC22" s="23" t="str">
         <f>IF(_cuben_day_hour!AA13="","",_cuben_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD22" s="44" t="str">
+      <c r="AD22" s="23" t="str">
         <f>IF(_cuben_day_hour!AB13="","",_cuben_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE22" s="44" t="str">
+      <c r="AE22" s="23" t="str">
         <f>IF(_cuben_day_hour!AC13="","",_cuben_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF22" s="44" t="str">
+      <c r="AF22" s="23" t="str">
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="57"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="23">
-      <c r="B23" s="43">
+    <row r="23" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22">
         <v>0.5</v>
       </c>
-      <c r="C23" s="44" t="str">
+      <c r="C23" s="23" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D23" s="44" t="str">
+      <c r="D23" s="23" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E23" s="44" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F23" s="44" t="str">
+      <c r="F23" s="23" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G23" s="44" t="str">
+      <c r="G23" s="23" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H23" s="45" t="str">
+      <c r="H23" s="24" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I23" s="46" t="str">
+      <c r="I23" s="25" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J23" s="44" t="str">
+      <c r="J23" s="23" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K23" s="45" t="str">
+      <c r="K23" s="24" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L23" s="44" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M23" s="44" t="str">
+      <c r="M23" s="23" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N23" s="44" t="str">
+      <c r="N23" s="23" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O23" s="44" t="str">
+      <c r="O23" s="23" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P23" s="44" t="str">
+      <c r="P23" s="23" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q23" s="46" t="str">
+      <c r="Q23" s="25" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R23" s="44" t="str">
+      <c r="R23" s="23" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S23" s="44" t="str">
+      <c r="S23" s="23" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T23" s="44" t="str">
+      <c r="T23" s="23" t="str">
         <f>IF(_cuben_day_hour!R14="","",_cuben_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U23" s="46" t="str">
+      <c r="U23" s="25" t="str">
         <f>IF(_cuben_day_hour!S14="","",_cuben_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V23" s="46" t="str">
+      <c r="V23" s="25" t="str">
         <f>IF(_cuben_day_hour!T14="","",_cuben_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W23" s="44" t="str">
+      <c r="W23" s="23" t="str">
         <f>IF(_cuben_day_hour!U14="","",_cuben_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X23" s="44" t="str">
+      <c r="X23" s="23" t="str">
         <f>IF(_cuben_day_hour!V14="","",_cuben_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y23" s="45" t="str">
+      <c r="Y23" s="24" t="str">
         <f>IF(_cuben_day_hour!W14="","",_cuben_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z23" s="45" t="str">
+      <c r="Z23" s="24" t="str">
         <f>IF(_cuben_day_hour!X14="","",_cuben_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA23" s="44" t="str">
+      <c r="AA23" s="23" t="str">
         <f>IF(_cuben_day_hour!Y14="","",_cuben_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB23" s="44" t="str">
+      <c r="AB23" s="23" t="str">
         <f>IF(_cuben_day_hour!Z14="","",_cuben_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC23" s="44" t="str">
+      <c r="AC23" s="23" t="str">
         <f>IF(_cuben_day_hour!AA14="","",_cuben_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD23" s="44" t="str">
+      <c r="AD23" s="23" t="str">
         <f>IF(_cuben_day_hour!AB14="","",_cuben_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE23" s="44" t="str">
+      <c r="AE23" s="23" t="str">
         <f>IF(_cuben_day_hour!AC14="","",_cuben_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF23" s="44" t="str">
+      <c r="AF23" s="23" t="str">
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="57"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="24">
-      <c r="B24" s="43">
+    <row r="24" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="22">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="44" t="str">
+      <c r="C24" s="23" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D24" s="44" t="str">
+      <c r="D24" s="23" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E24" s="44" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F24" s="44" t="str">
+      <c r="F24" s="23" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G24" s="44" t="str">
+      <c r="G24" s="23" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H24" s="45" t="str">
+      <c r="H24" s="24" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I24" s="46" t="str">
+      <c r="I24" s="25" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J24" s="44" t="str">
+      <c r="J24" s="23" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K24" s="45" t="str">
+      <c r="K24" s="24" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L24" s="44" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M24" s="44" t="str">
+      <c r="M24" s="23" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N24" s="44" t="str">
+      <c r="N24" s="23" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O24" s="44" t="str">
+      <c r="O24" s="23" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P24" s="44" t="str">
+      <c r="P24" s="23" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q24" s="46" t="str">
+      <c r="Q24" s="25" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R24" s="44" t="str">
+      <c r="R24" s="23" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S24" s="44" t="str">
+      <c r="S24" s="23" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T24" s="44" t="str">
+      <c r="T24" s="23" t="str">
         <f>IF(_cuben_day_hour!R15="","",_cuben_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U24" s="46" t="str">
+      <c r="U24" s="25" t="str">
         <f>IF(_cuben_day_hour!S15="","",_cuben_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V24" s="46" t="str">
+      <c r="V24" s="25" t="str">
         <f>IF(_cuben_day_hour!T15="","",_cuben_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W24" s="44" t="str">
+      <c r="W24" s="23" t="str">
         <f>IF(_cuben_day_hour!U15="","",_cuben_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X24" s="44" t="str">
+      <c r="X24" s="23" t="str">
         <f>IF(_cuben_day_hour!V15="","",_cuben_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y24" s="45" t="str">
+      <c r="Y24" s="24" t="str">
         <f>IF(_cuben_day_hour!W15="","",_cuben_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z24" s="45" t="str">
+      <c r="Z24" s="24" t="str">
         <f>IF(_cuben_day_hour!X15="","",_cuben_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA24" s="44" t="str">
+      <c r="AA24" s="23" t="str">
         <f>IF(_cuben_day_hour!Y15="","",_cuben_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB24" s="44" t="str">
+      <c r="AB24" s="23" t="str">
         <f>IF(_cuben_day_hour!Z15="","",_cuben_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC24" s="44" t="str">
+      <c r="AC24" s="23" t="str">
         <f>IF(_cuben_day_hour!AA15="","",_cuben_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD24" s="44" t="str">
+      <c r="AD24" s="23" t="str">
         <f>IF(_cuben_day_hour!AB15="","",_cuben_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE24" s="44" t="str">
+      <c r="AE24" s="23" t="str">
         <f>IF(_cuben_day_hour!AC15="","",_cuben_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF24" s="44" t="str">
+      <c r="AF24" s="23" t="str">
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="57"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="25">
-      <c r="B25" s="43">
+    <row r="25" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="22">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="44" t="str">
+      <c r="C25" s="23" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D25" s="44" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E25" s="44" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F25" s="44" t="str">
+      <c r="F25" s="23" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G25" s="44" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H25" s="45" t="str">
+      <c r="H25" s="24" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I25" s="46" t="str">
+      <c r="I25" s="25" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J25" s="44" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K25" s="45" t="str">
+      <c r="K25" s="24" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L25" s="44" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M25" s="44" t="str">
+      <c r="M25" s="23" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N25" s="44" t="str">
+      <c r="N25" s="23" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O25" s="44" t="str">
+      <c r="O25" s="23" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P25" s="44" t="str">
+      <c r="P25" s="23" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q25" s="46" t="str">
+      <c r="Q25" s="25" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R25" s="44" t="str">
+      <c r="R25" s="23" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S25" s="44" t="str">
+      <c r="S25" s="23" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T25" s="44" t="str">
+      <c r="T25" s="23" t="str">
         <f>IF(_cuben_day_hour!R16="","",_cuben_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U25" s="46" t="str">
+      <c r="U25" s="25" t="str">
         <f>IF(_cuben_day_hour!S16="","",_cuben_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V25" s="46" t="str">
+      <c r="V25" s="25" t="str">
         <f>IF(_cuben_day_hour!T16="","",_cuben_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W25" s="44" t="str">
+      <c r="W25" s="23" t="str">
         <f>IF(_cuben_day_hour!U16="","",_cuben_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X25" s="44" t="str">
+      <c r="X25" s="23" t="str">
         <f>IF(_cuben_day_hour!V16="","",_cuben_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y25" s="45" t="str">
+      <c r="Y25" s="24" t="str">
         <f>IF(_cuben_day_hour!W16="","",_cuben_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z25" s="45" t="str">
+      <c r="Z25" s="24" t="str">
         <f>IF(_cuben_day_hour!X16="","",_cuben_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA25" s="44" t="str">
+      <c r="AA25" s="23" t="str">
         <f>IF(_cuben_day_hour!Y16="","",_cuben_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB25" s="44" t="str">
+      <c r="AB25" s="23" t="str">
         <f>IF(_cuben_day_hour!Z16="","",_cuben_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC25" s="44" t="str">
+      <c r="AC25" s="23" t="str">
         <f>IF(_cuben_day_hour!AA16="","",_cuben_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD25" s="44" t="str">
+      <c r="AD25" s="23" t="str">
         <f>IF(_cuben_day_hour!AB16="","",_cuben_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE25" s="44" t="str">
+      <c r="AE25" s="23" t="str">
         <f>IF(_cuben_day_hour!AC16="","",_cuben_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF25" s="44" t="str">
+      <c r="AF25" s="23" t="str">
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="57"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="26">
-      <c r="B26" s="43">
+    <row r="26" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22">
         <v>0.625</v>
       </c>
-      <c r="C26" s="44" t="str">
+      <c r="C26" s="23" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D26" s="44" t="str">
+      <c r="D26" s="23" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F26" s="44" t="str">
+      <c r="F26" s="23" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G26" s="44" t="str">
+      <c r="G26" s="23" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H26" s="45" t="str">
+      <c r="H26" s="24" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I26" s="46" t="str">
+      <c r="I26" s="25" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J26" s="44" t="str">
+      <c r="J26" s="23" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K26" s="45" t="str">
+      <c r="K26" s="24" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L26" s="44" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="str">
+      <c r="M26" s="23" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N26" s="44" t="str">
+      <c r="N26" s="23" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O26" s="44" t="str">
+      <c r="O26" s="23" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P26" s="44" t="str">
+      <c r="P26" s="23" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q26" s="46" t="str">
+      <c r="Q26" s="25" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R26" s="44" t="str">
+      <c r="R26" s="23" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S26" s="44" t="str">
+      <c r="S26" s="23" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T26" s="44" t="str">
+      <c r="T26" s="23" t="str">
         <f>IF(_cuben_day_hour!R17="","",_cuben_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U26" s="46" t="str">
+      <c r="U26" s="25" t="str">
         <f>IF(_cuben_day_hour!S17="","",_cuben_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V26" s="46" t="str">
+      <c r="V26" s="25" t="str">
         <f>IF(_cuben_day_hour!T17="","",_cuben_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W26" s="44" t="str">
+      <c r="W26" s="23" t="str">
         <f>IF(_cuben_day_hour!U17="","",_cuben_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X26" s="44" t="str">
+      <c r="X26" s="23" t="str">
         <f>IF(_cuben_day_hour!V17="","",_cuben_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y26" s="45" t="str">
+      <c r="Y26" s="24" t="str">
         <f>IF(_cuben_day_hour!W17="","",_cuben_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z26" s="45" t="str">
+      <c r="Z26" s="24" t="str">
         <f>IF(_cuben_day_hour!X17="","",_cuben_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA26" s="44" t="str">
+      <c r="AA26" s="23" t="str">
         <f>IF(_cuben_day_hour!Y17="","",_cuben_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB26" s="44" t="str">
+      <c r="AB26" s="23" t="str">
         <f>IF(_cuben_day_hour!Z17="","",_cuben_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC26" s="44" t="str">
+      <c r="AC26" s="23" t="str">
         <f>IF(_cuben_day_hour!AA17="","",_cuben_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD26" s="44" t="str">
+      <c r="AD26" s="23" t="str">
         <f>IF(_cuben_day_hour!AB17="","",_cuben_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE26" s="44" t="str">
+      <c r="AE26" s="23" t="str">
         <f>IF(_cuben_day_hour!AC17="","",_cuben_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF26" s="44" t="str">
+      <c r="AF26" s="23" t="str">
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="57"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="27">
-      <c r="B27" s="43">
+    <row r="27" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C27" s="44" t="str">
+      <c r="C27" s="23" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D27" s="44" t="str">
+      <c r="D27" s="23" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E27" s="44" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F27" s="44" t="str">
+      <c r="F27" s="23" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G27" s="44" t="str">
+      <c r="G27" s="23" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H27" s="45" t="str">
+      <c r="H27" s="24" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I27" s="46" t="str">
+      <c r="I27" s="25" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J27" s="44" t="str">
+      <c r="J27" s="23" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K27" s="45" t="str">
+      <c r="K27" s="24" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L27" s="44" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M27" s="44" t="str">
+      <c r="M27" s="23" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N27" s="44" t="str">
+      <c r="N27" s="23" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O27" s="44" t="str">
+      <c r="O27" s="23" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P27" s="44" t="str">
+      <c r="P27" s="23" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q27" s="46" t="str">
+      <c r="Q27" s="25" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R27" s="44" t="str">
+      <c r="R27" s="23" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S27" s="44" t="str">
+      <c r="S27" s="23" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T27" s="44" t="str">
+      <c r="T27" s="23" t="str">
         <f>IF(_cuben_day_hour!R18="","",_cuben_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U27" s="46" t="str">
+      <c r="U27" s="25" t="str">
         <f>IF(_cuben_day_hour!S18="","",_cuben_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V27" s="46" t="str">
+      <c r="V27" s="25" t="str">
         <f>IF(_cuben_day_hour!T18="","",_cuben_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W27" s="44" t="str">
+      <c r="W27" s="23" t="str">
         <f>IF(_cuben_day_hour!U18="","",_cuben_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X27" s="44" t="str">
+      <c r="X27" s="23" t="str">
         <f>IF(_cuben_day_hour!V18="","",_cuben_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y27" s="45" t="str">
+      <c r="Y27" s="24" t="str">
         <f>IF(_cuben_day_hour!W18="","",_cuben_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z27" s="45" t="str">
+      <c r="Z27" s="24" t="str">
         <f>IF(_cuben_day_hour!X18="","",_cuben_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA27" s="44" t="str">
+      <c r="AA27" s="23" t="str">
         <f>IF(_cuben_day_hour!Y18="","",_cuben_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB27" s="44" t="str">
+      <c r="AB27" s="23" t="str">
         <f>IF(_cuben_day_hour!Z18="","",_cuben_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC27" s="44" t="str">
+      <c r="AC27" s="23" t="str">
         <f>IF(_cuben_day_hour!AA18="","",_cuben_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD27" s="44" t="str">
+      <c r="AD27" s="23" t="str">
         <f>IF(_cuben_day_hour!AB18="","",_cuben_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE27" s="44" t="str">
+      <c r="AE27" s="23" t="str">
         <f>IF(_cuben_day_hour!AC18="","",_cuben_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF27" s="44" t="str">
+      <c r="AF27" s="23" t="str">
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="57"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="28">
-      <c r="B28" s="43">
+    <row r="28" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="22">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="44" t="str">
+      <c r="C28" s="23" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D28" s="44" t="str">
+      <c r="D28" s="23" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E28" s="44" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F28" s="44" t="str">
+      <c r="F28" s="23" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G28" s="44" t="str">
+      <c r="G28" s="23" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H28" s="45" t="str">
+      <c r="H28" s="24" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I28" s="46" t="str">
+      <c r="I28" s="25" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J28" s="44" t="str">
+      <c r="J28" s="23" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K28" s="45" t="str">
+      <c r="K28" s="24" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L28" s="44" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M28" s="44" t="str">
+      <c r="M28" s="23" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N28" s="44" t="str">
+      <c r="N28" s="23" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O28" s="44" t="str">
+      <c r="O28" s="23" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P28" s="44" t="str">
+      <c r="P28" s="23" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q28" s="46" t="str">
+      <c r="Q28" s="25" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R28" s="44" t="str">
+      <c r="R28" s="23" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S28" s="44" t="str">
+      <c r="S28" s="23" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T28" s="44" t="str">
+      <c r="T28" s="23" t="str">
         <f>IF(_cuben_day_hour!R19="","",_cuben_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U28" s="46" t="str">
+      <c r="U28" s="25" t="str">
         <f>IF(_cuben_day_hour!S19="","",_cuben_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V28" s="46" t="str">
+      <c r="V28" s="25" t="str">
         <f>IF(_cuben_day_hour!T19="","",_cuben_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W28" s="44" t="str">
+      <c r="W28" s="23" t="str">
         <f>IF(_cuben_day_hour!U19="","",_cuben_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X28" s="44" t="str">
+      <c r="X28" s="23" t="str">
         <f>IF(_cuben_day_hour!V19="","",_cuben_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y28" s="45" t="str">
+      <c r="Y28" s="24" t="str">
         <f>IF(_cuben_day_hour!W19="","",_cuben_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="24" t="str">
         <f>IF(_cuben_day_hour!X19="","",_cuben_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA28" s="44" t="str">
+      <c r="AA28" s="23" t="str">
         <f>IF(_cuben_day_hour!Y19="","",_cuben_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB28" s="44" t="str">
+      <c r="AB28" s="23" t="str">
         <f>IF(_cuben_day_hour!Z19="","",_cuben_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC28" s="44" t="str">
+      <c r="AC28" s="23" t="str">
         <f>IF(_cuben_day_hour!AA19="","",_cuben_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD28" s="44" t="str">
+      <c r="AD28" s="23" t="str">
         <f>IF(_cuben_day_hour!AB19="","",_cuben_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE28" s="44" t="str">
+      <c r="AE28" s="23" t="str">
         <f>IF(_cuben_day_hour!AC19="","",_cuben_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF28" s="44" t="str">
+      <c r="AF28" s="23" t="str">
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="57"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="29">
-      <c r="B29" s="43">
+    <row r="29" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22">
         <v>0.75</v>
       </c>
-      <c r="C29" s="44" t="str">
+      <c r="C29" s="23" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D29" s="44" t="str">
+      <c r="D29" s="23" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E29" s="44" t="str">
+      <c r="E29" s="23" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F29" s="44" t="str">
+      <c r="F29" s="23" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G29" s="44" t="str">
+      <c r="G29" s="23" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H29" s="45" t="str">
+      <c r="H29" s="24" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I29" s="46" t="str">
+      <c r="I29" s="25" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J29" s="44" t="str">
+      <c r="J29" s="23" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K29" s="45" t="str">
+      <c r="K29" s="24" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L29" s="44" t="str">
+      <c r="L29" s="23" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M29" s="44" t="str">
+      <c r="M29" s="23" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N29" s="44" t="str">
+      <c r="N29" s="23" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O29" s="44" t="str">
+      <c r="O29" s="23" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P29" s="44" t="str">
+      <c r="P29" s="23" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q29" s="46" t="str">
+      <c r="Q29" s="25" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R29" s="44" t="str">
+      <c r="R29" s="23" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S29" s="44" t="str">
+      <c r="S29" s="23" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T29" s="44" t="str">
+      <c r="T29" s="23" t="str">
         <f>IF(_cuben_day_hour!R20="","",_cuben_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U29" s="46" t="str">
+      <c r="U29" s="25" t="str">
         <f>IF(_cuben_day_hour!S20="","",_cuben_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V29" s="46" t="str">
+      <c r="V29" s="25" t="str">
         <f>IF(_cuben_day_hour!T20="","",_cuben_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W29" s="44" t="str">
+      <c r="W29" s="23" t="str">
         <f>IF(_cuben_day_hour!U20="","",_cuben_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X29" s="44" t="str">
+      <c r="X29" s="23" t="str">
         <f>IF(_cuben_day_hour!V20="","",_cuben_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y29" s="45" t="str">
+      <c r="Y29" s="24" t="str">
         <f>IF(_cuben_day_hour!W20="","",_cuben_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z29" s="45" t="str">
+      <c r="Z29" s="24" t="str">
         <f>IF(_cuben_day_hour!X20="","",_cuben_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA29" s="44" t="str">
+      <c r="AA29" s="23" t="str">
         <f>IF(_cuben_day_hour!Y20="","",_cuben_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB29" s="44" t="str">
+      <c r="AB29" s="23" t="str">
         <f>IF(_cuben_day_hour!Z20="","",_cuben_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC29" s="44" t="str">
+      <c r="AC29" s="23" t="str">
         <f>IF(_cuben_day_hour!AA20="","",_cuben_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD29" s="44" t="str">
+      <c r="AD29" s="23" t="str">
         <f>IF(_cuben_day_hour!AB20="","",_cuben_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE29" s="44" t="str">
+      <c r="AE29" s="23" t="str">
         <f>IF(_cuben_day_hour!AC20="","",_cuben_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF29" s="44" t="str">
+      <c r="AF29" s="23" t="str">
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="57"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="30">
-      <c r="B30" s="43">
+    <row r="30" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="22">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="44" t="str">
+      <c r="C30" s="23" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D30" s="44" t="str">
+      <c r="D30" s="23" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E30" s="44" t="str">
+      <c r="E30" s="23" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F30" s="44" t="str">
+      <c r="F30" s="23" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G30" s="44" t="str">
+      <c r="G30" s="23" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H30" s="45" t="str">
+      <c r="H30" s="24" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I30" s="46" t="str">
+      <c r="I30" s="25" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J30" s="44" t="str">
+      <c r="J30" s="23" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K30" s="45" t="str">
+      <c r="K30" s="24" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L30" s="44" t="str">
+      <c r="L30" s="23" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M30" s="44" t="str">
+      <c r="M30" s="23" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N30" s="44" t="str">
+      <c r="N30" s="23" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O30" s="44" t="str">
+      <c r="O30" s="23" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P30" s="44" t="str">
+      <c r="P30" s="23" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q30" s="46" t="str">
+      <c r="Q30" s="25" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R30" s="44" t="str">
+      <c r="R30" s="23" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S30" s="44" t="str">
+      <c r="S30" s="23" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T30" s="44" t="str">
+      <c r="T30" s="23" t="str">
         <f>IF(_cuben_day_hour!R21="","",_cuben_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U30" s="46" t="str">
+      <c r="U30" s="25" t="str">
         <f>IF(_cuben_day_hour!S21="","",_cuben_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V30" s="46" t="str">
+      <c r="V30" s="25" t="str">
         <f>IF(_cuben_day_hour!T21="","",_cuben_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W30" s="44" t="str">
+      <c r="W30" s="23" t="str">
         <f>IF(_cuben_day_hour!U21="","",_cuben_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X30" s="44" t="str">
+      <c r="X30" s="23" t="str">
         <f>IF(_cuben_day_hour!V21="","",_cuben_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y30" s="45" t="str">
+      <c r="Y30" s="24" t="str">
         <f>IF(_cuben_day_hour!W21="","",_cuben_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z30" s="45" t="str">
+      <c r="Z30" s="24" t="str">
         <f>IF(_cuben_day_hour!X21="","",_cuben_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA30" s="44" t="str">
+      <c r="AA30" s="23" t="str">
         <f>IF(_cuben_day_hour!Y21="","",_cuben_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB30" s="44" t="str">
+      <c r="AB30" s="23" t="str">
         <f>IF(_cuben_day_hour!Z21="","",_cuben_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC30" s="44" t="str">
+      <c r="AC30" s="23" t="str">
         <f>IF(_cuben_day_hour!AA21="","",_cuben_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD30" s="44" t="str">
+      <c r="AD30" s="23" t="str">
         <f>IF(_cuben_day_hour!AB21="","",_cuben_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE30" s="44" t="str">
+      <c r="AE30" s="23" t="str">
         <f>IF(_cuben_day_hour!AC21="","",_cuben_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF30" s="44" t="str">
+      <c r="AF30" s="23" t="str">
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="57"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="31">
-      <c r="B31" s="43">
+    <row r="31" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="44" t="str">
+      <c r="C31" s="23" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D31" s="44" t="str">
+      <c r="D31" s="23" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E31" s="44" t="str">
+      <c r="E31" s="23" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F31" s="44" t="str">
+      <c r="F31" s="23" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G31" s="44" t="str">
+      <c r="G31" s="23" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H31" s="45" t="str">
+      <c r="H31" s="24" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I31" s="46" t="str">
+      <c r="I31" s="25" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J31" s="44" t="str">
+      <c r="J31" s="23" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K31" s="45" t="str">
+      <c r="K31" s="24" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L31" s="44" t="str">
+      <c r="L31" s="23" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M31" s="44" t="str">
+      <c r="M31" s="23" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N31" s="44" t="str">
+      <c r="N31" s="23" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O31" s="44" t="str">
+      <c r="O31" s="23" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P31" s="44" t="str">
+      <c r="P31" s="23" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q31" s="46" t="str">
+      <c r="Q31" s="25" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R31" s="44" t="str">
+      <c r="R31" s="23" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S31" s="44" t="str">
+      <c r="S31" s="23" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T31" s="44" t="str">
+      <c r="T31" s="23" t="str">
         <f>IF(_cuben_day_hour!R22="","",_cuben_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U31" s="46" t="str">
+      <c r="U31" s="25" t="str">
         <f>IF(_cuben_day_hour!S22="","",_cuben_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V31" s="46" t="str">
+      <c r="V31" s="25" t="str">
         <f>IF(_cuben_day_hour!T22="","",_cuben_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W31" s="44" t="str">
+      <c r="W31" s="23" t="str">
         <f>IF(_cuben_day_hour!U22="","",_cuben_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X31" s="44" t="str">
+      <c r="X31" s="23" t="str">
         <f>IF(_cuben_day_hour!V22="","",_cuben_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y31" s="45" t="str">
+      <c r="Y31" s="24" t="str">
         <f>IF(_cuben_day_hour!W22="","",_cuben_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z31" s="45" t="str">
+      <c r="Z31" s="24" t="str">
         <f>IF(_cuben_day_hour!X22="","",_cuben_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA31" s="44" t="str">
+      <c r="AA31" s="23" t="str">
         <f>IF(_cuben_day_hour!Y22="","",_cuben_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB31" s="44" t="str">
+      <c r="AB31" s="23" t="str">
         <f>IF(_cuben_day_hour!Z22="","",_cuben_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC31" s="44" t="str">
+      <c r="AC31" s="23" t="str">
         <f>IF(_cuben_day_hour!AA22="","",_cuben_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD31" s="44" t="str">
+      <c r="AD31" s="23" t="str">
         <f>IF(_cuben_day_hour!AB22="","",_cuben_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE31" s="44" t="str">
+      <c r="AE31" s="23" t="str">
         <f>IF(_cuben_day_hour!AC22="","",_cuben_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF31" s="44" t="str">
+      <c r="AF31" s="23" t="str">
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="57"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="32">
-      <c r="B32" s="43">
+    <row r="32" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="22">
         <v>0.875</v>
       </c>
-      <c r="C32" s="44" t="str">
+      <c r="C32" s="23" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D32" s="44" t="str">
+      <c r="D32" s="23" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E32" s="44" t="str">
+      <c r="E32" s="23" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F32" s="44" t="str">
+      <c r="F32" s="23" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G32" s="44" t="str">
+      <c r="G32" s="23" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H32" s="45" t="str">
+      <c r="H32" s="24" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I32" s="46" t="str">
+      <c r="I32" s="25" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J32" s="44" t="str">
+      <c r="J32" s="23" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K32" s="45" t="str">
+      <c r="K32" s="24" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L32" s="44" t="str">
+      <c r="L32" s="23" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M32" s="44" t="str">
+      <c r="M32" s="23" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N32" s="44" t="str">
+      <c r="N32" s="23" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O32" s="44" t="str">
+      <c r="O32" s="23" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P32" s="44" t="str">
+      <c r="P32" s="23" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q32" s="46" t="str">
+      <c r="Q32" s="25" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R32" s="44" t="str">
+      <c r="R32" s="23" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S32" s="44" t="str">
+      <c r="S32" s="23" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T32" s="44" t="str">
+      <c r="T32" s="23" t="str">
         <f>IF(_cuben_day_hour!R23="","",_cuben_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U32" s="46" t="str">
+      <c r="U32" s="25" t="str">
         <f>IF(_cuben_day_hour!S23="","",_cuben_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V32" s="46" t="str">
+      <c r="V32" s="25" t="str">
         <f>IF(_cuben_day_hour!T23="","",_cuben_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W32" s="44" t="str">
+      <c r="W32" s="23" t="str">
         <f>IF(_cuben_day_hour!U23="","",_cuben_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X32" s="44" t="str">
+      <c r="X32" s="23" t="str">
         <f>IF(_cuben_day_hour!V23="","",_cuben_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y32" s="45" t="str">
+      <c r="Y32" s="24" t="str">
         <f>IF(_cuben_day_hour!W23="","",_cuben_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z32" s="45" t="str">
+      <c r="Z32" s="24" t="str">
         <f>IF(_cuben_day_hour!X23="","",_cuben_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA32" s="44" t="str">
+      <c r="AA32" s="23" t="str">
         <f>IF(_cuben_day_hour!Y23="","",_cuben_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB32" s="44" t="str">
+      <c r="AB32" s="23" t="str">
         <f>IF(_cuben_day_hour!Z23="","",_cuben_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC32" s="44" t="str">
+      <c r="AC32" s="23" t="str">
         <f>IF(_cuben_day_hour!AA23="","",_cuben_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD32" s="44" t="str">
+      <c r="AD32" s="23" t="str">
         <f>IF(_cuben_day_hour!AB23="","",_cuben_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE32" s="44" t="str">
+      <c r="AE32" s="23" t="str">
         <f>IF(_cuben_day_hour!AC23="","",_cuben_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF32" s="44" t="str">
+      <c r="AF32" s="23" t="str">
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="57"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="33">
-      <c r="B33" s="43">
+    <row r="33" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="44" t="str">
+      <c r="C33" s="23" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D33" s="44" t="str">
+      <c r="D33" s="23" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E33" s="44" t="str">
+      <c r="E33" s="23" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F33" s="44" t="str">
+      <c r="F33" s="23" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G33" s="44" t="str">
+      <c r="G33" s="23" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H33" s="45" t="str">
+      <c r="H33" s="24" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I33" s="46" t="str">
+      <c r="I33" s="25" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J33" s="44" t="str">
+      <c r="J33" s="23" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K33" s="45" t="str">
+      <c r="K33" s="24" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L33" s="44" t="str">
+      <c r="L33" s="23" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M33" s="44" t="str">
+      <c r="M33" s="23" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N33" s="44" t="str">
+      <c r="N33" s="23" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O33" s="44" t="str">
+      <c r="O33" s="23" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P33" s="44" t="str">
+      <c r="P33" s="23" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q33" s="46" t="str">
+      <c r="Q33" s="25" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R33" s="44" t="str">
+      <c r="R33" s="23" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S33" s="44" t="str">
+      <c r="S33" s="23" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T33" s="44" t="str">
+      <c r="T33" s="23" t="str">
         <f>IF(_cuben_day_hour!R24="","",_cuben_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U33" s="46" t="str">
+      <c r="U33" s="25" t="str">
         <f>IF(_cuben_day_hour!S24="","",_cuben_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V33" s="46" t="str">
+      <c r="V33" s="25" t="str">
         <f>IF(_cuben_day_hour!T24="","",_cuben_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W33" s="44" t="str">
+      <c r="W33" s="23" t="str">
         <f>IF(_cuben_day_hour!U24="","",_cuben_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X33" s="44" t="str">
+      <c r="X33" s="23" t="str">
         <f>IF(_cuben_day_hour!V24="","",_cuben_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y33" s="45" t="str">
+      <c r="Y33" s="24" t="str">
         <f>IF(_cuben_day_hour!W24="","",_cuben_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z33" s="45" t="str">
+      <c r="Z33" s="24" t="str">
         <f>IF(_cuben_day_hour!X24="","",_cuben_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA33" s="44" t="str">
+      <c r="AA33" s="23" t="str">
         <f>IF(_cuben_day_hour!Y24="","",_cuben_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB33" s="44" t="str">
+      <c r="AB33" s="23" t="str">
         <f>IF(_cuben_day_hour!Z24="","",_cuben_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC33" s="44" t="str">
+      <c r="AC33" s="23" t="str">
         <f>IF(_cuben_day_hour!AA24="","",_cuben_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD33" s="44" t="str">
+      <c r="AD33" s="23" t="str">
         <f>IF(_cuben_day_hour!AB24="","",_cuben_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE33" s="44" t="str">
+      <c r="AE33" s="23" t="str">
         <f>IF(_cuben_day_hour!AC24="","",_cuben_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF33" s="44" t="str">
+      <c r="AF33" s="23" t="str">
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="57"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="34">
-      <c r="B34" s="43">
+    <row r="34" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C34" s="44" t="str">
+      <c r="C34" s="23" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D34" s="44" t="str">
+      <c r="D34" s="23" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E34" s="44" t="str">
+      <c r="E34" s="23" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F34" s="44" t="str">
+      <c r="F34" s="23" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G34" s="44" t="str">
+      <c r="G34" s="23" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H34" s="45" t="str">
+      <c r="H34" s="24" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I34" s="46" t="str">
+      <c r="I34" s="25" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J34" s="44" t="str">
+      <c r="J34" s="23" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K34" s="45" t="str">
+      <c r="K34" s="24" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L34" s="44" t="str">
+      <c r="L34" s="23" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M34" s="44" t="str">
+      <c r="M34" s="23" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N34" s="44" t="str">
+      <c r="N34" s="23" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O34" s="44" t="str">
+      <c r="O34" s="23" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P34" s="44" t="str">
+      <c r="P34" s="23" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q34" s="46" t="str">
+      <c r="Q34" s="25" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R34" s="44" t="str">
+      <c r="R34" s="23" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S34" s="44" t="str">
+      <c r="S34" s="23" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T34" s="44" t="str">
+      <c r="T34" s="23" t="str">
         <f>IF(_cuben_day_hour!R25="","",_cuben_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U34" s="46" t="str">
+      <c r="U34" s="25" t="str">
         <f>IF(_cuben_day_hour!S25="","",_cuben_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V34" s="46" t="str">
+      <c r="V34" s="25" t="str">
         <f>IF(_cuben_day_hour!T25="","",_cuben_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W34" s="44" t="str">
+      <c r="W34" s="23" t="str">
         <f>IF(_cuben_day_hour!U25="","",_cuben_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X34" s="44" t="str">
+      <c r="X34" s="23" t="str">
         <f>IF(_cuben_day_hour!V25="","",_cuben_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y34" s="45" t="str">
+      <c r="Y34" s="24" t="str">
         <f>IF(_cuben_day_hour!W25="","",_cuben_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z34" s="45" t="str">
+      <c r="Z34" s="24" t="str">
         <f>IF(_cuben_day_hour!X25="","",_cuben_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA34" s="44" t="str">
+      <c r="AA34" s="23" t="str">
         <f>IF(_cuben_day_hour!Y25="","",_cuben_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB34" s="44" t="str">
+      <c r="AB34" s="23" t="str">
         <f>IF(_cuben_day_hour!Z25="","",_cuben_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC34" s="44" t="str">
+      <c r="AC34" s="23" t="str">
         <f>IF(_cuben_day_hour!AA25="","",_cuben_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD34" s="44" t="str">
+      <c r="AD34" s="23" t="str">
         <f>IF(_cuben_day_hour!AB25="","",_cuben_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE34" s="44" t="str">
+      <c r="AE34" s="23" t="str">
         <f>IF(_cuben_day_hour!AC25="","",_cuben_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF34" s="44" t="str">
+      <c r="AF34" s="23" t="str">
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="57"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="35">
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="44" t="str">
-        <f>IF(C11="","",AVERAGE(C11:C18))</f>
-        <v/>
-      </c>
-      <c r="D35" s="44" t="str">
-        <f>IF(D11="","",AVERAGE(D11:D18))</f>
-        <v/>
-      </c>
-      <c r="E35" s="44" t="str">
-        <f>IF(E11="","",AVERAGE(E11:E18))</f>
-        <v/>
-      </c>
-      <c r="F35" s="44" t="str">
-        <f>IF(F11="","",AVERAGE(F11:F18))</f>
-        <v/>
-      </c>
-      <c r="G35" s="44" t="str">
-        <f>IF(G11="","",AVERAGE(G11:G18))</f>
-        <v/>
-      </c>
-      <c r="H35" s="45" t="str">
-        <f>IF(H11="","",AVERAGE(H11:H18))</f>
-        <v/>
-      </c>
-      <c r="I35" s="46" t="str">
-        <f>IF(I11="","",AVERAGE(I11:I18))</f>
-        <v/>
-      </c>
-      <c r="J35" s="44" t="str">
-        <f>IF(J11="","",AVERAGE(J11:J18))</f>
-        <v/>
-      </c>
-      <c r="K35" s="45" t="str">
-        <f>IF(K11="","",AVERAGE(K11:K18))</f>
-        <v/>
-      </c>
-      <c r="L35" s="44" t="str">
-        <f>IF(L11="","",AVERAGE(L11:L18))</f>
-        <v/>
-      </c>
-      <c r="M35" s="44" t="str">
-        <f>IF(M11="","",AVERAGE(M11:M18))</f>
-        <v/>
-      </c>
-      <c r="N35" s="44" t="str">
-        <f>IF(N11="","",AVERAGE(N11:N18))</f>
-        <v/>
-      </c>
-      <c r="O35" s="44" t="str">
-        <f>IF(O11="","",AVERAGE(O11:O18))</f>
-        <v/>
-      </c>
-      <c r="P35" s="44" t="str">
-        <f>IF(P11="","",AVERAGE(P11:P18))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="46" t="str">
-        <f>IF(Q11="","",AVERAGE(Q11:Q18))</f>
-        <v/>
-      </c>
-      <c r="R35" s="44" t="str">
-        <f>IF(R11="","",AVERAGE(R11:R18))</f>
-        <v/>
-      </c>
-      <c r="S35" s="44" t="str">
-        <f>IF(S11="","",AVERAGE(S11:S18))</f>
-        <v/>
-      </c>
-      <c r="T35" s="44" t="str">
-        <f>IF(T11="","",AVERAGE(T11:T18))</f>
-        <v/>
-      </c>
-      <c r="U35" s="46" t="str">
-        <f>IF(U11="","",AVERAGE(U11:U18))</f>
-        <v/>
-      </c>
-      <c r="V35" s="46" t="str">
-        <f>IF(V11="","",AVERAGE(V11:V18))</f>
-        <v/>
-      </c>
-      <c r="W35" s="44" t="str">
-        <f>IF(W11="","",AVERAGE(W11:W18))</f>
-        <v/>
-      </c>
-      <c r="X35" s="44" t="str">
-        <f>IF(X11="","",AVERAGE(X11:X18))</f>
-        <v/>
-      </c>
-      <c r="Y35" s="45" t="str">
-        <f>IF(Y11="","",AVERAGE(Y11:Y18))</f>
-        <v/>
-      </c>
-      <c r="Z35" s="45" t="str">
-        <f>IF(Z11="","",AVERAGE(Z11:Z18))</f>
-        <v/>
-      </c>
-      <c r="AA35" s="44" t="str">
-        <f>IF(AA11="","",AVERAGE(AA11:AA18))</f>
-        <v/>
-      </c>
-      <c r="AB35" s="44" t="str">
-        <f>IF(AB11="","",AVERAGE(AB11:AB18))</f>
-        <v/>
-      </c>
-      <c r="AC35" s="44" t="str">
-        <f>IF(AC11="","",AVERAGE(AC11:AC18))</f>
-        <v/>
-      </c>
-      <c r="AD35" s="44" t="str">
-        <f>IF(AD11="","",AVERAGE(AD11:AD18))</f>
-        <v/>
-      </c>
-      <c r="AE35" s="44" t="str">
-        <f>IF(AE11="","",AVERAGE(AE11:AE18))</f>
-        <v/>
-      </c>
-      <c r="AF35" s="44" t="str">
-        <f>IF(AF11="","",AVERAGE(AF11:AF18))</f>
-        <v/>
-      </c>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="57"/>
+      <c r="C35" s="23" t="str">
+        <f t="shared" ref="C35:AF35" si="0">IF(C11="","",AVERAGE(C11:C18))</f>
+        <v/>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="36">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="44" t="str">
-        <f>IF(C17="","",AVERAGE(C17:C26))</f>
-        <v/>
-      </c>
-      <c r="D36" s="44" t="str">
-        <f>IF(D17="","",AVERAGE(D17:D26))</f>
-        <v/>
-      </c>
-      <c r="E36" s="44" t="str">
-        <f>IF(E17="","",AVERAGE(E17:E26))</f>
-        <v/>
-      </c>
-      <c r="F36" s="44" t="str">
-        <f>IF(F17="","",AVERAGE(F17:F26))</f>
-        <v/>
-      </c>
-      <c r="G36" s="44" t="str">
-        <f>IF(G17="","",AVERAGE(G17:G26))</f>
-        <v/>
-      </c>
-      <c r="H36" s="45" t="str">
-        <f>IF(H17="","",AVERAGE(H17:H26))</f>
-        <v/>
-      </c>
-      <c r="I36" s="46" t="str">
-        <f>IF(I17="","",AVERAGE(I17:I26))</f>
-        <v/>
-      </c>
-      <c r="J36" s="44" t="str">
-        <f>IF(J17="","",AVERAGE(J17:J26))</f>
-        <v/>
-      </c>
-      <c r="K36" s="45" t="str">
-        <f>IF(K17="","",AVERAGE(K17:K26))</f>
-        <v/>
-      </c>
-      <c r="L36" s="44" t="str">
-        <f>IF(L17="","",AVERAGE(L17:L26))</f>
-        <v/>
-      </c>
-      <c r="M36" s="44" t="str">
-        <f>IF(M17="","",AVERAGE(M17:M26))</f>
-        <v/>
-      </c>
-      <c r="N36" s="44" t="str">
-        <f>IF(N17="","",AVERAGE(N17:N26))</f>
-        <v/>
-      </c>
-      <c r="O36" s="44" t="str">
-        <f>IF(O17="","",AVERAGE(O17:O26))</f>
-        <v/>
-      </c>
-      <c r="P36" s="44" t="str">
-        <f>IF(P17="","",AVERAGE(P17:P26))</f>
-        <v/>
-      </c>
-      <c r="Q36" s="46" t="str">
-        <f>IF(Q17="","",AVERAGE(Q17:Q26))</f>
-        <v/>
-      </c>
-      <c r="R36" s="44" t="str">
-        <f>IF(R17="","",AVERAGE(R17:R26))</f>
-        <v/>
-      </c>
-      <c r="S36" s="44" t="str">
-        <f>IF(S17="","",AVERAGE(S17:S26))</f>
-        <v/>
-      </c>
-      <c r="T36" s="44" t="str">
-        <f>IF(T17="","",AVERAGE(T17:T26))</f>
-        <v/>
-      </c>
-      <c r="U36" s="46" t="str">
-        <f>IF(U17="","",AVERAGE(U17:U26))</f>
-        <v/>
-      </c>
-      <c r="V36" s="46" t="str">
-        <f>IF(V17="","",AVERAGE(V17:V26))</f>
-        <v/>
-      </c>
-      <c r="W36" s="44" t="str">
-        <f>IF(W17="","",AVERAGE(W17:W26))</f>
-        <v/>
-      </c>
-      <c r="X36" s="44" t="str">
-        <f>IF(X17="","",AVERAGE(X17:X26))</f>
-        <v/>
-      </c>
-      <c r="Y36" s="45" t="str">
-        <f>IF(Y17="","",AVERAGE(Y17:Y26))</f>
-        <v/>
-      </c>
-      <c r="Z36" s="45" t="str">
-        <f>IF(Z17="","",AVERAGE(Z17:Z26))</f>
-        <v/>
-      </c>
-      <c r="AA36" s="44" t="str">
-        <f>IF(AA17="","",AVERAGE(AA17:AA26))</f>
-        <v/>
-      </c>
-      <c r="AB36" s="44" t="str">
-        <f>IF(AB17="","",AVERAGE(AB17:AB26))</f>
-        <v/>
-      </c>
-      <c r="AC36" s="44" t="str">
-        <f>IF(AC17="","",AVERAGE(AC17:AC26))</f>
-        <v/>
-      </c>
-      <c r="AD36" s="44" t="str">
-        <f>IF(AD17="","",AVERAGE(AD17:AD26))</f>
-        <v/>
-      </c>
-      <c r="AE36" s="44" t="str">
-        <f>IF(AE17="","",AVERAGE(AE17:AE26))</f>
-        <v/>
-      </c>
-      <c r="AF36" s="44" t="str">
-        <f>IF(AF17="","",AVERAGE(AF17:AF26))</f>
-        <v/>
-      </c>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="57"/>
+      <c r="C36" s="23" t="str">
+        <f t="shared" ref="C36:AF36" si="1">IF(C17="","",AVERAGE(C17:C26))</f>
+        <v/>
+      </c>
+      <c r="D36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="37">
-      <c r="B37" s="58" t="s">
+    <row r="37" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="44" t="str">
-        <f>IF(C25="","",AVERAGE(C25:C34))</f>
-        <v/>
-      </c>
-      <c r="D37" s="44" t="str">
-        <f>IF(D25="","",AVERAGE(D25:D34))</f>
-        <v/>
-      </c>
-      <c r="E37" s="44" t="str">
-        <f>IF(E25="","",AVERAGE(E25:E34))</f>
-        <v/>
-      </c>
-      <c r="F37" s="44" t="str">
-        <f>IF(F25="","",AVERAGE(F25:F34))</f>
-        <v/>
-      </c>
-      <c r="G37" s="44" t="str">
-        <f>IF(G25="","",AVERAGE(G25:G34))</f>
-        <v/>
-      </c>
-      <c r="H37" s="45" t="str">
-        <f>IF(H25="","",AVERAGE(H25:H34))</f>
-        <v/>
-      </c>
-      <c r="I37" s="46" t="str">
-        <f>IF(I25="","",AVERAGE(I25:I34))</f>
-        <v/>
-      </c>
-      <c r="J37" s="44" t="str">
-        <f>IF(J25="","",AVERAGE(J25:J34))</f>
-        <v/>
-      </c>
-      <c r="K37" s="45" t="str">
-        <f>IF(K25="","",AVERAGE(K25:K34))</f>
-        <v/>
-      </c>
-      <c r="L37" s="44" t="str">
-        <f>IF(L25="","",AVERAGE(L25:L34))</f>
-        <v/>
-      </c>
-      <c r="M37" s="44" t="str">
-        <f>IF(M25="","",AVERAGE(M25:M34))</f>
-        <v/>
-      </c>
-      <c r="N37" s="44" t="str">
-        <f>IF(N25="","",AVERAGE(N25:N34))</f>
-        <v/>
-      </c>
-      <c r="O37" s="44" t="str">
-        <f>IF(O25="","",AVERAGE(O25:O34))</f>
-        <v/>
-      </c>
-      <c r="P37" s="44" t="str">
-        <f>IF(P25="","",AVERAGE(P25:P34))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="46" t="str">
-        <f>IF(Q25="","",AVERAGE(Q25:Q34))</f>
-        <v/>
-      </c>
-      <c r="R37" s="44" t="str">
-        <f>IF(R25="","",AVERAGE(R25:R34))</f>
-        <v/>
-      </c>
-      <c r="S37" s="44" t="str">
-        <f>IF(S25="","",AVERAGE(S25:S34))</f>
-        <v/>
-      </c>
-      <c r="T37" s="44" t="str">
-        <f>IF(T25="","",AVERAGE(T25:T34))</f>
-        <v/>
-      </c>
-      <c r="U37" s="46" t="str">
-        <f>IF(U25="","",AVERAGE(U25:U34))</f>
-        <v/>
-      </c>
-      <c r="V37" s="46" t="str">
-        <f>IF(V25="","",AVERAGE(V25:V34))</f>
-        <v/>
-      </c>
-      <c r="W37" s="44" t="str">
-        <f>IF(W25="","",AVERAGE(W25:W34))</f>
-        <v/>
-      </c>
-      <c r="X37" s="44" t="str">
-        <f>IF(X25="","",AVERAGE(X25:X34))</f>
-        <v/>
-      </c>
-      <c r="Y37" s="45" t="str">
-        <f>IF(Y25="","",AVERAGE(Y25:Y34))</f>
-        <v/>
-      </c>
-      <c r="Z37" s="45" t="str">
-        <f>IF(Z25="","",AVERAGE(Z25:Z34))</f>
-        <v/>
-      </c>
-      <c r="AA37" s="44" t="str">
-        <f>IF(AA25="","",AVERAGE(AA25:AA34))</f>
-        <v/>
-      </c>
-      <c r="AB37" s="44" t="str">
-        <f>IF(AB25="","",AVERAGE(AB25:AB34))</f>
-        <v/>
-      </c>
-      <c r="AC37" s="44" t="str">
-        <f>IF(AC25="","",AVERAGE(AC25:AC34))</f>
-        <v/>
-      </c>
-      <c r="AD37" s="44" t="str">
-        <f>IF(AD25="","",AVERAGE(AD25:AD34))</f>
-        <v/>
-      </c>
-      <c r="AE37" s="44" t="str">
-        <f>IF(AE25="","",AVERAGE(AE25:AE34))</f>
-        <v/>
-      </c>
-      <c r="AF37" s="44" t="str">
-        <f>IF(AF25="","",AVERAGE(AF25:AF34))</f>
-        <v/>
-      </c>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="57"/>
+      <c r="C37" s="23" t="str">
+        <f t="shared" ref="C37:AF37" si="2">IF(C25="","",AVERAGE(C25:C34))</f>
+        <v/>
+      </c>
+      <c r="D37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H37" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K37" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y37" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z37" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="62"/>
     </row>
-    <row ht="22" customHeight="1" r="38">
-      <c r="B38" s="58" t="s">
+    <row r="38" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="44" t="str">
-        <f>IF(C11="","",AVERAGE(C11:C34))</f>
-        <v/>
-      </c>
-      <c r="D38" s="44" t="str">
-        <f>IF(D11="","",AVERAGE(D11:D34))</f>
-        <v/>
-      </c>
-      <c r="E38" s="44" t="str">
-        <f>IF(E11="","",AVERAGE(E11:E34))</f>
-        <v/>
-      </c>
-      <c r="F38" s="44" t="str">
-        <f>IF(F11="","",AVERAGE(F11:F34))</f>
-        <v/>
-      </c>
-      <c r="G38" s="44" t="str">
-        <f>IF(G11="","",AVERAGE(G11:G34))</f>
-        <v/>
-      </c>
-      <c r="H38" s="45" t="str">
-        <f>IF(H11="","",AVERAGE(H11:H34))</f>
-        <v/>
-      </c>
-      <c r="I38" s="46" t="str">
-        <f>IF(I11="","",AVERAGE(I11:I34))</f>
-        <v/>
-      </c>
-      <c r="J38" s="44" t="str">
-        <f>IF(J11="","",AVERAGE(J11:J34))</f>
-        <v/>
-      </c>
-      <c r="K38" s="45" t="str">
-        <f>IF(K11="","",AVERAGE(K11:K34))</f>
-        <v/>
-      </c>
-      <c r="L38" s="44" t="str">
-        <f>IF(L11="","",AVERAGE(L11:L34))</f>
-        <v/>
-      </c>
-      <c r="M38" s="44" t="str">
-        <f>IF(M11="","",AVERAGE(M11:M34))</f>
-        <v/>
-      </c>
-      <c r="N38" s="44" t="str">
-        <f>IF(N11="","",AVERAGE(N11:N34))</f>
-        <v/>
-      </c>
-      <c r="O38" s="44" t="str">
-        <f>IF(O11="","",AVERAGE(O11:O34))</f>
-        <v/>
-      </c>
-      <c r="P38" s="44" t="str">
-        <f>IF(P11="","",AVERAGE(P11:P34))</f>
-        <v/>
-      </c>
-      <c r="Q38" s="46" t="str">
-        <f>IF(Q11="","",AVERAGE(Q11:Q34))</f>
-        <v/>
-      </c>
-      <c r="R38" s="44" t="str">
-        <f>IF(R11="","",AVERAGE(R11:R34))</f>
-        <v/>
-      </c>
-      <c r="S38" s="44" t="str">
-        <f>IF(S11="","",AVERAGE(S11:S34))</f>
-        <v/>
-      </c>
-      <c r="T38" s="44" t="str">
-        <f>IF(T11="","",AVERAGE(T11:T34))</f>
-        <v/>
-      </c>
-      <c r="U38" s="46" t="str">
-        <f>IF(U11="","",AVERAGE(U11:U34))</f>
-        <v/>
-      </c>
-      <c r="V38" s="46" t="str">
-        <f>IF(V11="","",AVERAGE(V11:V34))</f>
-        <v/>
-      </c>
-      <c r="W38" s="44" t="str">
-        <f>IF(W11="","",AVERAGE(W11:W34))</f>
-        <v/>
-      </c>
-      <c r="X38" s="44" t="str">
-        <f>IF(X11="","",AVERAGE(X11:X34))</f>
-        <v/>
-      </c>
-      <c r="Y38" s="45" t="str">
-        <f>IF(Y11="","",AVERAGE(Y11:Y34))</f>
-        <v/>
-      </c>
-      <c r="Z38" s="45" t="str">
-        <f>IF(Z11="","",AVERAGE(Z11:Z34))</f>
-        <v/>
-      </c>
-      <c r="AA38" s="44" t="str">
-        <f>IF(AA11="","",AVERAGE(AA11:AA34))</f>
-        <v/>
-      </c>
-      <c r="AB38" s="44" t="str">
-        <f>IF(AB11="","",AVERAGE(AB11:AB34))</f>
-        <v/>
-      </c>
-      <c r="AC38" s="44" t="str">
-        <f>IF(AC11="","",AVERAGE(AC11:AC34))</f>
-        <v/>
-      </c>
-      <c r="AD38" s="44" t="str">
-        <f>IF(AD11="","",AVERAGE(AD11:AD34))</f>
-        <v/>
-      </c>
-      <c r="AE38" s="44" t="str">
-        <f>IF(AE11="","",AVERAGE(AE11:AE34))</f>
-        <v/>
-      </c>
-      <c r="AF38" s="44" t="str">
-        <f>IF(AF11="","",AVERAGE(AF11:AF34))</f>
-        <v/>
-      </c>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="57"/>
+      <c r="C38" s="23" t="str">
+        <f t="shared" ref="C38:AF38" si="3">IF(C11="","",AVERAGE(C11:C34))</f>
+        <v/>
+      </c>
+      <c r="D38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I38" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K38" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q38" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U38" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V38" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y38" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z38" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="62"/>
     </row>
-    <row ht="149.25" customHeight="1" r="39">
-      <c r="B39" s="59" t="s">
+    <row r="39" spans="2:37" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="61" t="s">
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="57"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="69"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="62"/>
     </row>
-    <row ht="18" r="40">
-      <c r="B40" s="66" t="s">
+    <row r="40" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="B40" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="66" t="s">
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="68" t="s">
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="73"/>
-      <c r="AH40" s="73"/>
-      <c r="AI40" s="73"/>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="74"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AG16"/>
+    <mergeCell ref="AG17:AK40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="AD39:AF40"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="T2:AB2"/>
@@ -6737,499 +6587,483 @@
     <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AG16"/>
-    <mergeCell ref="AG17:AK40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:S39"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="AD39:AF40"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="T40:AC40"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" priority="118" dxfId="0" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="118" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" priority="117" dxfId="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="117" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" priority="58" dxfId="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" priority="57" dxfId="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" priority="56" dxfId="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" priority="55" dxfId="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" priority="54" dxfId="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" priority="53" dxfId="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" priority="52" dxfId="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" priority="51" dxfId="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" priority="50" dxfId="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" priority="49" dxfId="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" priority="48" dxfId="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" priority="47" dxfId="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" priority="46" dxfId="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" priority="45" dxfId="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" priority="44" dxfId="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" priority="43" dxfId="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" priority="42" dxfId="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" priority="41" dxfId="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" priority="40" dxfId="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" priority="39" dxfId="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" priority="38" dxfId="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" priority="37" dxfId="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" priority="36" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" priority="35" dxfId="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" priority="34" dxfId="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" priority="33" dxfId="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" priority="32" dxfId="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" priority="31" dxfId="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" priority="30" dxfId="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" priority="29" dxfId="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" priority="28" dxfId="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" priority="27" dxfId="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" priority="26" dxfId="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" priority="25" dxfId="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" priority="24" dxfId="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>U$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" priority="23" dxfId="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>U$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" priority="22" dxfId="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" priority="21" dxfId="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>V$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" priority="20" dxfId="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" priority="19" dxfId="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>W$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" priority="18" dxfId="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" priority="17" dxfId="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>X$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" priority="16" dxfId="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" priority="15" dxfId="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>Y$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" priority="14" dxfId="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" priority="13" dxfId="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>Z$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" priority="12" dxfId="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" priority="11" dxfId="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>AA$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" priority="10" dxfId="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" priority="9" dxfId="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>AB$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" priority="8" dxfId="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" priority="7" dxfId="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>AC$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" priority="6" dxfId="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" priority="5" dxfId="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>AD$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" priority="4" dxfId="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" priority="3" dxfId="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>AE$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" priority="2" dxfId="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" priority="1" dxfId="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>AF$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="Y1" activeCellId="0" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" ht="70" r="1" s="75">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:30" s="31" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="76" t="s">
+      <c r="V1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="W1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="X1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Y1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AA1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="76" t="s">
+      <c r="AB1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="76" t="s">
+      <c r="AC1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="77" t="s">
+      <c r="AD1" s="33" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-粗苯蒸馏报表（日）.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="5.粗苯蒸馏（日）" sheetId="1" r:id="rId1"/>
-    <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="5.粗苯蒸馏（日）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_cuben_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 粗 苯 蒸 馏 操 作 记 录</t>
   </si>
@@ -30,34 +29,34 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>项目</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">     
  </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>时间</t>
     </r>
   </si>
   <si>
-    <t>粗                  苯             蒸             馏</t>
+    <t xml:space="preserve">粗                  苯             蒸             馏</t>
   </si>
   <si>
     <t>化验分析</t>
@@ -75,29 +74,29 @@
     <t>贫油泵</t>
   </si>
   <si>
-    <t>油油换热器后富油温度 ℃</t>
-  </si>
-  <si>
-    <t>冷凝冷却器后粗苯温度 ℃</t>
-  </si>
-  <si>
-    <t>残渣槽液位 mm</t>
-  </si>
-  <si>
-    <t>新洗油槽液位
+    <t xml:space="preserve">油油换热器后富油温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷凝冷却器后粗苯温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残渣槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新洗油槽液位
  mm</t>
   </si>
   <si>
-    <t>粗苯中间槽液位 mm</t>
-  </si>
-  <si>
-    <t>煤气流量 m3/h</t>
-  </si>
-  <si>
-    <t>辐射段温度 ℃</t>
-  </si>
-  <si>
-    <t>对流段温度 ℃</t>
+    <t xml:space="preserve">粗苯中间槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤气流量 m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辐射段温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对流段温度 ℃</t>
   </si>
   <si>
     <t>富油</t>
@@ -106,37 +105,37 @@
     <t>进管式炉蒸汽</t>
   </si>
   <si>
-    <t>富油流量  m3/h</t>
-  </si>
-  <si>
-    <t>顶部压力 kPa</t>
-  </si>
-  <si>
-    <t>顶部温度 ℃</t>
-  </si>
-  <si>
-    <t>底部温度 ℃</t>
-  </si>
-  <si>
-    <t>液位 mm</t>
-  </si>
-  <si>
-    <t>塔顶压力 kPa</t>
-  </si>
-  <si>
-    <t>塔顶温度  ℃</t>
-  </si>
-  <si>
-    <t>塔底压力 kPa</t>
-  </si>
-  <si>
-    <t>塔底温度 ℃</t>
-  </si>
-  <si>
-    <t>贫油槽液位 mm</t>
-  </si>
-  <si>
-    <t>回流量 m3/h</t>
+    <t xml:space="preserve">富油流量  m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">底部温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔顶压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔顶温度  ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔底压力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔底温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贫油槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回流量 m3/h</t>
   </si>
   <si>
     <t>回流阀阀位%</t>
@@ -154,19 +153,19 @@
     <t>2#</t>
   </si>
   <si>
-    <t>流量 m3/h</t>
-  </si>
-  <si>
-    <t>出口温度 ℃</t>
-  </si>
-  <si>
-    <t>压力 Mpa</t>
+    <t xml:space="preserve">流量 m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出口温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">压力 Mpa</t>
   </si>
   <si>
     <t>流量t/h</t>
   </si>
   <si>
-    <t>过热蒸汽温度  ℃</t>
+    <t xml:space="preserve">过热蒸汽温度  ℃</t>
   </si>
   <si>
     <t>化验项目</t>
@@ -394,28 +393,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t>夜班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -424,28 +423,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  白</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -454,28 +453,28 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">  中</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -484,38 +483,38 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">              </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
+        <scheme val="major"/>
         <sz val="14"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-        <scheme val="major"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -532,21 +531,19 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>密度</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21CB</t>
     </r>
@@ -557,21 +554,19 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>初馏点</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21CB</t>
     </r>
@@ -582,21 +577,19 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>℃前馏出量</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21CB</t>
     </r>
@@ -613,125 +606,100 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="160" formatCode="0.00_ "/>
+    <numFmt numFmtId="161" formatCode="0.0"/>
+    <numFmt numFmtId="162" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
       <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <sz val="14"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color indexed="64"/>
       <sz val="14"/>
-      <color indexed="64"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
       <scheme val="major"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
+      <color indexed="64"/>
       <sz val="14"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
       <scheme val="major"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
       <b/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -739,7 +707,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1226,212 +1194,209 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="79">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="78">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="8" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="12" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="8" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1439,6 +1404,11 @@
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="60">
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1734,23 +1704,13 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1764,9 +1724,9 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 2"/>
+        <xdr:cNvPr id="4" name="Line 2" hidden="0"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1793,8 +1753,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1997,4580 +2240,4548 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AK40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="C11" xSplit="2" ySplit="10"/>
+      <selection activeCell="AI11" activeCellId="0" sqref="AI11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="11.625"/>
     <col min="6" max="6" width="11.5"/>
     <col min="12" max="13" width="8.625"/>
     <col min="15" max="15" width="9.375"/>
     <col min="20" max="20" width="9.375"/>
     <col min="29" max="32" width="9.375"/>
     <col min="33" max="33" width="8.625"/>
-    <col min="34" max="34" width="25.25" customWidth="1"/>
+    <col customWidth="1" min="34" max="34" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+    <row ht="30.75" customHeight="1" r="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+    <row ht="24" customHeight="1" r="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="36" t="str">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="2"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
     </row>
-    <row r="3" spans="2:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+    <row ht="23.449999999999999" customHeight="1" r="3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="42" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="44"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="11"/>
     </row>
-    <row r="4" spans="2:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="48" t="s">
+    <row ht="23.449999999999999" customHeight="1" r="4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="49" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="47"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="18"/>
     </row>
-    <row r="5" spans="2:37" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="49" t="s">
+    <row ht="38.100000000000001" customHeight="1" r="5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49" t="s">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="49" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="50" t="s">
+      <c r="AF5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="47"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="18"/>
     </row>
-    <row r="6" spans="2:37" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="3" t="s">
+    <row ht="45.600000000000001" customHeight="1" r="6">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="3" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="4" t="s">
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AJ6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:37" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row ht="24" customHeight="1" hidden="1" r="7">
+      <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AA7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="10"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="31"/>
     </row>
-    <row r="8" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="8" s="32">
+      <c r="B8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="34">
         <v>650</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="34">
         <v>480</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="34">
         <v>460</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="34">
         <v>92</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="34">
         <v>190</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="34">
         <v>0.5</v>
       </c>
-      <c r="I8" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I8" s="34">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="J8" s="34">
         <v>400</v>
       </c>
-      <c r="K8" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="34">
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="L8" s="34">
         <v>50</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="34">
         <v>190</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="34">
         <v>200</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="34">
         <v>1500</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="34">
         <v>40</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="34">
         <v>110</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="34">
         <v>50</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="34">
         <v>190</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="34">
         <v>3500</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="34">
         <v>4</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="34">
         <v>30</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="34">
         <v>100</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="34">
         <v>100</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="34">
         <v>48</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="34">
         <v>48</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="34">
         <v>160</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="34">
         <v>28</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="34">
         <v>1200</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="34">
         <v>2200</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8" s="34">
         <v>2100</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="35">
         <v>2100</v>
       </c>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="16"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="37"/>
     </row>
-    <row r="9" spans="2:37" s="11" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+    <row customFormat="1" ht="24" customHeight="1" hidden="1" r="9" s="32">
+      <c r="B9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="34">
         <v>350</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="34">
         <v>340</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="34">
         <v>350</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="34">
         <v>-99999</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="34">
         <v>160</v>
       </c>
-      <c r="H9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="34">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="I9" s="34">
         <v>1</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="34">
         <v>360</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="34">
         <v>-99999</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="34">
         <v>-99999</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="34">
         <v>-99999</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="34">
         <v>-99999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="34">
         <v>-99999</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="34">
         <v>-99999</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="34">
         <v>-99999</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="34">
         <v>-99999</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="34">
         <v>-99999</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="34">
         <v>-99999</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="34">
         <v>-99999</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="34">
         <v>-99999</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="34">
         <v>-99999</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="34">
         <v>115</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="34">
         <v>20</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="34">
         <v>-99999</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="34">
         <v>450</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="35">
         <v>450</v>
       </c>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="16"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="37"/>
     </row>
-    <row r="10" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+    <row ht="27" customHeight="1" r="10">
+      <c r="B10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="Z10" s="18" t="s">
+      <c r="Z10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AA10" s="18" t="s">
+      <c r="AA10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="18" t="s">
+      <c r="AC10" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AD10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="AE10" s="18" t="s">
+      <c r="AE10" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AF10" s="19" t="s">
+      <c r="AF10" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="21"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
     </row>
-    <row r="11" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="11">
+      <c r="B11" s="43">
         <v>0</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="44" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="44" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="44" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F11" s="23" t="str">
+      <c r="F11" s="44" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="G11" s="44" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="45" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="46" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="J11" s="44" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K11" s="24" t="str">
+      <c r="K11" s="45" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="44" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M11" s="23" t="str">
+      <c r="M11" s="44" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N11" s="23" t="str">
+      <c r="N11" s="44" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O11" s="23" t="str">
+      <c r="O11" s="44" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P11" s="23" t="str">
+      <c r="P11" s="44" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q11" s="25" t="str">
+      <c r="Q11" s="46" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R11" s="23" t="str">
+      <c r="R11" s="44" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S11" s="23" t="str">
+      <c r="S11" s="44" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T11" s="23" t="str">
+      <c r="T11" s="44" t="str">
         <f>IF(_cuben_day_hour!R2="","",_cuben_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U11" s="25" t="str">
+      <c r="U11" s="46" t="str">
         <f>IF(_cuben_day_hour!S2="","",_cuben_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V11" s="25" t="str">
+      <c r="V11" s="46" t="str">
         <f>IF(_cuben_day_hour!T2="","",_cuben_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W11" s="23" t="str">
+      <c r="W11" s="44" t="str">
         <f>IF(_cuben_day_hour!U2="","",_cuben_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X11" s="23" t="str">
+      <c r="X11" s="44" t="str">
         <f>IF(_cuben_day_hour!V2="","",_cuben_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y11" s="24" t="str">
+      <c r="Y11" s="45" t="str">
         <f>IF(_cuben_day_hour!W2="","",_cuben_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z11" s="24" t="str">
+      <c r="Z11" s="45" t="str">
         <f>IF(_cuben_day_hour!X2="","",_cuben_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA11" s="23" t="str">
+      <c r="AA11" s="44" t="str">
         <f>IF(_cuben_day_hour!Y2="","",_cuben_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB11" s="23" t="str">
+      <c r="AB11" s="44" t="str">
         <f>IF(_cuben_day_hour!Z2="","",_cuben_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC11" s="23" t="str">
+      <c r="AC11" s="44" t="str">
         <f>IF(_cuben_day_hour!AA2="","",_cuben_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD11" s="23" t="str">
+      <c r="AD11" s="44" t="str">
         <f>IF(_cuben_day_hour!AB2="","",_cuben_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE11" s="23" t="str">
+      <c r="AE11" s="44" t="str">
         <f>IF(_cuben_day_hour!AC2="","",_cuben_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF11" s="23" t="str">
+      <c r="AF11" s="44" t="str">
         <f>IF(_cuben_day_hour!AD2="","",_cuben_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG11" s="56" t="s">
+      <c r="AG11" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="26" t="s">
+      <c r="AH11" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="27" t="str">
+      <c r="AI11" s="49" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="27" t="str">
+      <c r="AJ11" s="49" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="AK11" s="28" t="str">
+      <c r="AK11" s="50" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C12" s="23" t="str">
+    <row ht="21.949999999999999" customHeight="1" r="12">
+      <c r="B12" s="43">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="C12" s="44" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="44" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="E12" s="44" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F12" s="23" t="str">
+      <c r="F12" s="44" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="44" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="45" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str">
+      <c r="I12" s="46" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="J12" s="44" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K12" s="24" t="str">
+      <c r="K12" s="45" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L12" s="23" t="str">
+      <c r="L12" s="44" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M12" s="23" t="str">
+      <c r="M12" s="44" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N12" s="23" t="str">
+      <c r="N12" s="44" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O12" s="23" t="str">
+      <c r="O12" s="44" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P12" s="23" t="str">
+      <c r="P12" s="44" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q12" s="25" t="str">
+      <c r="Q12" s="46" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R12" s="23" t="str">
+      <c r="R12" s="44" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S12" s="23" t="str">
+      <c r="S12" s="44" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T12" s="23" t="str">
+      <c r="T12" s="44" t="str">
         <f>IF(_cuben_day_hour!R3="","",_cuben_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U12" s="25" t="str">
+      <c r="U12" s="46" t="str">
         <f>IF(_cuben_day_hour!S3="","",_cuben_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V12" s="25" t="str">
+      <c r="V12" s="46" t="str">
         <f>IF(_cuben_day_hour!T3="","",_cuben_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W12" s="23" t="str">
+      <c r="W12" s="44" t="str">
         <f>IF(_cuben_day_hour!U3="","",_cuben_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X12" s="23" t="str">
+      <c r="X12" s="44" t="str">
         <f>IF(_cuben_day_hour!V3="","",_cuben_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y12" s="24" t="str">
+      <c r="Y12" s="45" t="str">
         <f>IF(_cuben_day_hour!W3="","",_cuben_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z12" s="24" t="str">
+      <c r="Z12" s="45" t="str">
         <f>IF(_cuben_day_hour!X3="","",_cuben_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA12" s="23" t="str">
+      <c r="AA12" s="44" t="str">
         <f>IF(_cuben_day_hour!Y3="","",_cuben_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB12" s="23" t="str">
+      <c r="AB12" s="44" t="str">
         <f>IF(_cuben_day_hour!Z3="","",_cuben_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC12" s="23" t="str">
+      <c r="AC12" s="44" t="str">
         <f>IF(_cuben_day_hour!AA3="","",_cuben_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD12" s="23" t="str">
+      <c r="AD12" s="44" t="str">
         <f>IF(_cuben_day_hour!AB3="","",_cuben_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE12" s="23" t="str">
+      <c r="AE12" s="44" t="str">
         <f>IF(_cuben_day_hour!AC3="","",_cuben_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF12" s="23" t="str">
+      <c r="AF12" s="44" t="str">
         <f>IF(_cuben_day_hour!AD3="","",_cuben_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="29" t="s">
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="AI12" s="27" t="str">
+      <c r="AI12" s="49" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="AJ12" s="27" t="str">
+      <c r="AJ12" s="49" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="AK12" s="28" t="str">
+      <c r="AK12" s="50" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C13" s="23" t="str">
+    <row ht="21.949999999999999" customHeight="1" r="13">
+      <c r="B13" s="43">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="C13" s="44" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="44" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="44" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F13" s="23" t="str">
+      <c r="F13" s="44" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="44" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="45" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I13" s="25" t="str">
+      <c r="I13" s="46" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K13" s="24" t="str">
+      <c r="K13" s="45" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="L13" s="44" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M13" s="23" t="str">
+      <c r="M13" s="44" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N13" s="23" t="str">
+      <c r="N13" s="44" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O13" s="23" t="str">
+      <c r="O13" s="44" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P13" s="23" t="str">
+      <c r="P13" s="44" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q13" s="25" t="str">
+      <c r="Q13" s="46" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R13" s="23" t="str">
+      <c r="R13" s="44" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S13" s="23" t="str">
+      <c r="S13" s="44" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T13" s="23" t="str">
+      <c r="T13" s="44" t="str">
         <f>IF(_cuben_day_hour!R4="","",_cuben_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U13" s="25" t="str">
+      <c r="U13" s="46" t="str">
         <f>IF(_cuben_day_hour!S4="","",_cuben_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V13" s="25" t="str">
+      <c r="V13" s="46" t="str">
         <f>IF(_cuben_day_hour!T4="","",_cuben_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W13" s="23" t="str">
+      <c r="W13" s="44" t="str">
         <f>IF(_cuben_day_hour!U4="","",_cuben_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X13" s="23" t="str">
+      <c r="X13" s="44" t="str">
         <f>IF(_cuben_day_hour!V4="","",_cuben_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y13" s="24" t="str">
+      <c r="Y13" s="45" t="str">
         <f>IF(_cuben_day_hour!W4="","",_cuben_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z13" s="24" t="str">
+      <c r="Z13" s="45" t="str">
         <f>IF(_cuben_day_hour!X4="","",_cuben_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA13" s="23" t="str">
+      <c r="AA13" s="44" t="str">
         <f>IF(_cuben_day_hour!Y4="","",_cuben_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB13" s="23" t="str">
+      <c r="AB13" s="44" t="str">
         <f>IF(_cuben_day_hour!Z4="","",_cuben_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC13" s="23" t="str">
+      <c r="AC13" s="44" t="str">
         <f>IF(_cuben_day_hour!AA4="","",_cuben_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD13" s="23" t="str">
+      <c r="AD13" s="44" t="str">
         <f>IF(_cuben_day_hour!AB4="","",_cuben_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE13" s="23" t="str">
+      <c r="AE13" s="44" t="str">
         <f>IF(_cuben_day_hour!AC4="","",_cuben_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF13" s="23" t="str">
+      <c r="AF13" s="44" t="str">
         <f>IF(_cuben_day_hour!AD4="","",_cuben_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="29" t="s">
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="27" t="str">
+      <c r="AI13" s="49" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AJ13" s="27" t="str">
+      <c r="AJ13" s="49" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AK13" s="28" t="str">
+      <c r="AK13" s="50" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="14">
+      <c r="B14" s="43">
         <v>0.125</v>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="44" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="44" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E14" s="23" t="str">
+      <c r="E14" s="44" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F14" s="23" t="str">
+      <c r="F14" s="44" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="44" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="45" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="46" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="45" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="44" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M14" s="23" t="str">
+      <c r="M14" s="44" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N14" s="23" t="str">
+      <c r="N14" s="44" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O14" s="23" t="str">
+      <c r="O14" s="44" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P14" s="23" t="str">
+      <c r="P14" s="44" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q14" s="25" t="str">
+      <c r="Q14" s="46" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R14" s="23" t="str">
+      <c r="R14" s="44" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S14" s="23" t="str">
+      <c r="S14" s="44" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T14" s="23" t="str">
+      <c r="T14" s="44" t="str">
         <f>IF(_cuben_day_hour!R5="","",_cuben_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U14" s="25" t="str">
+      <c r="U14" s="46" t="str">
         <f>IF(_cuben_day_hour!S5="","",_cuben_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V14" s="25" t="str">
+      <c r="V14" s="46" t="str">
         <f>IF(_cuben_day_hour!T5="","",_cuben_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W14" s="23" t="str">
+      <c r="W14" s="44" t="str">
         <f>IF(_cuben_day_hour!U5="","",_cuben_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X14" s="23" t="str">
+      <c r="X14" s="44" t="str">
         <f>IF(_cuben_day_hour!V5="","",_cuben_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y14" s="24" t="str">
+      <c r="Y14" s="45" t="str">
         <f>IF(_cuben_day_hour!W5="","",_cuben_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z14" s="24" t="str">
+      <c r="Z14" s="45" t="str">
         <f>IF(_cuben_day_hour!X5="","",_cuben_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA14" s="23" t="str">
+      <c r="AA14" s="44" t="str">
         <f>IF(_cuben_day_hour!Y5="","",_cuben_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB14" s="23" t="str">
+      <c r="AB14" s="44" t="str">
         <f>IF(_cuben_day_hour!Z5="","",_cuben_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC14" s="23" t="str">
+      <c r="AC14" s="44" t="str">
         <f>IF(_cuben_day_hour!AA5="","",_cuben_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD14" s="23" t="str">
+      <c r="AD14" s="44" t="str">
         <f>IF(_cuben_day_hour!AB5="","",_cuben_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE14" s="23" t="str">
+      <c r="AE14" s="44" t="str">
         <f>IF(_cuben_day_hour!AC5="","",_cuben_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF14" s="23" t="str">
+      <c r="AF14" s="44" t="str">
         <f>IF(_cuben_day_hour!AD5="","",_cuben_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="29" t="s">
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="AI14" s="27" t="str">
+      <c r="AI14" s="49" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="AJ14" s="27" t="str">
+      <c r="AJ14" s="49" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="AK14" s="28" t="str">
+      <c r="AK14" s="50" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="15">
+      <c r="B15" s="43">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="44" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="44" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="44" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="44" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="44" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="45" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I15" s="25" t="str">
+      <c r="I15" s="46" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J15" s="23" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K15" s="24" t="str">
+      <c r="K15" s="45" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="44" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M15" s="23" t="str">
+      <c r="M15" s="44" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N15" s="23" t="str">
+      <c r="N15" s="44" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O15" s="23" t="str">
+      <c r="O15" s="44" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P15" s="23" t="str">
+      <c r="P15" s="44" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q15" s="25" t="str">
+      <c r="Q15" s="46" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R15" s="23" t="str">
+      <c r="R15" s="44" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S15" s="23" t="str">
+      <c r="S15" s="44" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T15" s="23" t="str">
+      <c r="T15" s="44" t="str">
         <f>IF(_cuben_day_hour!R6="","",_cuben_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U15" s="25" t="str">
+      <c r="U15" s="46" t="str">
         <f>IF(_cuben_day_hour!S6="","",_cuben_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V15" s="25" t="str">
+      <c r="V15" s="46" t="str">
         <f>IF(_cuben_day_hour!T6="","",_cuben_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W15" s="23" t="str">
+      <c r="W15" s="44" t="str">
         <f>IF(_cuben_day_hour!U6="","",_cuben_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X15" s="23" t="str">
+      <c r="X15" s="44" t="str">
         <f>IF(_cuben_day_hour!V6="","",_cuben_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y15" s="24" t="str">
+      <c r="Y15" s="45" t="str">
         <f>IF(_cuben_day_hour!W6="","",_cuben_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z15" s="24" t="str">
+      <c r="Z15" s="45" t="str">
         <f>IF(_cuben_day_hour!X6="","",_cuben_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA15" s="23" t="str">
+      <c r="AA15" s="44" t="str">
         <f>IF(_cuben_day_hour!Y6="","",_cuben_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB15" s="23" t="str">
+      <c r="AB15" s="44" t="str">
         <f>IF(_cuben_day_hour!Z6="","",_cuben_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC15" s="23" t="str">
+      <c r="AC15" s="44" t="str">
         <f>IF(_cuben_day_hour!AA6="","",_cuben_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD15" s="23" t="str">
+      <c r="AD15" s="44" t="str">
         <f>IF(_cuben_day_hour!AB6="","",_cuben_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE15" s="23" t="str">
+      <c r="AE15" s="44" t="str">
         <f>IF(_cuben_day_hour!AC6="","",_cuben_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF15" s="23" t="str">
+      <c r="AF15" s="44" t="str">
         <f>IF(_cuben_day_hour!AD6="","",_cuben_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="29" t="s">
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="AI15" s="27" t="str">
+      <c r="AI15" s="49" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="AJ15" s="27" t="str">
+      <c r="AJ15" s="49" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="AK15" s="28" t="str">
+      <c r="AK15" s="50" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="16">
+      <c r="B16" s="43">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="44" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D16" s="23" t="str">
+      <c r="D16" s="44" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="44" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F16" s="23" t="str">
+      <c r="F16" s="44" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G16" s="23" t="str">
+      <c r="G16" s="44" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="45" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="46" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J16" s="23" t="str">
+      <c r="J16" s="44" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K16" s="24" t="str">
+      <c r="K16" s="45" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="44" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M16" s="23" t="str">
+      <c r="M16" s="44" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N16" s="23" t="str">
+      <c r="N16" s="44" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O16" s="23" t="str">
+      <c r="O16" s="44" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P16" s="23" t="str">
+      <c r="P16" s="44" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q16" s="25" t="str">
+      <c r="Q16" s="46" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R16" s="23" t="str">
+      <c r="R16" s="44" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S16" s="23" t="str">
+      <c r="S16" s="44" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T16" s="23" t="str">
+      <c r="T16" s="44" t="str">
         <f>IF(_cuben_day_hour!R7="","",_cuben_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U16" s="25" t="str">
+      <c r="U16" s="46" t="str">
         <f>IF(_cuben_day_hour!S7="","",_cuben_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="V16" s="46" t="str">
         <f>IF(_cuben_day_hour!T7="","",_cuben_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W16" s="23" t="str">
+      <c r="W16" s="44" t="str">
         <f>IF(_cuben_day_hour!U7="","",_cuben_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X16" s="23" t="str">
+      <c r="X16" s="44" t="str">
         <f>IF(_cuben_day_hour!V7="","",_cuben_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y16" s="24" t="str">
+      <c r="Y16" s="45" t="str">
         <f>IF(_cuben_day_hour!W7="","",_cuben_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z16" s="24" t="str">
+      <c r="Z16" s="45" t="str">
         <f>IF(_cuben_day_hour!X7="","",_cuben_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA16" s="23" t="str">
+      <c r="AA16" s="44" t="str">
         <f>IF(_cuben_day_hour!Y7="","",_cuben_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB16" s="23" t="str">
+      <c r="AB16" s="44" t="str">
         <f>IF(_cuben_day_hour!Z7="","",_cuben_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC16" s="23" t="str">
+      <c r="AC16" s="44" t="str">
         <f>IF(_cuben_day_hour!AA7="","",_cuben_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD16" s="23" t="str">
+      <c r="AD16" s="44" t="str">
         <f>IF(_cuben_day_hour!AB7="","",_cuben_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE16" s="23" t="str">
+      <c r="AE16" s="44" t="str">
         <f>IF(_cuben_day_hour!AC7="","",_cuben_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF16" s="23" t="str">
+      <c r="AF16" s="44" t="str">
         <f>IF(_cuben_day_hour!AD7="","",_cuben_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="29" t="s">
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="27" t="str">
+      <c r="AI16" s="49" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AJ16" s="27" t="str">
+      <c r="AJ16" s="49" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AK16" s="28" t="str">
+      <c r="AK16" s="50" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="17">
+      <c r="B17" s="43">
         <v>0.25</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="44" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="44" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F17" s="23" t="str">
+      <c r="F17" s="44" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G17" s="23" t="str">
+      <c r="G17" s="44" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="45" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="46" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J17" s="23" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K17" s="24" t="str">
+      <c r="K17" s="45" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="44" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M17" s="23" t="str">
+      <c r="M17" s="44" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="str">
+      <c r="N17" s="44" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O17" s="23" t="str">
+      <c r="O17" s="44" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P17" s="23" t="str">
+      <c r="P17" s="44" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q17" s="25" t="str">
+      <c r="Q17" s="46" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R17" s="23" t="str">
+      <c r="R17" s="44" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S17" s="23" t="str">
+      <c r="S17" s="44" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T17" s="23" t="str">
+      <c r="T17" s="44" t="str">
         <f>IF(_cuben_day_hour!R8="","",_cuben_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U17" s="25" t="str">
+      <c r="U17" s="46" t="str">
         <f>IF(_cuben_day_hour!S8="","",_cuben_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V17" s="25" t="str">
+      <c r="V17" s="46" t="str">
         <f>IF(_cuben_day_hour!T8="","",_cuben_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W17" s="23" t="str">
+      <c r="W17" s="44" t="str">
         <f>IF(_cuben_day_hour!U8="","",_cuben_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X17" s="23" t="str">
+      <c r="X17" s="44" t="str">
         <f>IF(_cuben_day_hour!V8="","",_cuben_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y17" s="24" t="str">
+      <c r="Y17" s="45" t="str">
         <f>IF(_cuben_day_hour!W8="","",_cuben_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z17" s="24" t="str">
+      <c r="Z17" s="45" t="str">
         <f>IF(_cuben_day_hour!X8="","",_cuben_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA17" s="23" t="str">
+      <c r="AA17" s="44" t="str">
         <f>IF(_cuben_day_hour!Y8="","",_cuben_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB17" s="23" t="str">
+      <c r="AB17" s="44" t="str">
         <f>IF(_cuben_day_hour!Z8="","",_cuben_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC17" s="23" t="str">
+      <c r="AC17" s="44" t="str">
         <f>IF(_cuben_day_hour!AA8="","",_cuben_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD17" s="23" t="str">
+      <c r="AD17" s="44" t="str">
         <f>IF(_cuben_day_hour!AB8="","",_cuben_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE17" s="23" t="str">
+      <c r="AE17" s="44" t="str">
         <f>IF(_cuben_day_hour!AC8="","",_cuben_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF17" s="23" t="str">
+      <c r="AF17" s="44" t="str">
         <f>IF(_cuben_day_hour!AD8="","",_cuben_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="59"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="54"/>
     </row>
-    <row r="18" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="18">
+      <c r="B18" s="43">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="44" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="D18" s="44" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E18" s="23" t="str">
+      <c r="E18" s="44" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F18" s="23" t="str">
+      <c r="F18" s="44" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G18" s="23" t="str">
+      <c r="G18" s="44" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="45" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="46" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J18" s="23" t="str">
+      <c r="J18" s="44" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K18" s="24" t="str">
+      <c r="K18" s="45" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="44" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M18" s="23" t="str">
+      <c r="M18" s="44" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="str">
+      <c r="N18" s="44" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O18" s="23" t="str">
+      <c r="O18" s="44" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P18" s="23" t="str">
+      <c r="P18" s="44" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q18" s="25" t="str">
+      <c r="Q18" s="46" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R18" s="23" t="str">
+      <c r="R18" s="44" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S18" s="23" t="str">
+      <c r="S18" s="44" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T18" s="23" t="str">
+      <c r="T18" s="44" t="str">
         <f>IF(_cuben_day_hour!R9="","",_cuben_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U18" s="25" t="str">
+      <c r="U18" s="46" t="str">
         <f>IF(_cuben_day_hour!S9="","",_cuben_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V18" s="25" t="str">
+      <c r="V18" s="46" t="str">
         <f>IF(_cuben_day_hour!T9="","",_cuben_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W18" s="23" t="str">
+      <c r="W18" s="44" t="str">
         <f>IF(_cuben_day_hour!U9="","",_cuben_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X18" s="23" t="str">
+      <c r="X18" s="44" t="str">
         <f>IF(_cuben_day_hour!V9="","",_cuben_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y18" s="24" t="str">
+      <c r="Y18" s="45" t="str">
         <f>IF(_cuben_day_hour!W9="","",_cuben_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z18" s="24" t="str">
+      <c r="Z18" s="45" t="str">
         <f>IF(_cuben_day_hour!X9="","",_cuben_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA18" s="23" t="str">
+      <c r="AA18" s="44" t="str">
         <f>IF(_cuben_day_hour!Y9="","",_cuben_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB18" s="23" t="str">
+      <c r="AB18" s="44" t="str">
         <f>IF(_cuben_day_hour!Z9="","",_cuben_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC18" s="23" t="str">
+      <c r="AC18" s="44" t="str">
         <f>IF(_cuben_day_hour!AA9="","",_cuben_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD18" s="23" t="str">
+      <c r="AD18" s="44" t="str">
         <f>IF(_cuben_day_hour!AB9="","",_cuben_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE18" s="23" t="str">
+      <c r="AE18" s="44" t="str">
         <f>IF(_cuben_day_hour!AC9="","",_cuben_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF18" s="23" t="str">
+      <c r="AF18" s="44" t="str">
         <f>IF(_cuben_day_hour!AD9="","",_cuben_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="62"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="57"/>
     </row>
-    <row r="19" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="19">
+      <c r="B19" s="43">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="44" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="44" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="44" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F19" s="23" t="str">
+      <c r="F19" s="44" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G19" s="23" t="str">
+      <c r="G19" s="44" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="45" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="46" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J19" s="23" t="str">
+      <c r="J19" s="44" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K19" s="24" t="str">
+      <c r="K19" s="45" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="44" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M19" s="23" t="str">
+      <c r="M19" s="44" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="str">
+      <c r="N19" s="44" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O19" s="23" t="str">
+      <c r="O19" s="44" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P19" s="23" t="str">
+      <c r="P19" s="44" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q19" s="25" t="str">
+      <c r="Q19" s="46" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R19" s="23" t="str">
+      <c r="R19" s="44" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S19" s="23" t="str">
+      <c r="S19" s="44" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T19" s="23" t="str">
+      <c r="T19" s="44" t="str">
         <f>IF(_cuben_day_hour!R10="","",_cuben_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U19" s="25" t="str">
+      <c r="U19" s="46" t="str">
         <f>IF(_cuben_day_hour!S10="","",_cuben_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V19" s="25" t="str">
+      <c r="V19" s="46" t="str">
         <f>IF(_cuben_day_hour!T10="","",_cuben_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W19" s="23" t="str">
+      <c r="W19" s="44" t="str">
         <f>IF(_cuben_day_hour!U10="","",_cuben_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X19" s="23" t="str">
+      <c r="X19" s="44" t="str">
         <f>IF(_cuben_day_hour!V10="","",_cuben_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y19" s="24" t="str">
+      <c r="Y19" s="45" t="str">
         <f>IF(_cuben_day_hour!W10="","",_cuben_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z19" s="24" t="str">
+      <c r="Z19" s="45" t="str">
         <f>IF(_cuben_day_hour!X10="","",_cuben_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA19" s="23" t="str">
+      <c r="AA19" s="44" t="str">
         <f>IF(_cuben_day_hour!Y10="","",_cuben_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB19" s="23" t="str">
+      <c r="AB19" s="44" t="str">
         <f>IF(_cuben_day_hour!Z10="","",_cuben_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC19" s="23" t="str">
+      <c r="AC19" s="44" t="str">
         <f>IF(_cuben_day_hour!AA10="","",_cuben_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD19" s="23" t="str">
+      <c r="AD19" s="44" t="str">
         <f>IF(_cuben_day_hour!AB10="","",_cuben_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE19" s="23" t="str">
+      <c r="AE19" s="44" t="str">
         <f>IF(_cuben_day_hour!AC10="","",_cuben_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF19" s="23" t="str">
+      <c r="AF19" s="44" t="str">
         <f>IF(_cuben_day_hour!AD10="","",_cuben_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="62"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="57"/>
     </row>
-    <row r="20" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="20">
+      <c r="B20" s="43">
         <v>0.375</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="44" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="44" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E20" s="23" t="str">
+      <c r="E20" s="44" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F20" s="23" t="str">
+      <c r="F20" s="44" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G20" s="23" t="str">
+      <c r="G20" s="44" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="45" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="46" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J20" s="23" t="str">
+      <c r="J20" s="44" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K20" s="24" t="str">
+      <c r="K20" s="45" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="44" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M20" s="23" t="str">
+      <c r="M20" s="44" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N20" s="23" t="str">
+      <c r="N20" s="44" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O20" s="23" t="str">
+      <c r="O20" s="44" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P20" s="23" t="str">
+      <c r="P20" s="44" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q20" s="25" t="str">
+      <c r="Q20" s="46" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R20" s="23" t="str">
+      <c r="R20" s="44" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S20" s="23" t="str">
+      <c r="S20" s="44" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T20" s="23" t="str">
+      <c r="T20" s="44" t="str">
         <f>IF(_cuben_day_hour!R11="","",_cuben_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U20" s="25" t="str">
+      <c r="U20" s="46" t="str">
         <f>IF(_cuben_day_hour!S11="","",_cuben_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V20" s="25" t="str">
+      <c r="V20" s="46" t="str">
         <f>IF(_cuben_day_hour!T11="","",_cuben_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W20" s="23" t="str">
+      <c r="W20" s="44" t="str">
         <f>IF(_cuben_day_hour!U11="","",_cuben_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X20" s="23" t="str">
+      <c r="X20" s="44" t="str">
         <f>IF(_cuben_day_hour!V11="","",_cuben_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y20" s="24" t="str">
+      <c r="Y20" s="45" t="str">
         <f>IF(_cuben_day_hour!W11="","",_cuben_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z20" s="24" t="str">
+      <c r="Z20" s="45" t="str">
         <f>IF(_cuben_day_hour!X11="","",_cuben_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA20" s="23" t="str">
+      <c r="AA20" s="44" t="str">
         <f>IF(_cuben_day_hour!Y11="","",_cuben_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB20" s="23" t="str">
+      <c r="AB20" s="44" t="str">
         <f>IF(_cuben_day_hour!Z11="","",_cuben_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC20" s="23" t="str">
+      <c r="AC20" s="44" t="str">
         <f>IF(_cuben_day_hour!AA11="","",_cuben_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD20" s="23" t="str">
+      <c r="AD20" s="44" t="str">
         <f>IF(_cuben_day_hour!AB11="","",_cuben_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE20" s="23" t="str">
+      <c r="AE20" s="44" t="str">
         <f>IF(_cuben_day_hour!AC11="","",_cuben_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF20" s="23" t="str">
+      <c r="AF20" s="44" t="str">
         <f>IF(_cuben_day_hour!AD11="","",_cuben_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="62"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="57"/>
     </row>
-    <row r="21" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="21">
+      <c r="B21" s="43">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="44" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="44" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="44" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F21" s="23" t="str">
+      <c r="F21" s="44" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G21" s="23" t="str">
+      <c r="G21" s="44" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="45" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="46" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J21" s="23" t="str">
+      <c r="J21" s="44" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K21" s="24" t="str">
+      <c r="K21" s="45" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L21" s="23" t="str">
+      <c r="L21" s="44" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M21" s="23" t="str">
+      <c r="M21" s="44" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N21" s="23" t="str">
+      <c r="N21" s="44" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O21" s="23" t="str">
+      <c r="O21" s="44" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P21" s="23" t="str">
+      <c r="P21" s="44" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q21" s="25" t="str">
+      <c r="Q21" s="46" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R21" s="23" t="str">
+      <c r="R21" s="44" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S21" s="23" t="str">
+      <c r="S21" s="44" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T21" s="23" t="str">
+      <c r="T21" s="44" t="str">
         <f>IF(_cuben_day_hour!R12="","",_cuben_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U21" s="25" t="str">
+      <c r="U21" s="46" t="str">
         <f>IF(_cuben_day_hour!S12="","",_cuben_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V21" s="25" t="str">
+      <c r="V21" s="46" t="str">
         <f>IF(_cuben_day_hour!T12="","",_cuben_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W21" s="23" t="str">
+      <c r="W21" s="44" t="str">
         <f>IF(_cuben_day_hour!U12="","",_cuben_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X21" s="23" t="str">
+      <c r="X21" s="44" t="str">
         <f>IF(_cuben_day_hour!V12="","",_cuben_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y21" s="24" t="str">
+      <c r="Y21" s="45" t="str">
         <f>IF(_cuben_day_hour!W12="","",_cuben_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z21" s="24" t="str">
+      <c r="Z21" s="45" t="str">
         <f>IF(_cuben_day_hour!X12="","",_cuben_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA21" s="23" t="str">
+      <c r="AA21" s="44" t="str">
         <f>IF(_cuben_day_hour!Y12="","",_cuben_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB21" s="23" t="str">
+      <c r="AB21" s="44" t="str">
         <f>IF(_cuben_day_hour!Z12="","",_cuben_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC21" s="23" t="str">
+      <c r="AC21" s="44" t="str">
         <f>IF(_cuben_day_hour!AA12="","",_cuben_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD21" s="23" t="str">
+      <c r="AD21" s="44" t="str">
         <f>IF(_cuben_day_hour!AB12="","",_cuben_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE21" s="23" t="str">
+      <c r="AE21" s="44" t="str">
         <f>IF(_cuben_day_hour!AC12="","",_cuben_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF21" s="23" t="str">
+      <c r="AF21" s="44" t="str">
         <f>IF(_cuben_day_hour!AD12="","",_cuben_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="62"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="57"/>
     </row>
-    <row r="22" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="22">
+      <c r="B22" s="43">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="44" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="D22" s="44" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E22" s="23" t="str">
+      <c r="E22" s="44" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F22" s="23" t="str">
+      <c r="F22" s="44" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G22" s="23" t="str">
+      <c r="G22" s="44" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="45" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="46" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J22" s="23" t="str">
+      <c r="J22" s="44" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K22" s="24" t="str">
+      <c r="K22" s="45" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="44" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M22" s="23" t="str">
+      <c r="M22" s="44" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N22" s="23" t="str">
+      <c r="N22" s="44" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O22" s="23" t="str">
+      <c r="O22" s="44" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P22" s="23" t="str">
+      <c r="P22" s="44" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q22" s="25" t="str">
+      <c r="Q22" s="46" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R22" s="23" t="str">
+      <c r="R22" s="44" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S22" s="23" t="str">
+      <c r="S22" s="44" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T22" s="23" t="str">
+      <c r="T22" s="44" t="str">
         <f>IF(_cuben_day_hour!R13="","",_cuben_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U22" s="25" t="str">
+      <c r="U22" s="46" t="str">
         <f>IF(_cuben_day_hour!S13="","",_cuben_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V22" s="25" t="str">
+      <c r="V22" s="46" t="str">
         <f>IF(_cuben_day_hour!T13="","",_cuben_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W22" s="23" t="str">
+      <c r="W22" s="44" t="str">
         <f>IF(_cuben_day_hour!U13="","",_cuben_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X22" s="23" t="str">
+      <c r="X22" s="44" t="str">
         <f>IF(_cuben_day_hour!V13="","",_cuben_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y22" s="24" t="str">
+      <c r="Y22" s="45" t="str">
         <f>IF(_cuben_day_hour!W13="","",_cuben_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z22" s="24" t="str">
+      <c r="Z22" s="45" t="str">
         <f>IF(_cuben_day_hour!X13="","",_cuben_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA22" s="23" t="str">
+      <c r="AA22" s="44" t="str">
         <f>IF(_cuben_day_hour!Y13="","",_cuben_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB22" s="23" t="str">
+      <c r="AB22" s="44" t="str">
         <f>IF(_cuben_day_hour!Z13="","",_cuben_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC22" s="23" t="str">
+      <c r="AC22" s="44" t="str">
         <f>IF(_cuben_day_hour!AA13="","",_cuben_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD22" s="23" t="str">
+      <c r="AD22" s="44" t="str">
         <f>IF(_cuben_day_hour!AB13="","",_cuben_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE22" s="23" t="str">
+      <c r="AE22" s="44" t="str">
         <f>IF(_cuben_day_hour!AC13="","",_cuben_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF22" s="23" t="str">
+      <c r="AF22" s="44" t="str">
         <f>IF(_cuben_day_hour!AD13="","",_cuben_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="62"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="57"/>
     </row>
-    <row r="23" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="23">
+      <c r="B23" s="43">
         <v>0.5</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="44" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="44" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="44" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F23" s="23" t="str">
+      <c r="F23" s="44" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G23" s="23" t="str">
+      <c r="G23" s="44" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H23" s="24" t="str">
+      <c r="H23" s="45" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I23" s="25" t="str">
+      <c r="I23" s="46" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J23" s="23" t="str">
+      <c r="J23" s="44" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K23" s="24" t="str">
+      <c r="K23" s="45" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L23" s="23" t="str">
+      <c r="L23" s="44" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M23" s="23" t="str">
+      <c r="M23" s="44" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N23" s="23" t="str">
+      <c r="N23" s="44" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O23" s="23" t="str">
+      <c r="O23" s="44" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P23" s="23" t="str">
+      <c r="P23" s="44" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q23" s="25" t="str">
+      <c r="Q23" s="46" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R23" s="23" t="str">
+      <c r="R23" s="44" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S23" s="23" t="str">
+      <c r="S23" s="44" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T23" s="23" t="str">
+      <c r="T23" s="44" t="str">
         <f>IF(_cuben_day_hour!R14="","",_cuben_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U23" s="25" t="str">
+      <c r="U23" s="46" t="str">
         <f>IF(_cuben_day_hour!S14="","",_cuben_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V23" s="25" t="str">
+      <c r="V23" s="46" t="str">
         <f>IF(_cuben_day_hour!T14="","",_cuben_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W23" s="23" t="str">
+      <c r="W23" s="44" t="str">
         <f>IF(_cuben_day_hour!U14="","",_cuben_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X23" s="23" t="str">
+      <c r="X23" s="44" t="str">
         <f>IF(_cuben_day_hour!V14="","",_cuben_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y23" s="24" t="str">
+      <c r="Y23" s="45" t="str">
         <f>IF(_cuben_day_hour!W14="","",_cuben_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z23" s="24" t="str">
+      <c r="Z23" s="45" t="str">
         <f>IF(_cuben_day_hour!X14="","",_cuben_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA23" s="23" t="str">
+      <c r="AA23" s="44" t="str">
         <f>IF(_cuben_day_hour!Y14="","",_cuben_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB23" s="23" t="str">
+      <c r="AB23" s="44" t="str">
         <f>IF(_cuben_day_hour!Z14="","",_cuben_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC23" s="23" t="str">
+      <c r="AC23" s="44" t="str">
         <f>IF(_cuben_day_hour!AA14="","",_cuben_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD23" s="23" t="str">
+      <c r="AD23" s="44" t="str">
         <f>IF(_cuben_day_hour!AB14="","",_cuben_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE23" s="23" t="str">
+      <c r="AE23" s="44" t="str">
         <f>IF(_cuben_day_hour!AC14="","",_cuben_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF23" s="23" t="str">
+      <c r="AF23" s="44" t="str">
         <f>IF(_cuben_day_hour!AD14="","",_cuben_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="62"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="57"/>
     </row>
-    <row r="24" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="24">
+      <c r="B24" s="43">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="44" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D24" s="44" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E24" s="23" t="str">
+      <c r="E24" s="44" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F24" s="23" t="str">
+      <c r="F24" s="44" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G24" s="23" t="str">
+      <c r="G24" s="44" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H24" s="24" t="str">
+      <c r="H24" s="45" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I24" s="25" t="str">
+      <c r="I24" s="46" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J24" s="23" t="str">
+      <c r="J24" s="44" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K24" s="24" t="str">
+      <c r="K24" s="45" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L24" s="23" t="str">
+      <c r="L24" s="44" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M24" s="23" t="str">
+      <c r="M24" s="44" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N24" s="23" t="str">
+      <c r="N24" s="44" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O24" s="23" t="str">
+      <c r="O24" s="44" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P24" s="23" t="str">
+      <c r="P24" s="44" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q24" s="25" t="str">
+      <c r="Q24" s="46" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R24" s="23" t="str">
+      <c r="R24" s="44" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S24" s="23" t="str">
+      <c r="S24" s="44" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T24" s="23" t="str">
+      <c r="T24" s="44" t="str">
         <f>IF(_cuben_day_hour!R15="","",_cuben_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U24" s="25" t="str">
+      <c r="U24" s="46" t="str">
         <f>IF(_cuben_day_hour!S15="","",_cuben_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V24" s="25" t="str">
+      <c r="V24" s="46" t="str">
         <f>IF(_cuben_day_hour!T15="","",_cuben_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W24" s="23" t="str">
+      <c r="W24" s="44" t="str">
         <f>IF(_cuben_day_hour!U15="","",_cuben_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X24" s="23" t="str">
+      <c r="X24" s="44" t="str">
         <f>IF(_cuben_day_hour!V15="","",_cuben_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y24" s="24" t="str">
+      <c r="Y24" s="45" t="str">
         <f>IF(_cuben_day_hour!W15="","",_cuben_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z24" s="24" t="str">
+      <c r="Z24" s="45" t="str">
         <f>IF(_cuben_day_hour!X15="","",_cuben_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA24" s="23" t="str">
+      <c r="AA24" s="44" t="str">
         <f>IF(_cuben_day_hour!Y15="","",_cuben_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB24" s="23" t="str">
+      <c r="AB24" s="44" t="str">
         <f>IF(_cuben_day_hour!Z15="","",_cuben_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC24" s="23" t="str">
+      <c r="AC24" s="44" t="str">
         <f>IF(_cuben_day_hour!AA15="","",_cuben_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD24" s="23" t="str">
+      <c r="AD24" s="44" t="str">
         <f>IF(_cuben_day_hour!AB15="","",_cuben_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE24" s="23" t="str">
+      <c r="AE24" s="44" t="str">
         <f>IF(_cuben_day_hour!AC15="","",_cuben_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF24" s="23" t="str">
+      <c r="AF24" s="44" t="str">
         <f>IF(_cuben_day_hour!AD15="","",_cuben_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="62"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="57"/>
     </row>
-    <row r="25" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="25">
+      <c r="B25" s="43">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="44" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D25" s="23" t="str">
+      <c r="D25" s="44" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="44" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F25" s="23" t="str">
+      <c r="F25" s="44" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G25" s="23" t="str">
+      <c r="G25" s="44" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H25" s="24" t="str">
+      <c r="H25" s="45" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I25" s="25" t="str">
+      <c r="I25" s="46" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J25" s="23" t="str">
+      <c r="J25" s="44" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K25" s="24" t="str">
+      <c r="K25" s="45" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L25" s="23" t="str">
+      <c r="L25" s="44" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M25" s="23" t="str">
+      <c r="M25" s="44" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N25" s="23" t="str">
+      <c r="N25" s="44" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O25" s="23" t="str">
+      <c r="O25" s="44" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P25" s="23" t="str">
+      <c r="P25" s="44" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q25" s="25" t="str">
+      <c r="Q25" s="46" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R25" s="23" t="str">
+      <c r="R25" s="44" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S25" s="23" t="str">
+      <c r="S25" s="44" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T25" s="23" t="str">
+      <c r="T25" s="44" t="str">
         <f>IF(_cuben_day_hour!R16="","",_cuben_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U25" s="25" t="str">
+      <c r="U25" s="46" t="str">
         <f>IF(_cuben_day_hour!S16="","",_cuben_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V25" s="25" t="str">
+      <c r="V25" s="46" t="str">
         <f>IF(_cuben_day_hour!T16="","",_cuben_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W25" s="23" t="str">
+      <c r="W25" s="44" t="str">
         <f>IF(_cuben_day_hour!U16="","",_cuben_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X25" s="23" t="str">
+      <c r="X25" s="44" t="str">
         <f>IF(_cuben_day_hour!V16="","",_cuben_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y25" s="24" t="str">
+      <c r="Y25" s="45" t="str">
         <f>IF(_cuben_day_hour!W16="","",_cuben_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z25" s="24" t="str">
+      <c r="Z25" s="45" t="str">
         <f>IF(_cuben_day_hour!X16="","",_cuben_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA25" s="23" t="str">
+      <c r="AA25" s="44" t="str">
         <f>IF(_cuben_day_hour!Y16="","",_cuben_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB25" s="23" t="str">
+      <c r="AB25" s="44" t="str">
         <f>IF(_cuben_day_hour!Z16="","",_cuben_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC25" s="23" t="str">
+      <c r="AC25" s="44" t="str">
         <f>IF(_cuben_day_hour!AA16="","",_cuben_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD25" s="23" t="str">
+      <c r="AD25" s="44" t="str">
         <f>IF(_cuben_day_hour!AB16="","",_cuben_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE25" s="23" t="str">
+      <c r="AE25" s="44" t="str">
         <f>IF(_cuben_day_hour!AC16="","",_cuben_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF25" s="23" t="str">
+      <c r="AF25" s="44" t="str">
         <f>IF(_cuben_day_hour!AD16="","",_cuben_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="62"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="57"/>
     </row>
-    <row r="26" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="26">
+      <c r="B26" s="43">
         <v>0.625</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="44" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D26" s="23" t="str">
+      <c r="D26" s="44" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E26" s="23" t="str">
+      <c r="E26" s="44" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F26" s="23" t="str">
+      <c r="F26" s="44" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="44" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H26" s="24" t="str">
+      <c r="H26" s="45" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="46" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J26" s="23" t="str">
+      <c r="J26" s="44" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K26" s="24" t="str">
+      <c r="K26" s="45" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L26" s="23" t="str">
+      <c r="L26" s="44" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M26" s="23" t="str">
+      <c r="M26" s="44" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N26" s="23" t="str">
+      <c r="N26" s="44" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O26" s="23" t="str">
+      <c r="O26" s="44" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P26" s="23" t="str">
+      <c r="P26" s="44" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q26" s="25" t="str">
+      <c r="Q26" s="46" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R26" s="23" t="str">
+      <c r="R26" s="44" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S26" s="23" t="str">
+      <c r="S26" s="44" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T26" s="23" t="str">
+      <c r="T26" s="44" t="str">
         <f>IF(_cuben_day_hour!R17="","",_cuben_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U26" s="25" t="str">
+      <c r="U26" s="46" t="str">
         <f>IF(_cuben_day_hour!S17="","",_cuben_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V26" s="25" t="str">
+      <c r="V26" s="46" t="str">
         <f>IF(_cuben_day_hour!T17="","",_cuben_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W26" s="23" t="str">
+      <c r="W26" s="44" t="str">
         <f>IF(_cuben_day_hour!U17="","",_cuben_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X26" s="23" t="str">
+      <c r="X26" s="44" t="str">
         <f>IF(_cuben_day_hour!V17="","",_cuben_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y26" s="24" t="str">
+      <c r="Y26" s="45" t="str">
         <f>IF(_cuben_day_hour!W17="","",_cuben_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z26" s="24" t="str">
+      <c r="Z26" s="45" t="str">
         <f>IF(_cuben_day_hour!X17="","",_cuben_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA26" s="23" t="str">
+      <c r="AA26" s="44" t="str">
         <f>IF(_cuben_day_hour!Y17="","",_cuben_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB26" s="23" t="str">
+      <c r="AB26" s="44" t="str">
         <f>IF(_cuben_day_hour!Z17="","",_cuben_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC26" s="23" t="str">
+      <c r="AC26" s="44" t="str">
         <f>IF(_cuben_day_hour!AA17="","",_cuben_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD26" s="23" t="str">
+      <c r="AD26" s="44" t="str">
         <f>IF(_cuben_day_hour!AB17="","",_cuben_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE26" s="23" t="str">
+      <c r="AE26" s="44" t="str">
         <f>IF(_cuben_day_hour!AC17="","",_cuben_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF26" s="23" t="str">
+      <c r="AF26" s="44" t="str">
         <f>IF(_cuben_day_hour!AD17="","",_cuben_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="62"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="57"/>
     </row>
-    <row r="27" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="27">
+      <c r="B27" s="43">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="44" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D27" s="23" t="str">
+      <c r="D27" s="44" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="44" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F27" s="23" t="str">
+      <c r="F27" s="44" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G27" s="23" t="str">
+      <c r="G27" s="44" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H27" s="24" t="str">
+      <c r="H27" s="45" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="46" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J27" s="23" t="str">
+      <c r="J27" s="44" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K27" s="24" t="str">
+      <c r="K27" s="45" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L27" s="23" t="str">
+      <c r="L27" s="44" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M27" s="23" t="str">
+      <c r="M27" s="44" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N27" s="23" t="str">
+      <c r="N27" s="44" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O27" s="23" t="str">
+      <c r="O27" s="44" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P27" s="23" t="str">
+      <c r="P27" s="44" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q27" s="25" t="str">
+      <c r="Q27" s="46" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R27" s="23" t="str">
+      <c r="R27" s="44" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S27" s="23" t="str">
+      <c r="S27" s="44" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T27" s="23" t="str">
+      <c r="T27" s="44" t="str">
         <f>IF(_cuben_day_hour!R18="","",_cuben_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U27" s="25" t="str">
+      <c r="U27" s="46" t="str">
         <f>IF(_cuben_day_hour!S18="","",_cuben_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V27" s="25" t="str">
+      <c r="V27" s="46" t="str">
         <f>IF(_cuben_day_hour!T18="","",_cuben_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W27" s="23" t="str">
+      <c r="W27" s="44" t="str">
         <f>IF(_cuben_day_hour!U18="","",_cuben_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X27" s="23" t="str">
+      <c r="X27" s="44" t="str">
         <f>IF(_cuben_day_hour!V18="","",_cuben_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y27" s="24" t="str">
+      <c r="Y27" s="45" t="str">
         <f>IF(_cuben_day_hour!W18="","",_cuben_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z27" s="24" t="str">
+      <c r="Z27" s="45" t="str">
         <f>IF(_cuben_day_hour!X18="","",_cuben_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA27" s="23" t="str">
+      <c r="AA27" s="44" t="str">
         <f>IF(_cuben_day_hour!Y18="","",_cuben_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB27" s="23" t="str">
+      <c r="AB27" s="44" t="str">
         <f>IF(_cuben_day_hour!Z18="","",_cuben_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC27" s="23" t="str">
+      <c r="AC27" s="44" t="str">
         <f>IF(_cuben_day_hour!AA18="","",_cuben_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD27" s="23" t="str">
+      <c r="AD27" s="44" t="str">
         <f>IF(_cuben_day_hour!AB18="","",_cuben_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE27" s="23" t="str">
+      <c r="AE27" s="44" t="str">
         <f>IF(_cuben_day_hour!AC18="","",_cuben_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF27" s="23" t="str">
+      <c r="AF27" s="44" t="str">
         <f>IF(_cuben_day_hour!AD18="","",_cuben_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="62"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="57"/>
     </row>
-    <row r="28" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="28">
+      <c r="B28" s="43">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="44" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D28" s="23" t="str">
+      <c r="D28" s="44" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E28" s="23" t="str">
+      <c r="E28" s="44" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F28" s="23" t="str">
+      <c r="F28" s="44" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G28" s="23" t="str">
+      <c r="G28" s="44" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H28" s="24" t="str">
+      <c r="H28" s="45" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="46" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J28" s="23" t="str">
+      <c r="J28" s="44" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K28" s="24" t="str">
+      <c r="K28" s="45" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L28" s="23" t="str">
+      <c r="L28" s="44" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M28" s="23" t="str">
+      <c r="M28" s="44" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N28" s="23" t="str">
+      <c r="N28" s="44" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O28" s="23" t="str">
+      <c r="O28" s="44" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P28" s="23" t="str">
+      <c r="P28" s="44" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q28" s="25" t="str">
+      <c r="Q28" s="46" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R28" s="23" t="str">
+      <c r="R28" s="44" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S28" s="23" t="str">
+      <c r="S28" s="44" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T28" s="23" t="str">
+      <c r="T28" s="44" t="str">
         <f>IF(_cuben_day_hour!R19="","",_cuben_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U28" s="25" t="str">
+      <c r="U28" s="46" t="str">
         <f>IF(_cuben_day_hour!S19="","",_cuben_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V28" s="25" t="str">
+      <c r="V28" s="46" t="str">
         <f>IF(_cuben_day_hour!T19="","",_cuben_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W28" s="23" t="str">
+      <c r="W28" s="44" t="str">
         <f>IF(_cuben_day_hour!U19="","",_cuben_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X28" s="23" t="str">
+      <c r="X28" s="44" t="str">
         <f>IF(_cuben_day_hour!V19="","",_cuben_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y28" s="24" t="str">
+      <c r="Y28" s="45" t="str">
         <f>IF(_cuben_day_hour!W19="","",_cuben_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z28" s="24" t="str">
+      <c r="Z28" s="45" t="str">
         <f>IF(_cuben_day_hour!X19="","",_cuben_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA28" s="23" t="str">
+      <c r="AA28" s="44" t="str">
         <f>IF(_cuben_day_hour!Y19="","",_cuben_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB28" s="23" t="str">
+      <c r="AB28" s="44" t="str">
         <f>IF(_cuben_day_hour!Z19="","",_cuben_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC28" s="23" t="str">
+      <c r="AC28" s="44" t="str">
         <f>IF(_cuben_day_hour!AA19="","",_cuben_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD28" s="23" t="str">
+      <c r="AD28" s="44" t="str">
         <f>IF(_cuben_day_hour!AB19="","",_cuben_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE28" s="23" t="str">
+      <c r="AE28" s="44" t="str">
         <f>IF(_cuben_day_hour!AC19="","",_cuben_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF28" s="23" t="str">
+      <c r="AF28" s="44" t="str">
         <f>IF(_cuben_day_hour!AD19="","",_cuben_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="62"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="57"/>
     </row>
-    <row r="29" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="29">
+      <c r="B29" s="43">
         <v>0.75</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C29" s="44" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D29" s="23" t="str">
+      <c r="D29" s="44" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="44" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F29" s="23" t="str">
+      <c r="F29" s="44" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G29" s="23" t="str">
+      <c r="G29" s="44" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H29" s="24" t="str">
+      <c r="H29" s="45" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="46" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J29" s="23" t="str">
+      <c r="J29" s="44" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K29" s="24" t="str">
+      <c r="K29" s="45" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L29" s="23" t="str">
+      <c r="L29" s="44" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M29" s="23" t="str">
+      <c r="M29" s="44" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N29" s="23" t="str">
+      <c r="N29" s="44" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O29" s="23" t="str">
+      <c r="O29" s="44" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P29" s="23" t="str">
+      <c r="P29" s="44" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q29" s="25" t="str">
+      <c r="Q29" s="46" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R29" s="23" t="str">
+      <c r="R29" s="44" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S29" s="23" t="str">
+      <c r="S29" s="44" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T29" s="23" t="str">
+      <c r="T29" s="44" t="str">
         <f>IF(_cuben_day_hour!R20="","",_cuben_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U29" s="25" t="str">
+      <c r="U29" s="46" t="str">
         <f>IF(_cuben_day_hour!S20="","",_cuben_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V29" s="25" t="str">
+      <c r="V29" s="46" t="str">
         <f>IF(_cuben_day_hour!T20="","",_cuben_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W29" s="23" t="str">
+      <c r="W29" s="44" t="str">
         <f>IF(_cuben_day_hour!U20="","",_cuben_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X29" s="23" t="str">
+      <c r="X29" s="44" t="str">
         <f>IF(_cuben_day_hour!V20="","",_cuben_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y29" s="24" t="str">
+      <c r="Y29" s="45" t="str">
         <f>IF(_cuben_day_hour!W20="","",_cuben_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z29" s="24" t="str">
+      <c r="Z29" s="45" t="str">
         <f>IF(_cuben_day_hour!X20="","",_cuben_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA29" s="23" t="str">
+      <c r="AA29" s="44" t="str">
         <f>IF(_cuben_day_hour!Y20="","",_cuben_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB29" s="23" t="str">
+      <c r="AB29" s="44" t="str">
         <f>IF(_cuben_day_hour!Z20="","",_cuben_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC29" s="23" t="str">
+      <c r="AC29" s="44" t="str">
         <f>IF(_cuben_day_hour!AA20="","",_cuben_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD29" s="23" t="str">
+      <c r="AD29" s="44" t="str">
         <f>IF(_cuben_day_hour!AB20="","",_cuben_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE29" s="23" t="str">
+      <c r="AE29" s="44" t="str">
         <f>IF(_cuben_day_hour!AC20="","",_cuben_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF29" s="23" t="str">
+      <c r="AF29" s="44" t="str">
         <f>IF(_cuben_day_hour!AD20="","",_cuben_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="62"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="57"/>
     </row>
-    <row r="30" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="30">
+      <c r="B30" s="43">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="23" t="str">
+      <c r="C30" s="44" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D30" s="23" t="str">
+      <c r="D30" s="44" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E30" s="23" t="str">
+      <c r="E30" s="44" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F30" s="23" t="str">
+      <c r="F30" s="44" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G30" s="23" t="str">
+      <c r="G30" s="44" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="45" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I30" s="25" t="str">
+      <c r="I30" s="46" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J30" s="23" t="str">
+      <c r="J30" s="44" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K30" s="24" t="str">
+      <c r="K30" s="45" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L30" s="23" t="str">
+      <c r="L30" s="44" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M30" s="23" t="str">
+      <c r="M30" s="44" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N30" s="23" t="str">
+      <c r="N30" s="44" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O30" s="23" t="str">
+      <c r="O30" s="44" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P30" s="23" t="str">
+      <c r="P30" s="44" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q30" s="25" t="str">
+      <c r="Q30" s="46" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R30" s="23" t="str">
+      <c r="R30" s="44" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S30" s="23" t="str">
+      <c r="S30" s="44" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T30" s="23" t="str">
+      <c r="T30" s="44" t="str">
         <f>IF(_cuben_day_hour!R21="","",_cuben_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U30" s="25" t="str">
+      <c r="U30" s="46" t="str">
         <f>IF(_cuben_day_hour!S21="","",_cuben_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V30" s="25" t="str">
+      <c r="V30" s="46" t="str">
         <f>IF(_cuben_day_hour!T21="","",_cuben_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W30" s="23" t="str">
+      <c r="W30" s="44" t="str">
         <f>IF(_cuben_day_hour!U21="","",_cuben_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X30" s="23" t="str">
+      <c r="X30" s="44" t="str">
         <f>IF(_cuben_day_hour!V21="","",_cuben_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y30" s="24" t="str">
+      <c r="Y30" s="45" t="str">
         <f>IF(_cuben_day_hour!W21="","",_cuben_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z30" s="24" t="str">
+      <c r="Z30" s="45" t="str">
         <f>IF(_cuben_day_hour!X21="","",_cuben_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA30" s="23" t="str">
+      <c r="AA30" s="44" t="str">
         <f>IF(_cuben_day_hour!Y21="","",_cuben_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB30" s="23" t="str">
+      <c r="AB30" s="44" t="str">
         <f>IF(_cuben_day_hour!Z21="","",_cuben_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC30" s="23" t="str">
+      <c r="AC30" s="44" t="str">
         <f>IF(_cuben_day_hour!AA21="","",_cuben_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD30" s="23" t="str">
+      <c r="AD30" s="44" t="str">
         <f>IF(_cuben_day_hour!AB21="","",_cuben_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE30" s="23" t="str">
+      <c r="AE30" s="44" t="str">
         <f>IF(_cuben_day_hour!AC21="","",_cuben_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF30" s="23" t="str">
+      <c r="AF30" s="44" t="str">
         <f>IF(_cuben_day_hour!AD21="","",_cuben_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="61"/>
-      <c r="AI30" s="61"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="62"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="57"/>
     </row>
-    <row r="31" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="31">
+      <c r="B31" s="43">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="23" t="str">
+      <c r="C31" s="44" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D31" s="23" t="str">
+      <c r="D31" s="44" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="44" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F31" s="23" t="str">
+      <c r="F31" s="44" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="str">
+      <c r="G31" s="44" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="45" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I31" s="25" t="str">
+      <c r="I31" s="46" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J31" s="23" t="str">
+      <c r="J31" s="44" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K31" s="24" t="str">
+      <c r="K31" s="45" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L31" s="23" t="str">
+      <c r="L31" s="44" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M31" s="23" t="str">
+      <c r="M31" s="44" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N31" s="23" t="str">
+      <c r="N31" s="44" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O31" s="23" t="str">
+      <c r="O31" s="44" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P31" s="23" t="str">
+      <c r="P31" s="44" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q31" s="25" t="str">
+      <c r="Q31" s="46" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R31" s="23" t="str">
+      <c r="R31" s="44" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S31" s="23" t="str">
+      <c r="S31" s="44" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T31" s="23" t="str">
+      <c r="T31" s="44" t="str">
         <f>IF(_cuben_day_hour!R22="","",_cuben_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U31" s="25" t="str">
+      <c r="U31" s="46" t="str">
         <f>IF(_cuben_day_hour!S22="","",_cuben_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V31" s="25" t="str">
+      <c r="V31" s="46" t="str">
         <f>IF(_cuben_day_hour!T22="","",_cuben_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W31" s="23" t="str">
+      <c r="W31" s="44" t="str">
         <f>IF(_cuben_day_hour!U22="","",_cuben_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X31" s="23" t="str">
+      <c r="X31" s="44" t="str">
         <f>IF(_cuben_day_hour!V22="","",_cuben_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y31" s="24" t="str">
+      <c r="Y31" s="45" t="str">
         <f>IF(_cuben_day_hour!W22="","",_cuben_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z31" s="24" t="str">
+      <c r="Z31" s="45" t="str">
         <f>IF(_cuben_day_hour!X22="","",_cuben_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA31" s="23" t="str">
+      <c r="AA31" s="44" t="str">
         <f>IF(_cuben_day_hour!Y22="","",_cuben_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB31" s="23" t="str">
+      <c r="AB31" s="44" t="str">
         <f>IF(_cuben_day_hour!Z22="","",_cuben_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC31" s="23" t="str">
+      <c r="AC31" s="44" t="str">
         <f>IF(_cuben_day_hour!AA22="","",_cuben_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD31" s="23" t="str">
+      <c r="AD31" s="44" t="str">
         <f>IF(_cuben_day_hour!AB22="","",_cuben_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE31" s="23" t="str">
+      <c r="AE31" s="44" t="str">
         <f>IF(_cuben_day_hour!AC22="","",_cuben_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF31" s="23" t="str">
+      <c r="AF31" s="44" t="str">
         <f>IF(_cuben_day_hour!AD22="","",_cuben_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="62"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="57"/>
     </row>
-    <row r="32" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="32">
+      <c r="B32" s="43">
         <v>0.875</v>
       </c>
-      <c r="C32" s="23" t="str">
+      <c r="C32" s="44" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D32" s="23" t="str">
+      <c r="D32" s="44" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E32" s="23" t="str">
+      <c r="E32" s="44" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F32" s="23" t="str">
+      <c r="F32" s="44" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G32" s="23" t="str">
+      <c r="G32" s="44" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H32" s="24" t="str">
+      <c r="H32" s="45" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I32" s="25" t="str">
+      <c r="I32" s="46" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J32" s="23" t="str">
+      <c r="J32" s="44" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K32" s="24" t="str">
+      <c r="K32" s="45" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L32" s="23" t="str">
+      <c r="L32" s="44" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M32" s="23" t="str">
+      <c r="M32" s="44" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N32" s="23" t="str">
+      <c r="N32" s="44" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O32" s="23" t="str">
+      <c r="O32" s="44" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P32" s="23" t="str">
+      <c r="P32" s="44" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q32" s="25" t="str">
+      <c r="Q32" s="46" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R32" s="23" t="str">
+      <c r="R32" s="44" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S32" s="23" t="str">
+      <c r="S32" s="44" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T32" s="23" t="str">
+      <c r="T32" s="44" t="str">
         <f>IF(_cuben_day_hour!R23="","",_cuben_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U32" s="25" t="str">
+      <c r="U32" s="46" t="str">
         <f>IF(_cuben_day_hour!S23="","",_cuben_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V32" s="25" t="str">
+      <c r="V32" s="46" t="str">
         <f>IF(_cuben_day_hour!T23="","",_cuben_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W32" s="23" t="str">
+      <c r="W32" s="44" t="str">
         <f>IF(_cuben_day_hour!U23="","",_cuben_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X32" s="23" t="str">
+      <c r="X32" s="44" t="str">
         <f>IF(_cuben_day_hour!V23="","",_cuben_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y32" s="24" t="str">
+      <c r="Y32" s="45" t="str">
         <f>IF(_cuben_day_hour!W23="","",_cuben_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z32" s="24" t="str">
+      <c r="Z32" s="45" t="str">
         <f>IF(_cuben_day_hour!X23="","",_cuben_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA32" s="23" t="str">
+      <c r="AA32" s="44" t="str">
         <f>IF(_cuben_day_hour!Y23="","",_cuben_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB32" s="23" t="str">
+      <c r="AB32" s="44" t="str">
         <f>IF(_cuben_day_hour!Z23="","",_cuben_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC32" s="23" t="str">
+      <c r="AC32" s="44" t="str">
         <f>IF(_cuben_day_hour!AA23="","",_cuben_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD32" s="23" t="str">
+      <c r="AD32" s="44" t="str">
         <f>IF(_cuben_day_hour!AB23="","",_cuben_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE32" s="23" t="str">
+      <c r="AE32" s="44" t="str">
         <f>IF(_cuben_day_hour!AC23="","",_cuben_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF32" s="23" t="str">
+      <c r="AF32" s="44" t="str">
         <f>IF(_cuben_day_hour!AD23="","",_cuben_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="62"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="57"/>
     </row>
-    <row r="33" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="33">
+      <c r="B33" s="43">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="44" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D33" s="23" t="str">
+      <c r="D33" s="44" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E33" s="23" t="str">
+      <c r="E33" s="44" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F33" s="23" t="str">
+      <c r="F33" s="44" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G33" s="23" t="str">
+      <c r="G33" s="44" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H33" s="24" t="str">
+      <c r="H33" s="45" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I33" s="25" t="str">
+      <c r="I33" s="46" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J33" s="23" t="str">
+      <c r="J33" s="44" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K33" s="24" t="str">
+      <c r="K33" s="45" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L33" s="23" t="str">
+      <c r="L33" s="44" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M33" s="23" t="str">
+      <c r="M33" s="44" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N33" s="23" t="str">
+      <c r="N33" s="44" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O33" s="23" t="str">
+      <c r="O33" s="44" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P33" s="23" t="str">
+      <c r="P33" s="44" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q33" s="25" t="str">
+      <c r="Q33" s="46" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R33" s="23" t="str">
+      <c r="R33" s="44" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S33" s="23" t="str">
+      <c r="S33" s="44" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T33" s="23" t="str">
+      <c r="T33" s="44" t="str">
         <f>IF(_cuben_day_hour!R24="","",_cuben_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U33" s="25" t="str">
+      <c r="U33" s="46" t="str">
         <f>IF(_cuben_day_hour!S24="","",_cuben_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V33" s="25" t="str">
+      <c r="V33" s="46" t="str">
         <f>IF(_cuben_day_hour!T24="","",_cuben_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W33" s="23" t="str">
+      <c r="W33" s="44" t="str">
         <f>IF(_cuben_day_hour!U24="","",_cuben_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X33" s="23" t="str">
+      <c r="X33" s="44" t="str">
         <f>IF(_cuben_day_hour!V24="","",_cuben_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y33" s="24" t="str">
+      <c r="Y33" s="45" t="str">
         <f>IF(_cuben_day_hour!W24="","",_cuben_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z33" s="24" t="str">
+      <c r="Z33" s="45" t="str">
         <f>IF(_cuben_day_hour!X24="","",_cuben_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA33" s="23" t="str">
+      <c r="AA33" s="44" t="str">
         <f>IF(_cuben_day_hour!Y24="","",_cuben_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB33" s="23" t="str">
+      <c r="AB33" s="44" t="str">
         <f>IF(_cuben_day_hour!Z24="","",_cuben_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC33" s="23" t="str">
+      <c r="AC33" s="44" t="str">
         <f>IF(_cuben_day_hour!AA24="","",_cuben_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD33" s="23" t="str">
+      <c r="AD33" s="44" t="str">
         <f>IF(_cuben_day_hour!AB24="","",_cuben_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE33" s="23" t="str">
+      <c r="AE33" s="44" t="str">
         <f>IF(_cuben_day_hour!AC24="","",_cuben_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF33" s="23" t="str">
+      <c r="AF33" s="44" t="str">
         <f>IF(_cuben_day_hour!AD24="","",_cuben_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="62"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="57"/>
     </row>
-    <row r="34" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22">
+    <row ht="21.949999999999999" customHeight="1" r="34">
+      <c r="B34" s="43">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C34" s="23" t="str">
+      <c r="C34" s="44" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D34" s="23" t="str">
+      <c r="D34" s="44" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E34" s="23" t="str">
+      <c r="E34" s="44" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F34" s="23" t="str">
+      <c r="F34" s="44" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G34" s="23" t="str">
+      <c r="G34" s="44" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H34" s="24" t="str">
+      <c r="H34" s="45" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I34" s="25" t="str">
+      <c r="I34" s="46" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J34" s="23" t="str">
+      <c r="J34" s="44" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K34" s="24" t="str">
+      <c r="K34" s="45" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L34" s="23" t="str">
+      <c r="L34" s="44" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M34" s="23" t="str">
+      <c r="M34" s="44" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N34" s="23" t="str">
+      <c r="N34" s="44" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O34" s="23" t="str">
+      <c r="O34" s="44" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P34" s="23" t="str">
+      <c r="P34" s="44" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q34" s="25" t="str">
+      <c r="Q34" s="46" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R34" s="23" t="str">
+      <c r="R34" s="44" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S34" s="23" t="str">
+      <c r="S34" s="44" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T34" s="23" t="str">
+      <c r="T34" s="44" t="str">
         <f>IF(_cuben_day_hour!R25="","",_cuben_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U34" s="25" t="str">
+      <c r="U34" s="46" t="str">
         <f>IF(_cuben_day_hour!S25="","",_cuben_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V34" s="25" t="str">
+      <c r="V34" s="46" t="str">
         <f>IF(_cuben_day_hour!T25="","",_cuben_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W34" s="23" t="str">
+      <c r="W34" s="44" t="str">
         <f>IF(_cuben_day_hour!U25="","",_cuben_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X34" s="23" t="str">
+      <c r="X34" s="44" t="str">
         <f>IF(_cuben_day_hour!V25="","",_cuben_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y34" s="24" t="str">
+      <c r="Y34" s="45" t="str">
         <f>IF(_cuben_day_hour!W25="","",_cuben_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z34" s="24" t="str">
+      <c r="Z34" s="45" t="str">
         <f>IF(_cuben_day_hour!X25="","",_cuben_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA34" s="23" t="str">
+      <c r="AA34" s="44" t="str">
         <f>IF(_cuben_day_hour!Y25="","",_cuben_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB34" s="23" t="str">
+      <c r="AB34" s="44" t="str">
         <f>IF(_cuben_day_hour!Z25="","",_cuben_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC34" s="23" t="str">
+      <c r="AC34" s="44" t="str">
         <f>IF(_cuben_day_hour!AA25="","",_cuben_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD34" s="23" t="str">
+      <c r="AD34" s="44" t="str">
         <f>IF(_cuben_day_hour!AB25="","",_cuben_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE34" s="23" t="str">
+      <c r="AE34" s="44" t="str">
         <f>IF(_cuben_day_hour!AC25="","",_cuben_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF34" s="23" t="str">
+      <c r="AF34" s="44" t="str">
         <f>IF(_cuben_day_hour!AD25="","",_cuben_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="61"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="62"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="57"/>
     </row>
-    <row r="35" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+    <row ht="21.949999999999999" customHeight="1" r="35">
+      <c r="B35" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="23" t="str">
-        <f t="shared" ref="C35:AF35" si="0">IF(C11="","",AVERAGE(C11:C18))</f>
-        <v/>
-      </c>
-      <c r="D35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K35" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y35" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z35" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="61"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="62"/>
+      <c r="C35" s="44" t="str">
+        <f>IF(C11="","",AVERAGE(C11:C18))</f>
+        <v/>
+      </c>
+      <c r="D35" s="44" t="str">
+        <f>IF(D11="","",AVERAGE(D11:D18))</f>
+        <v/>
+      </c>
+      <c r="E35" s="44" t="str">
+        <f>IF(E11="","",AVERAGE(E11:E18))</f>
+        <v/>
+      </c>
+      <c r="F35" s="44" t="str">
+        <f>IF(F11="","",AVERAGE(F11:F18))</f>
+        <v/>
+      </c>
+      <c r="G35" s="44" t="str">
+        <f>IF(G11="","",AVERAGE(G11:G18))</f>
+        <v/>
+      </c>
+      <c r="H35" s="45" t="str">
+        <f>IF(H11="","",AVERAGE(H11:H18))</f>
+        <v/>
+      </c>
+      <c r="I35" s="46" t="str">
+        <f>IF(I11="","",AVERAGE(I11:I18))</f>
+        <v/>
+      </c>
+      <c r="J35" s="44" t="str">
+        <f>IF(J11="","",AVERAGE(J11:J18))</f>
+        <v/>
+      </c>
+      <c r="K35" s="45" t="str">
+        <f>IF(K11="","",AVERAGE(K11:K18))</f>
+        <v/>
+      </c>
+      <c r="L35" s="44" t="str">
+        <f>IF(L11="","",AVERAGE(L11:L18))</f>
+        <v/>
+      </c>
+      <c r="M35" s="44" t="str">
+        <f>IF(M11="","",AVERAGE(M11:M18))</f>
+        <v/>
+      </c>
+      <c r="N35" s="44" t="str">
+        <f>IF(N11="","",AVERAGE(N11:N18))</f>
+        <v/>
+      </c>
+      <c r="O35" s="44" t="str">
+        <f>IF(O11="","",AVERAGE(O11:O18))</f>
+        <v/>
+      </c>
+      <c r="P35" s="44" t="str">
+        <f>IF(P11="","",AVERAGE(P11:P18))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="46" t="str">
+        <f>IF(Q11="","",AVERAGE(Q11:Q18))</f>
+        <v/>
+      </c>
+      <c r="R35" s="44" t="str">
+        <f>IF(R11="","",AVERAGE(R11:R18))</f>
+        <v/>
+      </c>
+      <c r="S35" s="44" t="str">
+        <f>IF(S11="","",AVERAGE(S11:S18))</f>
+        <v/>
+      </c>
+      <c r="T35" s="44" t="str">
+        <f>IF(T11="","",AVERAGE(T11:T18))</f>
+        <v/>
+      </c>
+      <c r="U35" s="46" t="str">
+        <f>IF(U11="","",AVERAGE(U11:U18))</f>
+        <v/>
+      </c>
+      <c r="V35" s="46" t="str">
+        <f>IF(V11="","",AVERAGE(V11:V18))</f>
+        <v/>
+      </c>
+      <c r="W35" s="44" t="str">
+        <f>IF(W11="","",AVERAGE(W11:W18))</f>
+        <v/>
+      </c>
+      <c r="X35" s="44" t="str">
+        <f>IF(X11="","",AVERAGE(X11:X18))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="45" t="str">
+        <f>IF(Y11="","",AVERAGE(Y11:Y18))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="45" t="str">
+        <f>IF(Z11="","",AVERAGE(Z11:Z18))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="44" t="str">
+        <f>IF(AA11="","",AVERAGE(AA11:AA18))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="44" t="str">
+        <f>IF(AB11="","",AVERAGE(AB11:AB18))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="44" t="str">
+        <f>IF(AC11="","",AVERAGE(AC11:AC18))</f>
+        <v/>
+      </c>
+      <c r="AD35" s="44" t="str">
+        <f>IF(AD11="","",AVERAGE(AD11:AD18))</f>
+        <v/>
+      </c>
+      <c r="AE35" s="44" t="str">
+        <f>IF(AE11="","",AVERAGE(AE11:AE18))</f>
+        <v/>
+      </c>
+      <c r="AF35" s="44" t="str">
+        <f>IF(AF11="","",AVERAGE(AF11:AF18))</f>
+        <v/>
+      </c>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="57"/>
     </row>
-    <row r="36" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+    <row ht="21.949999999999999" customHeight="1" r="36">
+      <c r="B36" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="23" t="str">
-        <f t="shared" ref="C36:AF36" si="1">IF(C17="","",AVERAGE(C17:C26))</f>
-        <v/>
-      </c>
-      <c r="D36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q36" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U36" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V36" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="62"/>
+      <c r="C36" s="44" t="str">
+        <f>IF(C17="","",AVERAGE(C17:C26))</f>
+        <v/>
+      </c>
+      <c r="D36" s="44" t="str">
+        <f>IF(D17="","",AVERAGE(D17:D26))</f>
+        <v/>
+      </c>
+      <c r="E36" s="44" t="str">
+        <f>IF(E17="","",AVERAGE(E17:E26))</f>
+        <v/>
+      </c>
+      <c r="F36" s="44" t="str">
+        <f>IF(F17="","",AVERAGE(F17:F26))</f>
+        <v/>
+      </c>
+      <c r="G36" s="44" t="str">
+        <f>IF(G17="","",AVERAGE(G17:G26))</f>
+        <v/>
+      </c>
+      <c r="H36" s="45" t="str">
+        <f>IF(H17="","",AVERAGE(H17:H26))</f>
+        <v/>
+      </c>
+      <c r="I36" s="46" t="str">
+        <f>IF(I17="","",AVERAGE(I17:I26))</f>
+        <v/>
+      </c>
+      <c r="J36" s="44" t="str">
+        <f>IF(J17="","",AVERAGE(J17:J26))</f>
+        <v/>
+      </c>
+      <c r="K36" s="45" t="str">
+        <f>IF(K17="","",AVERAGE(K17:K26))</f>
+        <v/>
+      </c>
+      <c r="L36" s="44" t="str">
+        <f>IF(L17="","",AVERAGE(L17:L26))</f>
+        <v/>
+      </c>
+      <c r="M36" s="44" t="str">
+        <f>IF(M17="","",AVERAGE(M17:M26))</f>
+        <v/>
+      </c>
+      <c r="N36" s="44" t="str">
+        <f>IF(N17="","",AVERAGE(N17:N26))</f>
+        <v/>
+      </c>
+      <c r="O36" s="44" t="str">
+        <f>IF(O17="","",AVERAGE(O17:O26))</f>
+        <v/>
+      </c>
+      <c r="P36" s="44" t="str">
+        <f>IF(P17="","",AVERAGE(P17:P26))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="46" t="str">
+        <f>IF(Q17="","",AVERAGE(Q17:Q26))</f>
+        <v/>
+      </c>
+      <c r="R36" s="44" t="str">
+        <f>IF(R17="","",AVERAGE(R17:R26))</f>
+        <v/>
+      </c>
+      <c r="S36" s="44" t="str">
+        <f>IF(S17="","",AVERAGE(S17:S26))</f>
+        <v/>
+      </c>
+      <c r="T36" s="44" t="str">
+        <f>IF(T17="","",AVERAGE(T17:T26))</f>
+        <v/>
+      </c>
+      <c r="U36" s="46" t="str">
+        <f>IF(U17="","",AVERAGE(U17:U26))</f>
+        <v/>
+      </c>
+      <c r="V36" s="46" t="str">
+        <f>IF(V17="","",AVERAGE(V17:V26))</f>
+        <v/>
+      </c>
+      <c r="W36" s="44" t="str">
+        <f>IF(W17="","",AVERAGE(W17:W26))</f>
+        <v/>
+      </c>
+      <c r="X36" s="44" t="str">
+        <f>IF(X17="","",AVERAGE(X17:X26))</f>
+        <v/>
+      </c>
+      <c r="Y36" s="45" t="str">
+        <f>IF(Y17="","",AVERAGE(Y17:Y26))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="45" t="str">
+        <f>IF(Z17="","",AVERAGE(Z17:Z26))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="44" t="str">
+        <f>IF(AA17="","",AVERAGE(AA17:AA26))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="44" t="str">
+        <f>IF(AB17="","",AVERAGE(AB17:AB26))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="44" t="str">
+        <f>IF(AC17="","",AVERAGE(AC17:AC26))</f>
+        <v/>
+      </c>
+      <c r="AD36" s="44" t="str">
+        <f>IF(AD17="","",AVERAGE(AD17:AD26))</f>
+        <v/>
+      </c>
+      <c r="AE36" s="44" t="str">
+        <f>IF(AE17="","",AVERAGE(AE17:AE26))</f>
+        <v/>
+      </c>
+      <c r="AF36" s="44" t="str">
+        <f>IF(AF17="","",AVERAGE(AF17:AF26))</f>
+        <v/>
+      </c>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="57"/>
     </row>
-    <row r="37" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+    <row ht="21.949999999999999" customHeight="1" r="37">
+      <c r="B37" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="23" t="str">
-        <f t="shared" ref="C37:AF37" si="2">IF(C25="","",AVERAGE(C25:C34))</f>
-        <v/>
-      </c>
-      <c r="D37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H37" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I37" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K37" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q37" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U37" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V37" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y37" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z37" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="61"/>
-      <c r="AJ37" s="61"/>
-      <c r="AK37" s="62"/>
+      <c r="C37" s="44" t="str">
+        <f>IF(C25="","",AVERAGE(C25:C34))</f>
+        <v/>
+      </c>
+      <c r="D37" s="44" t="str">
+        <f>IF(D25="","",AVERAGE(D25:D34))</f>
+        <v/>
+      </c>
+      <c r="E37" s="44" t="str">
+        <f>IF(E25="","",AVERAGE(E25:E34))</f>
+        <v/>
+      </c>
+      <c r="F37" s="44" t="str">
+        <f>IF(F25="","",AVERAGE(F25:F34))</f>
+        <v/>
+      </c>
+      <c r="G37" s="44" t="str">
+        <f>IF(G25="","",AVERAGE(G25:G34))</f>
+        <v/>
+      </c>
+      <c r="H37" s="45" t="str">
+        <f>IF(H25="","",AVERAGE(H25:H34))</f>
+        <v/>
+      </c>
+      <c r="I37" s="46" t="str">
+        <f>IF(I25="","",AVERAGE(I25:I34))</f>
+        <v/>
+      </c>
+      <c r="J37" s="44" t="str">
+        <f>IF(J25="","",AVERAGE(J25:J34))</f>
+        <v/>
+      </c>
+      <c r="K37" s="45" t="str">
+        <f>IF(K25="","",AVERAGE(K25:K34))</f>
+        <v/>
+      </c>
+      <c r="L37" s="44" t="str">
+        <f>IF(L25="","",AVERAGE(L25:L34))</f>
+        <v/>
+      </c>
+      <c r="M37" s="44" t="str">
+        <f>IF(M25="","",AVERAGE(M25:M34))</f>
+        <v/>
+      </c>
+      <c r="N37" s="44" t="str">
+        <f>IF(N25="","",AVERAGE(N25:N34))</f>
+        <v/>
+      </c>
+      <c r="O37" s="44" t="str">
+        <f>IF(O25="","",AVERAGE(O25:O34))</f>
+        <v/>
+      </c>
+      <c r="P37" s="44" t="str">
+        <f>IF(P25="","",AVERAGE(P25:P34))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="46" t="str">
+        <f>IF(Q25="","",AVERAGE(Q25:Q34))</f>
+        <v/>
+      </c>
+      <c r="R37" s="44" t="str">
+        <f>IF(R25="","",AVERAGE(R25:R34))</f>
+        <v/>
+      </c>
+      <c r="S37" s="44" t="str">
+        <f>IF(S25="","",AVERAGE(S25:S34))</f>
+        <v/>
+      </c>
+      <c r="T37" s="44" t="str">
+        <f>IF(T25="","",AVERAGE(T25:T34))</f>
+        <v/>
+      </c>
+      <c r="U37" s="46" t="str">
+        <f>IF(U25="","",AVERAGE(U25:U34))</f>
+        <v/>
+      </c>
+      <c r="V37" s="46" t="str">
+        <f>IF(V25="","",AVERAGE(V25:V34))</f>
+        <v/>
+      </c>
+      <c r="W37" s="44" t="str">
+        <f>IF(W25="","",AVERAGE(W25:W34))</f>
+        <v/>
+      </c>
+      <c r="X37" s="44" t="str">
+        <f>IF(X25="","",AVERAGE(X25:X34))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="45" t="str">
+        <f>IF(Y25="","",AVERAGE(Y25:Y34))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="45" t="str">
+        <f>IF(Z25="","",AVERAGE(Z25:Z34))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="44" t="str">
+        <f>IF(AA25="","",AVERAGE(AA25:AA34))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="44" t="str">
+        <f>IF(AB25="","",AVERAGE(AB25:AB34))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="44" t="str">
+        <f>IF(AC25="","",AVERAGE(AC25:AC34))</f>
+        <v/>
+      </c>
+      <c r="AD37" s="44" t="str">
+        <f>IF(AD25="","",AVERAGE(AD25:AD34))</f>
+        <v/>
+      </c>
+      <c r="AE37" s="44" t="str">
+        <f>IF(AE25="","",AVERAGE(AE25:AE34))</f>
+        <v/>
+      </c>
+      <c r="AF37" s="44" t="str">
+        <f>IF(AF25="","",AVERAGE(AF25:AF34))</f>
+        <v/>
+      </c>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="57"/>
     </row>
-    <row r="38" spans="2:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
+    <row ht="21.949999999999999" customHeight="1" r="38">
+      <c r="B38" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="23" t="str">
-        <f t="shared" ref="C38:AF38" si="3">IF(C11="","",AVERAGE(C11:C34))</f>
-        <v/>
-      </c>
-      <c r="D38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I38" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K38" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q38" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U38" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V38" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y38" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z38" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AD38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="62"/>
+      <c r="C38" s="44" t="str">
+        <f>IF(C11="","",AVERAGE(C11:C34))</f>
+        <v/>
+      </c>
+      <c r="D38" s="44" t="str">
+        <f>IF(D11="","",AVERAGE(D11:D34))</f>
+        <v/>
+      </c>
+      <c r="E38" s="44" t="str">
+        <f>IF(E11="","",AVERAGE(E11:E34))</f>
+        <v/>
+      </c>
+      <c r="F38" s="44" t="str">
+        <f>IF(F11="","",AVERAGE(F11:F34))</f>
+        <v/>
+      </c>
+      <c r="G38" s="44" t="str">
+        <f>IF(G11="","",AVERAGE(G11:G34))</f>
+        <v/>
+      </c>
+      <c r="H38" s="45" t="str">
+        <f>IF(H11="","",AVERAGE(H11:H34))</f>
+        <v/>
+      </c>
+      <c r="I38" s="46" t="str">
+        <f>IF(I11="","",AVERAGE(I11:I34))</f>
+        <v/>
+      </c>
+      <c r="J38" s="44" t="str">
+        <f>IF(J11="","",AVERAGE(J11:J34))</f>
+        <v/>
+      </c>
+      <c r="K38" s="45" t="str">
+        <f>IF(K11="","",AVERAGE(K11:K34))</f>
+        <v/>
+      </c>
+      <c r="L38" s="44" t="str">
+        <f>IF(L11="","",AVERAGE(L11:L34))</f>
+        <v/>
+      </c>
+      <c r="M38" s="44" t="str">
+        <f>IF(M11="","",AVERAGE(M11:M34))</f>
+        <v/>
+      </c>
+      <c r="N38" s="44" t="str">
+        <f>IF(N11="","",AVERAGE(N11:N34))</f>
+        <v/>
+      </c>
+      <c r="O38" s="44" t="str">
+        <f>IF(O11="","",AVERAGE(O11:O34))</f>
+        <v/>
+      </c>
+      <c r="P38" s="44" t="str">
+        <f>IF(P11="","",AVERAGE(P11:P34))</f>
+        <v/>
+      </c>
+      <c r="Q38" s="46" t="str">
+        <f>IF(Q11="","",AVERAGE(Q11:Q34))</f>
+        <v/>
+      </c>
+      <c r="R38" s="44" t="str">
+        <f>IF(R11="","",AVERAGE(R11:R34))</f>
+        <v/>
+      </c>
+      <c r="S38" s="44" t="str">
+        <f>IF(S11="","",AVERAGE(S11:S34))</f>
+        <v/>
+      </c>
+      <c r="T38" s="44" t="str">
+        <f>IF(T11="","",AVERAGE(T11:T34))</f>
+        <v/>
+      </c>
+      <c r="U38" s="46" t="str">
+        <f>IF(U11="","",AVERAGE(U11:U34))</f>
+        <v/>
+      </c>
+      <c r="V38" s="46" t="str">
+        <f>IF(V11="","",AVERAGE(V11:V34))</f>
+        <v/>
+      </c>
+      <c r="W38" s="44" t="str">
+        <f>IF(W11="","",AVERAGE(W11:W34))</f>
+        <v/>
+      </c>
+      <c r="X38" s="44" t="str">
+        <f>IF(X11="","",AVERAGE(X11:X34))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="45" t="str">
+        <f>IF(Y11="","",AVERAGE(Y11:Y34))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="45" t="str">
+        <f>IF(Z11="","",AVERAGE(Z11:Z34))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="44" t="str">
+        <f>IF(AA11="","",AVERAGE(AA11:AA34))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="44" t="str">
+        <f>IF(AB11="","",AVERAGE(AB11:AB34))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="44" t="str">
+        <f>IF(AC11="","",AVERAGE(AC11:AC34))</f>
+        <v/>
+      </c>
+      <c r="AD38" s="44" t="str">
+        <f>IF(AD11="","",AVERAGE(AD11:AD34))</f>
+        <v/>
+      </c>
+      <c r="AE38" s="44" t="str">
+        <f>IF(AE11="","",AVERAGE(AE11:AE34))</f>
+        <v/>
+      </c>
+      <c r="AF38" s="44" t="str">
+        <f>IF(AF11="","",AVERAGE(AF11:AF34))</f>
+        <v/>
+      </c>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="57"/>
     </row>
-    <row r="39" spans="2:37" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="65" t="s">
+    <row ht="149.25" customHeight="1" r="39">
+      <c r="B39" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="67" t="s">
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="57"/>
     </row>
-    <row r="40" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="B40" s="74" t="s">
+    <row ht="18" r="40">
+      <c r="B40" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="74" t="s">
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="76" t="s">
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="77"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="77"/>
-      <c r="AC40" s="78"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="73"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="63"/>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="64"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="69"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AG16"/>
-    <mergeCell ref="AG17:AK40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:S39"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="AD39:AF40"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="T2:AB2"/>
@@ -6587,483 +6798,507 @@
     <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AG16"/>
+    <mergeCell ref="AG17:AK40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="AD39:AF40"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="T40:AC40"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="59" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" priority="118" dxfId="0" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="58" priority="117" operator="lessThan">
+    <cfRule type="cellIs" priority="117" dxfId="1" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" priority="58" dxfId="2" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThan">
+    <cfRule type="cellIs" priority="57" dxfId="3" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" priority="56" dxfId="4" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThan">
+    <cfRule type="cellIs" priority="55" dxfId="5" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" priority="54" dxfId="6" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThan">
+    <cfRule type="cellIs" priority="53" dxfId="7" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" priority="52" dxfId="8" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
+    <cfRule type="cellIs" priority="51" dxfId="9" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" priority="50" dxfId="10" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
+    <cfRule type="cellIs" priority="49" dxfId="11" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" priority="48" dxfId="12" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
+    <cfRule type="cellIs" priority="47" dxfId="13" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" priority="46" dxfId="14" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+    <cfRule type="cellIs" priority="45" dxfId="15" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" priority="44" dxfId="16" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
+    <cfRule type="cellIs" priority="43" dxfId="17" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" priority="42" dxfId="18" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+    <cfRule type="cellIs" priority="41" dxfId="19" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="20" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+    <cfRule type="cellIs" priority="39" dxfId="21" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" priority="38" dxfId="22" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
+    <cfRule type="cellIs" priority="37" dxfId="23" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" priority="36" dxfId="24" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+    <cfRule type="cellIs" priority="35" dxfId="25" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" priority="34" dxfId="26" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" priority="33" dxfId="27" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" priority="32" dxfId="28" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" priority="31" dxfId="29" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" priority="30" dxfId="30" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" priority="29" dxfId="31" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" priority="28" dxfId="32" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" priority="27" dxfId="33" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" priority="26" dxfId="34" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" priority="25" dxfId="35" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="24" dxfId="36" operator="greaterThan">
       <formula>U$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U38">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" priority="23" dxfId="37" operator="lessThan">
       <formula>U$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" priority="22" dxfId="38" operator="greaterThan">
       <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V38">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+    <cfRule type="cellIs" priority="21" dxfId="39" operator="lessThan">
       <formula>V$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" priority="20" dxfId="40" operator="greaterThan">
       <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W38">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" priority="19" dxfId="41" operator="lessThan">
       <formula>W$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" priority="18" dxfId="42" operator="greaterThan">
       <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X38">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" priority="17" dxfId="43" operator="lessThan">
       <formula>X$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" priority="16" dxfId="44" operator="greaterThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" priority="15" dxfId="45" operator="lessThan">
       <formula>Y$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" priority="14" dxfId="46" operator="greaterThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" priority="13" dxfId="47" operator="lessThan">
       <formula>Z$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" priority="12" dxfId="48" operator="greaterThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" priority="11" dxfId="49" operator="lessThan">
       <formula>AA$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" priority="10" dxfId="50" operator="greaterThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" priority="9" dxfId="51" operator="lessThan">
       <formula>AB$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" priority="8" dxfId="52" operator="greaterThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" priority="7" dxfId="53" operator="lessThan">
       <formula>AC$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" priority="6" dxfId="54" operator="greaterThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" priority="5" dxfId="55" operator="lessThan">
       <formula>AD$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" priority="4" dxfId="56" operator="greaterThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" priority="3" dxfId="57" operator="lessThan">
       <formula>AE$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" dxfId="58" operator="greaterThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" priority="1" dxfId="59" operator="lessThan">
       <formula>AF$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="31" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row customFormat="1" ht="71.25" r="1" s="75">
+      <c r="A1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="77" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="12.25"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="20.5"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="22.625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="30.125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="20.5"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
